--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Herman/Documents/Consulting/Gail Simpson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2FB54-5B00-494D-BAA2-332674BDA2EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697105C-E3D4-BF4E-8CEF-7DB382D51463}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A9E06408-3EBC-224B-BA0B-07A232DADE1E}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="781">
   <si>
     <t>Patient ID</t>
   </si>
@@ -2156,6 +2156,273 @@
   </si>
   <si>
     <t>7=3=18</t>
+  </si>
+  <si>
+    <t>7=3=18 0000</t>
+  </si>
+  <si>
+    <t>7=3=18 1838</t>
+  </si>
+  <si>
+    <t>7=3=18 1309</t>
+  </si>
+  <si>
+    <t>AR114</t>
+  </si>
+  <si>
+    <t>7=2=18 1459</t>
+  </si>
+  <si>
+    <t>7=2=18 1714</t>
+  </si>
+  <si>
+    <t>7=2=18 2104</t>
+  </si>
+  <si>
+    <t>7=3=18 0108</t>
+  </si>
+  <si>
+    <t>7=3=18 0447</t>
+  </si>
+  <si>
+    <t>7=3=18 0859</t>
+  </si>
+  <si>
+    <t>7=3=18 1353</t>
+  </si>
+  <si>
+    <t>AJ115</t>
+  </si>
+  <si>
+    <t>7=3=18 1205</t>
+  </si>
+  <si>
+    <t>7=4=18 0828</t>
+  </si>
+  <si>
+    <t>7=3=18 2305</t>
+  </si>
+  <si>
+    <t>7=4=18 0003</t>
+  </si>
+  <si>
+    <t>7=4=18 0656</t>
+  </si>
+  <si>
+    <t>ST116</t>
+  </si>
+  <si>
+    <t>7=3=18 1700</t>
+  </si>
+  <si>
+    <t>7=3=18 1737</t>
+  </si>
+  <si>
+    <t>7=3=18 1905</t>
+  </si>
+  <si>
+    <t>7=3=18 2323</t>
+  </si>
+  <si>
+    <t>7=4=18 0222</t>
+  </si>
+  <si>
+    <t>7=4=18 0909</t>
+  </si>
+  <si>
+    <t>RF117</t>
+  </si>
+  <si>
+    <t>7=3=18 0740</t>
+  </si>
+  <si>
+    <t>7=4=18 0337</t>
+  </si>
+  <si>
+    <t>7=3=18 1549</t>
+  </si>
+  <si>
+    <t>7=3=18 2149</t>
+  </si>
+  <si>
+    <t>RD118</t>
+  </si>
+  <si>
+    <t>7=3=18 1136</t>
+  </si>
+  <si>
+    <t>7=4=18 0935</t>
+  </si>
+  <si>
+    <t>7=3=18 1213</t>
+  </si>
+  <si>
+    <t>7=3=18 1824</t>
+  </si>
+  <si>
+    <t>7=3=18 2237</t>
+  </si>
+  <si>
+    <t>7=4=18 0343</t>
+  </si>
+  <si>
+    <t>7=4=18 0824</t>
+  </si>
+  <si>
+    <t>MR119</t>
+  </si>
+  <si>
+    <t>7=4=18</t>
+  </si>
+  <si>
+    <t>7=4=18 0129</t>
+  </si>
+  <si>
+    <t>7=4=18 0517</t>
+  </si>
+  <si>
+    <t>7=4=18 1047</t>
+  </si>
+  <si>
+    <t>7=4=18 1623</t>
+  </si>
+  <si>
+    <t>7=4=18 2106</t>
+  </si>
+  <si>
+    <t>JA120</t>
+  </si>
+  <si>
+    <t>7=4=18 1401</t>
+  </si>
+  <si>
+    <t>7=5=18 0904</t>
+  </si>
+  <si>
+    <t>7=4=18 1939</t>
+  </si>
+  <si>
+    <t>IC121</t>
+  </si>
+  <si>
+    <t>7=5=18 0635</t>
+  </si>
+  <si>
+    <t>7=5=18 0900</t>
+  </si>
+  <si>
+    <t>7=5=18 1806</t>
+  </si>
+  <si>
+    <t>7=6=18 0010</t>
+  </si>
+  <si>
+    <t>7=6=18 0607</t>
+  </si>
+  <si>
+    <t>KB122</t>
+  </si>
+  <si>
+    <t>7=4=18 11025</t>
+  </si>
+  <si>
+    <t>7=5=18 0815</t>
+  </si>
+  <si>
+    <t>7=4=18 1733</t>
+  </si>
+  <si>
+    <t>7=4=18 1955</t>
+  </si>
+  <si>
+    <t>7=4=18 2341</t>
+  </si>
+  <si>
+    <t>7=6=18 1248</t>
+  </si>
+  <si>
+    <t>KA123</t>
+  </si>
+  <si>
+    <t>7=5=18 1430</t>
+  </si>
+  <si>
+    <t>7=5=18 1811</t>
+  </si>
+  <si>
+    <t>7=6=18 0057</t>
+  </si>
+  <si>
+    <t>7=6=18 0640</t>
+  </si>
+  <si>
+    <t>MT124</t>
+  </si>
+  <si>
+    <t>7=4=18 0505</t>
+  </si>
+  <si>
+    <t>7=5=18 0440</t>
+  </si>
+  <si>
+    <t>7=4=18 0902</t>
+  </si>
+  <si>
+    <t>7=4=18 1456</t>
+  </si>
+  <si>
+    <t>7=4=18 2111</t>
+  </si>
+  <si>
+    <t>JC125</t>
+  </si>
+  <si>
+    <t>7=4=18 1915</t>
+  </si>
+  <si>
+    <t>7=5=18 1325</t>
+  </si>
+  <si>
+    <t>7=5=18 0552</t>
+  </si>
+  <si>
+    <t>AR126</t>
+  </si>
+  <si>
+    <t>7=5=18 1200</t>
+  </si>
+  <si>
+    <t>7=6=18 0945</t>
+  </si>
+  <si>
+    <t>7=5=18 1248</t>
+  </si>
+  <si>
+    <t>7=5=18 2048</t>
+  </si>
+  <si>
+    <t>7=6=18 0318</t>
+  </si>
+  <si>
+    <t>KW127</t>
+  </si>
+  <si>
+    <t>7=6=18 0242</t>
+  </si>
+  <si>
+    <t>7=6=18 2202</t>
+  </si>
+  <si>
+    <t>7=6=18 0429</t>
+  </si>
+  <si>
+    <t>7=6=18 1002</t>
+  </si>
+  <si>
+    <t>7=6=18 1211</t>
+  </si>
+  <si>
+    <t>7=6=18 1617</t>
   </si>
 </sst>
 </file>
@@ -2585,8 +2852,8 @@
   <dimension ref="A1:P530"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D417" sqref="D417"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E482" sqref="E482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20926,7 +21193,34 @@
         <v>690</v>
       </c>
       <c r="C417" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="D417" t="s">
+        <v>693</v>
+      </c>
+      <c r="E417">
+        <v>30</v>
+      </c>
+      <c r="F417" t="s">
+        <v>14</v>
+      </c>
+      <c r="G417" t="s">
+        <v>15</v>
+      </c>
+      <c r="H417" t="s">
+        <v>694</v>
+      </c>
+      <c r="I417" t="s">
+        <v>252</v>
+      </c>
+      <c r="J417">
+        <v>800</v>
+      </c>
+      <c r="K417">
+        <v>6</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
       </c>
       <c r="P417" t="b">
         <f t="shared" si="12"/>
@@ -20936,11 +21230,44 @@
     <row r="418" spans="1:16">
       <c r="A418">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="B418" t="s">
+        <v>690</v>
+      </c>
+      <c r="C418" t="s">
+        <v>692</v>
+      </c>
+      <c r="D418" t="s">
+        <v>693</v>
+      </c>
+      <c r="E418">
+        <v>30</v>
+      </c>
+      <c r="F418" t="s">
+        <v>14</v>
+      </c>
+      <c r="G418" t="s">
+        <v>15</v>
+      </c>
+      <c r="H418" t="s">
+        <v>693</v>
+      </c>
+      <c r="I418" t="s">
+        <v>252</v>
+      </c>
+      <c r="J418">
+        <v>800</v>
+      </c>
+      <c r="K418">
+        <v>5</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
       </c>
       <c r="P418" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -20948,6 +21275,39 @@
         <f t="shared" si="13"/>
         <v>115</v>
       </c>
+      <c r="B419" t="s">
+        <v>695</v>
+      </c>
+      <c r="C419" t="s">
+        <v>696</v>
+      </c>
+      <c r="D419" t="s">
+        <v>691</v>
+      </c>
+      <c r="E419">
+        <v>27</v>
+      </c>
+      <c r="F419" t="s">
+        <v>14</v>
+      </c>
+      <c r="G419" t="s">
+        <v>31</v>
+      </c>
+      <c r="H419" t="s">
+        <v>697</v>
+      </c>
+      <c r="I419" t="s">
+        <v>271</v>
+      </c>
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419">
+        <v>5</v>
+      </c>
+      <c r="L419">
+        <v>3</v>
+      </c>
       <c r="P419" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -20958,6 +21318,39 @@
         <f t="shared" si="13"/>
         <v>115</v>
       </c>
+      <c r="B420" t="s">
+        <v>695</v>
+      </c>
+      <c r="C420" t="s">
+        <v>696</v>
+      </c>
+      <c r="D420" t="s">
+        <v>691</v>
+      </c>
+      <c r="E420">
+        <v>27</v>
+      </c>
+      <c r="F420" t="s">
+        <v>14</v>
+      </c>
+      <c r="G420" t="s">
+        <v>31</v>
+      </c>
+      <c r="H420" t="s">
+        <v>698</v>
+      </c>
+      <c r="I420" t="s">
+        <v>271</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420">
+        <v>4</v>
+      </c>
+      <c r="L420">
+        <v>2</v>
+      </c>
       <c r="P420" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -20968,6 +21361,39 @@
         <f t="shared" si="13"/>
         <v>115</v>
       </c>
+      <c r="B421" t="s">
+        <v>695</v>
+      </c>
+      <c r="C421" t="s">
+        <v>696</v>
+      </c>
+      <c r="D421" t="s">
+        <v>691</v>
+      </c>
+      <c r="E421">
+        <v>27</v>
+      </c>
+      <c r="F421" t="s">
+        <v>14</v>
+      </c>
+      <c r="G421" t="s">
+        <v>31</v>
+      </c>
+      <c r="H421" t="s">
+        <v>699</v>
+      </c>
+      <c r="I421" t="s">
+        <v>271</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421">
+        <v>2</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
       <c r="P421" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -20978,6 +21404,39 @@
         <f t="shared" si="13"/>
         <v>115</v>
       </c>
+      <c r="B422" t="s">
+        <v>695</v>
+      </c>
+      <c r="C422" t="s">
+        <v>696</v>
+      </c>
+      <c r="D422" t="s">
+        <v>691</v>
+      </c>
+      <c r="E422">
+        <v>27</v>
+      </c>
+      <c r="F422" t="s">
+        <v>14</v>
+      </c>
+      <c r="G422" t="s">
+        <v>31</v>
+      </c>
+      <c r="H422" t="s">
+        <v>700</v>
+      </c>
+      <c r="I422" t="s">
+        <v>271</v>
+      </c>
+      <c r="J422">
+        <v>2</v>
+      </c>
+      <c r="K422">
+        <v>5</v>
+      </c>
+      <c r="L422">
+        <v>4</v>
+      </c>
       <c r="P422" t="b">
         <f t="shared" ref="P422:P485" si="14">ISODD(A422)</f>
         <v>1</v>
@@ -20988,6 +21447,39 @@
         <f t="shared" si="13"/>
         <v>115</v>
       </c>
+      <c r="B423" t="s">
+        <v>695</v>
+      </c>
+      <c r="C423" t="s">
+        <v>696</v>
+      </c>
+      <c r="D423" t="s">
+        <v>691</v>
+      </c>
+      <c r="E423">
+        <v>27</v>
+      </c>
+      <c r="F423" t="s">
+        <v>14</v>
+      </c>
+      <c r="G423" t="s">
+        <v>31</v>
+      </c>
+      <c r="H423" t="s">
+        <v>701</v>
+      </c>
+      <c r="I423" t="s">
+        <v>271</v>
+      </c>
+      <c r="J423">
+        <v>2</v>
+      </c>
+      <c r="K423">
+        <v>6</v>
+      </c>
+      <c r="L423">
+        <v>1</v>
+      </c>
       <c r="P423" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -20998,6 +21490,39 @@
         <f t="shared" si="13"/>
         <v>115</v>
       </c>
+      <c r="B424" t="s">
+        <v>695</v>
+      </c>
+      <c r="C424" t="s">
+        <v>696</v>
+      </c>
+      <c r="D424" t="s">
+        <v>691</v>
+      </c>
+      <c r="E424">
+        <v>27</v>
+      </c>
+      <c r="F424" t="s">
+        <v>14</v>
+      </c>
+      <c r="G424" t="s">
+        <v>31</v>
+      </c>
+      <c r="H424" t="s">
+        <v>702</v>
+      </c>
+      <c r="I424" t="s">
+        <v>271</v>
+      </c>
+      <c r="J424">
+        <v>2</v>
+      </c>
+      <c r="K424">
+        <v>6</v>
+      </c>
+      <c r="L424">
+        <v>1</v>
+      </c>
       <c r="P424" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -21006,47 +21531,212 @@
     <row r="425" spans="1:16">
       <c r="A425">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B425" t="s">
+        <v>703</v>
+      </c>
+      <c r="C425" t="s">
+        <v>704</v>
+      </c>
+      <c r="D425" t="s">
+        <v>705</v>
+      </c>
+      <c r="E425">
+        <v>37</v>
+      </c>
+      <c r="F425" t="s">
+        <v>251</v>
+      </c>
+      <c r="G425" t="s">
+        <v>31</v>
+      </c>
+      <c r="H425" t="s">
+        <v>706</v>
+      </c>
+      <c r="I425" t="s">
+        <v>271</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425">
+        <v>6</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
       </c>
       <c r="P425" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:16">
       <c r="A426">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B426" t="s">
+        <v>703</v>
+      </c>
+      <c r="C426" t="s">
+        <v>704</v>
+      </c>
+      <c r="D426" t="s">
+        <v>705</v>
+      </c>
+      <c r="E426">
+        <v>37</v>
+      </c>
+      <c r="F426" t="s">
+        <v>251</v>
+      </c>
+      <c r="G426" t="s">
+        <v>31</v>
+      </c>
+      <c r="H426" t="s">
+        <v>707</v>
+      </c>
+      <c r="I426" t="s">
+        <v>263</v>
+      </c>
+      <c r="J426">
+        <v>30</v>
+      </c>
+      <c r="K426">
+        <v>3</v>
+      </c>
+      <c r="L426">
+        <v>4</v>
       </c>
       <c r="P426" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:16">
       <c r="A427">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B427" t="s">
+        <v>703</v>
+      </c>
+      <c r="C427" t="s">
+        <v>704</v>
+      </c>
+      <c r="D427" t="s">
+        <v>705</v>
+      </c>
+      <c r="E427">
+        <v>37</v>
+      </c>
+      <c r="F427" t="s">
+        <v>251</v>
+      </c>
+      <c r="G427" t="s">
+        <v>31</v>
+      </c>
+      <c r="H427" t="s">
+        <v>708</v>
+      </c>
+      <c r="I427" t="s">
+        <v>263</v>
+      </c>
+      <c r="J427">
+        <v>30</v>
+      </c>
+      <c r="K427">
+        <v>4</v>
+      </c>
+      <c r="L427">
+        <v>6</v>
       </c>
       <c r="P427" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:16">
       <c r="A428">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B428" t="s">
+        <v>703</v>
+      </c>
+      <c r="C428" t="s">
+        <v>704</v>
+      </c>
+      <c r="D428" t="s">
+        <v>705</v>
+      </c>
+      <c r="E428">
+        <v>37</v>
+      </c>
+      <c r="F428" t="s">
+        <v>251</v>
+      </c>
+      <c r="G428" t="s">
+        <v>31</v>
+      </c>
+      <c r="H428" t="s">
+        <v>705</v>
+      </c>
+      <c r="I428" t="s">
+        <v>271</v>
+      </c>
+      <c r="J428">
+        <v>1</v>
+      </c>
+      <c r="K428">
+        <v>6</v>
+      </c>
+      <c r="L428">
+        <v>2</v>
       </c>
       <c r="P428" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:16">
       <c r="A429">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B429" t="s">
+        <v>709</v>
+      </c>
+      <c r="C429" t="s">
+        <v>710</v>
+      </c>
+      <c r="D429" t="s">
+        <v>287</v>
+      </c>
+      <c r="E429">
+        <v>28</v>
+      </c>
+      <c r="F429" t="s">
+        <v>14</v>
+      </c>
+      <c r="G429" t="s">
+        <v>15</v>
+      </c>
+      <c r="H429" t="s">
+        <v>711</v>
+      </c>
+      <c r="I429" t="s">
+        <v>252</v>
+      </c>
+      <c r="J429">
+        <v>800</v>
+      </c>
+      <c r="K429">
+        <v>7</v>
+      </c>
+      <c r="L429">
+        <v>1</v>
       </c>
       <c r="P429" t="b">
         <f t="shared" si="14"/>
@@ -21056,7 +21746,40 @@
     <row r="430" spans="1:16">
       <c r="A430">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B430" t="s">
+        <v>709</v>
+      </c>
+      <c r="C430" t="s">
+        <v>710</v>
+      </c>
+      <c r="D430" t="s">
+        <v>287</v>
+      </c>
+      <c r="E430">
+        <v>28</v>
+      </c>
+      <c r="F430" t="s">
+        <v>14</v>
+      </c>
+      <c r="G430" t="s">
+        <v>15</v>
+      </c>
+      <c r="H430" t="s">
+        <v>712</v>
+      </c>
+      <c r="I430" t="s">
+        <v>271</v>
+      </c>
+      <c r="J430">
+        <v>1</v>
+      </c>
+      <c r="K430">
+        <v>4</v>
+      </c>
+      <c r="L430">
+        <v>1</v>
       </c>
       <c r="P430" t="b">
         <f t="shared" si="14"/>
@@ -21066,7 +21789,40 @@
     <row r="431" spans="1:16">
       <c r="A431">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B431" t="s">
+        <v>709</v>
+      </c>
+      <c r="C431" t="s">
+        <v>710</v>
+      </c>
+      <c r="D431" t="s">
+        <v>287</v>
+      </c>
+      <c r="E431">
+        <v>28</v>
+      </c>
+      <c r="F431" t="s">
+        <v>14</v>
+      </c>
+      <c r="G431" t="s">
+        <v>15</v>
+      </c>
+      <c r="H431" t="s">
+        <v>713</v>
+      </c>
+      <c r="I431" t="s">
+        <v>271</v>
+      </c>
+      <c r="J431">
+        <v>1</v>
+      </c>
+      <c r="K431">
+        <v>3</v>
+      </c>
+      <c r="L431">
+        <v>2</v>
       </c>
       <c r="P431" t="b">
         <f t="shared" si="14"/>
@@ -21076,7 +21832,40 @@
     <row r="432" spans="1:16">
       <c r="A432">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B432" t="s">
+        <v>709</v>
+      </c>
+      <c r="C432" t="s">
+        <v>710</v>
+      </c>
+      <c r="D432" t="s">
+        <v>287</v>
+      </c>
+      <c r="E432">
+        <v>28</v>
+      </c>
+      <c r="F432" t="s">
+        <v>14</v>
+      </c>
+      <c r="G432" t="s">
+        <v>15</v>
+      </c>
+      <c r="H432" t="s">
+        <v>713</v>
+      </c>
+      <c r="I432" t="s">
+        <v>252</v>
+      </c>
+      <c r="J432">
+        <v>800</v>
+      </c>
+      <c r="K432">
+        <v>3</v>
+      </c>
+      <c r="L432">
+        <v>2</v>
       </c>
       <c r="P432" t="b">
         <f t="shared" si="14"/>
@@ -21086,7 +21875,40 @@
     <row r="433" spans="1:16">
       <c r="A433">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B433" t="s">
+        <v>709</v>
+      </c>
+      <c r="C433" t="s">
+        <v>710</v>
+      </c>
+      <c r="D433" t="s">
+        <v>287</v>
+      </c>
+      <c r="E433">
+        <v>28</v>
+      </c>
+      <c r="F433" t="s">
+        <v>14</v>
+      </c>
+      <c r="G433" t="s">
+        <v>15</v>
+      </c>
+      <c r="H433" t="s">
+        <v>714</v>
+      </c>
+      <c r="I433" t="s">
+        <v>271</v>
+      </c>
+      <c r="J433">
+        <v>1</v>
+      </c>
+      <c r="K433">
+        <v>5</v>
+      </c>
+      <c r="L433">
+        <v>2</v>
       </c>
       <c r="P433" t="b">
         <f t="shared" si="14"/>
@@ -21096,7 +21918,40 @@
     <row r="434" spans="1:16">
       <c r="A434">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B434" t="s">
+        <v>709</v>
+      </c>
+      <c r="C434" t="s">
+        <v>710</v>
+      </c>
+      <c r="D434" t="s">
+        <v>287</v>
+      </c>
+      <c r="E434">
+        <v>28</v>
+      </c>
+      <c r="F434" t="s">
+        <v>14</v>
+      </c>
+      <c r="G434" t="s">
+        <v>15</v>
+      </c>
+      <c r="H434" t="s">
+        <v>715</v>
+      </c>
+      <c r="I434" t="s">
+        <v>252</v>
+      </c>
+      <c r="J434">
+        <v>800</v>
+      </c>
+      <c r="K434">
+        <v>4</v>
+      </c>
+      <c r="L434">
+        <v>2</v>
       </c>
       <c r="P434" t="b">
         <f t="shared" si="14"/>
@@ -21106,37 +21961,169 @@
     <row r="435" spans="1:16">
       <c r="A435">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B435" t="s">
+        <v>716</v>
+      </c>
+      <c r="C435" t="s">
+        <v>717</v>
+      </c>
+      <c r="D435" t="s">
+        <v>718</v>
+      </c>
+      <c r="E435">
+        <v>34</v>
+      </c>
+      <c r="F435" t="s">
+        <v>14</v>
+      </c>
+      <c r="G435" t="s">
+        <v>15</v>
+      </c>
+      <c r="H435" t="s">
+        <v>719</v>
+      </c>
+      <c r="I435" t="s">
+        <v>252</v>
+      </c>
+      <c r="J435">
+        <v>800</v>
+      </c>
+      <c r="K435">
+        <v>2</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
       </c>
       <c r="P435" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:16">
       <c r="A436">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B436" t="s">
+        <v>716</v>
+      </c>
+      <c r="C436" t="s">
+        <v>717</v>
+      </c>
+      <c r="D436" t="s">
+        <v>718</v>
+      </c>
+      <c r="E436">
+        <v>34</v>
+      </c>
+      <c r="F436" t="s">
+        <v>14</v>
+      </c>
+      <c r="G436" t="s">
+        <v>15</v>
+      </c>
+      <c r="H436" t="s">
+        <v>720</v>
+      </c>
+      <c r="I436" t="s">
+        <v>252</v>
+      </c>
+      <c r="J436">
+        <v>800</v>
+      </c>
+      <c r="K436">
+        <v>3</v>
+      </c>
+      <c r="L436">
+        <v>2</v>
       </c>
       <c r="P436" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:16">
       <c r="A437">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B437" t="s">
+        <v>716</v>
+      </c>
+      <c r="C437" t="s">
+        <v>717</v>
+      </c>
+      <c r="D437" t="s">
+        <v>718</v>
+      </c>
+      <c r="E437">
+        <v>34</v>
+      </c>
+      <c r="F437" t="s">
+        <v>14</v>
+      </c>
+      <c r="G437" t="s">
+        <v>15</v>
+      </c>
+      <c r="H437" t="s">
+        <v>718</v>
+      </c>
+      <c r="I437" t="s">
+        <v>252</v>
+      </c>
+      <c r="J437">
+        <v>800</v>
+      </c>
+      <c r="K437" t="s">
+        <v>287</v>
+      </c>
+      <c r="L437" t="s">
+        <v>287</v>
       </c>
       <c r="P437" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:16">
       <c r="A438">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B438" t="s">
+        <v>721</v>
+      </c>
+      <c r="C438" t="s">
+        <v>722</v>
+      </c>
+      <c r="D438" t="s">
+        <v>723</v>
+      </c>
+      <c r="E438">
+        <v>39</v>
+      </c>
+      <c r="F438" t="s">
+        <v>122</v>
+      </c>
+      <c r="G438" t="s">
+        <v>31</v>
+      </c>
+      <c r="H438" t="s">
+        <v>724</v>
+      </c>
+      <c r="I438" t="s">
+        <v>252</v>
+      </c>
+      <c r="J438">
+        <v>800</v>
+      </c>
+      <c r="K438">
+        <v>6</v>
+      </c>
+      <c r="L438">
+        <v>2</v>
       </c>
       <c r="P438" t="b">
         <f t="shared" si="14"/>
@@ -21146,7 +22133,40 @@
     <row r="439" spans="1:16">
       <c r="A439">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B439" t="s">
+        <v>721</v>
+      </c>
+      <c r="C439" t="s">
+        <v>722</v>
+      </c>
+      <c r="D439" t="s">
+        <v>723</v>
+      </c>
+      <c r="E439">
+        <v>39</v>
+      </c>
+      <c r="F439" t="s">
+        <v>122</v>
+      </c>
+      <c r="G439" t="s">
+        <v>31</v>
+      </c>
+      <c r="H439" t="s">
+        <v>724</v>
+      </c>
+      <c r="I439" t="s">
+        <v>271</v>
+      </c>
+      <c r="J439">
+        <v>2</v>
+      </c>
+      <c r="K439">
+        <v>6</v>
+      </c>
+      <c r="L439">
+        <v>2</v>
       </c>
       <c r="P439" t="b">
         <f t="shared" si="14"/>
@@ -21156,7 +22176,40 @@
     <row r="440" spans="1:16">
       <c r="A440">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B440" t="s">
+        <v>721</v>
+      </c>
+      <c r="C440" t="s">
+        <v>722</v>
+      </c>
+      <c r="D440" t="s">
+        <v>723</v>
+      </c>
+      <c r="E440">
+        <v>39</v>
+      </c>
+      <c r="F440" t="s">
+        <v>122</v>
+      </c>
+      <c r="G440" t="s">
+        <v>31</v>
+      </c>
+      <c r="H440" t="s">
+        <v>725</v>
+      </c>
+      <c r="I440" t="s">
+        <v>252</v>
+      </c>
+      <c r="J440">
+        <v>800</v>
+      </c>
+      <c r="K440">
+        <v>7</v>
+      </c>
+      <c r="L440">
+        <v>3</v>
       </c>
       <c r="P440" t="b">
         <f t="shared" si="14"/>
@@ -21166,7 +22219,40 @@
     <row r="441" spans="1:16">
       <c r="A441">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B441" t="s">
+        <v>721</v>
+      </c>
+      <c r="C441" t="s">
+        <v>722</v>
+      </c>
+      <c r="D441" t="s">
+        <v>723</v>
+      </c>
+      <c r="E441">
+        <v>39</v>
+      </c>
+      <c r="F441" t="s">
+        <v>122</v>
+      </c>
+      <c r="G441" t="s">
+        <v>31</v>
+      </c>
+      <c r="H441" t="s">
+        <v>725</v>
+      </c>
+      <c r="I441" t="s">
+        <v>271</v>
+      </c>
+      <c r="J441">
+        <v>2</v>
+      </c>
+      <c r="K441">
+        <v>7</v>
+      </c>
+      <c r="L441">
+        <v>3</v>
       </c>
       <c r="P441" t="b">
         <f t="shared" si="14"/>
@@ -21176,7 +22262,40 @@
     <row r="442" spans="1:16">
       <c r="A442">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B442" t="s">
+        <v>721</v>
+      </c>
+      <c r="C442" t="s">
+        <v>722</v>
+      </c>
+      <c r="D442" t="s">
+        <v>723</v>
+      </c>
+      <c r="E442">
+        <v>39</v>
+      </c>
+      <c r="F442" t="s">
+        <v>122</v>
+      </c>
+      <c r="G442" t="s">
+        <v>31</v>
+      </c>
+      <c r="H442" t="s">
+        <v>726</v>
+      </c>
+      <c r="I442" t="s">
+        <v>271</v>
+      </c>
+      <c r="J442">
+        <v>2</v>
+      </c>
+      <c r="K442">
+        <v>7</v>
+      </c>
+      <c r="L442">
+        <v>3</v>
       </c>
       <c r="P442" t="b">
         <f t="shared" si="14"/>
@@ -21186,7 +22305,40 @@
     <row r="443" spans="1:16">
       <c r="A443">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B443" t="s">
+        <v>721</v>
+      </c>
+      <c r="C443" t="s">
+        <v>722</v>
+      </c>
+      <c r="D443" t="s">
+        <v>723</v>
+      </c>
+      <c r="E443">
+        <v>39</v>
+      </c>
+      <c r="F443" t="s">
+        <v>122</v>
+      </c>
+      <c r="G443" t="s">
+        <v>31</v>
+      </c>
+      <c r="H443" t="s">
+        <v>727</v>
+      </c>
+      <c r="I443" t="s">
+        <v>252</v>
+      </c>
+      <c r="J443">
+        <v>800</v>
+      </c>
+      <c r="K443">
+        <v>7</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
       </c>
       <c r="P443" t="b">
         <f t="shared" si="14"/>
@@ -21196,7 +22348,40 @@
     <row r="444" spans="1:16">
       <c r="A444">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B444" t="s">
+        <v>721</v>
+      </c>
+      <c r="C444" t="s">
+        <v>722</v>
+      </c>
+      <c r="D444" t="s">
+        <v>723</v>
+      </c>
+      <c r="E444">
+        <v>39</v>
+      </c>
+      <c r="F444" t="s">
+        <v>122</v>
+      </c>
+      <c r="G444" t="s">
+        <v>31</v>
+      </c>
+      <c r="H444" t="s">
+        <v>727</v>
+      </c>
+      <c r="I444" t="s">
+        <v>271</v>
+      </c>
+      <c r="J444">
+        <v>2</v>
+      </c>
+      <c r="K444">
+        <v>7</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
       </c>
       <c r="P444" t="b">
         <f t="shared" si="14"/>
@@ -21206,7 +22391,40 @@
     <row r="445" spans="1:16">
       <c r="A445">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B445" t="s">
+        <v>721</v>
+      </c>
+      <c r="C445" t="s">
+        <v>722</v>
+      </c>
+      <c r="D445" t="s">
+        <v>723</v>
+      </c>
+      <c r="E445">
+        <v>39</v>
+      </c>
+      <c r="F445" t="s">
+        <v>122</v>
+      </c>
+      <c r="G445" t="s">
+        <v>31</v>
+      </c>
+      <c r="H445" t="s">
+        <v>728</v>
+      </c>
+      <c r="I445" t="s">
+        <v>271</v>
+      </c>
+      <c r="J445">
+        <v>2</v>
+      </c>
+      <c r="K445">
+        <v>5</v>
+      </c>
+      <c r="L445">
+        <v>5</v>
       </c>
       <c r="P445" t="b">
         <f t="shared" si="14"/>
@@ -21216,7 +22434,40 @@
     <row r="446" spans="1:16">
       <c r="A446">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B446" t="s">
+        <v>721</v>
+      </c>
+      <c r="C446" t="s">
+        <v>722</v>
+      </c>
+      <c r="D446" t="s">
+        <v>723</v>
+      </c>
+      <c r="E446">
+        <v>39</v>
+      </c>
+      <c r="F446" t="s">
+        <v>122</v>
+      </c>
+      <c r="G446" t="s">
+        <v>31</v>
+      </c>
+      <c r="H446" t="s">
+        <v>723</v>
+      </c>
+      <c r="I446" t="s">
+        <v>252</v>
+      </c>
+      <c r="J446">
+        <v>800</v>
+      </c>
+      <c r="K446">
+        <v>5</v>
+      </c>
+      <c r="L446">
+        <v>5</v>
       </c>
       <c r="P446" t="b">
         <f t="shared" si="14"/>
@@ -21226,67 +22477,298 @@
     <row r="447" spans="1:16">
       <c r="A447">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B447" t="s">
+        <v>729</v>
+      </c>
+      <c r="C447" t="s">
+        <v>706</v>
+      </c>
+      <c r="D447" t="s">
+        <v>730</v>
+      </c>
+      <c r="E447">
+        <v>44</v>
+      </c>
+      <c r="F447" t="s">
+        <v>14</v>
+      </c>
+      <c r="G447" t="s">
+        <v>31</v>
+      </c>
+      <c r="H447" t="s">
+        <v>731</v>
+      </c>
+      <c r="I447" t="s">
+        <v>277</v>
+      </c>
+      <c r="J447">
+        <v>1000</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
       </c>
       <c r="P447" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:16">
       <c r="A448">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B448" t="s">
+        <v>729</v>
+      </c>
+      <c r="C448" t="s">
+        <v>706</v>
+      </c>
+      <c r="D448" t="s">
+        <v>730</v>
+      </c>
+      <c r="E448">
+        <v>44</v>
+      </c>
+      <c r="F448" t="s">
+        <v>14</v>
+      </c>
+      <c r="G448" t="s">
+        <v>31</v>
+      </c>
+      <c r="H448" t="s">
+        <v>732</v>
+      </c>
+      <c r="I448" t="s">
+        <v>263</v>
+      </c>
+      <c r="J448">
+        <v>30</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
       </c>
       <c r="P448" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:16">
       <c r="A449">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B449" t="s">
+        <v>729</v>
+      </c>
+      <c r="C449" t="s">
+        <v>706</v>
+      </c>
+      <c r="D449" t="s">
+        <v>730</v>
+      </c>
+      <c r="E449">
+        <v>44</v>
+      </c>
+      <c r="F449" t="s">
+        <v>14</v>
+      </c>
+      <c r="G449" t="s">
+        <v>31</v>
+      </c>
+      <c r="H449" t="s">
+        <v>733</v>
+      </c>
+      <c r="I449" t="s">
+        <v>263</v>
+      </c>
+      <c r="J449">
+        <v>30</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
       </c>
       <c r="P449" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:16">
       <c r="A450">
         <f t="shared" ref="A450:A513" si="15">IF(ROW()=2,1,IF(B450=B449,A449,A449+1))</f>
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B450" t="s">
+        <v>729</v>
+      </c>
+      <c r="C450" t="s">
+        <v>706</v>
+      </c>
+      <c r="D450" t="s">
+        <v>730</v>
+      </c>
+      <c r="E450">
+        <v>44</v>
+      </c>
+      <c r="F450" t="s">
+        <v>14</v>
+      </c>
+      <c r="G450" t="s">
+        <v>31</v>
+      </c>
+      <c r="H450" t="s">
+        <v>734</v>
+      </c>
+      <c r="I450" t="s">
+        <v>263</v>
+      </c>
+      <c r="J450">
+        <v>30</v>
+      </c>
+      <c r="K450">
+        <v>3</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
       </c>
       <c r="P450" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B451" t="s">
+        <v>729</v>
+      </c>
+      <c r="C451" t="s">
+        <v>706</v>
+      </c>
+      <c r="D451" t="s">
+        <v>730</v>
+      </c>
+      <c r="E451">
+        <v>44</v>
+      </c>
+      <c r="F451" t="s">
+        <v>14</v>
+      </c>
+      <c r="G451" t="s">
+        <v>31</v>
+      </c>
+      <c r="H451" t="s">
+        <v>735</v>
+      </c>
+      <c r="I451" t="s">
+        <v>277</v>
+      </c>
+      <c r="J451">
+        <v>650</v>
+      </c>
+      <c r="K451">
+        <v>7</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
       </c>
       <c r="P451" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="B452" t="s">
+        <v>729</v>
+      </c>
+      <c r="C452" t="s">
+        <v>706</v>
+      </c>
+      <c r="D452" t="s">
+        <v>730</v>
+      </c>
+      <c r="E452">
+        <v>44</v>
+      </c>
+      <c r="F452" t="s">
+        <v>14</v>
+      </c>
+      <c r="G452" t="s">
+        <v>31</v>
+      </c>
+      <c r="H452" t="s">
+        <v>735</v>
+      </c>
+      <c r="I452" t="s">
+        <v>263</v>
+      </c>
+      <c r="J452">
+        <v>30</v>
+      </c>
+      <c r="K452">
+        <v>7</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
       </c>
       <c r="P452" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="B453" t="s">
+        <v>736</v>
+      </c>
+      <c r="C453" t="s">
+        <v>737</v>
+      </c>
+      <c r="D453" t="s">
+        <v>738</v>
+      </c>
+      <c r="E453">
+        <v>35</v>
+      </c>
+      <c r="F453" t="s">
+        <v>14</v>
+      </c>
+      <c r="G453" t="s">
+        <v>15</v>
+      </c>
+      <c r="H453" t="s">
+        <v>739</v>
+      </c>
+      <c r="I453" t="s">
+        <v>252</v>
+      </c>
+      <c r="J453">
+        <v>800</v>
+      </c>
+      <c r="K453">
+        <v>4</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
       </c>
       <c r="P453" t="b">
         <f t="shared" si="14"/>
@@ -21296,7 +22778,40 @@
     <row r="454" spans="1:16">
       <c r="A454">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="B454" t="s">
+        <v>736</v>
+      </c>
+      <c r="C454" t="s">
+        <v>737</v>
+      </c>
+      <c r="D454" t="s">
+        <v>738</v>
+      </c>
+      <c r="E454">
+        <v>35</v>
+      </c>
+      <c r="F454" t="s">
+        <v>14</v>
+      </c>
+      <c r="G454" t="s">
+        <v>15</v>
+      </c>
+      <c r="H454" t="s">
+        <v>714</v>
+      </c>
+      <c r="I454" t="s">
+        <v>252</v>
+      </c>
+      <c r="J454">
+        <v>800</v>
+      </c>
+      <c r="K454">
+        <v>5</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
       </c>
       <c r="P454" t="b">
         <f t="shared" si="14"/>
@@ -21306,7 +22821,40 @@
     <row r="455" spans="1:16">
       <c r="A455">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="B455" t="s">
+        <v>736</v>
+      </c>
+      <c r="C455" t="s">
+        <v>737</v>
+      </c>
+      <c r="D455" t="s">
+        <v>738</v>
+      </c>
+      <c r="E455">
+        <v>35</v>
+      </c>
+      <c r="F455" t="s">
+        <v>14</v>
+      </c>
+      <c r="G455" t="s">
+        <v>15</v>
+      </c>
+      <c r="H455" t="s">
+        <v>738</v>
+      </c>
+      <c r="I455" t="s">
+        <v>252</v>
+      </c>
+      <c r="J455">
+        <v>800</v>
+      </c>
+      <c r="K455">
+        <v>5</v>
+      </c>
+      <c r="L455">
+        <v>0</v>
       </c>
       <c r="P455" t="b">
         <f t="shared" si="14"/>
@@ -21316,7 +22864,40 @@
     <row r="456" spans="1:16">
       <c r="A456">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="B456" t="s">
+        <v>736</v>
+      </c>
+      <c r="C456" t="s">
+        <v>737</v>
+      </c>
+      <c r="D456" t="s">
+        <v>738</v>
+      </c>
+      <c r="E456">
+        <v>35</v>
+      </c>
+      <c r="F456" t="s">
+        <v>14</v>
+      </c>
+      <c r="G456" t="s">
+        <v>15</v>
+      </c>
+      <c r="H456" t="s">
+        <v>738</v>
+      </c>
+      <c r="I456" t="s">
+        <v>271</v>
+      </c>
+      <c r="J456">
+        <v>1</v>
+      </c>
+      <c r="K456">
+        <v>5</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
       </c>
       <c r="P456" t="b">
         <f t="shared" si="14"/>
@@ -21326,47 +22907,212 @@
     <row r="457" spans="1:16">
       <c r="A457">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="B457" t="s">
+        <v>740</v>
+      </c>
+      <c r="C457" t="s">
+        <v>741</v>
+      </c>
+      <c r="D457" t="s">
+        <v>287</v>
+      </c>
+      <c r="E457">
+        <v>34</v>
+      </c>
+      <c r="F457" t="s">
+        <v>251</v>
+      </c>
+      <c r="G457" t="s">
+        <v>15</v>
+      </c>
+      <c r="H457" t="s">
+        <v>742</v>
+      </c>
+      <c r="I457" t="s">
+        <v>252</v>
+      </c>
+      <c r="J457">
+        <v>800</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
       </c>
       <c r="P457" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="B458" t="s">
+        <v>740</v>
+      </c>
+      <c r="C458" t="s">
+        <v>741</v>
+      </c>
+      <c r="D458" t="s">
+        <v>287</v>
+      </c>
+      <c r="E458">
+        <v>34</v>
+      </c>
+      <c r="F458" t="s">
+        <v>251</v>
+      </c>
+      <c r="G458" t="s">
+        <v>15</v>
+      </c>
+      <c r="H458" t="s">
+        <v>743</v>
+      </c>
+      <c r="I458" t="s">
+        <v>252</v>
+      </c>
+      <c r="J458">
+        <v>800</v>
+      </c>
+      <c r="K458">
+        <v>2</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
       </c>
       <c r="P458" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:16">
       <c r="A459">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="B459" t="s">
+        <v>740</v>
+      </c>
+      <c r="C459" t="s">
+        <v>741</v>
+      </c>
+      <c r="D459" t="s">
+        <v>287</v>
+      </c>
+      <c r="E459">
+        <v>34</v>
+      </c>
+      <c r="F459" t="s">
+        <v>251</v>
+      </c>
+      <c r="G459" t="s">
+        <v>15</v>
+      </c>
+      <c r="H459" t="s">
+        <v>744</v>
+      </c>
+      <c r="I459" t="s">
+        <v>252</v>
+      </c>
+      <c r="J459">
+        <v>800</v>
+      </c>
+      <c r="K459">
+        <v>2</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
       </c>
       <c r="P459" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:16">
       <c r="A460">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="B460" t="s">
+        <v>740</v>
+      </c>
+      <c r="C460" t="s">
+        <v>741</v>
+      </c>
+      <c r="D460" t="s">
+        <v>287</v>
+      </c>
+      <c r="E460">
+        <v>34</v>
+      </c>
+      <c r="F460" t="s">
+        <v>251</v>
+      </c>
+      <c r="G460" t="s">
+        <v>15</v>
+      </c>
+      <c r="H460" t="s">
+        <v>745</v>
+      </c>
+      <c r="I460" t="s">
+        <v>252</v>
+      </c>
+      <c r="J460">
+        <v>800</v>
+      </c>
+      <c r="K460">
+        <v>2</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
       </c>
       <c r="P460" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:16">
       <c r="A461">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="B461" t="s">
+        <v>746</v>
+      </c>
+      <c r="C461" t="s">
+        <v>747</v>
+      </c>
+      <c r="D461" t="s">
+        <v>748</v>
+      </c>
+      <c r="E461">
+        <v>27</v>
+      </c>
+      <c r="F461" t="s">
+        <v>251</v>
+      </c>
+      <c r="G461" t="s">
+        <v>15</v>
+      </c>
+      <c r="H461" t="s">
+        <v>749</v>
+      </c>
+      <c r="I461" t="s">
+        <v>252</v>
+      </c>
+      <c r="J461">
+        <v>800</v>
+      </c>
+      <c r="K461">
+        <v>5</v>
+      </c>
+      <c r="L461">
+        <v>4</v>
       </c>
       <c r="P461" t="b">
         <f t="shared" si="14"/>
@@ -21376,7 +23122,40 @@
     <row r="462" spans="1:16">
       <c r="A462">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="B462" t="s">
+        <v>746</v>
+      </c>
+      <c r="C462" t="s">
+        <v>747</v>
+      </c>
+      <c r="D462" t="s">
+        <v>748</v>
+      </c>
+      <c r="E462">
+        <v>27</v>
+      </c>
+      <c r="F462" t="s">
+        <v>251</v>
+      </c>
+      <c r="G462" t="s">
+        <v>15</v>
+      </c>
+      <c r="H462" t="s">
+        <v>750</v>
+      </c>
+      <c r="I462" t="s">
+        <v>271</v>
+      </c>
+      <c r="J462">
+        <v>2</v>
+      </c>
+      <c r="K462">
+        <v>9</v>
+      </c>
+      <c r="L462">
+        <v>1</v>
       </c>
       <c r="P462" t="b">
         <f t="shared" si="14"/>
@@ -21386,7 +23165,40 @@
     <row r="463" spans="1:16">
       <c r="A463">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="B463" t="s">
+        <v>746</v>
+      </c>
+      <c r="C463" t="s">
+        <v>747</v>
+      </c>
+      <c r="D463" t="s">
+        <v>748</v>
+      </c>
+      <c r="E463">
+        <v>27</v>
+      </c>
+      <c r="F463" t="s">
+        <v>251</v>
+      </c>
+      <c r="G463" t="s">
+        <v>15</v>
+      </c>
+      <c r="H463" t="s">
+        <v>751</v>
+      </c>
+      <c r="I463" t="s">
+        <v>252</v>
+      </c>
+      <c r="J463">
+        <v>800</v>
+      </c>
+      <c r="K463">
+        <v>7</v>
+      </c>
+      <c r="L463">
+        <v>1</v>
       </c>
       <c r="P463" t="b">
         <f t="shared" si="14"/>
@@ -21396,7 +23208,40 @@
     <row r="464" spans="1:16">
       <c r="A464">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="B464" t="s">
+        <v>746</v>
+      </c>
+      <c r="C464" t="s">
+        <v>747</v>
+      </c>
+      <c r="D464" t="s">
+        <v>748</v>
+      </c>
+      <c r="E464">
+        <v>27</v>
+      </c>
+      <c r="F464" t="s">
+        <v>251</v>
+      </c>
+      <c r="G464" t="s">
+        <v>15</v>
+      </c>
+      <c r="H464" t="s">
+        <v>748</v>
+      </c>
+      <c r="I464" t="s">
+        <v>252</v>
+      </c>
+      <c r="J464">
+        <v>800</v>
+      </c>
+      <c r="K464">
+        <v>3</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
       </c>
       <c r="P464" t="b">
         <f t="shared" si="14"/>
@@ -21406,47 +23251,212 @@
     <row r="465" spans="1:16">
       <c r="A465">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="B465" t="s">
+        <v>753</v>
+      </c>
+      <c r="C465" t="s">
+        <v>754</v>
+      </c>
+      <c r="D465" t="s">
+        <v>752</v>
+      </c>
+      <c r="E465">
+        <v>31</v>
+      </c>
+      <c r="F465" t="s">
+        <v>14</v>
+      </c>
+      <c r="G465" t="s">
+        <v>31</v>
+      </c>
+      <c r="H465" t="s">
+        <v>755</v>
+      </c>
+      <c r="I465" t="s">
+        <v>263</v>
+      </c>
+      <c r="J465">
+        <v>30</v>
+      </c>
+      <c r="K465">
+        <v>10</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
       </c>
       <c r="P465" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="B466" t="s">
+        <v>753</v>
+      </c>
+      <c r="C466" t="s">
+        <v>754</v>
+      </c>
+      <c r="D466" t="s">
+        <v>752</v>
+      </c>
+      <c r="E466">
+        <v>31</v>
+      </c>
+      <c r="F466" t="s">
+        <v>14</v>
+      </c>
+      <c r="G466" t="s">
+        <v>31</v>
+      </c>
+      <c r="H466" t="s">
+        <v>756</v>
+      </c>
+      <c r="I466" t="s">
+        <v>263</v>
+      </c>
+      <c r="J466">
+        <v>30</v>
+      </c>
+      <c r="K466">
+        <v>6</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
       </c>
       <c r="P466" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="B467" t="s">
+        <v>753</v>
+      </c>
+      <c r="C467" t="s">
+        <v>754</v>
+      </c>
+      <c r="D467" t="s">
+        <v>752</v>
+      </c>
+      <c r="E467">
+        <v>31</v>
+      </c>
+      <c r="F467" t="s">
+        <v>14</v>
+      </c>
+      <c r="G467" t="s">
+        <v>31</v>
+      </c>
+      <c r="H467" t="s">
+        <v>757</v>
+      </c>
+      <c r="I467" t="s">
+        <v>263</v>
+      </c>
+      <c r="J467">
+        <v>30</v>
+      </c>
+      <c r="K467">
+        <v>5</v>
+      </c>
+      <c r="L467">
+        <v>3</v>
       </c>
       <c r="P467" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="B468" t="s">
+        <v>753</v>
+      </c>
+      <c r="C468" t="s">
+        <v>754</v>
+      </c>
+      <c r="D468" t="s">
+        <v>752</v>
+      </c>
+      <c r="E468">
+        <v>31</v>
+      </c>
+      <c r="F468" t="s">
+        <v>14</v>
+      </c>
+      <c r="G468" t="s">
+        <v>31</v>
+      </c>
+      <c r="H468" t="s">
+        <v>752</v>
+      </c>
+      <c r="I468" t="s">
+        <v>263</v>
+      </c>
+      <c r="J468">
+        <v>30</v>
+      </c>
+      <c r="K468">
+        <v>5</v>
+      </c>
+      <c r="L468">
+        <v>3</v>
       </c>
       <c r="P468" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="B469" t="s">
+        <v>758</v>
+      </c>
+      <c r="C469" t="s">
+        <v>759</v>
+      </c>
+      <c r="D469" t="s">
+        <v>760</v>
+      </c>
+      <c r="E469">
+        <v>19</v>
+      </c>
+      <c r="F469" t="s">
+        <v>14</v>
+      </c>
+      <c r="G469" t="s">
+        <v>15</v>
+      </c>
+      <c r="H469" t="s">
+        <v>761</v>
+      </c>
+      <c r="I469" t="s">
+        <v>252</v>
+      </c>
+      <c r="J469">
+        <v>800</v>
+      </c>
+      <c r="K469">
+        <v>8</v>
+      </c>
+      <c r="L469">
+        <v>5</v>
       </c>
       <c r="P469" t="b">
         <f t="shared" si="14"/>
@@ -21456,7 +23466,40 @@
     <row r="470" spans="1:16">
       <c r="A470">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="B470" t="s">
+        <v>758</v>
+      </c>
+      <c r="C470" t="s">
+        <v>759</v>
+      </c>
+      <c r="D470" t="s">
+        <v>760</v>
+      </c>
+      <c r="E470">
+        <v>19</v>
+      </c>
+      <c r="F470" t="s">
+        <v>14</v>
+      </c>
+      <c r="G470" t="s">
+        <v>15</v>
+      </c>
+      <c r="H470" t="s">
+        <v>762</v>
+      </c>
+      <c r="I470" t="s">
+        <v>252</v>
+      </c>
+      <c r="J470">
+        <v>800</v>
+      </c>
+      <c r="K470">
+        <v>3</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
       </c>
       <c r="P470" t="b">
         <f t="shared" si="14"/>
@@ -21466,7 +23509,40 @@
     <row r="471" spans="1:16">
       <c r="A471">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="B471" t="s">
+        <v>758</v>
+      </c>
+      <c r="C471" t="s">
+        <v>759</v>
+      </c>
+      <c r="D471" t="s">
+        <v>760</v>
+      </c>
+      <c r="E471">
+        <v>19</v>
+      </c>
+      <c r="F471" t="s">
+        <v>14</v>
+      </c>
+      <c r="G471" t="s">
+        <v>15</v>
+      </c>
+      <c r="H471" t="s">
+        <v>763</v>
+      </c>
+      <c r="I471" t="s">
+        <v>252</v>
+      </c>
+      <c r="J471">
+        <v>800</v>
+      </c>
+      <c r="K471">
+        <v>5</v>
+      </c>
+      <c r="L471">
+        <v>2</v>
       </c>
       <c r="P471" t="b">
         <f t="shared" si="14"/>
@@ -21476,7 +23552,40 @@
     <row r="472" spans="1:16">
       <c r="A472">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="B472" t="s">
+        <v>758</v>
+      </c>
+      <c r="C472" t="s">
+        <v>759</v>
+      </c>
+      <c r="D472" t="s">
+        <v>760</v>
+      </c>
+      <c r="E472">
+        <v>19</v>
+      </c>
+      <c r="F472" t="s">
+        <v>14</v>
+      </c>
+      <c r="G472" t="s">
+        <v>15</v>
+      </c>
+      <c r="H472" t="s">
+        <v>760</v>
+      </c>
+      <c r="I472" t="s">
+        <v>252</v>
+      </c>
+      <c r="J472">
+        <v>800</v>
+      </c>
+      <c r="K472">
+        <v>5</v>
+      </c>
+      <c r="L472">
+        <v>1</v>
       </c>
       <c r="P472" t="b">
         <f t="shared" si="14"/>
@@ -21486,27 +23595,126 @@
     <row r="473" spans="1:16">
       <c r="A473">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="B473" t="s">
+        <v>764</v>
+      </c>
+      <c r="C473" t="s">
+        <v>765</v>
+      </c>
+      <c r="D473" t="s">
+        <v>766</v>
+      </c>
+      <c r="E473">
+        <v>36</v>
+      </c>
+      <c r="F473" t="s">
+        <v>14</v>
+      </c>
+      <c r="G473" t="s">
+        <v>31</v>
+      </c>
+      <c r="H473" t="s">
+        <v>767</v>
+      </c>
+      <c r="I473" t="s">
+        <v>263</v>
+      </c>
+      <c r="J473">
+        <v>30</v>
+      </c>
+      <c r="K473">
+        <v>6</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
       </c>
       <c r="P473" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:16">
       <c r="A474">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="B474" t="s">
+        <v>764</v>
+      </c>
+      <c r="C474" t="s">
+        <v>765</v>
+      </c>
+      <c r="D474" t="s">
+        <v>766</v>
+      </c>
+      <c r="E474">
+        <v>36</v>
+      </c>
+      <c r="F474" t="s">
+        <v>14</v>
+      </c>
+      <c r="G474" t="s">
+        <v>31</v>
+      </c>
+      <c r="H474" t="s">
+        <v>766</v>
+      </c>
+      <c r="I474" t="s">
+        <v>263</v>
+      </c>
+      <c r="J474">
+        <v>30</v>
+      </c>
+      <c r="K474">
+        <v>5</v>
+      </c>
+      <c r="L474">
+        <v>3</v>
       </c>
       <c r="P474" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:16">
       <c r="A475">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="B475" t="s">
+        <v>768</v>
+      </c>
+      <c r="C475" t="s">
+        <v>769</v>
+      </c>
+      <c r="D475" t="s">
+        <v>770</v>
+      </c>
+      <c r="E475">
+        <v>24</v>
+      </c>
+      <c r="F475" t="s">
+        <v>150</v>
+      </c>
+      <c r="G475" t="s">
+        <v>31</v>
+      </c>
+      <c r="H475" t="s">
+        <v>771</v>
+      </c>
+      <c r="I475" t="s">
+        <v>263</v>
+      </c>
+      <c r="J475">
+        <v>30</v>
+      </c>
+      <c r="K475">
+        <v>3</v>
+      </c>
+      <c r="L475">
+        <v>1</v>
       </c>
       <c r="P475" t="b">
         <f t="shared" si="14"/>
@@ -21516,7 +23724,40 @@
     <row r="476" spans="1:16">
       <c r="A476">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="B476" t="s">
+        <v>768</v>
+      </c>
+      <c r="C476" t="s">
+        <v>769</v>
+      </c>
+      <c r="D476" t="s">
+        <v>770</v>
+      </c>
+      <c r="E476">
+        <v>24</v>
+      </c>
+      <c r="F476" t="s">
+        <v>150</v>
+      </c>
+      <c r="G476" t="s">
+        <v>31</v>
+      </c>
+      <c r="H476" t="s">
+        <v>772</v>
+      </c>
+      <c r="I476" t="s">
+        <v>263</v>
+      </c>
+      <c r="J476">
+        <v>30</v>
+      </c>
+      <c r="K476">
+        <v>2</v>
+      </c>
+      <c r="L476">
+        <v>1</v>
       </c>
       <c r="P476" t="b">
         <f t="shared" si="14"/>
@@ -21526,7 +23767,40 @@
     <row r="477" spans="1:16">
       <c r="A477">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="B477" t="s">
+        <v>768</v>
+      </c>
+      <c r="C477" t="s">
+        <v>769</v>
+      </c>
+      <c r="D477" t="s">
+        <v>770</v>
+      </c>
+      <c r="E477">
+        <v>24</v>
+      </c>
+      <c r="F477" t="s">
+        <v>150</v>
+      </c>
+      <c r="G477" t="s">
+        <v>31</v>
+      </c>
+      <c r="H477" t="s">
+        <v>773</v>
+      </c>
+      <c r="I477" t="s">
+        <v>263</v>
+      </c>
+      <c r="J477">
+        <v>30</v>
+      </c>
+      <c r="K477">
+        <v>3</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
       </c>
       <c r="P477" t="b">
         <f t="shared" si="14"/>
@@ -21536,7 +23810,40 @@
     <row r="478" spans="1:16">
       <c r="A478">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="B478" t="s">
+        <v>768</v>
+      </c>
+      <c r="C478" t="s">
+        <v>769</v>
+      </c>
+      <c r="D478" t="s">
+        <v>770</v>
+      </c>
+      <c r="E478">
+        <v>24</v>
+      </c>
+      <c r="F478" t="s">
+        <v>150</v>
+      </c>
+      <c r="G478" t="s">
+        <v>31</v>
+      </c>
+      <c r="H478" t="s">
+        <v>770</v>
+      </c>
+      <c r="I478" t="s">
+        <v>263</v>
+      </c>
+      <c r="J478">
+        <v>30</v>
+      </c>
+      <c r="K478">
+        <v>8</v>
+      </c>
+      <c r="L478">
+        <v>4</v>
       </c>
       <c r="P478" t="b">
         <f t="shared" si="14"/>
@@ -21546,67 +23853,265 @@
     <row r="479" spans="1:16">
       <c r="A479">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B479" t="s">
+        <v>774</v>
+      </c>
+      <c r="C479" t="s">
+        <v>775</v>
+      </c>
+      <c r="D479" t="s">
+        <v>776</v>
+      </c>
+      <c r="E479">
+        <v>26</v>
+      </c>
+      <c r="F479" t="s">
+        <v>14</v>
+      </c>
+      <c r="G479" t="s">
+        <v>15</v>
+      </c>
+      <c r="H479" t="s">
+        <v>777</v>
+      </c>
+      <c r="I479" t="s">
+        <v>252</v>
+      </c>
+      <c r="J479">
+        <v>800</v>
+      </c>
+      <c r="K479" t="s">
+        <v>287</v>
+      </c>
+      <c r="L479" t="s">
+        <v>287</v>
       </c>
       <c r="P479" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:16">
       <c r="A480">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B480" t="s">
+        <v>774</v>
+      </c>
+      <c r="C480" t="s">
+        <v>775</v>
+      </c>
+      <c r="D480" t="s">
+        <v>776</v>
+      </c>
+      <c r="E480">
+        <v>26</v>
+      </c>
+      <c r="F480" t="s">
+        <v>14</v>
+      </c>
+      <c r="G480" t="s">
+        <v>15</v>
+      </c>
+      <c r="H480" t="s">
+        <v>778</v>
+      </c>
+      <c r="I480" t="s">
+        <v>252</v>
+      </c>
+      <c r="J480">
+        <v>800</v>
+      </c>
+      <c r="K480" t="s">
+        <v>287</v>
+      </c>
+      <c r="L480" t="s">
+        <v>287</v>
       </c>
       <c r="P480" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:16">
       <c r="A481">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B481" t="s">
+        <v>774</v>
+      </c>
+      <c r="C481" t="s">
+        <v>775</v>
+      </c>
+      <c r="D481" t="s">
+        <v>776</v>
+      </c>
+      <c r="E481">
+        <v>26</v>
+      </c>
+      <c r="F481" t="s">
+        <v>14</v>
+      </c>
+      <c r="G481" t="s">
+        <v>15</v>
+      </c>
+      <c r="H481" t="s">
+        <v>779</v>
+      </c>
+      <c r="I481" t="s">
+        <v>271</v>
+      </c>
+      <c r="J481">
+        <v>1</v>
+      </c>
+      <c r="K481">
+        <v>6</v>
+      </c>
+      <c r="L481">
+        <v>1</v>
       </c>
       <c r="P481" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:16">
       <c r="A482">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B482" t="s">
+        <v>774</v>
+      </c>
+      <c r="C482" t="s">
+        <v>775</v>
+      </c>
+      <c r="D482" t="s">
+        <v>776</v>
+      </c>
+      <c r="E482">
+        <v>26</v>
+      </c>
+      <c r="F482" t="s">
+        <v>14</v>
+      </c>
+      <c r="G482" t="s">
+        <v>15</v>
+      </c>
+      <c r="H482" t="s">
+        <v>780</v>
+      </c>
+      <c r="I482" t="s">
+        <v>252</v>
+      </c>
+      <c r="J482">
+        <v>800</v>
+      </c>
+      <c r="K482" t="s">
+        <v>287</v>
+      </c>
+      <c r="L482" t="s">
+        <v>287</v>
       </c>
       <c r="P482" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:16">
       <c r="A483">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B483" t="s">
+        <v>774</v>
+      </c>
+      <c r="C483" t="s">
+        <v>775</v>
+      </c>
+      <c r="D483" t="s">
+        <v>776</v>
+      </c>
+      <c r="E483">
+        <v>26</v>
+      </c>
+      <c r="F483" t="s">
+        <v>14</v>
+      </c>
+      <c r="G483" t="s">
+        <v>15</v>
+      </c>
+      <c r="H483" t="s">
+        <v>776</v>
+      </c>
+      <c r="I483" t="s">
+        <v>252</v>
+      </c>
+      <c r="J483">
+        <v>800</v>
+      </c>
+      <c r="K483">
+        <v>5</v>
+      </c>
+      <c r="L483">
+        <v>1</v>
       </c>
       <c r="P483" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:16">
       <c r="A484">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="B484" t="s">
+        <v>774</v>
+      </c>
+      <c r="C484" t="s">
+        <v>775</v>
+      </c>
+      <c r="D484" t="s">
+        <v>776</v>
+      </c>
+      <c r="E484">
+        <v>26</v>
+      </c>
+      <c r="F484" t="s">
+        <v>14</v>
+      </c>
+      <c r="G484" t="s">
+        <v>15</v>
+      </c>
+      <c r="H484" t="s">
+        <v>776</v>
+      </c>
+      <c r="I484" t="s">
+        <v>271</v>
+      </c>
+      <c r="J484">
+        <v>1</v>
+      </c>
+      <c r="K484">
+        <v>5</v>
+      </c>
+      <c r="L484">
+        <v>1</v>
       </c>
       <c r="P484" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:16">
       <c r="A485">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P485" t="b">
         <f t="shared" si="14"/>
@@ -21616,7 +24121,7 @@
     <row r="486" spans="1:16">
       <c r="A486">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P486" t="b">
         <f t="shared" ref="P486:P530" si="16">ISODD(A486)</f>
@@ -21626,7 +24131,7 @@
     <row r="487" spans="1:16">
       <c r="A487">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P487" t="b">
         <f t="shared" si="16"/>
@@ -21636,7 +24141,7 @@
     <row r="488" spans="1:16">
       <c r="A488">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P488" t="b">
         <f t="shared" si="16"/>
@@ -21646,7 +24151,7 @@
     <row r="489" spans="1:16">
       <c r="A489">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P489" t="b">
         <f t="shared" si="16"/>
@@ -21656,7 +24161,7 @@
     <row r="490" spans="1:16">
       <c r="A490">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P490" t="b">
         <f t="shared" si="16"/>
@@ -21666,7 +24171,7 @@
     <row r="491" spans="1:16">
       <c r="A491">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P491" t="b">
         <f t="shared" si="16"/>
@@ -21676,7 +24181,7 @@
     <row r="492" spans="1:16">
       <c r="A492">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P492" t="b">
         <f t="shared" si="16"/>
@@ -21686,7 +24191,7 @@
     <row r="493" spans="1:16">
       <c r="A493">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P493" t="b">
         <f t="shared" si="16"/>
@@ -21696,7 +24201,7 @@
     <row r="494" spans="1:16">
       <c r="A494">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P494" t="b">
         <f t="shared" si="16"/>
@@ -21706,7 +24211,7 @@
     <row r="495" spans="1:16">
       <c r="A495">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P495" t="b">
         <f t="shared" si="16"/>
@@ -21716,7 +24221,7 @@
     <row r="496" spans="1:16">
       <c r="A496">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P496" t="b">
         <f t="shared" si="16"/>
@@ -21726,7 +24231,7 @@
     <row r="497" spans="1:16">
       <c r="A497">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P497" t="b">
         <f t="shared" si="16"/>
@@ -21736,7 +24241,7 @@
     <row r="498" spans="1:16">
       <c r="A498">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P498" t="b">
         <f t="shared" si="16"/>
@@ -21746,7 +24251,7 @@
     <row r="499" spans="1:16">
       <c r="A499">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P499" t="b">
         <f t="shared" si="16"/>
@@ -21756,7 +24261,7 @@
     <row r="500" spans="1:16">
       <c r="A500">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P500" t="b">
         <f t="shared" si="16"/>
@@ -21766,7 +24271,7 @@
     <row r="501" spans="1:16">
       <c r="A501">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P501" t="b">
         <f t="shared" si="16"/>
@@ -21776,7 +24281,7 @@
     <row r="502" spans="1:16">
       <c r="A502">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P502" t="b">
         <f t="shared" si="16"/>
@@ -21786,7 +24291,7 @@
     <row r="503" spans="1:16">
       <c r="A503">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P503" t="b">
         <f t="shared" si="16"/>
@@ -21796,7 +24301,7 @@
     <row r="504" spans="1:16">
       <c r="A504">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P504" t="b">
         <f t="shared" si="16"/>
@@ -21806,7 +24311,7 @@
     <row r="505" spans="1:16">
       <c r="A505">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P505" t="b">
         <f t="shared" si="16"/>
@@ -21816,7 +24321,7 @@
     <row r="506" spans="1:16">
       <c r="A506">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P506" t="b">
         <f t="shared" si="16"/>
@@ -21826,7 +24331,7 @@
     <row r="507" spans="1:16">
       <c r="A507">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P507" t="b">
         <f t="shared" si="16"/>
@@ -21836,7 +24341,7 @@
     <row r="508" spans="1:16">
       <c r="A508">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P508" t="b">
         <f t="shared" si="16"/>
@@ -21846,7 +24351,7 @@
     <row r="509" spans="1:16">
       <c r="A509">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P509" t="b">
         <f t="shared" si="16"/>
@@ -21856,7 +24361,7 @@
     <row r="510" spans="1:16">
       <c r="A510">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P510" t="b">
         <f t="shared" si="16"/>
@@ -21866,7 +24371,7 @@
     <row r="511" spans="1:16">
       <c r="A511">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P511" t="b">
         <f t="shared" si="16"/>
@@ -21876,7 +24381,7 @@
     <row r="512" spans="1:16">
       <c r="A512">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P512" t="b">
         <f t="shared" si="16"/>
@@ -21886,7 +24391,7 @@
     <row r="513" spans="1:16">
       <c r="A513">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P513" t="b">
         <f t="shared" si="16"/>
@@ -21896,7 +24401,7 @@
     <row r="514" spans="1:16">
       <c r="A514">
         <f t="shared" ref="A514:A530" si="17">IF(ROW()=2,1,IF(B514=B513,A513,A513+1))</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P514" t="b">
         <f t="shared" si="16"/>
@@ -21906,7 +24411,7 @@
     <row r="515" spans="1:16">
       <c r="A515">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P515" t="b">
         <f t="shared" si="16"/>
@@ -21916,7 +24421,7 @@
     <row r="516" spans="1:16">
       <c r="A516">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P516" t="b">
         <f t="shared" si="16"/>
@@ -21926,7 +24431,7 @@
     <row r="517" spans="1:16">
       <c r="A517">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P517" t="b">
         <f t="shared" si="16"/>
@@ -21936,7 +24441,7 @@
     <row r="518" spans="1:16">
       <c r="A518">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P518" t="b">
         <f t="shared" si="16"/>
@@ -21946,7 +24451,7 @@
     <row r="519" spans="1:16">
       <c r="A519">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P519" t="b">
         <f t="shared" si="16"/>
@@ -21956,7 +24461,7 @@
     <row r="520" spans="1:16">
       <c r="A520">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P520" t="b">
         <f t="shared" si="16"/>
@@ -21966,7 +24471,7 @@
     <row r="521" spans="1:16">
       <c r="A521">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P521" t="b">
         <f t="shared" si="16"/>
@@ -21976,7 +24481,7 @@
     <row r="522" spans="1:16">
       <c r="A522">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P522" t="b">
         <f t="shared" si="16"/>
@@ -21986,7 +24491,7 @@
     <row r="523" spans="1:16">
       <c r="A523">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P523" t="b">
         <f t="shared" si="16"/>
@@ -21996,7 +24501,7 @@
     <row r="524" spans="1:16">
       <c r="A524">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P524" t="b">
         <f t="shared" si="16"/>
@@ -22006,7 +24511,7 @@
     <row r="525" spans="1:16">
       <c r="A525">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P525" t="b">
         <f t="shared" si="16"/>
@@ -22016,7 +24521,7 @@
     <row r="526" spans="1:16">
       <c r="A526">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P526" t="b">
         <f t="shared" si="16"/>
@@ -22026,7 +24531,7 @@
     <row r="527" spans="1:16">
       <c r="A527">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P527" t="b">
         <f t="shared" si="16"/>
@@ -22036,7 +24541,7 @@
     <row r="528" spans="1:16">
       <c r="A528">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P528" t="b">
         <f t="shared" si="16"/>
@@ -22046,7 +24551,7 @@
     <row r="529" spans="1:16">
       <c r="A529">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P529" t="b">
         <f t="shared" si="16"/>
@@ -22056,7 +24561,7 @@
     <row r="530" spans="1:16">
       <c r="A530">
         <f t="shared" si="17"/>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P530" t="b">
         <f t="shared" si="16"/>
@@ -22065,7 +24570,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:P530">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$P2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49541,43 +52046,43 @@
       </c>
       <c r="C417" t="str">
         <f>IF(ISBLANK('Data Input'!C417),"",'Data Input'!C417)</f>
-        <v>7=3=18</v>
+        <v>7=3=18 0000</v>
       </c>
       <c r="D417" t="str">
         <f>IF(ISBLANK('Data Input'!D417),"",'Data Input'!D417)</f>
-        <v/>
-      </c>
-      <c r="E417" t="str">
+        <v>7=3=18 1838</v>
+      </c>
+      <c r="E417">
         <f>IF(ISBLANK('Data Input'!E417),"",'Data Input'!E417)</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F417" t="str">
         <f>IF(ISBLANK('Data Input'!F417),"",'Data Input'!F417)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G417" t="str">
         <f>IF(ISBLANK('Data Input'!G417),"",'Data Input'!G417)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H417" t="str">
         <f>IF(ISBLANK('Data Input'!H417),"",'Data Input'!H417)</f>
-        <v/>
+        <v>7=3=18 1309</v>
       </c>
       <c r="I417" t="str">
         <f>IF(ISBLANK('Data Input'!I417),"",'Data Input'!I417)</f>
-        <v/>
-      </c>
-      <c r="J417" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J417">
         <f>IF(ISBLANK('Data Input'!J417),"",'Data Input'!J417)</f>
-        <v/>
-      </c>
-      <c r="K417" t="str">
+        <v>800</v>
+      </c>
+      <c r="K417">
         <f>IF(ISBLANK('Data Input'!K417),"",'Data Input'!K417)</f>
-        <v/>
-      </c>
-      <c r="L417" t="str">
+        <v>6</v>
+      </c>
+      <c r="L417">
         <f>IF(ISBLANK('Data Input'!L417),"",'Data Input'!L417)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M417" t="str">
         <f>IF(ISBLANK('Data Input'!M417),"",'Data Input'!M417)</f>
@@ -49599,51 +52104,51 @@
     <row r="418" spans="1:16">
       <c r="A418">
         <f>IF(ISBLANK('Data Input'!A418),"",'Data Input'!A418)</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B418" t="str">
         <f>IF(ISBLANK('Data Input'!B418),"",'Data Input'!B418)</f>
-        <v/>
+        <v>TB113</v>
       </c>
       <c r="C418" t="str">
         <f>IF(ISBLANK('Data Input'!C418),"",'Data Input'!C418)</f>
-        <v/>
+        <v>7=3=18 0000</v>
       </c>
       <c r="D418" t="str">
         <f>IF(ISBLANK('Data Input'!D418),"",'Data Input'!D418)</f>
-        <v/>
-      </c>
-      <c r="E418" t="str">
+        <v>7=3=18 1838</v>
+      </c>
+      <c r="E418">
         <f>IF(ISBLANK('Data Input'!E418),"",'Data Input'!E418)</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F418" t="str">
         <f>IF(ISBLANK('Data Input'!F418),"",'Data Input'!F418)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G418" t="str">
         <f>IF(ISBLANK('Data Input'!G418),"",'Data Input'!G418)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H418" t="str">
         <f>IF(ISBLANK('Data Input'!H418),"",'Data Input'!H418)</f>
-        <v/>
+        <v>7=3=18 1838</v>
       </c>
       <c r="I418" t="str">
         <f>IF(ISBLANK('Data Input'!I418),"",'Data Input'!I418)</f>
-        <v/>
-      </c>
-      <c r="J418" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J418">
         <f>IF(ISBLANK('Data Input'!J418),"",'Data Input'!J418)</f>
-        <v/>
-      </c>
-      <c r="K418" t="str">
+        <v>800</v>
+      </c>
+      <c r="K418">
         <f>IF(ISBLANK('Data Input'!K418),"",'Data Input'!K418)</f>
-        <v/>
-      </c>
-      <c r="L418" t="str">
+        <v>5</v>
+      </c>
+      <c r="L418">
         <f>IF(ISBLANK('Data Input'!L418),"",'Data Input'!L418)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M418" t="str">
         <f>IF(ISBLANK('Data Input'!M418),"",'Data Input'!M418)</f>
@@ -49659,7 +52164,7 @@
       </c>
       <c r="P418" t="b">
         <f>IF(ISBLANK('Data Input'!P418),"",'Data Input'!P418)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -49669,47 +52174,47 @@
       </c>
       <c r="B419" t="str">
         <f>IF(ISBLANK('Data Input'!B419),"",'Data Input'!B419)</f>
-        <v/>
+        <v>AR114</v>
       </c>
       <c r="C419" t="str">
         <f>IF(ISBLANK('Data Input'!C419),"",'Data Input'!C419)</f>
-        <v/>
+        <v>7=2=18 1459</v>
       </c>
       <c r="D419" t="str">
         <f>IF(ISBLANK('Data Input'!D419),"",'Data Input'!D419)</f>
-        <v/>
-      </c>
-      <c r="E419" t="str">
+        <v>7=3=18</v>
+      </c>
+      <c r="E419">
         <f>IF(ISBLANK('Data Input'!E419),"",'Data Input'!E419)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F419" t="str">
         <f>IF(ISBLANK('Data Input'!F419),"",'Data Input'!F419)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G419" t="str">
         <f>IF(ISBLANK('Data Input'!G419),"",'Data Input'!G419)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H419" t="str">
         <f>IF(ISBLANK('Data Input'!H419),"",'Data Input'!H419)</f>
-        <v/>
+        <v>7=2=18 1714</v>
       </c>
       <c r="I419" t="str">
         <f>IF(ISBLANK('Data Input'!I419),"",'Data Input'!I419)</f>
-        <v/>
-      </c>
-      <c r="J419" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J419">
         <f>IF(ISBLANK('Data Input'!J419),"",'Data Input'!J419)</f>
-        <v/>
-      </c>
-      <c r="K419" t="str">
+        <v>1</v>
+      </c>
+      <c r="K419">
         <f>IF(ISBLANK('Data Input'!K419),"",'Data Input'!K419)</f>
-        <v/>
-      </c>
-      <c r="L419" t="str">
+        <v>5</v>
+      </c>
+      <c r="L419">
         <f>IF(ISBLANK('Data Input'!L419),"",'Data Input'!L419)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M419" t="str">
         <f>IF(ISBLANK('Data Input'!M419),"",'Data Input'!M419)</f>
@@ -49735,47 +52240,47 @@
       </c>
       <c r="B420" t="str">
         <f>IF(ISBLANK('Data Input'!B420),"",'Data Input'!B420)</f>
-        <v/>
+        <v>AR114</v>
       </c>
       <c r="C420" t="str">
         <f>IF(ISBLANK('Data Input'!C420),"",'Data Input'!C420)</f>
-        <v/>
+        <v>7=2=18 1459</v>
       </c>
       <c r="D420" t="str">
         <f>IF(ISBLANK('Data Input'!D420),"",'Data Input'!D420)</f>
-        <v/>
-      </c>
-      <c r="E420" t="str">
+        <v>7=3=18</v>
+      </c>
+      <c r="E420">
         <f>IF(ISBLANK('Data Input'!E420),"",'Data Input'!E420)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F420" t="str">
         <f>IF(ISBLANK('Data Input'!F420),"",'Data Input'!F420)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G420" t="str">
         <f>IF(ISBLANK('Data Input'!G420),"",'Data Input'!G420)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H420" t="str">
         <f>IF(ISBLANK('Data Input'!H420),"",'Data Input'!H420)</f>
-        <v/>
+        <v>7=2=18 2104</v>
       </c>
       <c r="I420" t="str">
         <f>IF(ISBLANK('Data Input'!I420),"",'Data Input'!I420)</f>
-        <v/>
-      </c>
-      <c r="J420" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J420">
         <f>IF(ISBLANK('Data Input'!J420),"",'Data Input'!J420)</f>
-        <v/>
-      </c>
-      <c r="K420" t="str">
+        <v>1</v>
+      </c>
+      <c r="K420">
         <f>IF(ISBLANK('Data Input'!K420),"",'Data Input'!K420)</f>
-        <v/>
-      </c>
-      <c r="L420" t="str">
+        <v>4</v>
+      </c>
+      <c r="L420">
         <f>IF(ISBLANK('Data Input'!L420),"",'Data Input'!L420)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M420" t="str">
         <f>IF(ISBLANK('Data Input'!M420),"",'Data Input'!M420)</f>
@@ -49801,47 +52306,47 @@
       </c>
       <c r="B421" t="str">
         <f>IF(ISBLANK('Data Input'!B421),"",'Data Input'!B421)</f>
-        <v/>
+        <v>AR114</v>
       </c>
       <c r="C421" t="str">
         <f>IF(ISBLANK('Data Input'!C421),"",'Data Input'!C421)</f>
-        <v/>
+        <v>7=2=18 1459</v>
       </c>
       <c r="D421" t="str">
         <f>IF(ISBLANK('Data Input'!D421),"",'Data Input'!D421)</f>
-        <v/>
-      </c>
-      <c r="E421" t="str">
+        <v>7=3=18</v>
+      </c>
+      <c r="E421">
         <f>IF(ISBLANK('Data Input'!E421),"",'Data Input'!E421)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F421" t="str">
         <f>IF(ISBLANK('Data Input'!F421),"",'Data Input'!F421)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G421" t="str">
         <f>IF(ISBLANK('Data Input'!G421),"",'Data Input'!G421)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H421" t="str">
         <f>IF(ISBLANK('Data Input'!H421),"",'Data Input'!H421)</f>
-        <v/>
+        <v>7=3=18 0108</v>
       </c>
       <c r="I421" t="str">
         <f>IF(ISBLANK('Data Input'!I421),"",'Data Input'!I421)</f>
-        <v/>
-      </c>
-      <c r="J421" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J421">
         <f>IF(ISBLANK('Data Input'!J421),"",'Data Input'!J421)</f>
-        <v/>
-      </c>
-      <c r="K421" t="str">
+        <v>1</v>
+      </c>
+      <c r="K421">
         <f>IF(ISBLANK('Data Input'!K421),"",'Data Input'!K421)</f>
-        <v/>
-      </c>
-      <c r="L421" t="str">
+        <v>2</v>
+      </c>
+      <c r="L421">
         <f>IF(ISBLANK('Data Input'!L421),"",'Data Input'!L421)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M421" t="str">
         <f>IF(ISBLANK('Data Input'!M421),"",'Data Input'!M421)</f>
@@ -49867,47 +52372,47 @@
       </c>
       <c r="B422" t="str">
         <f>IF(ISBLANK('Data Input'!B422),"",'Data Input'!B422)</f>
-        <v/>
+        <v>AR114</v>
       </c>
       <c r="C422" t="str">
         <f>IF(ISBLANK('Data Input'!C422),"",'Data Input'!C422)</f>
-        <v/>
+        <v>7=2=18 1459</v>
       </c>
       <c r="D422" t="str">
         <f>IF(ISBLANK('Data Input'!D422),"",'Data Input'!D422)</f>
-        <v/>
-      </c>
-      <c r="E422" t="str">
+        <v>7=3=18</v>
+      </c>
+      <c r="E422">
         <f>IF(ISBLANK('Data Input'!E422),"",'Data Input'!E422)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F422" t="str">
         <f>IF(ISBLANK('Data Input'!F422),"",'Data Input'!F422)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G422" t="str">
         <f>IF(ISBLANK('Data Input'!G422),"",'Data Input'!G422)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H422" t="str">
         <f>IF(ISBLANK('Data Input'!H422),"",'Data Input'!H422)</f>
-        <v/>
+        <v>7=3=18 0447</v>
       </c>
       <c r="I422" t="str">
         <f>IF(ISBLANK('Data Input'!I422),"",'Data Input'!I422)</f>
-        <v/>
-      </c>
-      <c r="J422" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J422">
         <f>IF(ISBLANK('Data Input'!J422),"",'Data Input'!J422)</f>
-        <v/>
-      </c>
-      <c r="K422" t="str">
+        <v>2</v>
+      </c>
+      <c r="K422">
         <f>IF(ISBLANK('Data Input'!K422),"",'Data Input'!K422)</f>
-        <v/>
-      </c>
-      <c r="L422" t="str">
+        <v>5</v>
+      </c>
+      <c r="L422">
         <f>IF(ISBLANK('Data Input'!L422),"",'Data Input'!L422)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M422" t="str">
         <f>IF(ISBLANK('Data Input'!M422),"",'Data Input'!M422)</f>
@@ -49933,47 +52438,47 @@
       </c>
       <c r="B423" t="str">
         <f>IF(ISBLANK('Data Input'!B423),"",'Data Input'!B423)</f>
-        <v/>
+        <v>AR114</v>
       </c>
       <c r="C423" t="str">
         <f>IF(ISBLANK('Data Input'!C423),"",'Data Input'!C423)</f>
-        <v/>
+        <v>7=2=18 1459</v>
       </c>
       <c r="D423" t="str">
         <f>IF(ISBLANK('Data Input'!D423),"",'Data Input'!D423)</f>
-        <v/>
-      </c>
-      <c r="E423" t="str">
+        <v>7=3=18</v>
+      </c>
+      <c r="E423">
         <f>IF(ISBLANK('Data Input'!E423),"",'Data Input'!E423)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F423" t="str">
         <f>IF(ISBLANK('Data Input'!F423),"",'Data Input'!F423)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G423" t="str">
         <f>IF(ISBLANK('Data Input'!G423),"",'Data Input'!G423)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H423" t="str">
         <f>IF(ISBLANK('Data Input'!H423),"",'Data Input'!H423)</f>
-        <v/>
+        <v>7=3=18 0859</v>
       </c>
       <c r="I423" t="str">
         <f>IF(ISBLANK('Data Input'!I423),"",'Data Input'!I423)</f>
-        <v/>
-      </c>
-      <c r="J423" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J423">
         <f>IF(ISBLANK('Data Input'!J423),"",'Data Input'!J423)</f>
-        <v/>
-      </c>
-      <c r="K423" t="str">
+        <v>2</v>
+      </c>
+      <c r="K423">
         <f>IF(ISBLANK('Data Input'!K423),"",'Data Input'!K423)</f>
-        <v/>
-      </c>
-      <c r="L423" t="str">
+        <v>6</v>
+      </c>
+      <c r="L423">
         <f>IF(ISBLANK('Data Input'!L423),"",'Data Input'!L423)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M423" t="str">
         <f>IF(ISBLANK('Data Input'!M423),"",'Data Input'!M423)</f>
@@ -49999,47 +52504,47 @@
       </c>
       <c r="B424" t="str">
         <f>IF(ISBLANK('Data Input'!B424),"",'Data Input'!B424)</f>
-        <v/>
+        <v>AR114</v>
       </c>
       <c r="C424" t="str">
         <f>IF(ISBLANK('Data Input'!C424),"",'Data Input'!C424)</f>
-        <v/>
+        <v>7=2=18 1459</v>
       </c>
       <c r="D424" t="str">
         <f>IF(ISBLANK('Data Input'!D424),"",'Data Input'!D424)</f>
-        <v/>
-      </c>
-      <c r="E424" t="str">
+        <v>7=3=18</v>
+      </c>
+      <c r="E424">
         <f>IF(ISBLANK('Data Input'!E424),"",'Data Input'!E424)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F424" t="str">
         <f>IF(ISBLANK('Data Input'!F424),"",'Data Input'!F424)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G424" t="str">
         <f>IF(ISBLANK('Data Input'!G424),"",'Data Input'!G424)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H424" t="str">
         <f>IF(ISBLANK('Data Input'!H424),"",'Data Input'!H424)</f>
-        <v/>
+        <v>7=3=18 1353</v>
       </c>
       <c r="I424" t="str">
         <f>IF(ISBLANK('Data Input'!I424),"",'Data Input'!I424)</f>
-        <v/>
-      </c>
-      <c r="J424" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J424">
         <f>IF(ISBLANK('Data Input'!J424),"",'Data Input'!J424)</f>
-        <v/>
-      </c>
-      <c r="K424" t="str">
+        <v>2</v>
+      </c>
+      <c r="K424">
         <f>IF(ISBLANK('Data Input'!K424),"",'Data Input'!K424)</f>
-        <v/>
-      </c>
-      <c r="L424" t="str">
+        <v>6</v>
+      </c>
+      <c r="L424">
         <f>IF(ISBLANK('Data Input'!L424),"",'Data Input'!L424)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M424" t="str">
         <f>IF(ISBLANK('Data Input'!M424),"",'Data Input'!M424)</f>
@@ -50061,51 +52566,51 @@
     <row r="425" spans="1:16">
       <c r="A425">
         <f>IF(ISBLANK('Data Input'!A425),"",'Data Input'!A425)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B425" t="str">
         <f>IF(ISBLANK('Data Input'!B425),"",'Data Input'!B425)</f>
-        <v/>
+        <v>AJ115</v>
       </c>
       <c r="C425" t="str">
         <f>IF(ISBLANK('Data Input'!C425),"",'Data Input'!C425)</f>
-        <v/>
+        <v>7=3=18 1205</v>
       </c>
       <c r="D425" t="str">
         <f>IF(ISBLANK('Data Input'!D425),"",'Data Input'!D425)</f>
-        <v/>
-      </c>
-      <c r="E425" t="str">
+        <v>7=4=18 0828</v>
+      </c>
+      <c r="E425">
         <f>IF(ISBLANK('Data Input'!E425),"",'Data Input'!E425)</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="F425" t="str">
         <f>IF(ISBLANK('Data Input'!F425),"",'Data Input'!F425)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G425" t="str">
         <f>IF(ISBLANK('Data Input'!G425),"",'Data Input'!G425)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H425" t="str">
         <f>IF(ISBLANK('Data Input'!H425),"",'Data Input'!H425)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="I425" t="str">
         <f>IF(ISBLANK('Data Input'!I425),"",'Data Input'!I425)</f>
-        <v/>
-      </c>
-      <c r="J425" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J425">
         <f>IF(ISBLANK('Data Input'!J425),"",'Data Input'!J425)</f>
-        <v/>
-      </c>
-      <c r="K425" t="str">
+        <v>1</v>
+      </c>
+      <c r="K425">
         <f>IF(ISBLANK('Data Input'!K425),"",'Data Input'!K425)</f>
-        <v/>
-      </c>
-      <c r="L425" t="str">
+        <v>6</v>
+      </c>
+      <c r="L425">
         <f>IF(ISBLANK('Data Input'!L425),"",'Data Input'!L425)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M425" t="str">
         <f>IF(ISBLANK('Data Input'!M425),"",'Data Input'!M425)</f>
@@ -50121,57 +52626,57 @@
       </c>
       <c r="P425" t="b">
         <f>IF(ISBLANK('Data Input'!P425),"",'Data Input'!P425)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:16">
       <c r="A426">
         <f>IF(ISBLANK('Data Input'!A426),"",'Data Input'!A426)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B426" t="str">
         <f>IF(ISBLANK('Data Input'!B426),"",'Data Input'!B426)</f>
-        <v/>
+        <v>AJ115</v>
       </c>
       <c r="C426" t="str">
         <f>IF(ISBLANK('Data Input'!C426),"",'Data Input'!C426)</f>
-        <v/>
+        <v>7=3=18 1205</v>
       </c>
       <c r="D426" t="str">
         <f>IF(ISBLANK('Data Input'!D426),"",'Data Input'!D426)</f>
-        <v/>
-      </c>
-      <c r="E426" t="str">
+        <v>7=4=18 0828</v>
+      </c>
+      <c r="E426">
         <f>IF(ISBLANK('Data Input'!E426),"",'Data Input'!E426)</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="F426" t="str">
         <f>IF(ISBLANK('Data Input'!F426),"",'Data Input'!F426)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G426" t="str">
         <f>IF(ISBLANK('Data Input'!G426),"",'Data Input'!G426)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H426" t="str">
         <f>IF(ISBLANK('Data Input'!H426),"",'Data Input'!H426)</f>
-        <v/>
+        <v>7=4=18 0003</v>
       </c>
       <c r="I426" t="str">
         <f>IF(ISBLANK('Data Input'!I426),"",'Data Input'!I426)</f>
-        <v/>
-      </c>
-      <c r="J426" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J426">
         <f>IF(ISBLANK('Data Input'!J426),"",'Data Input'!J426)</f>
-        <v/>
-      </c>
-      <c r="K426" t="str">
+        <v>30</v>
+      </c>
+      <c r="K426">
         <f>IF(ISBLANK('Data Input'!K426),"",'Data Input'!K426)</f>
-        <v/>
-      </c>
-      <c r="L426" t="str">
+        <v>3</v>
+      </c>
+      <c r="L426">
         <f>IF(ISBLANK('Data Input'!L426),"",'Data Input'!L426)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M426" t="str">
         <f>IF(ISBLANK('Data Input'!M426),"",'Data Input'!M426)</f>
@@ -50187,57 +52692,57 @@
       </c>
       <c r="P426" t="b">
         <f>IF(ISBLANK('Data Input'!P426),"",'Data Input'!P426)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:16">
       <c r="A427">
         <f>IF(ISBLANK('Data Input'!A427),"",'Data Input'!A427)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B427" t="str">
         <f>IF(ISBLANK('Data Input'!B427),"",'Data Input'!B427)</f>
-        <v/>
+        <v>AJ115</v>
       </c>
       <c r="C427" t="str">
         <f>IF(ISBLANK('Data Input'!C427),"",'Data Input'!C427)</f>
-        <v/>
+        <v>7=3=18 1205</v>
       </c>
       <c r="D427" t="str">
         <f>IF(ISBLANK('Data Input'!D427),"",'Data Input'!D427)</f>
-        <v/>
-      </c>
-      <c r="E427" t="str">
+        <v>7=4=18 0828</v>
+      </c>
+      <c r="E427">
         <f>IF(ISBLANK('Data Input'!E427),"",'Data Input'!E427)</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="F427" t="str">
         <f>IF(ISBLANK('Data Input'!F427),"",'Data Input'!F427)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G427" t="str">
         <f>IF(ISBLANK('Data Input'!G427),"",'Data Input'!G427)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H427" t="str">
         <f>IF(ISBLANK('Data Input'!H427),"",'Data Input'!H427)</f>
-        <v/>
+        <v>7=4=18 0656</v>
       </c>
       <c r="I427" t="str">
         <f>IF(ISBLANK('Data Input'!I427),"",'Data Input'!I427)</f>
-        <v/>
-      </c>
-      <c r="J427" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J427">
         <f>IF(ISBLANK('Data Input'!J427),"",'Data Input'!J427)</f>
-        <v/>
-      </c>
-      <c r="K427" t="str">
+        <v>30</v>
+      </c>
+      <c r="K427">
         <f>IF(ISBLANK('Data Input'!K427),"",'Data Input'!K427)</f>
-        <v/>
-      </c>
-      <c r="L427" t="str">
+        <v>4</v>
+      </c>
+      <c r="L427">
         <f>IF(ISBLANK('Data Input'!L427),"",'Data Input'!L427)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="M427" t="str">
         <f>IF(ISBLANK('Data Input'!M427),"",'Data Input'!M427)</f>
@@ -50253,57 +52758,57 @@
       </c>
       <c r="P427" t="b">
         <f>IF(ISBLANK('Data Input'!P427),"",'Data Input'!P427)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:16">
       <c r="A428">
         <f>IF(ISBLANK('Data Input'!A428),"",'Data Input'!A428)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B428" t="str">
         <f>IF(ISBLANK('Data Input'!B428),"",'Data Input'!B428)</f>
-        <v/>
+        <v>AJ115</v>
       </c>
       <c r="C428" t="str">
         <f>IF(ISBLANK('Data Input'!C428),"",'Data Input'!C428)</f>
-        <v/>
+        <v>7=3=18 1205</v>
       </c>
       <c r="D428" t="str">
         <f>IF(ISBLANK('Data Input'!D428),"",'Data Input'!D428)</f>
-        <v/>
-      </c>
-      <c r="E428" t="str">
+        <v>7=4=18 0828</v>
+      </c>
+      <c r="E428">
         <f>IF(ISBLANK('Data Input'!E428),"",'Data Input'!E428)</f>
-        <v/>
+        <v>37</v>
       </c>
       <c r="F428" t="str">
         <f>IF(ISBLANK('Data Input'!F428),"",'Data Input'!F428)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G428" t="str">
         <f>IF(ISBLANK('Data Input'!G428),"",'Data Input'!G428)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H428" t="str">
         <f>IF(ISBLANK('Data Input'!H428),"",'Data Input'!H428)</f>
-        <v/>
+        <v>7=4=18 0828</v>
       </c>
       <c r="I428" t="str">
         <f>IF(ISBLANK('Data Input'!I428),"",'Data Input'!I428)</f>
-        <v/>
-      </c>
-      <c r="J428" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J428">
         <f>IF(ISBLANK('Data Input'!J428),"",'Data Input'!J428)</f>
-        <v/>
-      </c>
-      <c r="K428" t="str">
+        <v>1</v>
+      </c>
+      <c r="K428">
         <f>IF(ISBLANK('Data Input'!K428),"",'Data Input'!K428)</f>
-        <v/>
-      </c>
-      <c r="L428" t="str">
+        <v>6</v>
+      </c>
+      <c r="L428">
         <f>IF(ISBLANK('Data Input'!L428),"",'Data Input'!L428)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M428" t="str">
         <f>IF(ISBLANK('Data Input'!M428),"",'Data Input'!M428)</f>
@@ -50319,57 +52824,57 @@
       </c>
       <c r="P428" t="b">
         <f>IF(ISBLANK('Data Input'!P428),"",'Data Input'!P428)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:16">
       <c r="A429">
         <f>IF(ISBLANK('Data Input'!A429),"",'Data Input'!A429)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B429" t="str">
         <f>IF(ISBLANK('Data Input'!B429),"",'Data Input'!B429)</f>
-        <v/>
+        <v>ST116</v>
       </c>
       <c r="C429" t="str">
         <f>IF(ISBLANK('Data Input'!C429),"",'Data Input'!C429)</f>
-        <v/>
+        <v>7=3=18 1700</v>
       </c>
       <c r="D429" t="str">
         <f>IF(ISBLANK('Data Input'!D429),"",'Data Input'!D429)</f>
-        <v/>
-      </c>
-      <c r="E429" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E429">
         <f>IF(ISBLANK('Data Input'!E429),"",'Data Input'!E429)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F429" t="str">
         <f>IF(ISBLANK('Data Input'!F429),"",'Data Input'!F429)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G429" t="str">
         <f>IF(ISBLANK('Data Input'!G429),"",'Data Input'!G429)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H429" t="str">
         <f>IF(ISBLANK('Data Input'!H429),"",'Data Input'!H429)</f>
-        <v/>
+        <v>7=3=18 1737</v>
       </c>
       <c r="I429" t="str">
         <f>IF(ISBLANK('Data Input'!I429),"",'Data Input'!I429)</f>
-        <v/>
-      </c>
-      <c r="J429" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J429">
         <f>IF(ISBLANK('Data Input'!J429),"",'Data Input'!J429)</f>
-        <v/>
-      </c>
-      <c r="K429" t="str">
+        <v>800</v>
+      </c>
+      <c r="K429">
         <f>IF(ISBLANK('Data Input'!K429),"",'Data Input'!K429)</f>
-        <v/>
-      </c>
-      <c r="L429" t="str">
+        <v>7</v>
+      </c>
+      <c r="L429">
         <f>IF(ISBLANK('Data Input'!L429),"",'Data Input'!L429)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M429" t="str">
         <f>IF(ISBLANK('Data Input'!M429),"",'Data Input'!M429)</f>
@@ -50391,51 +52896,51 @@
     <row r="430" spans="1:16">
       <c r="A430">
         <f>IF(ISBLANK('Data Input'!A430),"",'Data Input'!A430)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B430" t="str">
         <f>IF(ISBLANK('Data Input'!B430),"",'Data Input'!B430)</f>
-        <v/>
+        <v>ST116</v>
       </c>
       <c r="C430" t="str">
         <f>IF(ISBLANK('Data Input'!C430),"",'Data Input'!C430)</f>
-        <v/>
+        <v>7=3=18 1700</v>
       </c>
       <c r="D430" t="str">
         <f>IF(ISBLANK('Data Input'!D430),"",'Data Input'!D430)</f>
-        <v/>
-      </c>
-      <c r="E430" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E430">
         <f>IF(ISBLANK('Data Input'!E430),"",'Data Input'!E430)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F430" t="str">
         <f>IF(ISBLANK('Data Input'!F430),"",'Data Input'!F430)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G430" t="str">
         <f>IF(ISBLANK('Data Input'!G430),"",'Data Input'!G430)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H430" t="str">
         <f>IF(ISBLANK('Data Input'!H430),"",'Data Input'!H430)</f>
-        <v/>
+        <v>7=3=18 1905</v>
       </c>
       <c r="I430" t="str">
         <f>IF(ISBLANK('Data Input'!I430),"",'Data Input'!I430)</f>
-        <v/>
-      </c>
-      <c r="J430" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J430">
         <f>IF(ISBLANK('Data Input'!J430),"",'Data Input'!J430)</f>
-        <v/>
-      </c>
-      <c r="K430" t="str">
+        <v>1</v>
+      </c>
+      <c r="K430">
         <f>IF(ISBLANK('Data Input'!K430),"",'Data Input'!K430)</f>
-        <v/>
-      </c>
-      <c r="L430" t="str">
+        <v>4</v>
+      </c>
+      <c r="L430">
         <f>IF(ISBLANK('Data Input'!L430),"",'Data Input'!L430)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M430" t="str">
         <f>IF(ISBLANK('Data Input'!M430),"",'Data Input'!M430)</f>
@@ -50457,51 +52962,51 @@
     <row r="431" spans="1:16">
       <c r="A431">
         <f>IF(ISBLANK('Data Input'!A431),"",'Data Input'!A431)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B431" t="str">
         <f>IF(ISBLANK('Data Input'!B431),"",'Data Input'!B431)</f>
-        <v/>
+        <v>ST116</v>
       </c>
       <c r="C431" t="str">
         <f>IF(ISBLANK('Data Input'!C431),"",'Data Input'!C431)</f>
-        <v/>
+        <v>7=3=18 1700</v>
       </c>
       <c r="D431" t="str">
         <f>IF(ISBLANK('Data Input'!D431),"",'Data Input'!D431)</f>
-        <v/>
-      </c>
-      <c r="E431" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E431">
         <f>IF(ISBLANK('Data Input'!E431),"",'Data Input'!E431)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F431" t="str">
         <f>IF(ISBLANK('Data Input'!F431),"",'Data Input'!F431)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G431" t="str">
         <f>IF(ISBLANK('Data Input'!G431),"",'Data Input'!G431)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H431" t="str">
         <f>IF(ISBLANK('Data Input'!H431),"",'Data Input'!H431)</f>
-        <v/>
+        <v>7=3=18 2323</v>
       </c>
       <c r="I431" t="str">
         <f>IF(ISBLANK('Data Input'!I431),"",'Data Input'!I431)</f>
-        <v/>
-      </c>
-      <c r="J431" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J431">
         <f>IF(ISBLANK('Data Input'!J431),"",'Data Input'!J431)</f>
-        <v/>
-      </c>
-      <c r="K431" t="str">
+        <v>1</v>
+      </c>
+      <c r="K431">
         <f>IF(ISBLANK('Data Input'!K431),"",'Data Input'!K431)</f>
-        <v/>
-      </c>
-      <c r="L431" t="str">
+        <v>3</v>
+      </c>
+      <c r="L431">
         <f>IF(ISBLANK('Data Input'!L431),"",'Data Input'!L431)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M431" t="str">
         <f>IF(ISBLANK('Data Input'!M431),"",'Data Input'!M431)</f>
@@ -50523,51 +53028,51 @@
     <row r="432" spans="1:16">
       <c r="A432">
         <f>IF(ISBLANK('Data Input'!A432),"",'Data Input'!A432)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B432" t="str">
         <f>IF(ISBLANK('Data Input'!B432),"",'Data Input'!B432)</f>
-        <v/>
+        <v>ST116</v>
       </c>
       <c r="C432" t="str">
         <f>IF(ISBLANK('Data Input'!C432),"",'Data Input'!C432)</f>
-        <v/>
+        <v>7=3=18 1700</v>
       </c>
       <c r="D432" t="str">
         <f>IF(ISBLANK('Data Input'!D432),"",'Data Input'!D432)</f>
-        <v/>
-      </c>
-      <c r="E432" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E432">
         <f>IF(ISBLANK('Data Input'!E432),"",'Data Input'!E432)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F432" t="str">
         <f>IF(ISBLANK('Data Input'!F432),"",'Data Input'!F432)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G432" t="str">
         <f>IF(ISBLANK('Data Input'!G432),"",'Data Input'!G432)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H432" t="str">
         <f>IF(ISBLANK('Data Input'!H432),"",'Data Input'!H432)</f>
-        <v/>
+        <v>7=3=18 2323</v>
       </c>
       <c r="I432" t="str">
         <f>IF(ISBLANK('Data Input'!I432),"",'Data Input'!I432)</f>
-        <v/>
-      </c>
-      <c r="J432" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J432">
         <f>IF(ISBLANK('Data Input'!J432),"",'Data Input'!J432)</f>
-        <v/>
-      </c>
-      <c r="K432" t="str">
+        <v>800</v>
+      </c>
+      <c r="K432">
         <f>IF(ISBLANK('Data Input'!K432),"",'Data Input'!K432)</f>
-        <v/>
-      </c>
-      <c r="L432" t="str">
+        <v>3</v>
+      </c>
+      <c r="L432">
         <f>IF(ISBLANK('Data Input'!L432),"",'Data Input'!L432)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M432" t="str">
         <f>IF(ISBLANK('Data Input'!M432),"",'Data Input'!M432)</f>
@@ -50589,51 +53094,51 @@
     <row r="433" spans="1:16">
       <c r="A433">
         <f>IF(ISBLANK('Data Input'!A433),"",'Data Input'!A433)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B433" t="str">
         <f>IF(ISBLANK('Data Input'!B433),"",'Data Input'!B433)</f>
-        <v/>
+        <v>ST116</v>
       </c>
       <c r="C433" t="str">
         <f>IF(ISBLANK('Data Input'!C433),"",'Data Input'!C433)</f>
-        <v/>
+        <v>7=3=18 1700</v>
       </c>
       <c r="D433" t="str">
         <f>IF(ISBLANK('Data Input'!D433),"",'Data Input'!D433)</f>
-        <v/>
-      </c>
-      <c r="E433" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E433">
         <f>IF(ISBLANK('Data Input'!E433),"",'Data Input'!E433)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F433" t="str">
         <f>IF(ISBLANK('Data Input'!F433),"",'Data Input'!F433)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G433" t="str">
         <f>IF(ISBLANK('Data Input'!G433),"",'Data Input'!G433)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H433" t="str">
         <f>IF(ISBLANK('Data Input'!H433),"",'Data Input'!H433)</f>
-        <v/>
+        <v>7=4=18 0222</v>
       </c>
       <c r="I433" t="str">
         <f>IF(ISBLANK('Data Input'!I433),"",'Data Input'!I433)</f>
-        <v/>
-      </c>
-      <c r="J433" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J433">
         <f>IF(ISBLANK('Data Input'!J433),"",'Data Input'!J433)</f>
-        <v/>
-      </c>
-      <c r="K433" t="str">
+        <v>1</v>
+      </c>
+      <c r="K433">
         <f>IF(ISBLANK('Data Input'!K433),"",'Data Input'!K433)</f>
-        <v/>
-      </c>
-      <c r="L433" t="str">
+        <v>5</v>
+      </c>
+      <c r="L433">
         <f>IF(ISBLANK('Data Input'!L433),"",'Data Input'!L433)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M433" t="str">
         <f>IF(ISBLANK('Data Input'!M433),"",'Data Input'!M433)</f>
@@ -50655,51 +53160,51 @@
     <row r="434" spans="1:16">
       <c r="A434">
         <f>IF(ISBLANK('Data Input'!A434),"",'Data Input'!A434)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B434" t="str">
         <f>IF(ISBLANK('Data Input'!B434),"",'Data Input'!B434)</f>
-        <v/>
+        <v>ST116</v>
       </c>
       <c r="C434" t="str">
         <f>IF(ISBLANK('Data Input'!C434),"",'Data Input'!C434)</f>
-        <v/>
+        <v>7=3=18 1700</v>
       </c>
       <c r="D434" t="str">
         <f>IF(ISBLANK('Data Input'!D434),"",'Data Input'!D434)</f>
-        <v/>
-      </c>
-      <c r="E434" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E434">
         <f>IF(ISBLANK('Data Input'!E434),"",'Data Input'!E434)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F434" t="str">
         <f>IF(ISBLANK('Data Input'!F434),"",'Data Input'!F434)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G434" t="str">
         <f>IF(ISBLANK('Data Input'!G434),"",'Data Input'!G434)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H434" t="str">
         <f>IF(ISBLANK('Data Input'!H434),"",'Data Input'!H434)</f>
-        <v/>
+        <v>7=4=18 0909</v>
       </c>
       <c r="I434" t="str">
         <f>IF(ISBLANK('Data Input'!I434),"",'Data Input'!I434)</f>
-        <v/>
-      </c>
-      <c r="J434" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J434">
         <f>IF(ISBLANK('Data Input'!J434),"",'Data Input'!J434)</f>
-        <v/>
-      </c>
-      <c r="K434" t="str">
+        <v>800</v>
+      </c>
+      <c r="K434">
         <f>IF(ISBLANK('Data Input'!K434),"",'Data Input'!K434)</f>
-        <v/>
-      </c>
-      <c r="L434" t="str">
+        <v>4</v>
+      </c>
+      <c r="L434">
         <f>IF(ISBLANK('Data Input'!L434),"",'Data Input'!L434)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M434" t="str">
         <f>IF(ISBLANK('Data Input'!M434),"",'Data Input'!M434)</f>
@@ -50721,51 +53226,51 @@
     <row r="435" spans="1:16">
       <c r="A435">
         <f>IF(ISBLANK('Data Input'!A435),"",'Data Input'!A435)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B435" t="str">
         <f>IF(ISBLANK('Data Input'!B435),"",'Data Input'!B435)</f>
-        <v/>
+        <v>RF117</v>
       </c>
       <c r="C435" t="str">
         <f>IF(ISBLANK('Data Input'!C435),"",'Data Input'!C435)</f>
-        <v/>
+        <v>7=3=18 0740</v>
       </c>
       <c r="D435" t="str">
         <f>IF(ISBLANK('Data Input'!D435),"",'Data Input'!D435)</f>
-        <v/>
-      </c>
-      <c r="E435" t="str">
+        <v>7=4=18 0337</v>
+      </c>
+      <c r="E435">
         <f>IF(ISBLANK('Data Input'!E435),"",'Data Input'!E435)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F435" t="str">
         <f>IF(ISBLANK('Data Input'!F435),"",'Data Input'!F435)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G435" t="str">
         <f>IF(ISBLANK('Data Input'!G435),"",'Data Input'!G435)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H435" t="str">
         <f>IF(ISBLANK('Data Input'!H435),"",'Data Input'!H435)</f>
-        <v/>
+        <v>7=3=18 1549</v>
       </c>
       <c r="I435" t="str">
         <f>IF(ISBLANK('Data Input'!I435),"",'Data Input'!I435)</f>
-        <v/>
-      </c>
-      <c r="J435" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J435">
         <f>IF(ISBLANK('Data Input'!J435),"",'Data Input'!J435)</f>
-        <v/>
-      </c>
-      <c r="K435" t="str">
+        <v>800</v>
+      </c>
+      <c r="K435">
         <f>IF(ISBLANK('Data Input'!K435),"",'Data Input'!K435)</f>
-        <v/>
-      </c>
-      <c r="L435" t="str">
+        <v>2</v>
+      </c>
+      <c r="L435">
         <f>IF(ISBLANK('Data Input'!L435),"",'Data Input'!L435)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M435" t="str">
         <f>IF(ISBLANK('Data Input'!M435),"",'Data Input'!M435)</f>
@@ -50781,57 +53286,57 @@
       </c>
       <c r="P435" t="b">
         <f>IF(ISBLANK('Data Input'!P435),"",'Data Input'!P435)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:16">
       <c r="A436">
         <f>IF(ISBLANK('Data Input'!A436),"",'Data Input'!A436)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B436" t="str">
         <f>IF(ISBLANK('Data Input'!B436),"",'Data Input'!B436)</f>
-        <v/>
+        <v>RF117</v>
       </c>
       <c r="C436" t="str">
         <f>IF(ISBLANK('Data Input'!C436),"",'Data Input'!C436)</f>
-        <v/>
+        <v>7=3=18 0740</v>
       </c>
       <c r="D436" t="str">
         <f>IF(ISBLANK('Data Input'!D436),"",'Data Input'!D436)</f>
-        <v/>
-      </c>
-      <c r="E436" t="str">
+        <v>7=4=18 0337</v>
+      </c>
+      <c r="E436">
         <f>IF(ISBLANK('Data Input'!E436),"",'Data Input'!E436)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F436" t="str">
         <f>IF(ISBLANK('Data Input'!F436),"",'Data Input'!F436)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G436" t="str">
         <f>IF(ISBLANK('Data Input'!G436),"",'Data Input'!G436)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H436" t="str">
         <f>IF(ISBLANK('Data Input'!H436),"",'Data Input'!H436)</f>
-        <v/>
+        <v>7=3=18 2149</v>
       </c>
       <c r="I436" t="str">
         <f>IF(ISBLANK('Data Input'!I436),"",'Data Input'!I436)</f>
-        <v/>
-      </c>
-      <c r="J436" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J436">
         <f>IF(ISBLANK('Data Input'!J436),"",'Data Input'!J436)</f>
-        <v/>
-      </c>
-      <c r="K436" t="str">
+        <v>800</v>
+      </c>
+      <c r="K436">
         <f>IF(ISBLANK('Data Input'!K436),"",'Data Input'!K436)</f>
-        <v/>
-      </c>
-      <c r="L436" t="str">
+        <v>3</v>
+      </c>
+      <c r="L436">
         <f>IF(ISBLANK('Data Input'!L436),"",'Data Input'!L436)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M436" t="str">
         <f>IF(ISBLANK('Data Input'!M436),"",'Data Input'!M436)</f>
@@ -50847,57 +53352,57 @@
       </c>
       <c r="P436" t="b">
         <f>IF(ISBLANK('Data Input'!P436),"",'Data Input'!P436)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:16">
       <c r="A437">
         <f>IF(ISBLANK('Data Input'!A437),"",'Data Input'!A437)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B437" t="str">
         <f>IF(ISBLANK('Data Input'!B437),"",'Data Input'!B437)</f>
-        <v/>
+        <v>RF117</v>
       </c>
       <c r="C437" t="str">
         <f>IF(ISBLANK('Data Input'!C437),"",'Data Input'!C437)</f>
-        <v/>
+        <v>7=3=18 0740</v>
       </c>
       <c r="D437" t="str">
         <f>IF(ISBLANK('Data Input'!D437),"",'Data Input'!D437)</f>
-        <v/>
-      </c>
-      <c r="E437" t="str">
+        <v>7=4=18 0337</v>
+      </c>
+      <c r="E437">
         <f>IF(ISBLANK('Data Input'!E437),"",'Data Input'!E437)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F437" t="str">
         <f>IF(ISBLANK('Data Input'!F437),"",'Data Input'!F437)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G437" t="str">
         <f>IF(ISBLANK('Data Input'!G437),"",'Data Input'!G437)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H437" t="str">
         <f>IF(ISBLANK('Data Input'!H437),"",'Data Input'!H437)</f>
-        <v/>
+        <v>7=4=18 0337</v>
       </c>
       <c r="I437" t="str">
         <f>IF(ISBLANK('Data Input'!I437),"",'Data Input'!I437)</f>
-        <v/>
-      </c>
-      <c r="J437" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J437">
         <f>IF(ISBLANK('Data Input'!J437),"",'Data Input'!J437)</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="K437" t="str">
         <f>IF(ISBLANK('Data Input'!K437),"",'Data Input'!K437)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="L437" t="str">
         <f>IF(ISBLANK('Data Input'!L437),"",'Data Input'!L437)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="M437" t="str">
         <f>IF(ISBLANK('Data Input'!M437),"",'Data Input'!M437)</f>
@@ -50913,57 +53418,57 @@
       </c>
       <c r="P437" t="b">
         <f>IF(ISBLANK('Data Input'!P437),"",'Data Input'!P437)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:16">
       <c r="A438">
         <f>IF(ISBLANK('Data Input'!A438),"",'Data Input'!A438)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B438" t="str">
         <f>IF(ISBLANK('Data Input'!B438),"",'Data Input'!B438)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C438" t="str">
         <f>IF(ISBLANK('Data Input'!C438),"",'Data Input'!C438)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D438" t="str">
         <f>IF(ISBLANK('Data Input'!D438),"",'Data Input'!D438)</f>
-        <v/>
-      </c>
-      <c r="E438" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E438">
         <f>IF(ISBLANK('Data Input'!E438),"",'Data Input'!E438)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F438" t="str">
         <f>IF(ISBLANK('Data Input'!F438),"",'Data Input'!F438)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G438" t="str">
         <f>IF(ISBLANK('Data Input'!G438),"",'Data Input'!G438)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H438" t="str">
         <f>IF(ISBLANK('Data Input'!H438),"",'Data Input'!H438)</f>
-        <v/>
+        <v>7=3=18 1213</v>
       </c>
       <c r="I438" t="str">
         <f>IF(ISBLANK('Data Input'!I438),"",'Data Input'!I438)</f>
-        <v/>
-      </c>
-      <c r="J438" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J438">
         <f>IF(ISBLANK('Data Input'!J438),"",'Data Input'!J438)</f>
-        <v/>
-      </c>
-      <c r="K438" t="str">
+        <v>800</v>
+      </c>
+      <c r="K438">
         <f>IF(ISBLANK('Data Input'!K438),"",'Data Input'!K438)</f>
-        <v/>
-      </c>
-      <c r="L438" t="str">
+        <v>6</v>
+      </c>
+      <c r="L438">
         <f>IF(ISBLANK('Data Input'!L438),"",'Data Input'!L438)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M438" t="str">
         <f>IF(ISBLANK('Data Input'!M438),"",'Data Input'!M438)</f>
@@ -50985,51 +53490,51 @@
     <row r="439" spans="1:16">
       <c r="A439">
         <f>IF(ISBLANK('Data Input'!A439),"",'Data Input'!A439)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B439" t="str">
         <f>IF(ISBLANK('Data Input'!B439),"",'Data Input'!B439)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C439" t="str">
         <f>IF(ISBLANK('Data Input'!C439),"",'Data Input'!C439)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D439" t="str">
         <f>IF(ISBLANK('Data Input'!D439),"",'Data Input'!D439)</f>
-        <v/>
-      </c>
-      <c r="E439" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E439">
         <f>IF(ISBLANK('Data Input'!E439),"",'Data Input'!E439)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F439" t="str">
         <f>IF(ISBLANK('Data Input'!F439),"",'Data Input'!F439)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G439" t="str">
         <f>IF(ISBLANK('Data Input'!G439),"",'Data Input'!G439)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H439" t="str">
         <f>IF(ISBLANK('Data Input'!H439),"",'Data Input'!H439)</f>
-        <v/>
+        <v>7=3=18 1213</v>
       </c>
       <c r="I439" t="str">
         <f>IF(ISBLANK('Data Input'!I439),"",'Data Input'!I439)</f>
-        <v/>
-      </c>
-      <c r="J439" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J439">
         <f>IF(ISBLANK('Data Input'!J439),"",'Data Input'!J439)</f>
-        <v/>
-      </c>
-      <c r="K439" t="str">
+        <v>2</v>
+      </c>
+      <c r="K439">
         <f>IF(ISBLANK('Data Input'!K439),"",'Data Input'!K439)</f>
-        <v/>
-      </c>
-      <c r="L439" t="str">
+        <v>6</v>
+      </c>
+      <c r="L439">
         <f>IF(ISBLANK('Data Input'!L439),"",'Data Input'!L439)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M439" t="str">
         <f>IF(ISBLANK('Data Input'!M439),"",'Data Input'!M439)</f>
@@ -51051,51 +53556,51 @@
     <row r="440" spans="1:16">
       <c r="A440">
         <f>IF(ISBLANK('Data Input'!A440),"",'Data Input'!A440)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B440" t="str">
         <f>IF(ISBLANK('Data Input'!B440),"",'Data Input'!B440)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C440" t="str">
         <f>IF(ISBLANK('Data Input'!C440),"",'Data Input'!C440)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D440" t="str">
         <f>IF(ISBLANK('Data Input'!D440),"",'Data Input'!D440)</f>
-        <v/>
-      </c>
-      <c r="E440" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E440">
         <f>IF(ISBLANK('Data Input'!E440),"",'Data Input'!E440)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F440" t="str">
         <f>IF(ISBLANK('Data Input'!F440),"",'Data Input'!F440)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G440" t="str">
         <f>IF(ISBLANK('Data Input'!G440),"",'Data Input'!G440)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H440" t="str">
         <f>IF(ISBLANK('Data Input'!H440),"",'Data Input'!H440)</f>
-        <v/>
+        <v>7=3=18 1824</v>
       </c>
       <c r="I440" t="str">
         <f>IF(ISBLANK('Data Input'!I440),"",'Data Input'!I440)</f>
-        <v/>
-      </c>
-      <c r="J440" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J440">
         <f>IF(ISBLANK('Data Input'!J440),"",'Data Input'!J440)</f>
-        <v/>
-      </c>
-      <c r="K440" t="str">
+        <v>800</v>
+      </c>
+      <c r="K440">
         <f>IF(ISBLANK('Data Input'!K440),"",'Data Input'!K440)</f>
-        <v/>
-      </c>
-      <c r="L440" t="str">
+        <v>7</v>
+      </c>
+      <c r="L440">
         <f>IF(ISBLANK('Data Input'!L440),"",'Data Input'!L440)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M440" t="str">
         <f>IF(ISBLANK('Data Input'!M440),"",'Data Input'!M440)</f>
@@ -51117,51 +53622,51 @@
     <row r="441" spans="1:16">
       <c r="A441">
         <f>IF(ISBLANK('Data Input'!A441),"",'Data Input'!A441)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B441" t="str">
         <f>IF(ISBLANK('Data Input'!B441),"",'Data Input'!B441)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C441" t="str">
         <f>IF(ISBLANK('Data Input'!C441),"",'Data Input'!C441)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D441" t="str">
         <f>IF(ISBLANK('Data Input'!D441),"",'Data Input'!D441)</f>
-        <v/>
-      </c>
-      <c r="E441" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E441">
         <f>IF(ISBLANK('Data Input'!E441),"",'Data Input'!E441)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F441" t="str">
         <f>IF(ISBLANK('Data Input'!F441),"",'Data Input'!F441)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G441" t="str">
         <f>IF(ISBLANK('Data Input'!G441),"",'Data Input'!G441)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H441" t="str">
         <f>IF(ISBLANK('Data Input'!H441),"",'Data Input'!H441)</f>
-        <v/>
+        <v>7=3=18 1824</v>
       </c>
       <c r="I441" t="str">
         <f>IF(ISBLANK('Data Input'!I441),"",'Data Input'!I441)</f>
-        <v/>
-      </c>
-      <c r="J441" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J441">
         <f>IF(ISBLANK('Data Input'!J441),"",'Data Input'!J441)</f>
-        <v/>
-      </c>
-      <c r="K441" t="str">
+        <v>2</v>
+      </c>
+      <c r="K441">
         <f>IF(ISBLANK('Data Input'!K441),"",'Data Input'!K441)</f>
-        <v/>
-      </c>
-      <c r="L441" t="str">
+        <v>7</v>
+      </c>
+      <c r="L441">
         <f>IF(ISBLANK('Data Input'!L441),"",'Data Input'!L441)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M441" t="str">
         <f>IF(ISBLANK('Data Input'!M441),"",'Data Input'!M441)</f>
@@ -51183,51 +53688,51 @@
     <row r="442" spans="1:16">
       <c r="A442">
         <f>IF(ISBLANK('Data Input'!A442),"",'Data Input'!A442)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B442" t="str">
         <f>IF(ISBLANK('Data Input'!B442),"",'Data Input'!B442)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C442" t="str">
         <f>IF(ISBLANK('Data Input'!C442),"",'Data Input'!C442)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D442" t="str">
         <f>IF(ISBLANK('Data Input'!D442),"",'Data Input'!D442)</f>
-        <v/>
-      </c>
-      <c r="E442" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E442">
         <f>IF(ISBLANK('Data Input'!E442),"",'Data Input'!E442)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F442" t="str">
         <f>IF(ISBLANK('Data Input'!F442),"",'Data Input'!F442)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G442" t="str">
         <f>IF(ISBLANK('Data Input'!G442),"",'Data Input'!G442)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H442" t="str">
         <f>IF(ISBLANK('Data Input'!H442),"",'Data Input'!H442)</f>
-        <v/>
+        <v>7=3=18 2237</v>
       </c>
       <c r="I442" t="str">
         <f>IF(ISBLANK('Data Input'!I442),"",'Data Input'!I442)</f>
-        <v/>
-      </c>
-      <c r="J442" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J442">
         <f>IF(ISBLANK('Data Input'!J442),"",'Data Input'!J442)</f>
-        <v/>
-      </c>
-      <c r="K442" t="str">
+        <v>2</v>
+      </c>
+      <c r="K442">
         <f>IF(ISBLANK('Data Input'!K442),"",'Data Input'!K442)</f>
-        <v/>
-      </c>
-      <c r="L442" t="str">
+        <v>7</v>
+      </c>
+      <c r="L442">
         <f>IF(ISBLANK('Data Input'!L442),"",'Data Input'!L442)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M442" t="str">
         <f>IF(ISBLANK('Data Input'!M442),"",'Data Input'!M442)</f>
@@ -51249,51 +53754,51 @@
     <row r="443" spans="1:16">
       <c r="A443">
         <f>IF(ISBLANK('Data Input'!A443),"",'Data Input'!A443)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B443" t="str">
         <f>IF(ISBLANK('Data Input'!B443),"",'Data Input'!B443)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C443" t="str">
         <f>IF(ISBLANK('Data Input'!C443),"",'Data Input'!C443)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D443" t="str">
         <f>IF(ISBLANK('Data Input'!D443),"",'Data Input'!D443)</f>
-        <v/>
-      </c>
-      <c r="E443" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E443">
         <f>IF(ISBLANK('Data Input'!E443),"",'Data Input'!E443)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F443" t="str">
         <f>IF(ISBLANK('Data Input'!F443),"",'Data Input'!F443)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G443" t="str">
         <f>IF(ISBLANK('Data Input'!G443),"",'Data Input'!G443)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H443" t="str">
         <f>IF(ISBLANK('Data Input'!H443),"",'Data Input'!H443)</f>
-        <v/>
+        <v>7=4=18 0343</v>
       </c>
       <c r="I443" t="str">
         <f>IF(ISBLANK('Data Input'!I443),"",'Data Input'!I443)</f>
-        <v/>
-      </c>
-      <c r="J443" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J443">
         <f>IF(ISBLANK('Data Input'!J443),"",'Data Input'!J443)</f>
-        <v/>
-      </c>
-      <c r="K443" t="str">
+        <v>800</v>
+      </c>
+      <c r="K443">
         <f>IF(ISBLANK('Data Input'!K443),"",'Data Input'!K443)</f>
-        <v/>
-      </c>
-      <c r="L443" t="str">
+        <v>7</v>
+      </c>
+      <c r="L443">
         <f>IF(ISBLANK('Data Input'!L443),"",'Data Input'!L443)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M443" t="str">
         <f>IF(ISBLANK('Data Input'!M443),"",'Data Input'!M443)</f>
@@ -51315,51 +53820,51 @@
     <row r="444" spans="1:16">
       <c r="A444">
         <f>IF(ISBLANK('Data Input'!A444),"",'Data Input'!A444)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B444" t="str">
         <f>IF(ISBLANK('Data Input'!B444),"",'Data Input'!B444)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C444" t="str">
         <f>IF(ISBLANK('Data Input'!C444),"",'Data Input'!C444)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D444" t="str">
         <f>IF(ISBLANK('Data Input'!D444),"",'Data Input'!D444)</f>
-        <v/>
-      </c>
-      <c r="E444" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E444">
         <f>IF(ISBLANK('Data Input'!E444),"",'Data Input'!E444)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F444" t="str">
         <f>IF(ISBLANK('Data Input'!F444),"",'Data Input'!F444)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G444" t="str">
         <f>IF(ISBLANK('Data Input'!G444),"",'Data Input'!G444)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H444" t="str">
         <f>IF(ISBLANK('Data Input'!H444),"",'Data Input'!H444)</f>
-        <v/>
+        <v>7=4=18 0343</v>
       </c>
       <c r="I444" t="str">
         <f>IF(ISBLANK('Data Input'!I444),"",'Data Input'!I444)</f>
-        <v/>
-      </c>
-      <c r="J444" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J444">
         <f>IF(ISBLANK('Data Input'!J444),"",'Data Input'!J444)</f>
-        <v/>
-      </c>
-      <c r="K444" t="str">
+        <v>2</v>
+      </c>
+      <c r="K444">
         <f>IF(ISBLANK('Data Input'!K444),"",'Data Input'!K444)</f>
-        <v/>
-      </c>
-      <c r="L444" t="str">
+        <v>7</v>
+      </c>
+      <c r="L444">
         <f>IF(ISBLANK('Data Input'!L444),"",'Data Input'!L444)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M444" t="str">
         <f>IF(ISBLANK('Data Input'!M444),"",'Data Input'!M444)</f>
@@ -51381,51 +53886,51 @@
     <row r="445" spans="1:16">
       <c r="A445">
         <f>IF(ISBLANK('Data Input'!A445),"",'Data Input'!A445)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B445" t="str">
         <f>IF(ISBLANK('Data Input'!B445),"",'Data Input'!B445)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C445" t="str">
         <f>IF(ISBLANK('Data Input'!C445),"",'Data Input'!C445)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D445" t="str">
         <f>IF(ISBLANK('Data Input'!D445),"",'Data Input'!D445)</f>
-        <v/>
-      </c>
-      <c r="E445" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E445">
         <f>IF(ISBLANK('Data Input'!E445),"",'Data Input'!E445)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F445" t="str">
         <f>IF(ISBLANK('Data Input'!F445),"",'Data Input'!F445)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G445" t="str">
         <f>IF(ISBLANK('Data Input'!G445),"",'Data Input'!G445)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H445" t="str">
         <f>IF(ISBLANK('Data Input'!H445),"",'Data Input'!H445)</f>
-        <v/>
+        <v>7=4=18 0824</v>
       </c>
       <c r="I445" t="str">
         <f>IF(ISBLANK('Data Input'!I445),"",'Data Input'!I445)</f>
-        <v/>
-      </c>
-      <c r="J445" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J445">
         <f>IF(ISBLANK('Data Input'!J445),"",'Data Input'!J445)</f>
-        <v/>
-      </c>
-      <c r="K445" t="str">
+        <v>2</v>
+      </c>
+      <c r="K445">
         <f>IF(ISBLANK('Data Input'!K445),"",'Data Input'!K445)</f>
-        <v/>
-      </c>
-      <c r="L445" t="str">
+        <v>5</v>
+      </c>
+      <c r="L445">
         <f>IF(ISBLANK('Data Input'!L445),"",'Data Input'!L445)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M445" t="str">
         <f>IF(ISBLANK('Data Input'!M445),"",'Data Input'!M445)</f>
@@ -51447,51 +53952,51 @@
     <row r="446" spans="1:16">
       <c r="A446">
         <f>IF(ISBLANK('Data Input'!A446),"",'Data Input'!A446)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B446" t="str">
         <f>IF(ISBLANK('Data Input'!B446),"",'Data Input'!B446)</f>
-        <v/>
+        <v>RD118</v>
       </c>
       <c r="C446" t="str">
         <f>IF(ISBLANK('Data Input'!C446),"",'Data Input'!C446)</f>
-        <v/>
+        <v>7=3=18 1136</v>
       </c>
       <c r="D446" t="str">
         <f>IF(ISBLANK('Data Input'!D446),"",'Data Input'!D446)</f>
-        <v/>
-      </c>
-      <c r="E446" t="str">
+        <v>7=4=18 0935</v>
+      </c>
+      <c r="E446">
         <f>IF(ISBLANK('Data Input'!E446),"",'Data Input'!E446)</f>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F446" t="str">
         <f>IF(ISBLANK('Data Input'!F446),"",'Data Input'!F446)</f>
-        <v/>
+        <v>Asian</v>
       </c>
       <c r="G446" t="str">
         <f>IF(ISBLANK('Data Input'!G446),"",'Data Input'!G446)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H446" t="str">
         <f>IF(ISBLANK('Data Input'!H446),"",'Data Input'!H446)</f>
-        <v/>
+        <v>7=4=18 0935</v>
       </c>
       <c r="I446" t="str">
         <f>IF(ISBLANK('Data Input'!I446),"",'Data Input'!I446)</f>
-        <v/>
-      </c>
-      <c r="J446" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J446">
         <f>IF(ISBLANK('Data Input'!J446),"",'Data Input'!J446)</f>
-        <v/>
-      </c>
-      <c r="K446" t="str">
+        <v>800</v>
+      </c>
+      <c r="K446">
         <f>IF(ISBLANK('Data Input'!K446),"",'Data Input'!K446)</f>
-        <v/>
-      </c>
-      <c r="L446" t="str">
+        <v>5</v>
+      </c>
+      <c r="L446">
         <f>IF(ISBLANK('Data Input'!L446),"",'Data Input'!L446)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M446" t="str">
         <f>IF(ISBLANK('Data Input'!M446),"",'Data Input'!M446)</f>
@@ -51513,51 +54018,51 @@
     <row r="447" spans="1:16">
       <c r="A447">
         <f>IF(ISBLANK('Data Input'!A447),"",'Data Input'!A447)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B447" t="str">
         <f>IF(ISBLANK('Data Input'!B447),"",'Data Input'!B447)</f>
-        <v/>
+        <v>MR119</v>
       </c>
       <c r="C447" t="str">
         <f>IF(ISBLANK('Data Input'!C447),"",'Data Input'!C447)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="D447" t="str">
         <f>IF(ISBLANK('Data Input'!D447),"",'Data Input'!D447)</f>
-        <v/>
-      </c>
-      <c r="E447" t="str">
+        <v>7=4=18</v>
+      </c>
+      <c r="E447">
         <f>IF(ISBLANK('Data Input'!E447),"",'Data Input'!E447)</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="F447" t="str">
         <f>IF(ISBLANK('Data Input'!F447),"",'Data Input'!F447)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G447" t="str">
         <f>IF(ISBLANK('Data Input'!G447),"",'Data Input'!G447)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H447" t="str">
         <f>IF(ISBLANK('Data Input'!H447),"",'Data Input'!H447)</f>
-        <v/>
+        <v>7=4=18 0129</v>
       </c>
       <c r="I447" t="str">
         <f>IF(ISBLANK('Data Input'!I447),"",'Data Input'!I447)</f>
-        <v/>
-      </c>
-      <c r="J447" t="str">
+        <v>tt - Tylenol</v>
+      </c>
+      <c r="J447">
         <f>IF(ISBLANK('Data Input'!J447),"",'Data Input'!J447)</f>
-        <v/>
-      </c>
-      <c r="K447" t="str">
+        <v>1000</v>
+      </c>
+      <c r="K447">
         <f>IF(ISBLANK('Data Input'!K447),"",'Data Input'!K447)</f>
-        <v/>
-      </c>
-      <c r="L447" t="str">
+        <v>0</v>
+      </c>
+      <c r="L447">
         <f>IF(ISBLANK('Data Input'!L447),"",'Data Input'!L447)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M447" t="str">
         <f>IF(ISBLANK('Data Input'!M447),"",'Data Input'!M447)</f>
@@ -51573,57 +54078,57 @@
       </c>
       <c r="P447" t="b">
         <f>IF(ISBLANK('Data Input'!P447),"",'Data Input'!P447)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:16">
       <c r="A448">
         <f>IF(ISBLANK('Data Input'!A448),"",'Data Input'!A448)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B448" t="str">
         <f>IF(ISBLANK('Data Input'!B448),"",'Data Input'!B448)</f>
-        <v/>
+        <v>MR119</v>
       </c>
       <c r="C448" t="str">
         <f>IF(ISBLANK('Data Input'!C448),"",'Data Input'!C448)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="D448" t="str">
         <f>IF(ISBLANK('Data Input'!D448),"",'Data Input'!D448)</f>
-        <v/>
-      </c>
-      <c r="E448" t="str">
+        <v>7=4=18</v>
+      </c>
+      <c r="E448">
         <f>IF(ISBLANK('Data Input'!E448),"",'Data Input'!E448)</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="F448" t="str">
         <f>IF(ISBLANK('Data Input'!F448),"",'Data Input'!F448)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G448" t="str">
         <f>IF(ISBLANK('Data Input'!G448),"",'Data Input'!G448)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H448" t="str">
         <f>IF(ISBLANK('Data Input'!H448),"",'Data Input'!H448)</f>
-        <v/>
+        <v>7=4=18 0517</v>
       </c>
       <c r="I448" t="str">
         <f>IF(ISBLANK('Data Input'!I448),"",'Data Input'!I448)</f>
-        <v/>
-      </c>
-      <c r="J448" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J448">
         <f>IF(ISBLANK('Data Input'!J448),"",'Data Input'!J448)</f>
-        <v/>
-      </c>
-      <c r="K448" t="str">
+        <v>30</v>
+      </c>
+      <c r="K448">
         <f>IF(ISBLANK('Data Input'!K448),"",'Data Input'!K448)</f>
-        <v/>
-      </c>
-      <c r="L448" t="str">
+        <v>0</v>
+      </c>
+      <c r="L448">
         <f>IF(ISBLANK('Data Input'!L448),"",'Data Input'!L448)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M448" t="str">
         <f>IF(ISBLANK('Data Input'!M448),"",'Data Input'!M448)</f>
@@ -51639,57 +54144,57 @@
       </c>
       <c r="P448" t="b">
         <f>IF(ISBLANK('Data Input'!P448),"",'Data Input'!P448)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:16">
       <c r="A449">
         <f>IF(ISBLANK('Data Input'!A449),"",'Data Input'!A449)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B449" t="str">
         <f>IF(ISBLANK('Data Input'!B449),"",'Data Input'!B449)</f>
-        <v/>
+        <v>MR119</v>
       </c>
       <c r="C449" t="str">
         <f>IF(ISBLANK('Data Input'!C449),"",'Data Input'!C449)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="D449" t="str">
         <f>IF(ISBLANK('Data Input'!D449),"",'Data Input'!D449)</f>
-        <v/>
-      </c>
-      <c r="E449" t="str">
+        <v>7=4=18</v>
+      </c>
+      <c r="E449">
         <f>IF(ISBLANK('Data Input'!E449),"",'Data Input'!E449)</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="F449" t="str">
         <f>IF(ISBLANK('Data Input'!F449),"",'Data Input'!F449)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G449" t="str">
         <f>IF(ISBLANK('Data Input'!G449),"",'Data Input'!G449)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H449" t="str">
         <f>IF(ISBLANK('Data Input'!H449),"",'Data Input'!H449)</f>
-        <v/>
+        <v>7=4=18 1047</v>
       </c>
       <c r="I449" t="str">
         <f>IF(ISBLANK('Data Input'!I449),"",'Data Input'!I449)</f>
-        <v/>
-      </c>
-      <c r="J449" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J449">
         <f>IF(ISBLANK('Data Input'!J449),"",'Data Input'!J449)</f>
-        <v/>
-      </c>
-      <c r="K449" t="str">
+        <v>30</v>
+      </c>
+      <c r="K449">
         <f>IF(ISBLANK('Data Input'!K449),"",'Data Input'!K449)</f>
-        <v/>
-      </c>
-      <c r="L449" t="str">
+        <v>0</v>
+      </c>
+      <c r="L449">
         <f>IF(ISBLANK('Data Input'!L449),"",'Data Input'!L449)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M449" t="str">
         <f>IF(ISBLANK('Data Input'!M449),"",'Data Input'!M449)</f>
@@ -51705,57 +54210,57 @@
       </c>
       <c r="P449" t="b">
         <f>IF(ISBLANK('Data Input'!P449),"",'Data Input'!P449)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:16">
       <c r="A450">
         <f>IF(ISBLANK('Data Input'!A450),"",'Data Input'!A450)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B450" t="str">
         <f>IF(ISBLANK('Data Input'!B450),"",'Data Input'!B450)</f>
-        <v/>
+        <v>MR119</v>
       </c>
       <c r="C450" t="str">
         <f>IF(ISBLANK('Data Input'!C450),"",'Data Input'!C450)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="D450" t="str">
         <f>IF(ISBLANK('Data Input'!D450),"",'Data Input'!D450)</f>
-        <v/>
-      </c>
-      <c r="E450" t="str">
+        <v>7=4=18</v>
+      </c>
+      <c r="E450">
         <f>IF(ISBLANK('Data Input'!E450),"",'Data Input'!E450)</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="F450" t="str">
         <f>IF(ISBLANK('Data Input'!F450),"",'Data Input'!F450)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G450" t="str">
         <f>IF(ISBLANK('Data Input'!G450),"",'Data Input'!G450)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H450" t="str">
         <f>IF(ISBLANK('Data Input'!H450),"",'Data Input'!H450)</f>
-        <v/>
+        <v>7=4=18 1623</v>
       </c>
       <c r="I450" t="str">
         <f>IF(ISBLANK('Data Input'!I450),"",'Data Input'!I450)</f>
-        <v/>
-      </c>
-      <c r="J450" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J450">
         <f>IF(ISBLANK('Data Input'!J450),"",'Data Input'!J450)</f>
-        <v/>
-      </c>
-      <c r="K450" t="str">
+        <v>30</v>
+      </c>
+      <c r="K450">
         <f>IF(ISBLANK('Data Input'!K450),"",'Data Input'!K450)</f>
-        <v/>
-      </c>
-      <c r="L450" t="str">
+        <v>3</v>
+      </c>
+      <c r="L450">
         <f>IF(ISBLANK('Data Input'!L450),"",'Data Input'!L450)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M450" t="str">
         <f>IF(ISBLANK('Data Input'!M450),"",'Data Input'!M450)</f>
@@ -51771,57 +54276,57 @@
       </c>
       <c r="P450" t="b">
         <f>IF(ISBLANK('Data Input'!P450),"",'Data Input'!P450)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:16">
       <c r="A451">
         <f>IF(ISBLANK('Data Input'!A451),"",'Data Input'!A451)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B451" t="str">
         <f>IF(ISBLANK('Data Input'!B451),"",'Data Input'!B451)</f>
-        <v/>
+        <v>MR119</v>
       </c>
       <c r="C451" t="str">
         <f>IF(ISBLANK('Data Input'!C451),"",'Data Input'!C451)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="D451" t="str">
         <f>IF(ISBLANK('Data Input'!D451),"",'Data Input'!D451)</f>
-        <v/>
-      </c>
-      <c r="E451" t="str">
+        <v>7=4=18</v>
+      </c>
+      <c r="E451">
         <f>IF(ISBLANK('Data Input'!E451),"",'Data Input'!E451)</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="F451" t="str">
         <f>IF(ISBLANK('Data Input'!F451),"",'Data Input'!F451)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G451" t="str">
         <f>IF(ISBLANK('Data Input'!G451),"",'Data Input'!G451)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H451" t="str">
         <f>IF(ISBLANK('Data Input'!H451),"",'Data Input'!H451)</f>
-        <v/>
+        <v>7=4=18 2106</v>
       </c>
       <c r="I451" t="str">
         <f>IF(ISBLANK('Data Input'!I451),"",'Data Input'!I451)</f>
-        <v/>
-      </c>
-      <c r="J451" t="str">
+        <v>tt - Tylenol</v>
+      </c>
+      <c r="J451">
         <f>IF(ISBLANK('Data Input'!J451),"",'Data Input'!J451)</f>
-        <v/>
-      </c>
-      <c r="K451" t="str">
+        <v>650</v>
+      </c>
+      <c r="K451">
         <f>IF(ISBLANK('Data Input'!K451),"",'Data Input'!K451)</f>
-        <v/>
-      </c>
-      <c r="L451" t="str">
+        <v>7</v>
+      </c>
+      <c r="L451">
         <f>IF(ISBLANK('Data Input'!L451),"",'Data Input'!L451)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M451" t="str">
         <f>IF(ISBLANK('Data Input'!M451),"",'Data Input'!M451)</f>
@@ -51837,57 +54342,57 @@
       </c>
       <c r="P451" t="b">
         <f>IF(ISBLANK('Data Input'!P451),"",'Data Input'!P451)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:16">
       <c r="A452">
         <f>IF(ISBLANK('Data Input'!A452),"",'Data Input'!A452)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B452" t="str">
         <f>IF(ISBLANK('Data Input'!B452),"",'Data Input'!B452)</f>
-        <v/>
+        <v>MR119</v>
       </c>
       <c r="C452" t="str">
         <f>IF(ISBLANK('Data Input'!C452),"",'Data Input'!C452)</f>
-        <v/>
+        <v>7=3=18 2305</v>
       </c>
       <c r="D452" t="str">
         <f>IF(ISBLANK('Data Input'!D452),"",'Data Input'!D452)</f>
-        <v/>
-      </c>
-      <c r="E452" t="str">
+        <v>7=4=18</v>
+      </c>
+      <c r="E452">
         <f>IF(ISBLANK('Data Input'!E452),"",'Data Input'!E452)</f>
-        <v/>
+        <v>44</v>
       </c>
       <c r="F452" t="str">
         <f>IF(ISBLANK('Data Input'!F452),"",'Data Input'!F452)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G452" t="str">
         <f>IF(ISBLANK('Data Input'!G452),"",'Data Input'!G452)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H452" t="str">
         <f>IF(ISBLANK('Data Input'!H452),"",'Data Input'!H452)</f>
-        <v/>
+        <v>7=4=18 2106</v>
       </c>
       <c r="I452" t="str">
         <f>IF(ISBLANK('Data Input'!I452),"",'Data Input'!I452)</f>
-        <v/>
-      </c>
-      <c r="J452" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J452">
         <f>IF(ISBLANK('Data Input'!J452),"",'Data Input'!J452)</f>
-        <v/>
-      </c>
-      <c r="K452" t="str">
+        <v>30</v>
+      </c>
+      <c r="K452">
         <f>IF(ISBLANK('Data Input'!K452),"",'Data Input'!K452)</f>
-        <v/>
-      </c>
-      <c r="L452" t="str">
+        <v>7</v>
+      </c>
+      <c r="L452">
         <f>IF(ISBLANK('Data Input'!L452),"",'Data Input'!L452)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M452" t="str">
         <f>IF(ISBLANK('Data Input'!M452),"",'Data Input'!M452)</f>
@@ -51903,57 +54408,57 @@
       </c>
       <c r="P452" t="b">
         <f>IF(ISBLANK('Data Input'!P452),"",'Data Input'!P452)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:16">
       <c r="A453">
         <f>IF(ISBLANK('Data Input'!A453),"",'Data Input'!A453)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B453" t="str">
         <f>IF(ISBLANK('Data Input'!B453),"",'Data Input'!B453)</f>
-        <v/>
+        <v>JA120</v>
       </c>
       <c r="C453" t="str">
         <f>IF(ISBLANK('Data Input'!C453),"",'Data Input'!C453)</f>
-        <v/>
+        <v>7=4=18 1401</v>
       </c>
       <c r="D453" t="str">
         <f>IF(ISBLANK('Data Input'!D453),"",'Data Input'!D453)</f>
-        <v/>
-      </c>
-      <c r="E453" t="str">
+        <v>7=5=18 0904</v>
+      </c>
+      <c r="E453">
         <f>IF(ISBLANK('Data Input'!E453),"",'Data Input'!E453)</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="F453" t="str">
         <f>IF(ISBLANK('Data Input'!F453),"",'Data Input'!F453)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G453" t="str">
         <f>IF(ISBLANK('Data Input'!G453),"",'Data Input'!G453)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H453" t="str">
         <f>IF(ISBLANK('Data Input'!H453),"",'Data Input'!H453)</f>
-        <v/>
+        <v>7=4=18 1939</v>
       </c>
       <c r="I453" t="str">
         <f>IF(ISBLANK('Data Input'!I453),"",'Data Input'!I453)</f>
-        <v/>
-      </c>
-      <c r="J453" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J453">
         <f>IF(ISBLANK('Data Input'!J453),"",'Data Input'!J453)</f>
-        <v/>
-      </c>
-      <c r="K453" t="str">
+        <v>800</v>
+      </c>
+      <c r="K453">
         <f>IF(ISBLANK('Data Input'!K453),"",'Data Input'!K453)</f>
-        <v/>
-      </c>
-      <c r="L453" t="str">
+        <v>4</v>
+      </c>
+      <c r="L453">
         <f>IF(ISBLANK('Data Input'!L453),"",'Data Input'!L453)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M453" t="str">
         <f>IF(ISBLANK('Data Input'!M453),"",'Data Input'!M453)</f>
@@ -51975,51 +54480,51 @@
     <row r="454" spans="1:16">
       <c r="A454">
         <f>IF(ISBLANK('Data Input'!A454),"",'Data Input'!A454)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B454" t="str">
         <f>IF(ISBLANK('Data Input'!B454),"",'Data Input'!B454)</f>
-        <v/>
+        <v>JA120</v>
       </c>
       <c r="C454" t="str">
         <f>IF(ISBLANK('Data Input'!C454),"",'Data Input'!C454)</f>
-        <v/>
+        <v>7=4=18 1401</v>
       </c>
       <c r="D454" t="str">
         <f>IF(ISBLANK('Data Input'!D454),"",'Data Input'!D454)</f>
-        <v/>
-      </c>
-      <c r="E454" t="str">
+        <v>7=5=18 0904</v>
+      </c>
+      <c r="E454">
         <f>IF(ISBLANK('Data Input'!E454),"",'Data Input'!E454)</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="F454" t="str">
         <f>IF(ISBLANK('Data Input'!F454),"",'Data Input'!F454)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G454" t="str">
         <f>IF(ISBLANK('Data Input'!G454),"",'Data Input'!G454)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H454" t="str">
         <f>IF(ISBLANK('Data Input'!H454),"",'Data Input'!H454)</f>
-        <v/>
+        <v>7=4=18 0222</v>
       </c>
       <c r="I454" t="str">
         <f>IF(ISBLANK('Data Input'!I454),"",'Data Input'!I454)</f>
-        <v/>
-      </c>
-      <c r="J454" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J454">
         <f>IF(ISBLANK('Data Input'!J454),"",'Data Input'!J454)</f>
-        <v/>
-      </c>
-      <c r="K454" t="str">
+        <v>800</v>
+      </c>
+      <c r="K454">
         <f>IF(ISBLANK('Data Input'!K454),"",'Data Input'!K454)</f>
-        <v/>
-      </c>
-      <c r="L454" t="str">
+        <v>5</v>
+      </c>
+      <c r="L454">
         <f>IF(ISBLANK('Data Input'!L454),"",'Data Input'!L454)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M454" t="str">
         <f>IF(ISBLANK('Data Input'!M454),"",'Data Input'!M454)</f>
@@ -52041,51 +54546,51 @@
     <row r="455" spans="1:16">
       <c r="A455">
         <f>IF(ISBLANK('Data Input'!A455),"",'Data Input'!A455)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B455" t="str">
         <f>IF(ISBLANK('Data Input'!B455),"",'Data Input'!B455)</f>
-        <v/>
+        <v>JA120</v>
       </c>
       <c r="C455" t="str">
         <f>IF(ISBLANK('Data Input'!C455),"",'Data Input'!C455)</f>
-        <v/>
+        <v>7=4=18 1401</v>
       </c>
       <c r="D455" t="str">
         <f>IF(ISBLANK('Data Input'!D455),"",'Data Input'!D455)</f>
-        <v/>
-      </c>
-      <c r="E455" t="str">
+        <v>7=5=18 0904</v>
+      </c>
+      <c r="E455">
         <f>IF(ISBLANK('Data Input'!E455),"",'Data Input'!E455)</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="F455" t="str">
         <f>IF(ISBLANK('Data Input'!F455),"",'Data Input'!F455)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G455" t="str">
         <f>IF(ISBLANK('Data Input'!G455),"",'Data Input'!G455)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H455" t="str">
         <f>IF(ISBLANK('Data Input'!H455),"",'Data Input'!H455)</f>
-        <v/>
+        <v>7=5=18 0904</v>
       </c>
       <c r="I455" t="str">
         <f>IF(ISBLANK('Data Input'!I455),"",'Data Input'!I455)</f>
-        <v/>
-      </c>
-      <c r="J455" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J455">
         <f>IF(ISBLANK('Data Input'!J455),"",'Data Input'!J455)</f>
-        <v/>
-      </c>
-      <c r="K455" t="str">
+        <v>800</v>
+      </c>
+      <c r="K455">
         <f>IF(ISBLANK('Data Input'!K455),"",'Data Input'!K455)</f>
-        <v/>
-      </c>
-      <c r="L455" t="str">
+        <v>5</v>
+      </c>
+      <c r="L455">
         <f>IF(ISBLANK('Data Input'!L455),"",'Data Input'!L455)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M455" t="str">
         <f>IF(ISBLANK('Data Input'!M455),"",'Data Input'!M455)</f>
@@ -52107,51 +54612,51 @@
     <row r="456" spans="1:16">
       <c r="A456">
         <f>IF(ISBLANK('Data Input'!A456),"",'Data Input'!A456)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B456" t="str">
         <f>IF(ISBLANK('Data Input'!B456),"",'Data Input'!B456)</f>
-        <v/>
+        <v>JA120</v>
       </c>
       <c r="C456" t="str">
         <f>IF(ISBLANK('Data Input'!C456),"",'Data Input'!C456)</f>
-        <v/>
+        <v>7=4=18 1401</v>
       </c>
       <c r="D456" t="str">
         <f>IF(ISBLANK('Data Input'!D456),"",'Data Input'!D456)</f>
-        <v/>
-      </c>
-      <c r="E456" t="str">
+        <v>7=5=18 0904</v>
+      </c>
+      <c r="E456">
         <f>IF(ISBLANK('Data Input'!E456),"",'Data Input'!E456)</f>
-        <v/>
+        <v>35</v>
       </c>
       <c r="F456" t="str">
         <f>IF(ISBLANK('Data Input'!F456),"",'Data Input'!F456)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G456" t="str">
         <f>IF(ISBLANK('Data Input'!G456),"",'Data Input'!G456)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H456" t="str">
         <f>IF(ISBLANK('Data Input'!H456),"",'Data Input'!H456)</f>
-        <v/>
+        <v>7=5=18 0904</v>
       </c>
       <c r="I456" t="str">
         <f>IF(ISBLANK('Data Input'!I456),"",'Data Input'!I456)</f>
-        <v/>
-      </c>
-      <c r="J456" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J456">
         <f>IF(ISBLANK('Data Input'!J456),"",'Data Input'!J456)</f>
-        <v/>
-      </c>
-      <c r="K456" t="str">
+        <v>1</v>
+      </c>
+      <c r="K456">
         <f>IF(ISBLANK('Data Input'!K456),"",'Data Input'!K456)</f>
-        <v/>
-      </c>
-      <c r="L456" t="str">
+        <v>5</v>
+      </c>
+      <c r="L456">
         <f>IF(ISBLANK('Data Input'!L456),"",'Data Input'!L456)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M456" t="str">
         <f>IF(ISBLANK('Data Input'!M456),"",'Data Input'!M456)</f>
@@ -52173,51 +54678,51 @@
     <row r="457" spans="1:16">
       <c r="A457">
         <f>IF(ISBLANK('Data Input'!A457),"",'Data Input'!A457)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B457" t="str">
         <f>IF(ISBLANK('Data Input'!B457),"",'Data Input'!B457)</f>
-        <v/>
+        <v>IC121</v>
       </c>
       <c r="C457" t="str">
         <f>IF(ISBLANK('Data Input'!C457),"",'Data Input'!C457)</f>
-        <v/>
+        <v>7=5=18 0635</v>
       </c>
       <c r="D457" t="str">
         <f>IF(ISBLANK('Data Input'!D457),"",'Data Input'!D457)</f>
-        <v/>
-      </c>
-      <c r="E457" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E457">
         <f>IF(ISBLANK('Data Input'!E457),"",'Data Input'!E457)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F457" t="str">
         <f>IF(ISBLANK('Data Input'!F457),"",'Data Input'!F457)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G457" t="str">
         <f>IF(ISBLANK('Data Input'!G457),"",'Data Input'!G457)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H457" t="str">
         <f>IF(ISBLANK('Data Input'!H457),"",'Data Input'!H457)</f>
-        <v/>
+        <v>7=5=18 0900</v>
       </c>
       <c r="I457" t="str">
         <f>IF(ISBLANK('Data Input'!I457),"",'Data Input'!I457)</f>
-        <v/>
-      </c>
-      <c r="J457" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J457">
         <f>IF(ISBLANK('Data Input'!J457),"",'Data Input'!J457)</f>
-        <v/>
-      </c>
-      <c r="K457" t="str">
+        <v>800</v>
+      </c>
+      <c r="K457">
         <f>IF(ISBLANK('Data Input'!K457),"",'Data Input'!K457)</f>
-        <v/>
-      </c>
-      <c r="L457" t="str">
+        <v>0</v>
+      </c>
+      <c r="L457">
         <f>IF(ISBLANK('Data Input'!L457),"",'Data Input'!L457)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M457" t="str">
         <f>IF(ISBLANK('Data Input'!M457),"",'Data Input'!M457)</f>
@@ -52233,57 +54738,57 @@
       </c>
       <c r="P457" t="b">
         <f>IF(ISBLANK('Data Input'!P457),"",'Data Input'!P457)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:16">
       <c r="A458">
         <f>IF(ISBLANK('Data Input'!A458),"",'Data Input'!A458)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B458" t="str">
         <f>IF(ISBLANK('Data Input'!B458),"",'Data Input'!B458)</f>
-        <v/>
+        <v>IC121</v>
       </c>
       <c r="C458" t="str">
         <f>IF(ISBLANK('Data Input'!C458),"",'Data Input'!C458)</f>
-        <v/>
+        <v>7=5=18 0635</v>
       </c>
       <c r="D458" t="str">
         <f>IF(ISBLANK('Data Input'!D458),"",'Data Input'!D458)</f>
-        <v/>
-      </c>
-      <c r="E458" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E458">
         <f>IF(ISBLANK('Data Input'!E458),"",'Data Input'!E458)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F458" t="str">
         <f>IF(ISBLANK('Data Input'!F458),"",'Data Input'!F458)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G458" t="str">
         <f>IF(ISBLANK('Data Input'!G458),"",'Data Input'!G458)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H458" t="str">
         <f>IF(ISBLANK('Data Input'!H458),"",'Data Input'!H458)</f>
-        <v/>
+        <v>7=5=18 1806</v>
       </c>
       <c r="I458" t="str">
         <f>IF(ISBLANK('Data Input'!I458),"",'Data Input'!I458)</f>
-        <v/>
-      </c>
-      <c r="J458" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J458">
         <f>IF(ISBLANK('Data Input'!J458),"",'Data Input'!J458)</f>
-        <v/>
-      </c>
-      <c r="K458" t="str">
+        <v>800</v>
+      </c>
+      <c r="K458">
         <f>IF(ISBLANK('Data Input'!K458),"",'Data Input'!K458)</f>
-        <v/>
-      </c>
-      <c r="L458" t="str">
+        <v>2</v>
+      </c>
+      <c r="L458">
         <f>IF(ISBLANK('Data Input'!L458),"",'Data Input'!L458)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M458" t="str">
         <f>IF(ISBLANK('Data Input'!M458),"",'Data Input'!M458)</f>
@@ -52299,57 +54804,57 @@
       </c>
       <c r="P458" t="b">
         <f>IF(ISBLANK('Data Input'!P458),"",'Data Input'!P458)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:16">
       <c r="A459">
         <f>IF(ISBLANK('Data Input'!A459),"",'Data Input'!A459)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B459" t="str">
         <f>IF(ISBLANK('Data Input'!B459),"",'Data Input'!B459)</f>
-        <v/>
+        <v>IC121</v>
       </c>
       <c r="C459" t="str">
         <f>IF(ISBLANK('Data Input'!C459),"",'Data Input'!C459)</f>
-        <v/>
+        <v>7=5=18 0635</v>
       </c>
       <c r="D459" t="str">
         <f>IF(ISBLANK('Data Input'!D459),"",'Data Input'!D459)</f>
-        <v/>
-      </c>
-      <c r="E459" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E459">
         <f>IF(ISBLANK('Data Input'!E459),"",'Data Input'!E459)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F459" t="str">
         <f>IF(ISBLANK('Data Input'!F459),"",'Data Input'!F459)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G459" t="str">
         <f>IF(ISBLANK('Data Input'!G459),"",'Data Input'!G459)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H459" t="str">
         <f>IF(ISBLANK('Data Input'!H459),"",'Data Input'!H459)</f>
-        <v/>
+        <v>7=6=18 0010</v>
       </c>
       <c r="I459" t="str">
         <f>IF(ISBLANK('Data Input'!I459),"",'Data Input'!I459)</f>
-        <v/>
-      </c>
-      <c r="J459" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J459">
         <f>IF(ISBLANK('Data Input'!J459),"",'Data Input'!J459)</f>
-        <v/>
-      </c>
-      <c r="K459" t="str">
+        <v>800</v>
+      </c>
+      <c r="K459">
         <f>IF(ISBLANK('Data Input'!K459),"",'Data Input'!K459)</f>
-        <v/>
-      </c>
-      <c r="L459" t="str">
+        <v>2</v>
+      </c>
+      <c r="L459">
         <f>IF(ISBLANK('Data Input'!L459),"",'Data Input'!L459)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M459" t="str">
         <f>IF(ISBLANK('Data Input'!M459),"",'Data Input'!M459)</f>
@@ -52365,57 +54870,57 @@
       </c>
       <c r="P459" t="b">
         <f>IF(ISBLANK('Data Input'!P459),"",'Data Input'!P459)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:16">
       <c r="A460">
         <f>IF(ISBLANK('Data Input'!A460),"",'Data Input'!A460)</f>
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B460" t="str">
         <f>IF(ISBLANK('Data Input'!B460),"",'Data Input'!B460)</f>
-        <v/>
+        <v>IC121</v>
       </c>
       <c r="C460" t="str">
         <f>IF(ISBLANK('Data Input'!C460),"",'Data Input'!C460)</f>
-        <v/>
+        <v>7=5=18 0635</v>
       </c>
       <c r="D460" t="str">
         <f>IF(ISBLANK('Data Input'!D460),"",'Data Input'!D460)</f>
-        <v/>
-      </c>
-      <c r="E460" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E460">
         <f>IF(ISBLANK('Data Input'!E460),"",'Data Input'!E460)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="F460" t="str">
         <f>IF(ISBLANK('Data Input'!F460),"",'Data Input'!F460)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G460" t="str">
         <f>IF(ISBLANK('Data Input'!G460),"",'Data Input'!G460)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H460" t="str">
         <f>IF(ISBLANK('Data Input'!H460),"",'Data Input'!H460)</f>
-        <v/>
+        <v>7=6=18 0607</v>
       </c>
       <c r="I460" t="str">
         <f>IF(ISBLANK('Data Input'!I460),"",'Data Input'!I460)</f>
-        <v/>
-      </c>
-      <c r="J460" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J460">
         <f>IF(ISBLANK('Data Input'!J460),"",'Data Input'!J460)</f>
-        <v/>
-      </c>
-      <c r="K460" t="str">
+        <v>800</v>
+      </c>
+      <c r="K460">
         <f>IF(ISBLANK('Data Input'!K460),"",'Data Input'!K460)</f>
-        <v/>
-      </c>
-      <c r="L460" t="str">
+        <v>2</v>
+      </c>
+      <c r="L460">
         <f>IF(ISBLANK('Data Input'!L460),"",'Data Input'!L460)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M460" t="str">
         <f>IF(ISBLANK('Data Input'!M460),"",'Data Input'!M460)</f>
@@ -52431,57 +54936,57 @@
       </c>
       <c r="P460" t="b">
         <f>IF(ISBLANK('Data Input'!P460),"",'Data Input'!P460)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:16">
       <c r="A461">
         <f>IF(ISBLANK('Data Input'!A461),"",'Data Input'!A461)</f>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B461" t="str">
         <f>IF(ISBLANK('Data Input'!B461),"",'Data Input'!B461)</f>
-        <v/>
+        <v>KB122</v>
       </c>
       <c r="C461" t="str">
         <f>IF(ISBLANK('Data Input'!C461),"",'Data Input'!C461)</f>
-        <v/>
+        <v>7=4=18 11025</v>
       </c>
       <c r="D461" t="str">
         <f>IF(ISBLANK('Data Input'!D461),"",'Data Input'!D461)</f>
-        <v/>
-      </c>
-      <c r="E461" t="str">
+        <v>7=5=18 0815</v>
+      </c>
+      <c r="E461">
         <f>IF(ISBLANK('Data Input'!E461),"",'Data Input'!E461)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F461" t="str">
         <f>IF(ISBLANK('Data Input'!F461),"",'Data Input'!F461)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G461" t="str">
         <f>IF(ISBLANK('Data Input'!G461),"",'Data Input'!G461)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H461" t="str">
         <f>IF(ISBLANK('Data Input'!H461),"",'Data Input'!H461)</f>
-        <v/>
+        <v>7=4=18 1733</v>
       </c>
       <c r="I461" t="str">
         <f>IF(ISBLANK('Data Input'!I461),"",'Data Input'!I461)</f>
-        <v/>
-      </c>
-      <c r="J461" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J461">
         <f>IF(ISBLANK('Data Input'!J461),"",'Data Input'!J461)</f>
-        <v/>
-      </c>
-      <c r="K461" t="str">
+        <v>800</v>
+      </c>
+      <c r="K461">
         <f>IF(ISBLANK('Data Input'!K461),"",'Data Input'!K461)</f>
-        <v/>
-      </c>
-      <c r="L461" t="str">
+        <v>5</v>
+      </c>
+      <c r="L461">
         <f>IF(ISBLANK('Data Input'!L461),"",'Data Input'!L461)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M461" t="str">
         <f>IF(ISBLANK('Data Input'!M461),"",'Data Input'!M461)</f>
@@ -52503,51 +55008,51 @@
     <row r="462" spans="1:16">
       <c r="A462">
         <f>IF(ISBLANK('Data Input'!A462),"",'Data Input'!A462)</f>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B462" t="str">
         <f>IF(ISBLANK('Data Input'!B462),"",'Data Input'!B462)</f>
-        <v/>
+        <v>KB122</v>
       </c>
       <c r="C462" t="str">
         <f>IF(ISBLANK('Data Input'!C462),"",'Data Input'!C462)</f>
-        <v/>
+        <v>7=4=18 11025</v>
       </c>
       <c r="D462" t="str">
         <f>IF(ISBLANK('Data Input'!D462),"",'Data Input'!D462)</f>
-        <v/>
-      </c>
-      <c r="E462" t="str">
+        <v>7=5=18 0815</v>
+      </c>
+      <c r="E462">
         <f>IF(ISBLANK('Data Input'!E462),"",'Data Input'!E462)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F462" t="str">
         <f>IF(ISBLANK('Data Input'!F462),"",'Data Input'!F462)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G462" t="str">
         <f>IF(ISBLANK('Data Input'!G462),"",'Data Input'!G462)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H462" t="str">
         <f>IF(ISBLANK('Data Input'!H462),"",'Data Input'!H462)</f>
-        <v/>
+        <v>7=4=18 1955</v>
       </c>
       <c r="I462" t="str">
         <f>IF(ISBLANK('Data Input'!I462),"",'Data Input'!I462)</f>
-        <v/>
-      </c>
-      <c r="J462" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J462">
         <f>IF(ISBLANK('Data Input'!J462),"",'Data Input'!J462)</f>
-        <v/>
-      </c>
-      <c r="K462" t="str">
+        <v>2</v>
+      </c>
+      <c r="K462">
         <f>IF(ISBLANK('Data Input'!K462),"",'Data Input'!K462)</f>
-        <v/>
-      </c>
-      <c r="L462" t="str">
+        <v>9</v>
+      </c>
+      <c r="L462">
         <f>IF(ISBLANK('Data Input'!L462),"",'Data Input'!L462)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M462" t="str">
         <f>IF(ISBLANK('Data Input'!M462),"",'Data Input'!M462)</f>
@@ -52569,51 +55074,51 @@
     <row r="463" spans="1:16">
       <c r="A463">
         <f>IF(ISBLANK('Data Input'!A463),"",'Data Input'!A463)</f>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B463" t="str">
         <f>IF(ISBLANK('Data Input'!B463),"",'Data Input'!B463)</f>
-        <v/>
+        <v>KB122</v>
       </c>
       <c r="C463" t="str">
         <f>IF(ISBLANK('Data Input'!C463),"",'Data Input'!C463)</f>
-        <v/>
+        <v>7=4=18 11025</v>
       </c>
       <c r="D463" t="str">
         <f>IF(ISBLANK('Data Input'!D463),"",'Data Input'!D463)</f>
-        <v/>
-      </c>
-      <c r="E463" t="str">
+        <v>7=5=18 0815</v>
+      </c>
+      <c r="E463">
         <f>IF(ISBLANK('Data Input'!E463),"",'Data Input'!E463)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F463" t="str">
         <f>IF(ISBLANK('Data Input'!F463),"",'Data Input'!F463)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G463" t="str">
         <f>IF(ISBLANK('Data Input'!G463),"",'Data Input'!G463)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H463" t="str">
         <f>IF(ISBLANK('Data Input'!H463),"",'Data Input'!H463)</f>
-        <v/>
+        <v>7=4=18 2341</v>
       </c>
       <c r="I463" t="str">
         <f>IF(ISBLANK('Data Input'!I463),"",'Data Input'!I463)</f>
-        <v/>
-      </c>
-      <c r="J463" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J463">
         <f>IF(ISBLANK('Data Input'!J463),"",'Data Input'!J463)</f>
-        <v/>
-      </c>
-      <c r="K463" t="str">
+        <v>800</v>
+      </c>
+      <c r="K463">
         <f>IF(ISBLANK('Data Input'!K463),"",'Data Input'!K463)</f>
-        <v/>
-      </c>
-      <c r="L463" t="str">
+        <v>7</v>
+      </c>
+      <c r="L463">
         <f>IF(ISBLANK('Data Input'!L463),"",'Data Input'!L463)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M463" t="str">
         <f>IF(ISBLANK('Data Input'!M463),"",'Data Input'!M463)</f>
@@ -52635,51 +55140,51 @@
     <row r="464" spans="1:16">
       <c r="A464">
         <f>IF(ISBLANK('Data Input'!A464),"",'Data Input'!A464)</f>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B464" t="str">
         <f>IF(ISBLANK('Data Input'!B464),"",'Data Input'!B464)</f>
-        <v/>
+        <v>KB122</v>
       </c>
       <c r="C464" t="str">
         <f>IF(ISBLANK('Data Input'!C464),"",'Data Input'!C464)</f>
-        <v/>
+        <v>7=4=18 11025</v>
       </c>
       <c r="D464" t="str">
         <f>IF(ISBLANK('Data Input'!D464),"",'Data Input'!D464)</f>
-        <v/>
-      </c>
-      <c r="E464" t="str">
+        <v>7=5=18 0815</v>
+      </c>
+      <c r="E464">
         <f>IF(ISBLANK('Data Input'!E464),"",'Data Input'!E464)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F464" t="str">
         <f>IF(ISBLANK('Data Input'!F464),"",'Data Input'!F464)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G464" t="str">
         <f>IF(ISBLANK('Data Input'!G464),"",'Data Input'!G464)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H464" t="str">
         <f>IF(ISBLANK('Data Input'!H464),"",'Data Input'!H464)</f>
-        <v/>
+        <v>7=5=18 0815</v>
       </c>
       <c r="I464" t="str">
         <f>IF(ISBLANK('Data Input'!I464),"",'Data Input'!I464)</f>
-        <v/>
-      </c>
-      <c r="J464" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J464">
         <f>IF(ISBLANK('Data Input'!J464),"",'Data Input'!J464)</f>
-        <v/>
-      </c>
-      <c r="K464" t="str">
+        <v>800</v>
+      </c>
+      <c r="K464">
         <f>IF(ISBLANK('Data Input'!K464),"",'Data Input'!K464)</f>
-        <v/>
-      </c>
-      <c r="L464" t="str">
+        <v>3</v>
+      </c>
+      <c r="L464">
         <f>IF(ISBLANK('Data Input'!L464),"",'Data Input'!L464)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M464" t="str">
         <f>IF(ISBLANK('Data Input'!M464),"",'Data Input'!M464)</f>
@@ -52701,51 +55206,51 @@
     <row r="465" spans="1:16">
       <c r="A465">
         <f>IF(ISBLANK('Data Input'!A465),"",'Data Input'!A465)</f>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B465" t="str">
         <f>IF(ISBLANK('Data Input'!B465),"",'Data Input'!B465)</f>
-        <v/>
+        <v>KA123</v>
       </c>
       <c r="C465" t="str">
         <f>IF(ISBLANK('Data Input'!C465),"",'Data Input'!C465)</f>
-        <v/>
+        <v>7=5=18 1430</v>
       </c>
       <c r="D465" t="str">
         <f>IF(ISBLANK('Data Input'!D465),"",'Data Input'!D465)</f>
-        <v/>
-      </c>
-      <c r="E465" t="str">
+        <v>7=6=18 1248</v>
+      </c>
+      <c r="E465">
         <f>IF(ISBLANK('Data Input'!E465),"",'Data Input'!E465)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F465" t="str">
         <f>IF(ISBLANK('Data Input'!F465),"",'Data Input'!F465)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G465" t="str">
         <f>IF(ISBLANK('Data Input'!G465),"",'Data Input'!G465)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H465" t="str">
         <f>IF(ISBLANK('Data Input'!H465),"",'Data Input'!H465)</f>
-        <v/>
+        <v>7=5=18 1811</v>
       </c>
       <c r="I465" t="str">
         <f>IF(ISBLANK('Data Input'!I465),"",'Data Input'!I465)</f>
-        <v/>
-      </c>
-      <c r="J465" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J465">
         <f>IF(ISBLANK('Data Input'!J465),"",'Data Input'!J465)</f>
-        <v/>
-      </c>
-      <c r="K465" t="str">
+        <v>30</v>
+      </c>
+      <c r="K465">
         <f>IF(ISBLANK('Data Input'!K465),"",'Data Input'!K465)</f>
-        <v/>
-      </c>
-      <c r="L465" t="str">
+        <v>10</v>
+      </c>
+      <c r="L465">
         <f>IF(ISBLANK('Data Input'!L465),"",'Data Input'!L465)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M465" t="str">
         <f>IF(ISBLANK('Data Input'!M465),"",'Data Input'!M465)</f>
@@ -52761,57 +55266,57 @@
       </c>
       <c r="P465" t="b">
         <f>IF(ISBLANK('Data Input'!P465),"",'Data Input'!P465)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:16">
       <c r="A466">
         <f>IF(ISBLANK('Data Input'!A466),"",'Data Input'!A466)</f>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B466" t="str">
         <f>IF(ISBLANK('Data Input'!B466),"",'Data Input'!B466)</f>
-        <v/>
+        <v>KA123</v>
       </c>
       <c r="C466" t="str">
         <f>IF(ISBLANK('Data Input'!C466),"",'Data Input'!C466)</f>
-        <v/>
+        <v>7=5=18 1430</v>
       </c>
       <c r="D466" t="str">
         <f>IF(ISBLANK('Data Input'!D466),"",'Data Input'!D466)</f>
-        <v/>
-      </c>
-      <c r="E466" t="str">
+        <v>7=6=18 1248</v>
+      </c>
+      <c r="E466">
         <f>IF(ISBLANK('Data Input'!E466),"",'Data Input'!E466)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F466" t="str">
         <f>IF(ISBLANK('Data Input'!F466),"",'Data Input'!F466)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G466" t="str">
         <f>IF(ISBLANK('Data Input'!G466),"",'Data Input'!G466)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H466" t="str">
         <f>IF(ISBLANK('Data Input'!H466),"",'Data Input'!H466)</f>
-        <v/>
+        <v>7=6=18 0057</v>
       </c>
       <c r="I466" t="str">
         <f>IF(ISBLANK('Data Input'!I466),"",'Data Input'!I466)</f>
-        <v/>
-      </c>
-      <c r="J466" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J466">
         <f>IF(ISBLANK('Data Input'!J466),"",'Data Input'!J466)</f>
-        <v/>
-      </c>
-      <c r="K466" t="str">
+        <v>30</v>
+      </c>
+      <c r="K466">
         <f>IF(ISBLANK('Data Input'!K466),"",'Data Input'!K466)</f>
-        <v/>
-      </c>
-      <c r="L466" t="str">
+        <v>6</v>
+      </c>
+      <c r="L466">
         <f>IF(ISBLANK('Data Input'!L466),"",'Data Input'!L466)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M466" t="str">
         <f>IF(ISBLANK('Data Input'!M466),"",'Data Input'!M466)</f>
@@ -52827,57 +55332,57 @@
       </c>
       <c r="P466" t="b">
         <f>IF(ISBLANK('Data Input'!P466),"",'Data Input'!P466)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:16">
       <c r="A467">
         <f>IF(ISBLANK('Data Input'!A467),"",'Data Input'!A467)</f>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B467" t="str">
         <f>IF(ISBLANK('Data Input'!B467),"",'Data Input'!B467)</f>
-        <v/>
+        <v>KA123</v>
       </c>
       <c r="C467" t="str">
         <f>IF(ISBLANK('Data Input'!C467),"",'Data Input'!C467)</f>
-        <v/>
+        <v>7=5=18 1430</v>
       </c>
       <c r="D467" t="str">
         <f>IF(ISBLANK('Data Input'!D467),"",'Data Input'!D467)</f>
-        <v/>
-      </c>
-      <c r="E467" t="str">
+        <v>7=6=18 1248</v>
+      </c>
+      <c r="E467">
         <f>IF(ISBLANK('Data Input'!E467),"",'Data Input'!E467)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F467" t="str">
         <f>IF(ISBLANK('Data Input'!F467),"",'Data Input'!F467)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G467" t="str">
         <f>IF(ISBLANK('Data Input'!G467),"",'Data Input'!G467)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H467" t="str">
         <f>IF(ISBLANK('Data Input'!H467),"",'Data Input'!H467)</f>
-        <v/>
+        <v>7=6=18 0640</v>
       </c>
       <c r="I467" t="str">
         <f>IF(ISBLANK('Data Input'!I467),"",'Data Input'!I467)</f>
-        <v/>
-      </c>
-      <c r="J467" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J467">
         <f>IF(ISBLANK('Data Input'!J467),"",'Data Input'!J467)</f>
-        <v/>
-      </c>
-      <c r="K467" t="str">
+        <v>30</v>
+      </c>
+      <c r="K467">
         <f>IF(ISBLANK('Data Input'!K467),"",'Data Input'!K467)</f>
-        <v/>
-      </c>
-      <c r="L467" t="str">
+        <v>5</v>
+      </c>
+      <c r="L467">
         <f>IF(ISBLANK('Data Input'!L467),"",'Data Input'!L467)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M467" t="str">
         <f>IF(ISBLANK('Data Input'!M467),"",'Data Input'!M467)</f>
@@ -52893,57 +55398,57 @@
       </c>
       <c r="P467" t="b">
         <f>IF(ISBLANK('Data Input'!P467),"",'Data Input'!P467)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468">
         <f>IF(ISBLANK('Data Input'!A468),"",'Data Input'!A468)</f>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B468" t="str">
         <f>IF(ISBLANK('Data Input'!B468),"",'Data Input'!B468)</f>
-        <v/>
+        <v>KA123</v>
       </c>
       <c r="C468" t="str">
         <f>IF(ISBLANK('Data Input'!C468),"",'Data Input'!C468)</f>
-        <v/>
+        <v>7=5=18 1430</v>
       </c>
       <c r="D468" t="str">
         <f>IF(ISBLANK('Data Input'!D468),"",'Data Input'!D468)</f>
-        <v/>
-      </c>
-      <c r="E468" t="str">
+        <v>7=6=18 1248</v>
+      </c>
+      <c r="E468">
         <f>IF(ISBLANK('Data Input'!E468),"",'Data Input'!E468)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F468" t="str">
         <f>IF(ISBLANK('Data Input'!F468),"",'Data Input'!F468)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G468" t="str">
         <f>IF(ISBLANK('Data Input'!G468),"",'Data Input'!G468)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H468" t="str">
         <f>IF(ISBLANK('Data Input'!H468),"",'Data Input'!H468)</f>
-        <v/>
+        <v>7=6=18 1248</v>
       </c>
       <c r="I468" t="str">
         <f>IF(ISBLANK('Data Input'!I468),"",'Data Input'!I468)</f>
-        <v/>
-      </c>
-      <c r="J468" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J468">
         <f>IF(ISBLANK('Data Input'!J468),"",'Data Input'!J468)</f>
-        <v/>
-      </c>
-      <c r="K468" t="str">
+        <v>30</v>
+      </c>
+      <c r="K468">
         <f>IF(ISBLANK('Data Input'!K468),"",'Data Input'!K468)</f>
-        <v/>
-      </c>
-      <c r="L468" t="str">
+        <v>5</v>
+      </c>
+      <c r="L468">
         <f>IF(ISBLANK('Data Input'!L468),"",'Data Input'!L468)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M468" t="str">
         <f>IF(ISBLANK('Data Input'!M468),"",'Data Input'!M468)</f>
@@ -52959,57 +55464,57 @@
       </c>
       <c r="P468" t="b">
         <f>IF(ISBLANK('Data Input'!P468),"",'Data Input'!P468)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:16">
       <c r="A469">
         <f>IF(ISBLANK('Data Input'!A469),"",'Data Input'!A469)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B469" t="str">
         <f>IF(ISBLANK('Data Input'!B469),"",'Data Input'!B469)</f>
-        <v/>
+        <v>MT124</v>
       </c>
       <c r="C469" t="str">
         <f>IF(ISBLANK('Data Input'!C469),"",'Data Input'!C469)</f>
-        <v/>
+        <v>7=4=18 0505</v>
       </c>
       <c r="D469" t="str">
         <f>IF(ISBLANK('Data Input'!D469),"",'Data Input'!D469)</f>
-        <v/>
-      </c>
-      <c r="E469" t="str">
+        <v>7=5=18 0440</v>
+      </c>
+      <c r="E469">
         <f>IF(ISBLANK('Data Input'!E469),"",'Data Input'!E469)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="F469" t="str">
         <f>IF(ISBLANK('Data Input'!F469),"",'Data Input'!F469)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G469" t="str">
         <f>IF(ISBLANK('Data Input'!G469),"",'Data Input'!G469)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H469" t="str">
         <f>IF(ISBLANK('Data Input'!H469),"",'Data Input'!H469)</f>
-        <v/>
+        <v>7=4=18 0902</v>
       </c>
       <c r="I469" t="str">
         <f>IF(ISBLANK('Data Input'!I469),"",'Data Input'!I469)</f>
-        <v/>
-      </c>
-      <c r="J469" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J469">
         <f>IF(ISBLANK('Data Input'!J469),"",'Data Input'!J469)</f>
-        <v/>
-      </c>
-      <c r="K469" t="str">
+        <v>800</v>
+      </c>
+      <c r="K469">
         <f>IF(ISBLANK('Data Input'!K469),"",'Data Input'!K469)</f>
-        <v/>
-      </c>
-      <c r="L469" t="str">
+        <v>8</v>
+      </c>
+      <c r="L469">
         <f>IF(ISBLANK('Data Input'!L469),"",'Data Input'!L469)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M469" t="str">
         <f>IF(ISBLANK('Data Input'!M469),"",'Data Input'!M469)</f>
@@ -53031,51 +55536,51 @@
     <row r="470" spans="1:16">
       <c r="A470">
         <f>IF(ISBLANK('Data Input'!A470),"",'Data Input'!A470)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B470" t="str">
         <f>IF(ISBLANK('Data Input'!B470),"",'Data Input'!B470)</f>
-        <v/>
+        <v>MT124</v>
       </c>
       <c r="C470" t="str">
         <f>IF(ISBLANK('Data Input'!C470),"",'Data Input'!C470)</f>
-        <v/>
+        <v>7=4=18 0505</v>
       </c>
       <c r="D470" t="str">
         <f>IF(ISBLANK('Data Input'!D470),"",'Data Input'!D470)</f>
-        <v/>
-      </c>
-      <c r="E470" t="str">
+        <v>7=5=18 0440</v>
+      </c>
+      <c r="E470">
         <f>IF(ISBLANK('Data Input'!E470),"",'Data Input'!E470)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="F470" t="str">
         <f>IF(ISBLANK('Data Input'!F470),"",'Data Input'!F470)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G470" t="str">
         <f>IF(ISBLANK('Data Input'!G470),"",'Data Input'!G470)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H470" t="str">
         <f>IF(ISBLANK('Data Input'!H470),"",'Data Input'!H470)</f>
-        <v/>
+        <v>7=4=18 1456</v>
       </c>
       <c r="I470" t="str">
         <f>IF(ISBLANK('Data Input'!I470),"",'Data Input'!I470)</f>
-        <v/>
-      </c>
-      <c r="J470" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J470">
         <f>IF(ISBLANK('Data Input'!J470),"",'Data Input'!J470)</f>
-        <v/>
-      </c>
-      <c r="K470" t="str">
+        <v>800</v>
+      </c>
+      <c r="K470">
         <f>IF(ISBLANK('Data Input'!K470),"",'Data Input'!K470)</f>
-        <v/>
-      </c>
-      <c r="L470" t="str">
+        <v>3</v>
+      </c>
+      <c r="L470">
         <f>IF(ISBLANK('Data Input'!L470),"",'Data Input'!L470)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M470" t="str">
         <f>IF(ISBLANK('Data Input'!M470),"",'Data Input'!M470)</f>
@@ -53097,51 +55602,51 @@
     <row r="471" spans="1:16">
       <c r="A471">
         <f>IF(ISBLANK('Data Input'!A471),"",'Data Input'!A471)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B471" t="str">
         <f>IF(ISBLANK('Data Input'!B471),"",'Data Input'!B471)</f>
-        <v/>
+        <v>MT124</v>
       </c>
       <c r="C471" t="str">
         <f>IF(ISBLANK('Data Input'!C471),"",'Data Input'!C471)</f>
-        <v/>
+        <v>7=4=18 0505</v>
       </c>
       <c r="D471" t="str">
         <f>IF(ISBLANK('Data Input'!D471),"",'Data Input'!D471)</f>
-        <v/>
-      </c>
-      <c r="E471" t="str">
+        <v>7=5=18 0440</v>
+      </c>
+      <c r="E471">
         <f>IF(ISBLANK('Data Input'!E471),"",'Data Input'!E471)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="F471" t="str">
         <f>IF(ISBLANK('Data Input'!F471),"",'Data Input'!F471)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G471" t="str">
         <f>IF(ISBLANK('Data Input'!G471),"",'Data Input'!G471)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H471" t="str">
         <f>IF(ISBLANK('Data Input'!H471),"",'Data Input'!H471)</f>
-        <v/>
+        <v>7=4=18 2111</v>
       </c>
       <c r="I471" t="str">
         <f>IF(ISBLANK('Data Input'!I471),"",'Data Input'!I471)</f>
-        <v/>
-      </c>
-      <c r="J471" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J471">
         <f>IF(ISBLANK('Data Input'!J471),"",'Data Input'!J471)</f>
-        <v/>
-      </c>
-      <c r="K471" t="str">
+        <v>800</v>
+      </c>
+      <c r="K471">
         <f>IF(ISBLANK('Data Input'!K471),"",'Data Input'!K471)</f>
-        <v/>
-      </c>
-      <c r="L471" t="str">
+        <v>5</v>
+      </c>
+      <c r="L471">
         <f>IF(ISBLANK('Data Input'!L471),"",'Data Input'!L471)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M471" t="str">
         <f>IF(ISBLANK('Data Input'!M471),"",'Data Input'!M471)</f>
@@ -53163,51 +55668,51 @@
     <row r="472" spans="1:16">
       <c r="A472">
         <f>IF(ISBLANK('Data Input'!A472),"",'Data Input'!A472)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B472" t="str">
         <f>IF(ISBLANK('Data Input'!B472),"",'Data Input'!B472)</f>
-        <v/>
+        <v>MT124</v>
       </c>
       <c r="C472" t="str">
         <f>IF(ISBLANK('Data Input'!C472),"",'Data Input'!C472)</f>
-        <v/>
+        <v>7=4=18 0505</v>
       </c>
       <c r="D472" t="str">
         <f>IF(ISBLANK('Data Input'!D472),"",'Data Input'!D472)</f>
-        <v/>
-      </c>
-      <c r="E472" t="str">
+        <v>7=5=18 0440</v>
+      </c>
+      <c r="E472">
         <f>IF(ISBLANK('Data Input'!E472),"",'Data Input'!E472)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="F472" t="str">
         <f>IF(ISBLANK('Data Input'!F472),"",'Data Input'!F472)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G472" t="str">
         <f>IF(ISBLANK('Data Input'!G472),"",'Data Input'!G472)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H472" t="str">
         <f>IF(ISBLANK('Data Input'!H472),"",'Data Input'!H472)</f>
-        <v/>
+        <v>7=5=18 0440</v>
       </c>
       <c r="I472" t="str">
         <f>IF(ISBLANK('Data Input'!I472),"",'Data Input'!I472)</f>
-        <v/>
-      </c>
-      <c r="J472" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J472">
         <f>IF(ISBLANK('Data Input'!J472),"",'Data Input'!J472)</f>
-        <v/>
-      </c>
-      <c r="K472" t="str">
+        <v>800</v>
+      </c>
+      <c r="K472">
         <f>IF(ISBLANK('Data Input'!K472),"",'Data Input'!K472)</f>
-        <v/>
-      </c>
-      <c r="L472" t="str">
+        <v>5</v>
+      </c>
+      <c r="L472">
         <f>IF(ISBLANK('Data Input'!L472),"",'Data Input'!L472)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M472" t="str">
         <f>IF(ISBLANK('Data Input'!M472),"",'Data Input'!M472)</f>
@@ -53229,51 +55734,51 @@
     <row r="473" spans="1:16">
       <c r="A473">
         <f>IF(ISBLANK('Data Input'!A473),"",'Data Input'!A473)</f>
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B473" t="str">
         <f>IF(ISBLANK('Data Input'!B473),"",'Data Input'!B473)</f>
-        <v/>
+        <v>JC125</v>
       </c>
       <c r="C473" t="str">
         <f>IF(ISBLANK('Data Input'!C473),"",'Data Input'!C473)</f>
-        <v/>
+        <v>7=4=18 1915</v>
       </c>
       <c r="D473" t="str">
         <f>IF(ISBLANK('Data Input'!D473),"",'Data Input'!D473)</f>
-        <v/>
-      </c>
-      <c r="E473" t="str">
+        <v>7=5=18 1325</v>
+      </c>
+      <c r="E473">
         <f>IF(ISBLANK('Data Input'!E473),"",'Data Input'!E473)</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="F473" t="str">
         <f>IF(ISBLANK('Data Input'!F473),"",'Data Input'!F473)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G473" t="str">
         <f>IF(ISBLANK('Data Input'!G473),"",'Data Input'!G473)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H473" t="str">
         <f>IF(ISBLANK('Data Input'!H473),"",'Data Input'!H473)</f>
-        <v/>
+        <v>7=5=18 0552</v>
       </c>
       <c r="I473" t="str">
         <f>IF(ISBLANK('Data Input'!I473),"",'Data Input'!I473)</f>
-        <v/>
-      </c>
-      <c r="J473" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J473">
         <f>IF(ISBLANK('Data Input'!J473),"",'Data Input'!J473)</f>
-        <v/>
-      </c>
-      <c r="K473" t="str">
+        <v>30</v>
+      </c>
+      <c r="K473">
         <f>IF(ISBLANK('Data Input'!K473),"",'Data Input'!K473)</f>
-        <v/>
-      </c>
-      <c r="L473" t="str">
+        <v>6</v>
+      </c>
+      <c r="L473">
         <f>IF(ISBLANK('Data Input'!L473),"",'Data Input'!L473)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M473" t="str">
         <f>IF(ISBLANK('Data Input'!M473),"",'Data Input'!M473)</f>
@@ -53289,57 +55794,57 @@
       </c>
       <c r="P473" t="b">
         <f>IF(ISBLANK('Data Input'!P473),"",'Data Input'!P473)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:16">
       <c r="A474">
         <f>IF(ISBLANK('Data Input'!A474),"",'Data Input'!A474)</f>
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B474" t="str">
         <f>IF(ISBLANK('Data Input'!B474),"",'Data Input'!B474)</f>
-        <v/>
+        <v>JC125</v>
       </c>
       <c r="C474" t="str">
         <f>IF(ISBLANK('Data Input'!C474),"",'Data Input'!C474)</f>
-        <v/>
+        <v>7=4=18 1915</v>
       </c>
       <c r="D474" t="str">
         <f>IF(ISBLANK('Data Input'!D474),"",'Data Input'!D474)</f>
-        <v/>
-      </c>
-      <c r="E474" t="str">
+        <v>7=5=18 1325</v>
+      </c>
+      <c r="E474">
         <f>IF(ISBLANK('Data Input'!E474),"",'Data Input'!E474)</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="F474" t="str">
         <f>IF(ISBLANK('Data Input'!F474),"",'Data Input'!F474)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G474" t="str">
         <f>IF(ISBLANK('Data Input'!G474),"",'Data Input'!G474)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H474" t="str">
         <f>IF(ISBLANK('Data Input'!H474),"",'Data Input'!H474)</f>
-        <v/>
+        <v>7=5=18 1325</v>
       </c>
       <c r="I474" t="str">
         <f>IF(ISBLANK('Data Input'!I474),"",'Data Input'!I474)</f>
-        <v/>
-      </c>
-      <c r="J474" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J474">
         <f>IF(ISBLANK('Data Input'!J474),"",'Data Input'!J474)</f>
-        <v/>
-      </c>
-      <c r="K474" t="str">
+        <v>30</v>
+      </c>
+      <c r="K474">
         <f>IF(ISBLANK('Data Input'!K474),"",'Data Input'!K474)</f>
-        <v/>
-      </c>
-      <c r="L474" t="str">
+        <v>5</v>
+      </c>
+      <c r="L474">
         <f>IF(ISBLANK('Data Input'!L474),"",'Data Input'!L474)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M474" t="str">
         <f>IF(ISBLANK('Data Input'!M474),"",'Data Input'!M474)</f>
@@ -53355,57 +55860,57 @@
       </c>
       <c r="P474" t="b">
         <f>IF(ISBLANK('Data Input'!P474),"",'Data Input'!P474)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:16">
       <c r="A475">
         <f>IF(ISBLANK('Data Input'!A475),"",'Data Input'!A475)</f>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B475" t="str">
         <f>IF(ISBLANK('Data Input'!B475),"",'Data Input'!B475)</f>
-        <v/>
+        <v>AR126</v>
       </c>
       <c r="C475" t="str">
         <f>IF(ISBLANK('Data Input'!C475),"",'Data Input'!C475)</f>
-        <v/>
+        <v>7=5=18 1200</v>
       </c>
       <c r="D475" t="str">
         <f>IF(ISBLANK('Data Input'!D475),"",'Data Input'!D475)</f>
-        <v/>
-      </c>
-      <c r="E475" t="str">
+        <v>7=6=18 0945</v>
+      </c>
+      <c r="E475">
         <f>IF(ISBLANK('Data Input'!E475),"",'Data Input'!E475)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F475" t="str">
         <f>IF(ISBLANK('Data Input'!F475),"",'Data Input'!F475)</f>
-        <v/>
+        <v>Other</v>
       </c>
       <c r="G475" t="str">
         <f>IF(ISBLANK('Data Input'!G475),"",'Data Input'!G475)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H475" t="str">
         <f>IF(ISBLANK('Data Input'!H475),"",'Data Input'!H475)</f>
-        <v/>
+        <v>7=5=18 1248</v>
       </c>
       <c r="I475" t="str">
         <f>IF(ISBLANK('Data Input'!I475),"",'Data Input'!I475)</f>
-        <v/>
-      </c>
-      <c r="J475" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J475">
         <f>IF(ISBLANK('Data Input'!J475),"",'Data Input'!J475)</f>
-        <v/>
-      </c>
-      <c r="K475" t="str">
+        <v>30</v>
+      </c>
+      <c r="K475">
         <f>IF(ISBLANK('Data Input'!K475),"",'Data Input'!K475)</f>
-        <v/>
-      </c>
-      <c r="L475" t="str">
+        <v>3</v>
+      </c>
+      <c r="L475">
         <f>IF(ISBLANK('Data Input'!L475),"",'Data Input'!L475)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M475" t="str">
         <f>IF(ISBLANK('Data Input'!M475),"",'Data Input'!M475)</f>
@@ -53427,51 +55932,51 @@
     <row r="476" spans="1:16">
       <c r="A476">
         <f>IF(ISBLANK('Data Input'!A476),"",'Data Input'!A476)</f>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B476" t="str">
         <f>IF(ISBLANK('Data Input'!B476),"",'Data Input'!B476)</f>
-        <v/>
+        <v>AR126</v>
       </c>
       <c r="C476" t="str">
         <f>IF(ISBLANK('Data Input'!C476),"",'Data Input'!C476)</f>
-        <v/>
+        <v>7=5=18 1200</v>
       </c>
       <c r="D476" t="str">
         <f>IF(ISBLANK('Data Input'!D476),"",'Data Input'!D476)</f>
-        <v/>
-      </c>
-      <c r="E476" t="str">
+        <v>7=6=18 0945</v>
+      </c>
+      <c r="E476">
         <f>IF(ISBLANK('Data Input'!E476),"",'Data Input'!E476)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F476" t="str">
         <f>IF(ISBLANK('Data Input'!F476),"",'Data Input'!F476)</f>
-        <v/>
+        <v>Other</v>
       </c>
       <c r="G476" t="str">
         <f>IF(ISBLANK('Data Input'!G476),"",'Data Input'!G476)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H476" t="str">
         <f>IF(ISBLANK('Data Input'!H476),"",'Data Input'!H476)</f>
-        <v/>
+        <v>7=5=18 2048</v>
       </c>
       <c r="I476" t="str">
         <f>IF(ISBLANK('Data Input'!I476),"",'Data Input'!I476)</f>
-        <v/>
-      </c>
-      <c r="J476" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J476">
         <f>IF(ISBLANK('Data Input'!J476),"",'Data Input'!J476)</f>
-        <v/>
-      </c>
-      <c r="K476" t="str">
+        <v>30</v>
+      </c>
+      <c r="K476">
         <f>IF(ISBLANK('Data Input'!K476),"",'Data Input'!K476)</f>
-        <v/>
-      </c>
-      <c r="L476" t="str">
+        <v>2</v>
+      </c>
+      <c r="L476">
         <f>IF(ISBLANK('Data Input'!L476),"",'Data Input'!L476)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M476" t="str">
         <f>IF(ISBLANK('Data Input'!M476),"",'Data Input'!M476)</f>
@@ -53493,51 +55998,51 @@
     <row r="477" spans="1:16">
       <c r="A477">
         <f>IF(ISBLANK('Data Input'!A477),"",'Data Input'!A477)</f>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B477" t="str">
         <f>IF(ISBLANK('Data Input'!B477),"",'Data Input'!B477)</f>
-        <v/>
+        <v>AR126</v>
       </c>
       <c r="C477" t="str">
         <f>IF(ISBLANK('Data Input'!C477),"",'Data Input'!C477)</f>
-        <v/>
+        <v>7=5=18 1200</v>
       </c>
       <c r="D477" t="str">
         <f>IF(ISBLANK('Data Input'!D477),"",'Data Input'!D477)</f>
-        <v/>
-      </c>
-      <c r="E477" t="str">
+        <v>7=6=18 0945</v>
+      </c>
+      <c r="E477">
         <f>IF(ISBLANK('Data Input'!E477),"",'Data Input'!E477)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F477" t="str">
         <f>IF(ISBLANK('Data Input'!F477),"",'Data Input'!F477)</f>
-        <v/>
+        <v>Other</v>
       </c>
       <c r="G477" t="str">
         <f>IF(ISBLANK('Data Input'!G477),"",'Data Input'!G477)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H477" t="str">
         <f>IF(ISBLANK('Data Input'!H477),"",'Data Input'!H477)</f>
-        <v/>
+        <v>7=6=18 0318</v>
       </c>
       <c r="I477" t="str">
         <f>IF(ISBLANK('Data Input'!I477),"",'Data Input'!I477)</f>
-        <v/>
-      </c>
-      <c r="J477" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J477">
         <f>IF(ISBLANK('Data Input'!J477),"",'Data Input'!J477)</f>
-        <v/>
-      </c>
-      <c r="K477" t="str">
+        <v>30</v>
+      </c>
+      <c r="K477">
         <f>IF(ISBLANK('Data Input'!K477),"",'Data Input'!K477)</f>
-        <v/>
-      </c>
-      <c r="L477" t="str">
+        <v>3</v>
+      </c>
+      <c r="L477">
         <f>IF(ISBLANK('Data Input'!L477),"",'Data Input'!L477)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M477" t="str">
         <f>IF(ISBLANK('Data Input'!M477),"",'Data Input'!M477)</f>
@@ -53559,51 +56064,51 @@
     <row r="478" spans="1:16">
       <c r="A478">
         <f>IF(ISBLANK('Data Input'!A478),"",'Data Input'!A478)</f>
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B478" t="str">
         <f>IF(ISBLANK('Data Input'!B478),"",'Data Input'!B478)</f>
-        <v/>
+        <v>AR126</v>
       </c>
       <c r="C478" t="str">
         <f>IF(ISBLANK('Data Input'!C478),"",'Data Input'!C478)</f>
-        <v/>
+        <v>7=5=18 1200</v>
       </c>
       <c r="D478" t="str">
         <f>IF(ISBLANK('Data Input'!D478),"",'Data Input'!D478)</f>
-        <v/>
-      </c>
-      <c r="E478" t="str">
+        <v>7=6=18 0945</v>
+      </c>
+      <c r="E478">
         <f>IF(ISBLANK('Data Input'!E478),"",'Data Input'!E478)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F478" t="str">
         <f>IF(ISBLANK('Data Input'!F478),"",'Data Input'!F478)</f>
-        <v/>
+        <v>Other</v>
       </c>
       <c r="G478" t="str">
         <f>IF(ISBLANK('Data Input'!G478),"",'Data Input'!G478)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H478" t="str">
         <f>IF(ISBLANK('Data Input'!H478),"",'Data Input'!H478)</f>
-        <v/>
+        <v>7=6=18 0945</v>
       </c>
       <c r="I478" t="str">
         <f>IF(ISBLANK('Data Input'!I478),"",'Data Input'!I478)</f>
-        <v/>
-      </c>
-      <c r="J478" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J478">
         <f>IF(ISBLANK('Data Input'!J478),"",'Data Input'!J478)</f>
-        <v/>
-      </c>
-      <c r="K478" t="str">
+        <v>30</v>
+      </c>
+      <c r="K478">
         <f>IF(ISBLANK('Data Input'!K478),"",'Data Input'!K478)</f>
-        <v/>
-      </c>
-      <c r="L478" t="str">
+        <v>8</v>
+      </c>
+      <c r="L478">
         <f>IF(ISBLANK('Data Input'!L478),"",'Data Input'!L478)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M478" t="str">
         <f>IF(ISBLANK('Data Input'!M478),"",'Data Input'!M478)</f>
@@ -53625,51 +56130,51 @@
     <row r="479" spans="1:16">
       <c r="A479">
         <f>IF(ISBLANK('Data Input'!A479),"",'Data Input'!A479)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B479" t="str">
         <f>IF(ISBLANK('Data Input'!B479),"",'Data Input'!B479)</f>
-        <v/>
+        <v>KW127</v>
       </c>
       <c r="C479" t="str">
         <f>IF(ISBLANK('Data Input'!C479),"",'Data Input'!C479)</f>
-        <v/>
+        <v>7=6=18 0242</v>
       </c>
       <c r="D479" t="str">
         <f>IF(ISBLANK('Data Input'!D479),"",'Data Input'!D479)</f>
-        <v/>
-      </c>
-      <c r="E479" t="str">
+        <v>7=6=18 2202</v>
+      </c>
+      <c r="E479">
         <f>IF(ISBLANK('Data Input'!E479),"",'Data Input'!E479)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="F479" t="str">
         <f>IF(ISBLANK('Data Input'!F479),"",'Data Input'!F479)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G479" t="str">
         <f>IF(ISBLANK('Data Input'!G479),"",'Data Input'!G479)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H479" t="str">
         <f>IF(ISBLANK('Data Input'!H479),"",'Data Input'!H479)</f>
-        <v/>
+        <v>7=6=18 0429</v>
       </c>
       <c r="I479" t="str">
         <f>IF(ISBLANK('Data Input'!I479),"",'Data Input'!I479)</f>
-        <v/>
-      </c>
-      <c r="J479" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J479">
         <f>IF(ISBLANK('Data Input'!J479),"",'Data Input'!J479)</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="K479" t="str">
         <f>IF(ISBLANK('Data Input'!K479),"",'Data Input'!K479)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="L479" t="str">
         <f>IF(ISBLANK('Data Input'!L479),"",'Data Input'!L479)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="M479" t="str">
         <f>IF(ISBLANK('Data Input'!M479),"",'Data Input'!M479)</f>
@@ -53685,57 +56190,57 @@
       </c>
       <c r="P479" t="b">
         <f>IF(ISBLANK('Data Input'!P479),"",'Data Input'!P479)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:16">
       <c r="A480">
         <f>IF(ISBLANK('Data Input'!A480),"",'Data Input'!A480)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B480" t="str">
         <f>IF(ISBLANK('Data Input'!B480),"",'Data Input'!B480)</f>
-        <v/>
+        <v>KW127</v>
       </c>
       <c r="C480" t="str">
         <f>IF(ISBLANK('Data Input'!C480),"",'Data Input'!C480)</f>
-        <v/>
+        <v>7=6=18 0242</v>
       </c>
       <c r="D480" t="str">
         <f>IF(ISBLANK('Data Input'!D480),"",'Data Input'!D480)</f>
-        <v/>
-      </c>
-      <c r="E480" t="str">
+        <v>7=6=18 2202</v>
+      </c>
+      <c r="E480">
         <f>IF(ISBLANK('Data Input'!E480),"",'Data Input'!E480)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="F480" t="str">
         <f>IF(ISBLANK('Data Input'!F480),"",'Data Input'!F480)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G480" t="str">
         <f>IF(ISBLANK('Data Input'!G480),"",'Data Input'!G480)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H480" t="str">
         <f>IF(ISBLANK('Data Input'!H480),"",'Data Input'!H480)</f>
-        <v/>
+        <v>7=6=18 1002</v>
       </c>
       <c r="I480" t="str">
         <f>IF(ISBLANK('Data Input'!I480),"",'Data Input'!I480)</f>
-        <v/>
-      </c>
-      <c r="J480" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J480">
         <f>IF(ISBLANK('Data Input'!J480),"",'Data Input'!J480)</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="K480" t="str">
         <f>IF(ISBLANK('Data Input'!K480),"",'Data Input'!K480)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="L480" t="str">
         <f>IF(ISBLANK('Data Input'!L480),"",'Data Input'!L480)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="M480" t="str">
         <f>IF(ISBLANK('Data Input'!M480),"",'Data Input'!M480)</f>
@@ -53751,57 +56256,57 @@
       </c>
       <c r="P480" t="b">
         <f>IF(ISBLANK('Data Input'!P480),"",'Data Input'!P480)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:16">
       <c r="A481">
         <f>IF(ISBLANK('Data Input'!A481),"",'Data Input'!A481)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B481" t="str">
         <f>IF(ISBLANK('Data Input'!B481),"",'Data Input'!B481)</f>
-        <v/>
+        <v>KW127</v>
       </c>
       <c r="C481" t="str">
         <f>IF(ISBLANK('Data Input'!C481),"",'Data Input'!C481)</f>
-        <v/>
+        <v>7=6=18 0242</v>
       </c>
       <c r="D481" t="str">
         <f>IF(ISBLANK('Data Input'!D481),"",'Data Input'!D481)</f>
-        <v/>
-      </c>
-      <c r="E481" t="str">
+        <v>7=6=18 2202</v>
+      </c>
+      <c r="E481">
         <f>IF(ISBLANK('Data Input'!E481),"",'Data Input'!E481)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="F481" t="str">
         <f>IF(ISBLANK('Data Input'!F481),"",'Data Input'!F481)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G481" t="str">
         <f>IF(ISBLANK('Data Input'!G481),"",'Data Input'!G481)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H481" t="str">
         <f>IF(ISBLANK('Data Input'!H481),"",'Data Input'!H481)</f>
-        <v/>
+        <v>7=6=18 1211</v>
       </c>
       <c r="I481" t="str">
         <f>IF(ISBLANK('Data Input'!I481),"",'Data Input'!I481)</f>
-        <v/>
-      </c>
-      <c r="J481" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J481">
         <f>IF(ISBLANK('Data Input'!J481),"",'Data Input'!J481)</f>
-        <v/>
-      </c>
-      <c r="K481" t="str">
+        <v>1</v>
+      </c>
+      <c r="K481">
         <f>IF(ISBLANK('Data Input'!K481),"",'Data Input'!K481)</f>
-        <v/>
-      </c>
-      <c r="L481" t="str">
+        <v>6</v>
+      </c>
+      <c r="L481">
         <f>IF(ISBLANK('Data Input'!L481),"",'Data Input'!L481)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M481" t="str">
         <f>IF(ISBLANK('Data Input'!M481),"",'Data Input'!M481)</f>
@@ -53817,57 +56322,57 @@
       </c>
       <c r="P481" t="b">
         <f>IF(ISBLANK('Data Input'!P481),"",'Data Input'!P481)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:16">
       <c r="A482">
         <f>IF(ISBLANK('Data Input'!A482),"",'Data Input'!A482)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B482" t="str">
         <f>IF(ISBLANK('Data Input'!B482),"",'Data Input'!B482)</f>
-        <v/>
+        <v>KW127</v>
       </c>
       <c r="C482" t="str">
         <f>IF(ISBLANK('Data Input'!C482),"",'Data Input'!C482)</f>
-        <v/>
+        <v>7=6=18 0242</v>
       </c>
       <c r="D482" t="str">
         <f>IF(ISBLANK('Data Input'!D482),"",'Data Input'!D482)</f>
-        <v/>
-      </c>
-      <c r="E482" t="str">
+        <v>7=6=18 2202</v>
+      </c>
+      <c r="E482">
         <f>IF(ISBLANK('Data Input'!E482),"",'Data Input'!E482)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="F482" t="str">
         <f>IF(ISBLANK('Data Input'!F482),"",'Data Input'!F482)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G482" t="str">
         <f>IF(ISBLANK('Data Input'!G482),"",'Data Input'!G482)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H482" t="str">
         <f>IF(ISBLANK('Data Input'!H482),"",'Data Input'!H482)</f>
-        <v/>
+        <v>7=6=18 1617</v>
       </c>
       <c r="I482" t="str">
         <f>IF(ISBLANK('Data Input'!I482),"",'Data Input'!I482)</f>
-        <v/>
-      </c>
-      <c r="J482" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J482">
         <f>IF(ISBLANK('Data Input'!J482),"",'Data Input'!J482)</f>
-        <v/>
+        <v>800</v>
       </c>
       <c r="K482" t="str">
         <f>IF(ISBLANK('Data Input'!K482),"",'Data Input'!K482)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="L482" t="str">
         <f>IF(ISBLANK('Data Input'!L482),"",'Data Input'!L482)</f>
-        <v/>
+        <v>dd - Missing Data</v>
       </c>
       <c r="M482" t="str">
         <f>IF(ISBLANK('Data Input'!M482),"",'Data Input'!M482)</f>
@@ -53883,57 +56388,57 @@
       </c>
       <c r="P482" t="b">
         <f>IF(ISBLANK('Data Input'!P482),"",'Data Input'!P482)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:16">
       <c r="A483">
         <f>IF(ISBLANK('Data Input'!A483),"",'Data Input'!A483)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B483" t="str">
         <f>IF(ISBLANK('Data Input'!B483),"",'Data Input'!B483)</f>
-        <v/>
+        <v>KW127</v>
       </c>
       <c r="C483" t="str">
         <f>IF(ISBLANK('Data Input'!C483),"",'Data Input'!C483)</f>
-        <v/>
+        <v>7=6=18 0242</v>
       </c>
       <c r="D483" t="str">
         <f>IF(ISBLANK('Data Input'!D483),"",'Data Input'!D483)</f>
-        <v/>
-      </c>
-      <c r="E483" t="str">
+        <v>7=6=18 2202</v>
+      </c>
+      <c r="E483">
         <f>IF(ISBLANK('Data Input'!E483),"",'Data Input'!E483)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="F483" t="str">
         <f>IF(ISBLANK('Data Input'!F483),"",'Data Input'!F483)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G483" t="str">
         <f>IF(ISBLANK('Data Input'!G483),"",'Data Input'!G483)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H483" t="str">
         <f>IF(ISBLANK('Data Input'!H483),"",'Data Input'!H483)</f>
-        <v/>
+        <v>7=6=18 2202</v>
       </c>
       <c r="I483" t="str">
         <f>IF(ISBLANK('Data Input'!I483),"",'Data Input'!I483)</f>
-        <v/>
-      </c>
-      <c r="J483" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J483">
         <f>IF(ISBLANK('Data Input'!J483),"",'Data Input'!J483)</f>
-        <v/>
-      </c>
-      <c r="K483" t="str">
+        <v>800</v>
+      </c>
+      <c r="K483">
         <f>IF(ISBLANK('Data Input'!K483),"",'Data Input'!K483)</f>
-        <v/>
-      </c>
-      <c r="L483" t="str">
+        <v>5</v>
+      </c>
+      <c r="L483">
         <f>IF(ISBLANK('Data Input'!L483),"",'Data Input'!L483)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M483" t="str">
         <f>IF(ISBLANK('Data Input'!M483),"",'Data Input'!M483)</f>
@@ -53949,57 +56454,57 @@
       </c>
       <c r="P483" t="b">
         <f>IF(ISBLANK('Data Input'!P483),"",'Data Input'!P483)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:16">
       <c r="A484">
         <f>IF(ISBLANK('Data Input'!A484),"",'Data Input'!A484)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B484" t="str">
         <f>IF(ISBLANK('Data Input'!B484),"",'Data Input'!B484)</f>
-        <v/>
+        <v>KW127</v>
       </c>
       <c r="C484" t="str">
         <f>IF(ISBLANK('Data Input'!C484),"",'Data Input'!C484)</f>
-        <v/>
+        <v>7=6=18 0242</v>
       </c>
       <c r="D484" t="str">
         <f>IF(ISBLANK('Data Input'!D484),"",'Data Input'!D484)</f>
-        <v/>
-      </c>
-      <c r="E484" t="str">
+        <v>7=6=18 2202</v>
+      </c>
+      <c r="E484">
         <f>IF(ISBLANK('Data Input'!E484),"",'Data Input'!E484)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="F484" t="str">
         <f>IF(ISBLANK('Data Input'!F484),"",'Data Input'!F484)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G484" t="str">
         <f>IF(ISBLANK('Data Input'!G484),"",'Data Input'!G484)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H484" t="str">
         <f>IF(ISBLANK('Data Input'!H484),"",'Data Input'!H484)</f>
-        <v/>
+        <v>7=6=18 2202</v>
       </c>
       <c r="I484" t="str">
         <f>IF(ISBLANK('Data Input'!I484),"",'Data Input'!I484)</f>
-        <v/>
-      </c>
-      <c r="J484" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J484">
         <f>IF(ISBLANK('Data Input'!J484),"",'Data Input'!J484)</f>
-        <v/>
-      </c>
-      <c r="K484" t="str">
+        <v>1</v>
+      </c>
+      <c r="K484">
         <f>IF(ISBLANK('Data Input'!K484),"",'Data Input'!K484)</f>
-        <v/>
-      </c>
-      <c r="L484" t="str">
+        <v>5</v>
+      </c>
+      <c r="L484">
         <f>IF(ISBLANK('Data Input'!L484),"",'Data Input'!L484)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M484" t="str">
         <f>IF(ISBLANK('Data Input'!M484),"",'Data Input'!M484)</f>
@@ -54015,13 +56520,13 @@
       </c>
       <c r="P484" t="b">
         <f>IF(ISBLANK('Data Input'!P484),"",'Data Input'!P484)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:16">
       <c r="A485">
         <f>IF(ISBLANK('Data Input'!A485),"",'Data Input'!A485)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B485" t="str">
         <f>IF(ISBLANK('Data Input'!B485),"",'Data Input'!B485)</f>
@@ -54087,7 +56592,7 @@
     <row r="486" spans="1:16">
       <c r="A486">
         <f>IF(ISBLANK('Data Input'!A486),"",'Data Input'!A486)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B486" t="str">
         <f>IF(ISBLANK('Data Input'!B486),"",'Data Input'!B486)</f>
@@ -54153,7 +56658,7 @@
     <row r="487" spans="1:16">
       <c r="A487">
         <f>IF(ISBLANK('Data Input'!A487),"",'Data Input'!A487)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B487" t="str">
         <f>IF(ISBLANK('Data Input'!B487),"",'Data Input'!B487)</f>
@@ -54219,7 +56724,7 @@
     <row r="488" spans="1:16">
       <c r="A488">
         <f>IF(ISBLANK('Data Input'!A488),"",'Data Input'!A488)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B488" t="str">
         <f>IF(ISBLANK('Data Input'!B488),"",'Data Input'!B488)</f>
@@ -54285,7 +56790,7 @@
     <row r="489" spans="1:16">
       <c r="A489">
         <f>IF(ISBLANK('Data Input'!A489),"",'Data Input'!A489)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B489" t="str">
         <f>IF(ISBLANK('Data Input'!B489),"",'Data Input'!B489)</f>
@@ -54351,7 +56856,7 @@
     <row r="490" spans="1:16">
       <c r="A490">
         <f>IF(ISBLANK('Data Input'!A490),"",'Data Input'!A490)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B490" t="str">
         <f>IF(ISBLANK('Data Input'!B490),"",'Data Input'!B490)</f>
@@ -54417,7 +56922,7 @@
     <row r="491" spans="1:16">
       <c r="A491">
         <f>IF(ISBLANK('Data Input'!A491),"",'Data Input'!A491)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B491" t="str">
         <f>IF(ISBLANK('Data Input'!B491),"",'Data Input'!B491)</f>
@@ -54483,7 +56988,7 @@
     <row r="492" spans="1:16">
       <c r="A492">
         <f>IF(ISBLANK('Data Input'!A492),"",'Data Input'!A492)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B492" t="str">
         <f>IF(ISBLANK('Data Input'!B492),"",'Data Input'!B492)</f>
@@ -54549,7 +57054,7 @@
     <row r="493" spans="1:16">
       <c r="A493">
         <f>IF(ISBLANK('Data Input'!A493),"",'Data Input'!A493)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B493" t="str">
         <f>IF(ISBLANK('Data Input'!B493),"",'Data Input'!B493)</f>
@@ -54615,7 +57120,7 @@
     <row r="494" spans="1:16">
       <c r="A494">
         <f>IF(ISBLANK('Data Input'!A494),"",'Data Input'!A494)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B494" t="str">
         <f>IF(ISBLANK('Data Input'!B494),"",'Data Input'!B494)</f>
@@ -54681,7 +57186,7 @@
     <row r="495" spans="1:16">
       <c r="A495">
         <f>IF(ISBLANK('Data Input'!A495),"",'Data Input'!A495)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B495" t="str">
         <f>IF(ISBLANK('Data Input'!B495),"",'Data Input'!B495)</f>
@@ -54747,7 +57252,7 @@
     <row r="496" spans="1:16">
       <c r="A496">
         <f>IF(ISBLANK('Data Input'!A496),"",'Data Input'!A496)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B496" t="str">
         <f>IF(ISBLANK('Data Input'!B496),"",'Data Input'!B496)</f>
@@ -54813,7 +57318,7 @@
     <row r="497" spans="1:16">
       <c r="A497">
         <f>IF(ISBLANK('Data Input'!A497),"",'Data Input'!A497)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B497" t="str">
         <f>IF(ISBLANK('Data Input'!B497),"",'Data Input'!B497)</f>
@@ -54879,7 +57384,7 @@
     <row r="498" spans="1:16">
       <c r="A498">
         <f>IF(ISBLANK('Data Input'!A498),"",'Data Input'!A498)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B498" t="str">
         <f>IF(ISBLANK('Data Input'!B498),"",'Data Input'!B498)</f>
@@ -54945,7 +57450,7 @@
     <row r="499" spans="1:16">
       <c r="A499">
         <f>IF(ISBLANK('Data Input'!A499),"",'Data Input'!A499)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B499" t="str">
         <f>IF(ISBLANK('Data Input'!B499),"",'Data Input'!B499)</f>
@@ -55011,7 +57516,7 @@
     <row r="500" spans="1:16">
       <c r="A500">
         <f>IF(ISBLANK('Data Input'!A500),"",'Data Input'!A500)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B500" t="str">
         <f>IF(ISBLANK('Data Input'!B500),"",'Data Input'!B500)</f>
@@ -55077,7 +57582,7 @@
     <row r="501" spans="1:16">
       <c r="A501">
         <f>IF(ISBLANK('Data Input'!A501),"",'Data Input'!A501)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B501" t="str">
         <f>IF(ISBLANK('Data Input'!B501),"",'Data Input'!B501)</f>
@@ -55143,7 +57648,7 @@
     <row r="502" spans="1:16">
       <c r="A502">
         <f>IF(ISBLANK('Data Input'!A502),"",'Data Input'!A502)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B502" t="str">
         <f>IF(ISBLANK('Data Input'!B502),"",'Data Input'!B502)</f>
@@ -55209,7 +57714,7 @@
     <row r="503" spans="1:16">
       <c r="A503">
         <f>IF(ISBLANK('Data Input'!A503),"",'Data Input'!A503)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B503" t="str">
         <f>IF(ISBLANK('Data Input'!B503),"",'Data Input'!B503)</f>
@@ -55275,7 +57780,7 @@
     <row r="504" spans="1:16">
       <c r="A504">
         <f>IF(ISBLANK('Data Input'!A504),"",'Data Input'!A504)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B504" t="str">
         <f>IF(ISBLANK('Data Input'!B504),"",'Data Input'!B504)</f>
@@ -55341,7 +57846,7 @@
     <row r="505" spans="1:16">
       <c r="A505">
         <f>IF(ISBLANK('Data Input'!A505),"",'Data Input'!A505)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B505" t="str">
         <f>IF(ISBLANK('Data Input'!B505),"",'Data Input'!B505)</f>
@@ -55407,7 +57912,7 @@
     <row r="506" spans="1:16">
       <c r="A506">
         <f>IF(ISBLANK('Data Input'!A506),"",'Data Input'!A506)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B506" t="str">
         <f>IF(ISBLANK('Data Input'!B506),"",'Data Input'!B506)</f>
@@ -55473,7 +57978,7 @@
     <row r="507" spans="1:16">
       <c r="A507">
         <f>IF(ISBLANK('Data Input'!A507),"",'Data Input'!A507)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B507" t="str">
         <f>IF(ISBLANK('Data Input'!B507),"",'Data Input'!B507)</f>
@@ -55539,7 +58044,7 @@
     <row r="508" spans="1:16">
       <c r="A508">
         <f>IF(ISBLANK('Data Input'!A508),"",'Data Input'!A508)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B508" t="str">
         <f>IF(ISBLANK('Data Input'!B508),"",'Data Input'!B508)</f>
@@ -55605,7 +58110,7 @@
     <row r="509" spans="1:16">
       <c r="A509">
         <f>IF(ISBLANK('Data Input'!A509),"",'Data Input'!A509)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B509" t="str">
         <f>IF(ISBLANK('Data Input'!B509),"",'Data Input'!B509)</f>
@@ -55671,7 +58176,7 @@
     <row r="510" spans="1:16">
       <c r="A510">
         <f>IF(ISBLANK('Data Input'!A510),"",'Data Input'!A510)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B510" t="str">
         <f>IF(ISBLANK('Data Input'!B510),"",'Data Input'!B510)</f>
@@ -55737,7 +58242,7 @@
     <row r="511" spans="1:16">
       <c r="A511">
         <f>IF(ISBLANK('Data Input'!A511),"",'Data Input'!A511)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B511" t="str">
         <f>IF(ISBLANK('Data Input'!B511),"",'Data Input'!B511)</f>
@@ -55803,7 +58308,7 @@
     <row r="512" spans="1:16">
       <c r="A512">
         <f>IF(ISBLANK('Data Input'!A512),"",'Data Input'!A512)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B512" t="str">
         <f>IF(ISBLANK('Data Input'!B512),"",'Data Input'!B512)</f>
@@ -55869,7 +58374,7 @@
     <row r="513" spans="1:16">
       <c r="A513">
         <f>IF(ISBLANK('Data Input'!A513),"",'Data Input'!A513)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B513" t="str">
         <f>IF(ISBLANK('Data Input'!B513),"",'Data Input'!B513)</f>
@@ -55935,7 +58440,7 @@
     <row r="514" spans="1:16">
       <c r="A514">
         <f>IF(ISBLANK('Data Input'!A514),"",'Data Input'!A514)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B514" t="str">
         <f>IF(ISBLANK('Data Input'!B514),"",'Data Input'!B514)</f>
@@ -56001,7 +58506,7 @@
     <row r="515" spans="1:16">
       <c r="A515">
         <f>IF(ISBLANK('Data Input'!A515),"",'Data Input'!A515)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B515" t="str">
         <f>IF(ISBLANK('Data Input'!B515),"",'Data Input'!B515)</f>
@@ -56067,7 +58572,7 @@
     <row r="516" spans="1:16">
       <c r="A516">
         <f>IF(ISBLANK('Data Input'!A516),"",'Data Input'!A516)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B516" t="str">
         <f>IF(ISBLANK('Data Input'!B516),"",'Data Input'!B516)</f>
@@ -56133,7 +58638,7 @@
     <row r="517" spans="1:16">
       <c r="A517">
         <f>IF(ISBLANK('Data Input'!A517),"",'Data Input'!A517)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B517" t="str">
         <f>IF(ISBLANK('Data Input'!B517),"",'Data Input'!B517)</f>
@@ -56199,7 +58704,7 @@
     <row r="518" spans="1:16">
       <c r="A518">
         <f>IF(ISBLANK('Data Input'!A518),"",'Data Input'!A518)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B518" t="str">
         <f>IF(ISBLANK('Data Input'!B518),"",'Data Input'!B518)</f>
@@ -56265,7 +58770,7 @@
     <row r="519" spans="1:16">
       <c r="A519">
         <f>IF(ISBLANK('Data Input'!A519),"",'Data Input'!A519)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B519" t="str">
         <f>IF(ISBLANK('Data Input'!B519),"",'Data Input'!B519)</f>
@@ -56331,7 +58836,7 @@
     <row r="520" spans="1:16">
       <c r="A520">
         <f>IF(ISBLANK('Data Input'!A520),"",'Data Input'!A520)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B520" t="str">
         <f>IF(ISBLANK('Data Input'!B520),"",'Data Input'!B520)</f>
@@ -56397,7 +58902,7 @@
     <row r="521" spans="1:16">
       <c r="A521">
         <f>IF(ISBLANK('Data Input'!A521),"",'Data Input'!A521)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B521" t="str">
         <f>IF(ISBLANK('Data Input'!B521),"",'Data Input'!B521)</f>
@@ -56463,7 +58968,7 @@
     <row r="522" spans="1:16">
       <c r="A522">
         <f>IF(ISBLANK('Data Input'!A522),"",'Data Input'!A522)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B522" t="str">
         <f>IF(ISBLANK('Data Input'!B522),"",'Data Input'!B522)</f>
@@ -56529,7 +59034,7 @@
     <row r="523" spans="1:16">
       <c r="A523">
         <f>IF(ISBLANK('Data Input'!A523),"",'Data Input'!A523)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B523" t="str">
         <f>IF(ISBLANK('Data Input'!B523),"",'Data Input'!B523)</f>
@@ -56595,7 +59100,7 @@
     <row r="524" spans="1:16">
       <c r="A524">
         <f>IF(ISBLANK('Data Input'!A524),"",'Data Input'!A524)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B524" t="str">
         <f>IF(ISBLANK('Data Input'!B524),"",'Data Input'!B524)</f>
@@ -56661,7 +59166,7 @@
     <row r="525" spans="1:16">
       <c r="A525">
         <f>IF(ISBLANK('Data Input'!A525),"",'Data Input'!A525)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B525" t="str">
         <f>IF(ISBLANK('Data Input'!B525),"",'Data Input'!B525)</f>
@@ -56727,7 +59232,7 @@
     <row r="526" spans="1:16">
       <c r="A526">
         <f>IF(ISBLANK('Data Input'!A526),"",'Data Input'!A526)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B526" t="str">
         <f>IF(ISBLANK('Data Input'!B526),"",'Data Input'!B526)</f>
@@ -56793,7 +59298,7 @@
     <row r="527" spans="1:16">
       <c r="A527">
         <f>IF(ISBLANK('Data Input'!A527),"",'Data Input'!A527)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B527" t="str">
         <f>IF(ISBLANK('Data Input'!B527),"",'Data Input'!B527)</f>
@@ -56859,7 +59364,7 @@
     <row r="528" spans="1:16">
       <c r="A528">
         <f>IF(ISBLANK('Data Input'!A528),"",'Data Input'!A528)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B528" t="str">
         <f>IF(ISBLANK('Data Input'!B528),"",'Data Input'!B528)</f>
@@ -56925,7 +59430,7 @@
     <row r="529" spans="1:16">
       <c r="A529">
         <f>IF(ISBLANK('Data Input'!A529),"",'Data Input'!A529)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B529" t="str">
         <f>IF(ISBLANK('Data Input'!B529),"",'Data Input'!B529)</f>
@@ -56991,7 +59496,7 @@
     <row r="530" spans="1:16">
       <c r="A530">
         <f>IF(ISBLANK('Data Input'!A530),"",'Data Input'!A530)</f>
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B530" t="str">
         <f>IF(ISBLANK('Data Input'!B530),"",'Data Input'!B530)</f>
@@ -57056,17 +59561,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:P53 B56:P299">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$P2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:P54">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$P54=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:P55">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$P55=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Herman/Documents/Consulting/Gail Simpson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697105C-E3D4-BF4E-8CEF-7DB382D51463}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F61EB28-DF8C-E54F-8B65-75477AE77919}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A9E06408-3EBC-224B-BA0B-07A232DADE1E}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20060" xr2:uid="{A9E06408-3EBC-224B-BA0B-07A232DADE1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Input" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="924">
   <si>
     <t>Patient ID</t>
   </si>
@@ -2423,6 +2423,435 @@
   </si>
   <si>
     <t>7=6=18 1617</t>
+  </si>
+  <si>
+    <t>JH131</t>
+  </si>
+  <si>
+    <t>7=14=18</t>
+  </si>
+  <si>
+    <t>7=14=18 1345</t>
+  </si>
+  <si>
+    <t>7=15=18</t>
+  </si>
+  <si>
+    <t>7=14=18 1453</t>
+  </si>
+  <si>
+    <t>7=14=18 2021</t>
+  </si>
+  <si>
+    <t>7=14=18 0457</t>
+  </si>
+  <si>
+    <t>MW132</t>
+  </si>
+  <si>
+    <t>7=15=18 0515</t>
+  </si>
+  <si>
+    <t>7=16=18 0359</t>
+  </si>
+  <si>
+    <t>7=15=18 0803</t>
+  </si>
+  <si>
+    <t>MK133</t>
+  </si>
+  <si>
+    <t>7=14=18 1100</t>
+  </si>
+  <si>
+    <t>7=15=18 0810</t>
+  </si>
+  <si>
+    <t>7=14=18 1257</t>
+  </si>
+  <si>
+    <t>7=14=18 1715</t>
+  </si>
+  <si>
+    <t>7=14=18 1843</t>
+  </si>
+  <si>
+    <t>7=15=18 0030</t>
+  </si>
+  <si>
+    <t>CJ134</t>
+  </si>
+  <si>
+    <t>7=16=18 1035</t>
+  </si>
+  <si>
+    <t>7=13=18 1054</t>
+  </si>
+  <si>
+    <t>7=13=18 1559</t>
+  </si>
+  <si>
+    <t>7=13=18 2214</t>
+  </si>
+  <si>
+    <t>7=14=18 0527</t>
+  </si>
+  <si>
+    <t>7=14=18 1027</t>
+  </si>
+  <si>
+    <t>AP135</t>
+  </si>
+  <si>
+    <t>7=22=18 1800</t>
+  </si>
+  <si>
+    <t>7=23=18 1407</t>
+  </si>
+  <si>
+    <t>7=22=18 2316</t>
+  </si>
+  <si>
+    <t>7=23=18 1002</t>
+  </si>
+  <si>
+    <t>EH136</t>
+  </si>
+  <si>
+    <t>7=13=18 1010</t>
+  </si>
+  <si>
+    <t>7=14=18 0601</t>
+  </si>
+  <si>
+    <t>7=13=18 1056</t>
+  </si>
+  <si>
+    <t>7=13=18 1703</t>
+  </si>
+  <si>
+    <t>7=13=18 2258</t>
+  </si>
+  <si>
+    <t>7=14=18 0441</t>
+  </si>
+  <si>
+    <t>MT137</t>
+  </si>
+  <si>
+    <t>7=21=18 2355</t>
+  </si>
+  <si>
+    <t>7=22=18 1832</t>
+  </si>
+  <si>
+    <t>7=22=18 0520</t>
+  </si>
+  <si>
+    <t>7=22=18 0930</t>
+  </si>
+  <si>
+    <t>CM138</t>
+  </si>
+  <si>
+    <t>7=21=18 0215</t>
+  </si>
+  <si>
+    <t>7=21=18 2147</t>
+  </si>
+  <si>
+    <t>7=21=18 0844</t>
+  </si>
+  <si>
+    <t>7=21=18 1610</t>
+  </si>
+  <si>
+    <t>7=21=18 2149</t>
+  </si>
+  <si>
+    <t>JL139</t>
+  </si>
+  <si>
+    <t>7=22=18 1150</t>
+  </si>
+  <si>
+    <t>7=23=18</t>
+  </si>
+  <si>
+    <t>7=22=18 1753</t>
+  </si>
+  <si>
+    <t>7=23=18 0620</t>
+  </si>
+  <si>
+    <t>7=23=18 1021</t>
+  </si>
+  <si>
+    <t>LS140</t>
+  </si>
+  <si>
+    <t>7=22=18 0455</t>
+  </si>
+  <si>
+    <t>7=22=18 0537</t>
+  </si>
+  <si>
+    <t>7=22=18 1625</t>
+  </si>
+  <si>
+    <t>7=23=18 0441</t>
+  </si>
+  <si>
+    <t>AH141</t>
+  </si>
+  <si>
+    <t>7=21=18 2000</t>
+  </si>
+  <si>
+    <t>7=22=18 1754</t>
+  </si>
+  <si>
+    <t>7=22=18 0110</t>
+  </si>
+  <si>
+    <t>7=22=18 1025</t>
+  </si>
+  <si>
+    <t>AH142</t>
+  </si>
+  <si>
+    <t>7=23=18 0933</t>
+  </si>
+  <si>
+    <t>7=23=18 1945</t>
+  </si>
+  <si>
+    <t>7=23=18 1138</t>
+  </si>
+  <si>
+    <t>ZC143</t>
+  </si>
+  <si>
+    <t>7=24=18 0535</t>
+  </si>
+  <si>
+    <t>7=25=18</t>
+  </si>
+  <si>
+    <t>7=24=18 1012</t>
+  </si>
+  <si>
+    <t>7=24=18 1454</t>
+  </si>
+  <si>
+    <t>7=24=18 1733</t>
+  </si>
+  <si>
+    <t>7=24=18 0031</t>
+  </si>
+  <si>
+    <t>AA144</t>
+  </si>
+  <si>
+    <t>7=2=18 0358</t>
+  </si>
+  <si>
+    <t>7=23=18 1133</t>
+  </si>
+  <si>
+    <t>Double check crossed out entry</t>
+  </si>
+  <si>
+    <t>BT145</t>
+  </si>
+  <si>
+    <t>7=28=18 0440</t>
+  </si>
+  <si>
+    <t>7=29=18 0435</t>
+  </si>
+  <si>
+    <t>7=28=18 1052</t>
+  </si>
+  <si>
+    <t>7=28=18 1631</t>
+  </si>
+  <si>
+    <t>7=28=18 2200</t>
+  </si>
+  <si>
+    <t>KW146</t>
+  </si>
+  <si>
+    <t>7=27=18 1749</t>
+  </si>
+  <si>
+    <t>7=28=18 1359</t>
+  </si>
+  <si>
+    <t>7=27=18 2122</t>
+  </si>
+  <si>
+    <t>7=27=18 0609</t>
+  </si>
+  <si>
+    <t>7=28=18 0610</t>
+  </si>
+  <si>
+    <t>7=27=18 2129</t>
+  </si>
+  <si>
+    <t>KM147</t>
+  </si>
+  <si>
+    <t>7=26=18 0945</t>
+  </si>
+  <si>
+    <t>7=27=18 0547</t>
+  </si>
+  <si>
+    <t>7=26=18 1216</t>
+  </si>
+  <si>
+    <t>7=26=18 1805</t>
+  </si>
+  <si>
+    <t>7=27=18 0021</t>
+  </si>
+  <si>
+    <t>MM148</t>
+  </si>
+  <si>
+    <t>7=27=18 1750</t>
+  </si>
+  <si>
+    <t>7=28=18 1305</t>
+  </si>
+  <si>
+    <t>7=27=18 1926</t>
+  </si>
+  <si>
+    <t>7=28=18 0119</t>
+  </si>
+  <si>
+    <t>7=28=18 0809</t>
+  </si>
+  <si>
+    <t>JJ149</t>
+  </si>
+  <si>
+    <t>7=27=18 2245</t>
+  </si>
+  <si>
+    <t>7=28=18 2222</t>
+  </si>
+  <si>
+    <t>7=27=18 2328</t>
+  </si>
+  <si>
+    <t>7=28=18 0022</t>
+  </si>
+  <si>
+    <t>7=28=18 1616</t>
+  </si>
+  <si>
+    <t>TK150</t>
+  </si>
+  <si>
+    <t>7=27=18 0030</t>
+  </si>
+  <si>
+    <t>7=27=18 2200</t>
+  </si>
+  <si>
+    <t>7=27=18 0310</t>
+  </si>
+  <si>
+    <t>7=27=18 1159</t>
+  </si>
+  <si>
+    <t>7=27=18 1419</t>
+  </si>
+  <si>
+    <t>AS151</t>
+  </si>
+  <si>
+    <t>7=28=18 0850</t>
+  </si>
+  <si>
+    <t>7=29=18</t>
+  </si>
+  <si>
+    <t>7=28=18 0910</t>
+  </si>
+  <si>
+    <t>7=29=18 0535</t>
+  </si>
+  <si>
+    <t>SK152</t>
+  </si>
+  <si>
+    <t>7=36=18 0215</t>
+  </si>
+  <si>
+    <t>7=26=18 2243</t>
+  </si>
+  <si>
+    <t>7=26=18 0342</t>
+  </si>
+  <si>
+    <t>7=26=18 0928</t>
+  </si>
+  <si>
+    <t>7=26=18 1550</t>
+  </si>
+  <si>
+    <t>DR153</t>
+  </si>
+  <si>
+    <t>7=27=18 0600</t>
+  </si>
+  <si>
+    <t>7=28=18 0344</t>
+  </si>
+  <si>
+    <t>7=27=18 0625</t>
+  </si>
+  <si>
+    <t>7=27=18 1543</t>
+  </si>
+  <si>
+    <t>7=27=18 2203</t>
+  </si>
+  <si>
+    <t>7=28=18 0058</t>
+  </si>
+  <si>
+    <t>AK154</t>
+  </si>
+  <si>
+    <t>7=28=18 0110</t>
+  </si>
+  <si>
+    <t>7=28=18 2246</t>
+  </si>
+  <si>
+    <t>Arab</t>
+  </si>
+  <si>
+    <t>7=28=18 0309</t>
+  </si>
+  <si>
+    <t>7=28=18 0842</t>
+  </si>
+  <si>
+    <t>7=28=18 1211</t>
+  </si>
+  <si>
+    <t>7=28=18 1540</t>
+  </si>
+  <si>
+    <t>7=28=18 1918</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2939,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2849,11 +3299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA99F045-A2A7-8248-B84B-940BB40517C1}">
-  <dimension ref="A1:P530"/>
+  <dimension ref="A1:P665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E482" sqref="E482"/>
+      <pane ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B587" sqref="B587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24113,6 +24563,39 @@
         <f t="shared" si="15"/>
         <v>129</v>
       </c>
+      <c r="B485" t="s">
+        <v>781</v>
+      </c>
+      <c r="C485" t="s">
+        <v>783</v>
+      </c>
+      <c r="D485" t="s">
+        <v>784</v>
+      </c>
+      <c r="E485">
+        <v>33</v>
+      </c>
+      <c r="F485" t="s">
+        <v>14</v>
+      </c>
+      <c r="G485" t="s">
+        <v>15</v>
+      </c>
+      <c r="H485" t="s">
+        <v>785</v>
+      </c>
+      <c r="I485" t="s">
+        <v>271</v>
+      </c>
+      <c r="J485">
+        <v>1</v>
+      </c>
+      <c r="K485">
+        <v>3</v>
+      </c>
+      <c r="L485">
+        <v>0</v>
+      </c>
       <c r="P485" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -24123,8 +24606,41 @@
         <f t="shared" si="15"/>
         <v>129</v>
       </c>
+      <c r="B486" t="s">
+        <v>781</v>
+      </c>
+      <c r="C486" t="s">
+        <v>783</v>
+      </c>
+      <c r="D486" t="s">
+        <v>784</v>
+      </c>
+      <c r="E486">
+        <v>33</v>
+      </c>
+      <c r="F486" t="s">
+        <v>14</v>
+      </c>
+      <c r="G486" t="s">
+        <v>15</v>
+      </c>
+      <c r="H486" t="s">
+        <v>786</v>
+      </c>
+      <c r="I486" t="s">
+        <v>252</v>
+      </c>
+      <c r="J486">
+        <v>800</v>
+      </c>
+      <c r="K486">
+        <v>2</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
       <c r="P486" t="b">
-        <f t="shared" ref="P486:P530" si="16">ISODD(A486)</f>
+        <f t="shared" ref="P486:P549" si="16">ISODD(A486)</f>
         <v>1</v>
       </c>
     </row>
@@ -24133,6 +24649,39 @@
         <f t="shared" si="15"/>
         <v>129</v>
       </c>
+      <c r="B487" t="s">
+        <v>781</v>
+      </c>
+      <c r="C487" t="s">
+        <v>783</v>
+      </c>
+      <c r="D487" t="s">
+        <v>784</v>
+      </c>
+      <c r="E487">
+        <v>33</v>
+      </c>
+      <c r="F487" t="s">
+        <v>14</v>
+      </c>
+      <c r="G487" t="s">
+        <v>15</v>
+      </c>
+      <c r="H487" t="s">
+        <v>787</v>
+      </c>
+      <c r="I487" t="s">
+        <v>252</v>
+      </c>
+      <c r="J487">
+        <v>800</v>
+      </c>
+      <c r="K487">
+        <v>7</v>
+      </c>
+      <c r="L487">
+        <v>1</v>
+      </c>
       <c r="P487" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
@@ -24141,27 +24690,126 @@
     <row r="488" spans="1:16">
       <c r="A488">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="B488" t="s">
+        <v>788</v>
+      </c>
+      <c r="C488" t="s">
+        <v>789</v>
+      </c>
+      <c r="D488" t="s">
+        <v>790</v>
+      </c>
+      <c r="E488">
+        <v>33</v>
+      </c>
+      <c r="F488" t="s">
+        <v>14</v>
+      </c>
+      <c r="G488" t="s">
+        <v>15</v>
+      </c>
+      <c r="H488" t="s">
+        <v>791</v>
+      </c>
+      <c r="I488" t="s">
+        <v>252</v>
+      </c>
+      <c r="J488">
+        <v>800</v>
+      </c>
+      <c r="K488">
+        <v>2</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
       </c>
       <c r="P488" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:16">
       <c r="A489">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="B489" t="s">
+        <v>788</v>
+      </c>
+      <c r="C489" t="s">
+        <v>789</v>
+      </c>
+      <c r="D489" t="s">
+        <v>790</v>
+      </c>
+      <c r="E489">
+        <v>33</v>
+      </c>
+      <c r="F489" t="s">
+        <v>14</v>
+      </c>
+      <c r="G489" t="s">
+        <v>15</v>
+      </c>
+      <c r="H489" t="s">
+        <v>790</v>
+      </c>
+      <c r="I489" t="s">
+        <v>252</v>
+      </c>
+      <c r="J489">
+        <v>800</v>
+      </c>
+      <c r="K489">
+        <v>1</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
       </c>
       <c r="P489" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:16">
       <c r="A490">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B490" t="s">
+        <v>792</v>
+      </c>
+      <c r="C490" t="s">
+        <v>793</v>
+      </c>
+      <c r="D490" t="s">
+        <v>794</v>
+      </c>
+      <c r="E490">
+        <v>27</v>
+      </c>
+      <c r="F490" t="s">
+        <v>251</v>
+      </c>
+      <c r="G490" t="s">
+        <v>15</v>
+      </c>
+      <c r="H490" t="s">
+        <v>795</v>
+      </c>
+      <c r="I490" t="s">
+        <v>263</v>
+      </c>
+      <c r="J490">
+        <v>30</v>
+      </c>
+      <c r="K490">
+        <v>5</v>
+      </c>
+      <c r="L490">
+        <v>2</v>
       </c>
       <c r="P490" t="b">
         <f t="shared" si="16"/>
@@ -24171,7 +24819,40 @@
     <row r="491" spans="1:16">
       <c r="A491">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B491" t="s">
+        <v>792</v>
+      </c>
+      <c r="C491" t="s">
+        <v>793</v>
+      </c>
+      <c r="D491" t="s">
+        <v>794</v>
+      </c>
+      <c r="E491">
+        <v>27</v>
+      </c>
+      <c r="F491" t="s">
+        <v>251</v>
+      </c>
+      <c r="G491" t="s">
+        <v>15</v>
+      </c>
+      <c r="H491" t="s">
+        <v>795</v>
+      </c>
+      <c r="I491" t="s">
+        <v>271</v>
+      </c>
+      <c r="J491">
+        <v>1</v>
+      </c>
+      <c r="K491">
+        <v>5</v>
+      </c>
+      <c r="L491">
+        <v>2</v>
       </c>
       <c r="P491" t="b">
         <f t="shared" si="16"/>
@@ -24181,7 +24862,40 @@
     <row r="492" spans="1:16">
       <c r="A492">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B492" t="s">
+        <v>792</v>
+      </c>
+      <c r="C492" t="s">
+        <v>793</v>
+      </c>
+      <c r="D492" t="s">
+        <v>794</v>
+      </c>
+      <c r="E492">
+        <v>27</v>
+      </c>
+      <c r="F492" t="s">
+        <v>251</v>
+      </c>
+      <c r="G492" t="s">
+        <v>15</v>
+      </c>
+      <c r="H492" t="s">
+        <v>796</v>
+      </c>
+      <c r="I492" t="s">
+        <v>271</v>
+      </c>
+      <c r="J492">
+        <v>1</v>
+      </c>
+      <c r="K492">
+        <v>5</v>
+      </c>
+      <c r="L492">
+        <v>5</v>
       </c>
       <c r="P492" t="b">
         <f t="shared" si="16"/>
@@ -24191,7 +24905,40 @@
     <row r="493" spans="1:16">
       <c r="A493">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B493" t="s">
+        <v>792</v>
+      </c>
+      <c r="C493" t="s">
+        <v>793</v>
+      </c>
+      <c r="D493" t="s">
+        <v>794</v>
+      </c>
+      <c r="E493">
+        <v>27</v>
+      </c>
+      <c r="F493" t="s">
+        <v>251</v>
+      </c>
+      <c r="G493" t="s">
+        <v>15</v>
+      </c>
+      <c r="H493" t="s">
+        <v>797</v>
+      </c>
+      <c r="I493" t="s">
+        <v>252</v>
+      </c>
+      <c r="J493">
+        <v>800</v>
+      </c>
+      <c r="K493">
+        <v>5</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
       </c>
       <c r="P493" t="b">
         <f t="shared" si="16"/>
@@ -24201,7 +24948,40 @@
     <row r="494" spans="1:16">
       <c r="A494">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B494" t="s">
+        <v>792</v>
+      </c>
+      <c r="C494" t="s">
+        <v>793</v>
+      </c>
+      <c r="D494" t="s">
+        <v>794</v>
+      </c>
+      <c r="E494">
+        <v>27</v>
+      </c>
+      <c r="F494" t="s">
+        <v>251</v>
+      </c>
+      <c r="G494" t="s">
+        <v>15</v>
+      </c>
+      <c r="H494" t="s">
+        <v>798</v>
+      </c>
+      <c r="I494" t="s">
+        <v>252</v>
+      </c>
+      <c r="J494">
+        <v>800</v>
+      </c>
+      <c r="K494">
+        <v>1</v>
+      </c>
+      <c r="L494">
+        <v>0</v>
       </c>
       <c r="P494" t="b">
         <f t="shared" si="16"/>
@@ -24211,7 +24991,40 @@
     <row r="495" spans="1:16">
       <c r="A495">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B495" t="s">
+        <v>792</v>
+      </c>
+      <c r="C495" t="s">
+        <v>793</v>
+      </c>
+      <c r="D495" t="s">
+        <v>794</v>
+      </c>
+      <c r="E495">
+        <v>27</v>
+      </c>
+      <c r="F495" t="s">
+        <v>251</v>
+      </c>
+      <c r="G495" t="s">
+        <v>15</v>
+      </c>
+      <c r="H495" t="s">
+        <v>798</v>
+      </c>
+      <c r="I495" t="s">
+        <v>271</v>
+      </c>
+      <c r="J495">
+        <v>1</v>
+      </c>
+      <c r="K495">
+        <v>1</v>
+      </c>
+      <c r="L495">
+        <v>0</v>
       </c>
       <c r="P495" t="b">
         <f t="shared" si="16"/>
@@ -24221,7 +25034,40 @@
     <row r="496" spans="1:16">
       <c r="A496">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B496" t="s">
+        <v>792</v>
+      </c>
+      <c r="C496" t="s">
+        <v>793</v>
+      </c>
+      <c r="D496" t="s">
+        <v>794</v>
+      </c>
+      <c r="E496">
+        <v>27</v>
+      </c>
+      <c r="F496" t="s">
+        <v>251</v>
+      </c>
+      <c r="G496" t="s">
+        <v>15</v>
+      </c>
+      <c r="H496" t="s">
+        <v>794</v>
+      </c>
+      <c r="I496" t="s">
+        <v>252</v>
+      </c>
+      <c r="J496">
+        <v>800</v>
+      </c>
+      <c r="K496">
+        <v>5</v>
+      </c>
+      <c r="L496">
+        <v>4</v>
       </c>
       <c r="P496" t="b">
         <f t="shared" si="16"/>
@@ -24231,7 +25077,40 @@
     <row r="497" spans="1:16">
       <c r="A497">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B497" t="s">
+        <v>792</v>
+      </c>
+      <c r="C497" t="s">
+        <v>793</v>
+      </c>
+      <c r="D497" t="s">
+        <v>794</v>
+      </c>
+      <c r="E497">
+        <v>27</v>
+      </c>
+      <c r="F497" t="s">
+        <v>251</v>
+      </c>
+      <c r="G497" t="s">
+        <v>15</v>
+      </c>
+      <c r="H497" t="s">
+        <v>798</v>
+      </c>
+      <c r="I497" t="s">
+        <v>271</v>
+      </c>
+      <c r="J497">
+        <v>1</v>
+      </c>
+      <c r="K497">
+        <v>5</v>
+      </c>
+      <c r="L497">
+        <v>4</v>
       </c>
       <c r="P497" t="b">
         <f t="shared" si="16"/>
@@ -24241,77 +25120,341 @@
     <row r="498" spans="1:16">
       <c r="A498">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B498" t="s">
+        <v>799</v>
+      </c>
+      <c r="C498" t="s">
+        <v>800</v>
+      </c>
+      <c r="D498" t="s">
+        <v>782</v>
+      </c>
+      <c r="E498">
+        <v>25</v>
+      </c>
+      <c r="F498" t="s">
+        <v>251</v>
+      </c>
+      <c r="G498" t="s">
+        <v>15</v>
+      </c>
+      <c r="H498" t="s">
+        <v>801</v>
+      </c>
+      <c r="I498" t="s">
+        <v>252</v>
+      </c>
+      <c r="J498">
+        <v>800</v>
+      </c>
+      <c r="K498">
+        <v>4</v>
+      </c>
+      <c r="L498">
+        <v>2</v>
       </c>
       <c r="P498" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:16">
       <c r="A499">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B499" t="s">
+        <v>799</v>
+      </c>
+      <c r="C499" t="s">
+        <v>800</v>
+      </c>
+      <c r="D499" t="s">
+        <v>782</v>
+      </c>
+      <c r="E499">
+        <v>25</v>
+      </c>
+      <c r="F499" t="s">
+        <v>251</v>
+      </c>
+      <c r="G499" t="s">
+        <v>15</v>
+      </c>
+      <c r="H499" t="s">
+        <v>802</v>
+      </c>
+      <c r="I499" t="s">
+        <v>271</v>
+      </c>
+      <c r="J499">
+        <v>1</v>
+      </c>
+      <c r="K499">
+        <v>4</v>
+      </c>
+      <c r="L499">
+        <v>2</v>
       </c>
       <c r="P499" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:16">
       <c r="A500">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B500" t="s">
+        <v>799</v>
+      </c>
+      <c r="C500" t="s">
+        <v>800</v>
+      </c>
+      <c r="D500" t="s">
+        <v>782</v>
+      </c>
+      <c r="E500">
+        <v>25</v>
+      </c>
+      <c r="F500" t="s">
+        <v>251</v>
+      </c>
+      <c r="G500" t="s">
+        <v>15</v>
+      </c>
+      <c r="H500" t="s">
+        <v>803</v>
+      </c>
+      <c r="I500" t="s">
+        <v>252</v>
+      </c>
+      <c r="J500">
+        <v>800</v>
+      </c>
+      <c r="K500">
+        <v>7</v>
+      </c>
+      <c r="L500">
+        <v>2</v>
       </c>
       <c r="P500" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:16">
       <c r="A501">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B501" t="s">
+        <v>799</v>
+      </c>
+      <c r="C501" t="s">
+        <v>800</v>
+      </c>
+      <c r="D501" t="s">
+        <v>782</v>
+      </c>
+      <c r="E501">
+        <v>25</v>
+      </c>
+      <c r="F501" t="s">
+        <v>251</v>
+      </c>
+      <c r="G501" t="s">
+        <v>15</v>
+      </c>
+      <c r="H501" t="s">
+        <v>803</v>
+      </c>
+      <c r="I501" t="s">
+        <v>271</v>
+      </c>
+      <c r="J501">
+        <v>1</v>
+      </c>
+      <c r="K501">
+        <v>7</v>
+      </c>
+      <c r="L501">
+        <v>2</v>
       </c>
       <c r="P501" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:16">
       <c r="A502">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B502" t="s">
+        <v>799</v>
+      </c>
+      <c r="C502" t="s">
+        <v>800</v>
+      </c>
+      <c r="D502" t="s">
+        <v>782</v>
+      </c>
+      <c r="E502">
+        <v>25</v>
+      </c>
+      <c r="F502" t="s">
+        <v>251</v>
+      </c>
+      <c r="G502" t="s">
+        <v>15</v>
+      </c>
+      <c r="H502" t="s">
+        <v>804</v>
+      </c>
+      <c r="I502" t="s">
+        <v>252</v>
+      </c>
+      <c r="J502">
+        <v>800</v>
+      </c>
+      <c r="K502">
+        <v>6</v>
+      </c>
+      <c r="L502">
+        <v>2</v>
       </c>
       <c r="P502" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B503" t="s">
+        <v>799</v>
+      </c>
+      <c r="C503" t="s">
+        <v>800</v>
+      </c>
+      <c r="D503" t="s">
+        <v>782</v>
+      </c>
+      <c r="E503">
+        <v>25</v>
+      </c>
+      <c r="F503" t="s">
+        <v>251</v>
+      </c>
+      <c r="G503" t="s">
+        <v>15</v>
+      </c>
+      <c r="H503" t="s">
+        <v>804</v>
+      </c>
+      <c r="I503" t="s">
+        <v>271</v>
+      </c>
+      <c r="J503">
+        <v>1</v>
+      </c>
+      <c r="K503">
+        <v>6</v>
+      </c>
+      <c r="L503">
+        <v>2</v>
       </c>
       <c r="P503" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:16">
       <c r="A504">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B504" t="s">
+        <v>799</v>
+      </c>
+      <c r="C504" t="s">
+        <v>800</v>
+      </c>
+      <c r="D504" t="s">
+        <v>782</v>
+      </c>
+      <c r="E504">
+        <v>25</v>
+      </c>
+      <c r="F504" t="s">
+        <v>251</v>
+      </c>
+      <c r="G504" t="s">
+        <v>15</v>
+      </c>
+      <c r="H504" t="s">
+        <v>805</v>
+      </c>
+      <c r="I504" t="s">
+        <v>271</v>
+      </c>
+      <c r="J504">
+        <v>1</v>
+      </c>
+      <c r="K504">
+        <v>7</v>
+      </c>
+      <c r="L504">
+        <v>2</v>
       </c>
       <c r="P504" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:16">
       <c r="A505">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="B505" t="s">
+        <v>806</v>
+      </c>
+      <c r="C505" t="s">
+        <v>807</v>
+      </c>
+      <c r="D505" t="s">
+        <v>808</v>
+      </c>
+      <c r="E505">
+        <v>24</v>
+      </c>
+      <c r="F505" t="s">
+        <v>14</v>
+      </c>
+      <c r="G505" t="s">
+        <v>15</v>
+      </c>
+      <c r="H505" t="s">
+        <v>809</v>
+      </c>
+      <c r="I505" t="s">
+        <v>252</v>
+      </c>
+      <c r="J505">
+        <v>800</v>
+      </c>
+      <c r="K505">
+        <v>1</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
       </c>
       <c r="P505" t="b">
         <f t="shared" si="16"/>
@@ -24321,7 +25464,40 @@
     <row r="506" spans="1:16">
       <c r="A506">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="B506" t="s">
+        <v>806</v>
+      </c>
+      <c r="C506" t="s">
+        <v>807</v>
+      </c>
+      <c r="D506" t="s">
+        <v>808</v>
+      </c>
+      <c r="E506">
+        <v>24</v>
+      </c>
+      <c r="F506" t="s">
+        <v>14</v>
+      </c>
+      <c r="G506" t="s">
+        <v>15</v>
+      </c>
+      <c r="H506" t="s">
+        <v>810</v>
+      </c>
+      <c r="I506" t="s">
+        <v>252</v>
+      </c>
+      <c r="J506">
+        <v>800</v>
+      </c>
+      <c r="K506">
+        <v>5</v>
+      </c>
+      <c r="L506">
+        <v>2</v>
       </c>
       <c r="P506" t="b">
         <f t="shared" si="16"/>
@@ -24331,7 +25507,40 @@
     <row r="507" spans="1:16">
       <c r="A507">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="B507" t="s">
+        <v>806</v>
+      </c>
+      <c r="C507" t="s">
+        <v>807</v>
+      </c>
+      <c r="D507" t="s">
+        <v>808</v>
+      </c>
+      <c r="E507">
+        <v>24</v>
+      </c>
+      <c r="F507" t="s">
+        <v>14</v>
+      </c>
+      <c r="G507" t="s">
+        <v>15</v>
+      </c>
+      <c r="H507" t="s">
+        <v>808</v>
+      </c>
+      <c r="I507" t="s">
+        <v>271</v>
+      </c>
+      <c r="J507">
+        <v>1</v>
+      </c>
+      <c r="K507">
+        <v>5</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
       </c>
       <c r="P507" t="b">
         <f t="shared" si="16"/>
@@ -24341,57 +25550,255 @@
     <row r="508" spans="1:16">
       <c r="A508">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B508" t="s">
+        <v>811</v>
+      </c>
+      <c r="C508" t="s">
+        <v>812</v>
+      </c>
+      <c r="D508" t="s">
+        <v>813</v>
+      </c>
+      <c r="E508">
+        <v>32</v>
+      </c>
+      <c r="F508" t="s">
+        <v>14</v>
+      </c>
+      <c r="G508" t="s">
+        <v>31</v>
+      </c>
+      <c r="H508" t="s">
+        <v>814</v>
+      </c>
+      <c r="I508" t="s">
+        <v>263</v>
+      </c>
+      <c r="J508">
+        <v>30</v>
+      </c>
+      <c r="K508">
+        <v>3</v>
+      </c>
+      <c r="L508">
+        <v>1</v>
       </c>
       <c r="P508" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B509" t="s">
+        <v>811</v>
+      </c>
+      <c r="C509" t="s">
+        <v>812</v>
+      </c>
+      <c r="D509" t="s">
+        <v>813</v>
+      </c>
+      <c r="E509">
+        <v>32</v>
+      </c>
+      <c r="F509" t="s">
+        <v>14</v>
+      </c>
+      <c r="G509" t="s">
+        <v>31</v>
+      </c>
+      <c r="H509" t="s">
+        <v>815</v>
+      </c>
+      <c r="I509" t="s">
+        <v>263</v>
+      </c>
+      <c r="J509">
+        <v>30</v>
+      </c>
+      <c r="K509">
+        <v>2</v>
+      </c>
+      <c r="L509">
+        <v>2</v>
       </c>
       <c r="P509" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B510" t="s">
+        <v>811</v>
+      </c>
+      <c r="C510" t="s">
+        <v>812</v>
+      </c>
+      <c r="D510" t="s">
+        <v>813</v>
+      </c>
+      <c r="E510">
+        <v>32</v>
+      </c>
+      <c r="F510" t="s">
+        <v>14</v>
+      </c>
+      <c r="G510" t="s">
+        <v>31</v>
+      </c>
+      <c r="H510" t="s">
+        <v>816</v>
+      </c>
+      <c r="I510" t="s">
+        <v>252</v>
+      </c>
+      <c r="J510">
+        <v>800</v>
+      </c>
+      <c r="K510">
+        <v>2</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
       </c>
       <c r="P510" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:16">
       <c r="A511">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B511" t="s">
+        <v>811</v>
+      </c>
+      <c r="C511" t="s">
+        <v>812</v>
+      </c>
+      <c r="D511" t="s">
+        <v>813</v>
+      </c>
+      <c r="E511">
+        <v>32</v>
+      </c>
+      <c r="F511" t="s">
+        <v>14</v>
+      </c>
+      <c r="G511" t="s">
+        <v>31</v>
+      </c>
+      <c r="H511" t="s">
+        <v>817</v>
+      </c>
+      <c r="I511" t="s">
+        <v>252</v>
+      </c>
+      <c r="J511">
+        <v>800</v>
+      </c>
+      <c r="K511">
+        <v>5</v>
+      </c>
+      <c r="L511">
+        <v>4</v>
       </c>
       <c r="P511" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="B512" t="s">
+        <v>811</v>
+      </c>
+      <c r="C512" t="s">
+        <v>812</v>
+      </c>
+      <c r="D512" t="s">
+        <v>813</v>
+      </c>
+      <c r="E512">
+        <v>32</v>
+      </c>
+      <c r="F512" t="s">
+        <v>14</v>
+      </c>
+      <c r="G512" t="s">
+        <v>31</v>
+      </c>
+      <c r="H512" t="s">
+        <v>813</v>
+      </c>
+      <c r="I512" t="s">
+        <v>271</v>
+      </c>
+      <c r="J512">
+        <v>1</v>
+      </c>
+      <c r="K512">
+        <v>7</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
       </c>
       <c r="P512" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513">
         <f t="shared" si="15"/>
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B513" t="s">
+        <v>818</v>
+      </c>
+      <c r="C513" t="s">
+        <v>819</v>
+      </c>
+      <c r="D513" t="s">
+        <v>820</v>
+      </c>
+      <c r="E513">
+        <v>31</v>
+      </c>
+      <c r="F513" t="s">
+        <v>14</v>
+      </c>
+      <c r="G513" t="s">
+        <v>15</v>
+      </c>
+      <c r="H513" t="s">
+        <v>821</v>
+      </c>
+      <c r="I513" t="s">
+        <v>252</v>
+      </c>
+      <c r="J513">
+        <v>800</v>
+      </c>
+      <c r="K513">
+        <v>4</v>
+      </c>
+      <c r="L513">
+        <v>1</v>
       </c>
       <c r="P513" t="b">
         <f t="shared" si="16"/>
@@ -24400,8 +25807,41 @@
     </row>
     <row r="514" spans="1:16">
       <c r="A514">
-        <f t="shared" ref="A514:A530" si="17">IF(ROW()=2,1,IF(B514=B513,A513,A513+1))</f>
-        <v>129</v>
+        <f t="shared" ref="A514:A577" si="17">IF(ROW()=2,1,IF(B514=B513,A513,A513+1))</f>
+        <v>135</v>
+      </c>
+      <c r="B514" t="s">
+        <v>818</v>
+      </c>
+      <c r="C514" t="s">
+        <v>819</v>
+      </c>
+      <c r="D514" t="s">
+        <v>820</v>
+      </c>
+      <c r="E514">
+        <v>31</v>
+      </c>
+      <c r="F514" t="s">
+        <v>14</v>
+      </c>
+      <c r="G514" t="s">
+        <v>15</v>
+      </c>
+      <c r="H514" t="s">
+        <v>822</v>
+      </c>
+      <c r="I514" t="s">
+        <v>271</v>
+      </c>
+      <c r="J514">
+        <v>1</v>
+      </c>
+      <c r="K514">
+        <v>5</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
       </c>
       <c r="P514" t="b">
         <f t="shared" si="16"/>
@@ -24411,7 +25851,40 @@
     <row r="515" spans="1:16">
       <c r="A515">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B515" t="s">
+        <v>818</v>
+      </c>
+      <c r="C515" t="s">
+        <v>819</v>
+      </c>
+      <c r="D515" t="s">
+        <v>820</v>
+      </c>
+      <c r="E515">
+        <v>31</v>
+      </c>
+      <c r="F515" t="s">
+        <v>14</v>
+      </c>
+      <c r="G515" t="s">
+        <v>15</v>
+      </c>
+      <c r="H515" t="s">
+        <v>820</v>
+      </c>
+      <c r="I515" t="s">
+        <v>252</v>
+      </c>
+      <c r="J515">
+        <v>800</v>
+      </c>
+      <c r="K515">
+        <v>3</v>
+      </c>
+      <c r="L515">
+        <v>3</v>
       </c>
       <c r="P515" t="b">
         <f t="shared" si="16"/>
@@ -24421,37 +25894,169 @@
     <row r="516" spans="1:16">
       <c r="A516">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B516" t="s">
+        <v>823</v>
+      </c>
+      <c r="C516" t="s">
+        <v>824</v>
+      </c>
+      <c r="D516" t="s">
+        <v>825</v>
+      </c>
+      <c r="E516">
+        <v>30</v>
+      </c>
+      <c r="F516" t="s">
+        <v>14</v>
+      </c>
+      <c r="G516" t="s">
+        <v>15</v>
+      </c>
+      <c r="H516" t="s">
+        <v>826</v>
+      </c>
+      <c r="I516" t="s">
+        <v>252</v>
+      </c>
+      <c r="J516">
+        <v>800</v>
+      </c>
+      <c r="K516">
+        <v>4</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
       </c>
       <c r="P516" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:16">
       <c r="A517">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B517" t="s">
+        <v>823</v>
+      </c>
+      <c r="C517" t="s">
+        <v>824</v>
+      </c>
+      <c r="D517" t="s">
+        <v>825</v>
+      </c>
+      <c r="E517">
+        <v>30</v>
+      </c>
+      <c r="F517" t="s">
+        <v>14</v>
+      </c>
+      <c r="G517" t="s">
+        <v>15</v>
+      </c>
+      <c r="H517" t="s">
+        <v>827</v>
+      </c>
+      <c r="I517" t="s">
+        <v>252</v>
+      </c>
+      <c r="J517">
+        <v>800</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
       </c>
       <c r="P517" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:16">
       <c r="A518">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B518" t="s">
+        <v>823</v>
+      </c>
+      <c r="C518" t="s">
+        <v>824</v>
+      </c>
+      <c r="D518" t="s">
+        <v>825</v>
+      </c>
+      <c r="E518">
+        <v>30</v>
+      </c>
+      <c r="F518" t="s">
+        <v>14</v>
+      </c>
+      <c r="G518" t="s">
+        <v>15</v>
+      </c>
+      <c r="H518" t="s">
+        <v>828</v>
+      </c>
+      <c r="I518" t="s">
+        <v>252</v>
+      </c>
+      <c r="J518">
+        <v>800</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>0</v>
       </c>
       <c r="P518" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:16">
       <c r="A519">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="B519" t="s">
+        <v>829</v>
+      </c>
+      <c r="C519" t="s">
+        <v>830</v>
+      </c>
+      <c r="D519" t="s">
+        <v>831</v>
+      </c>
+      <c r="E519">
+        <v>29</v>
+      </c>
+      <c r="F519" t="s">
+        <v>251</v>
+      </c>
+      <c r="G519" t="s">
+        <v>15</v>
+      </c>
+      <c r="H519" t="s">
+        <v>832</v>
+      </c>
+      <c r="I519" t="s">
+        <v>252</v>
+      </c>
+      <c r="J519">
+        <v>800</v>
+      </c>
+      <c r="K519">
+        <v>5</v>
+      </c>
+      <c r="L519">
+        <v>0</v>
       </c>
       <c r="P519" t="b">
         <f t="shared" si="16"/>
@@ -24461,7 +26066,40 @@
     <row r="520" spans="1:16">
       <c r="A520">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="B520" t="s">
+        <v>829</v>
+      </c>
+      <c r="C520" t="s">
+        <v>830</v>
+      </c>
+      <c r="D520" t="s">
+        <v>831</v>
+      </c>
+      <c r="E520">
+        <v>29</v>
+      </c>
+      <c r="F520" t="s">
+        <v>251</v>
+      </c>
+      <c r="G520" t="s">
+        <v>15</v>
+      </c>
+      <c r="H520" t="s">
+        <v>833</v>
+      </c>
+      <c r="I520" t="s">
+        <v>252</v>
+      </c>
+      <c r="J520">
+        <v>800</v>
+      </c>
+      <c r="K520">
+        <v>3</v>
+      </c>
+      <c r="L520">
+        <v>3</v>
       </c>
       <c r="P520" t="b">
         <f t="shared" si="16"/>
@@ -24471,7 +26109,40 @@
     <row r="521" spans="1:16">
       <c r="A521">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="B521" t="s">
+        <v>829</v>
+      </c>
+      <c r="C521" t="s">
+        <v>830</v>
+      </c>
+      <c r="D521" t="s">
+        <v>831</v>
+      </c>
+      <c r="E521">
+        <v>29</v>
+      </c>
+      <c r="F521" t="s">
+        <v>251</v>
+      </c>
+      <c r="G521" t="s">
+        <v>15</v>
+      </c>
+      <c r="H521" t="s">
+        <v>834</v>
+      </c>
+      <c r="I521" t="s">
+        <v>277</v>
+      </c>
+      <c r="J521">
+        <v>650</v>
+      </c>
+      <c r="K521">
+        <v>3</v>
+      </c>
+      <c r="L521">
+        <v>2</v>
       </c>
       <c r="P521" t="b">
         <f t="shared" si="16"/>
@@ -24481,57 +26152,255 @@
     <row r="522" spans="1:16">
       <c r="A522">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B522" t="s">
+        <v>835</v>
+      </c>
+      <c r="C522" t="s">
+        <v>836</v>
+      </c>
+      <c r="D522" t="s">
+        <v>287</v>
+      </c>
+      <c r="E522">
+        <v>29</v>
+      </c>
+      <c r="F522" t="s">
+        <v>251</v>
+      </c>
+      <c r="G522" t="s">
+        <v>15</v>
+      </c>
+      <c r="H522" t="s">
+        <v>837</v>
+      </c>
+      <c r="I522" t="s">
+        <v>252</v>
+      </c>
+      <c r="J522">
+        <v>800</v>
+      </c>
+      <c r="K522">
+        <v>8</v>
+      </c>
+      <c r="L522">
+        <v>0</v>
       </c>
       <c r="P522" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:16">
       <c r="A523">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B523" t="s">
+        <v>835</v>
+      </c>
+      <c r="C523" t="s">
+        <v>836</v>
+      </c>
+      <c r="D523" t="s">
+        <v>287</v>
+      </c>
+      <c r="E523">
+        <v>29</v>
+      </c>
+      <c r="F523" t="s">
+        <v>251</v>
+      </c>
+      <c r="G523" t="s">
+        <v>15</v>
+      </c>
+      <c r="H523" t="s">
+        <v>837</v>
+      </c>
+      <c r="I523" t="s">
+        <v>271</v>
+      </c>
+      <c r="J523">
+        <v>2</v>
+      </c>
+      <c r="K523">
+        <v>8</v>
+      </c>
+      <c r="L523">
+        <v>0</v>
       </c>
       <c r="P523" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:16">
       <c r="A524">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B524" t="s">
+        <v>835</v>
+      </c>
+      <c r="C524" t="s">
+        <v>836</v>
+      </c>
+      <c r="D524" t="s">
+        <v>287</v>
+      </c>
+      <c r="E524">
+        <v>29</v>
+      </c>
+      <c r="F524" t="s">
+        <v>251</v>
+      </c>
+      <c r="G524" t="s">
+        <v>15</v>
+      </c>
+      <c r="H524" t="s">
+        <v>838</v>
+      </c>
+      <c r="I524" t="s">
+        <v>252</v>
+      </c>
+      <c r="J524">
+        <v>800</v>
+      </c>
+      <c r="K524">
+        <v>7</v>
+      </c>
+      <c r="L524">
+        <v>4</v>
       </c>
       <c r="P524" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:16">
       <c r="A525">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B525" t="s">
+        <v>835</v>
+      </c>
+      <c r="C525" t="s">
+        <v>836</v>
+      </c>
+      <c r="D525" t="s">
+        <v>287</v>
+      </c>
+      <c r="E525">
+        <v>29</v>
+      </c>
+      <c r="F525" t="s">
+        <v>251</v>
+      </c>
+      <c r="G525" t="s">
+        <v>15</v>
+      </c>
+      <c r="H525" t="s">
+        <v>838</v>
+      </c>
+      <c r="I525" t="s">
+        <v>271</v>
+      </c>
+      <c r="J525">
+        <v>1</v>
+      </c>
+      <c r="K525">
+        <v>7</v>
+      </c>
+      <c r="L525">
+        <v>4</v>
       </c>
       <c r="P525" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:16">
       <c r="A526">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B526" t="s">
+        <v>835</v>
+      </c>
+      <c r="C526" t="s">
+        <v>836</v>
+      </c>
+      <c r="D526" t="s">
+        <v>287</v>
+      </c>
+      <c r="E526">
+        <v>29</v>
+      </c>
+      <c r="F526" t="s">
+        <v>251</v>
+      </c>
+      <c r="G526" t="s">
+        <v>15</v>
+      </c>
+      <c r="H526" t="s">
+        <v>839</v>
+      </c>
+      <c r="I526" t="s">
+        <v>252</v>
+      </c>
+      <c r="J526">
+        <v>800</v>
+      </c>
+      <c r="K526">
+        <v>3</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
       </c>
       <c r="P526" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:16">
       <c r="A527">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="B527" t="s">
+        <v>840</v>
+      </c>
+      <c r="C527" t="s">
+        <v>841</v>
+      </c>
+      <c r="D527" t="s">
+        <v>842</v>
+      </c>
+      <c r="E527">
+        <v>20</v>
+      </c>
+      <c r="F527" t="s">
+        <v>14</v>
+      </c>
+      <c r="G527" t="s">
+        <v>15</v>
+      </c>
+      <c r="H527" t="s">
+        <v>843</v>
+      </c>
+      <c r="I527" t="s">
+        <v>252</v>
+      </c>
+      <c r="J527">
+        <v>800</v>
+      </c>
+      <c r="K527">
+        <v>7</v>
+      </c>
+      <c r="L527">
+        <v>2</v>
       </c>
       <c r="P527" t="b">
         <f t="shared" si="16"/>
@@ -24541,7 +26410,40 @@
     <row r="528" spans="1:16">
       <c r="A528">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="B528" t="s">
+        <v>840</v>
+      </c>
+      <c r="C528" t="s">
+        <v>841</v>
+      </c>
+      <c r="D528" t="s">
+        <v>842</v>
+      </c>
+      <c r="E528">
+        <v>20</v>
+      </c>
+      <c r="F528" t="s">
+        <v>14</v>
+      </c>
+      <c r="G528" t="s">
+        <v>15</v>
+      </c>
+      <c r="H528" t="s">
+        <v>844</v>
+      </c>
+      <c r="I528" t="s">
+        <v>252</v>
+      </c>
+      <c r="J528">
+        <v>800</v>
+      </c>
+      <c r="K528">
+        <v>8</v>
+      </c>
+      <c r="L528">
+        <v>3</v>
       </c>
       <c r="P528" t="b">
         <f t="shared" si="16"/>
@@ -24551,7 +26453,40 @@
     <row r="529" spans="1:16">
       <c r="A529">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="B529" t="s">
+        <v>840</v>
+      </c>
+      <c r="C529" t="s">
+        <v>841</v>
+      </c>
+      <c r="D529" t="s">
+        <v>842</v>
+      </c>
+      <c r="E529">
+        <v>20</v>
+      </c>
+      <c r="F529" t="s">
+        <v>14</v>
+      </c>
+      <c r="G529" t="s">
+        <v>15</v>
+      </c>
+      <c r="H529" t="s">
+        <v>844</v>
+      </c>
+      <c r="I529" t="s">
+        <v>271</v>
+      </c>
+      <c r="J529">
+        <v>1</v>
+      </c>
+      <c r="K529">
+        <v>8</v>
+      </c>
+      <c r="L529">
+        <v>3</v>
       </c>
       <c r="P529" t="b">
         <f t="shared" si="16"/>
@@ -24561,17 +26496,3266 @@
     <row r="530" spans="1:16">
       <c r="A530">
         <f t="shared" si="17"/>
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="B530" t="s">
+        <v>840</v>
+      </c>
+      <c r="C530" t="s">
+        <v>841</v>
+      </c>
+      <c r="D530" t="s">
+        <v>842</v>
+      </c>
+      <c r="E530">
+        <v>20</v>
+      </c>
+      <c r="F530" t="s">
+        <v>14</v>
+      </c>
+      <c r="G530" t="s">
+        <v>15</v>
+      </c>
+      <c r="H530" t="s">
+        <v>842</v>
+      </c>
+      <c r="I530" t="s">
+        <v>252</v>
+      </c>
+      <c r="J530">
+        <v>800</v>
+      </c>
+      <c r="K530">
+        <v>7</v>
+      </c>
+      <c r="L530">
+        <v>4</v>
       </c>
       <c r="P530" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
+    <row r="531" spans="1:16">
+      <c r="A531">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="B531" t="s">
+        <v>840</v>
+      </c>
+      <c r="C531" t="s">
+        <v>841</v>
+      </c>
+      <c r="D531" t="s">
+        <v>842</v>
+      </c>
+      <c r="E531">
+        <v>20</v>
+      </c>
+      <c r="F531" t="s">
+        <v>14</v>
+      </c>
+      <c r="G531" t="s">
+        <v>15</v>
+      </c>
+      <c r="H531" t="s">
+        <v>842</v>
+      </c>
+      <c r="I531" t="s">
+        <v>271</v>
+      </c>
+      <c r="J531">
+        <v>1</v>
+      </c>
+      <c r="K531">
+        <v>7</v>
+      </c>
+      <c r="L531">
+        <v>4</v>
+      </c>
+      <c r="P531" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16">
+      <c r="A532">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+      <c r="B532" t="s">
+        <v>845</v>
+      </c>
+      <c r="C532" t="s">
+        <v>846</v>
+      </c>
+      <c r="D532" t="s">
+        <v>847</v>
+      </c>
+      <c r="E532">
+        <v>38</v>
+      </c>
+      <c r="F532" t="s">
+        <v>14</v>
+      </c>
+      <c r="G532" t="s">
+        <v>15</v>
+      </c>
+      <c r="H532" t="s">
+        <v>848</v>
+      </c>
+      <c r="I532" t="s">
+        <v>252</v>
+      </c>
+      <c r="J532">
+        <v>800</v>
+      </c>
+      <c r="K532" t="s">
+        <v>287</v>
+      </c>
+      <c r="L532" t="s">
+        <v>287</v>
+      </c>
+      <c r="P532" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16">
+      <c r="A533">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+      <c r="B533" t="s">
+        <v>845</v>
+      </c>
+      <c r="C533" t="s">
+        <v>846</v>
+      </c>
+      <c r="D533" t="s">
+        <v>847</v>
+      </c>
+      <c r="E533">
+        <v>38</v>
+      </c>
+      <c r="F533" t="s">
+        <v>14</v>
+      </c>
+      <c r="G533" t="s">
+        <v>15</v>
+      </c>
+      <c r="H533" t="s">
+        <v>847</v>
+      </c>
+      <c r="I533" t="s">
+        <v>252</v>
+      </c>
+      <c r="J533">
+        <v>800</v>
+      </c>
+      <c r="K533" t="s">
+        <v>287</v>
+      </c>
+      <c r="L533" t="s">
+        <v>287</v>
+      </c>
+      <c r="P533" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16">
+      <c r="A534">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="B534" t="s">
+        <v>849</v>
+      </c>
+      <c r="C534" t="s">
+        <v>850</v>
+      </c>
+      <c r="D534" t="s">
+        <v>851</v>
+      </c>
+      <c r="E534">
+        <v>17</v>
+      </c>
+      <c r="F534" t="s">
+        <v>251</v>
+      </c>
+      <c r="G534" t="s">
+        <v>15</v>
+      </c>
+      <c r="H534" t="s">
+        <v>852</v>
+      </c>
+      <c r="I534" t="s">
+        <v>252</v>
+      </c>
+      <c r="J534">
+        <v>800</v>
+      </c>
+      <c r="K534">
+        <v>5</v>
+      </c>
+      <c r="L534">
+        <v>2</v>
+      </c>
+      <c r="P534" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16">
+      <c r="A535">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="B535" t="s">
+        <v>849</v>
+      </c>
+      <c r="C535" t="s">
+        <v>850</v>
+      </c>
+      <c r="D535" t="s">
+        <v>851</v>
+      </c>
+      <c r="E535">
+        <v>17</v>
+      </c>
+      <c r="F535" t="s">
+        <v>251</v>
+      </c>
+      <c r="G535" t="s">
+        <v>15</v>
+      </c>
+      <c r="H535" t="s">
+        <v>853</v>
+      </c>
+      <c r="I535" t="s">
+        <v>271</v>
+      </c>
+      <c r="J535">
+        <v>1</v>
+      </c>
+      <c r="K535">
+        <v>4</v>
+      </c>
+      <c r="L535">
+        <v>1</v>
+      </c>
+      <c r="P535" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16">
+      <c r="A536">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="B536" t="s">
+        <v>849</v>
+      </c>
+      <c r="C536" t="s">
+        <v>850</v>
+      </c>
+      <c r="D536" t="s">
+        <v>851</v>
+      </c>
+      <c r="E536">
+        <v>17</v>
+      </c>
+      <c r="F536" t="s">
+        <v>251</v>
+      </c>
+      <c r="G536" t="s">
+        <v>15</v>
+      </c>
+      <c r="H536" t="s">
+        <v>854</v>
+      </c>
+      <c r="I536" t="s">
+        <v>252</v>
+      </c>
+      <c r="J536">
+        <v>800</v>
+      </c>
+      <c r="K536">
+        <v>3</v>
+      </c>
+      <c r="L536">
+        <v>0</v>
+      </c>
+      <c r="P536" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16">
+      <c r="A537">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
+      <c r="B537" t="s">
+        <v>849</v>
+      </c>
+      <c r="C537" t="s">
+        <v>850</v>
+      </c>
+      <c r="D537" t="s">
+        <v>851</v>
+      </c>
+      <c r="E537">
+        <v>17</v>
+      </c>
+      <c r="F537" t="s">
+        <v>251</v>
+      </c>
+      <c r="G537" t="s">
+        <v>15</v>
+      </c>
+      <c r="H537" t="s">
+        <v>855</v>
+      </c>
+      <c r="I537" t="s">
+        <v>252</v>
+      </c>
+      <c r="J537">
+        <v>800</v>
+      </c>
+      <c r="K537">
+        <v>3</v>
+      </c>
+      <c r="L537">
+        <v>1</v>
+      </c>
+      <c r="P537" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16">
+      <c r="A538">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="B538" t="s">
+        <v>856</v>
+      </c>
+      <c r="C538" t="s">
+        <v>857</v>
+      </c>
+      <c r="D538" t="s">
+        <v>858</v>
+      </c>
+      <c r="E538">
+        <v>28</v>
+      </c>
+      <c r="F538" t="s">
+        <v>14</v>
+      </c>
+      <c r="G538" t="s">
+        <v>15</v>
+      </c>
+      <c r="H538" t="s">
+        <v>858</v>
+      </c>
+      <c r="I538" t="s">
+        <v>252</v>
+      </c>
+      <c r="J538">
+        <v>800</v>
+      </c>
+      <c r="K538">
+        <v>4</v>
+      </c>
+      <c r="L538">
+        <v>2</v>
+      </c>
+      <c r="O538" t="s">
+        <v>859</v>
+      </c>
+      <c r="P538" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16">
+      <c r="A539">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B539" t="s">
+        <v>860</v>
+      </c>
+      <c r="C539" t="s">
+        <v>861</v>
+      </c>
+      <c r="D539" t="s">
+        <v>862</v>
+      </c>
+      <c r="E539">
+        <v>29</v>
+      </c>
+      <c r="F539" t="s">
+        <v>14</v>
+      </c>
+      <c r="G539" t="s">
+        <v>15</v>
+      </c>
+      <c r="H539" t="s">
+        <v>863</v>
+      </c>
+      <c r="I539" t="s">
+        <v>252</v>
+      </c>
+      <c r="J539">
+        <v>800</v>
+      </c>
+      <c r="K539">
+        <v>4</v>
+      </c>
+      <c r="L539">
+        <v>0</v>
+      </c>
+      <c r="P539" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16">
+      <c r="A540">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B540" t="s">
+        <v>860</v>
+      </c>
+      <c r="C540" t="s">
+        <v>861</v>
+      </c>
+      <c r="D540" t="s">
+        <v>862</v>
+      </c>
+      <c r="E540">
+        <v>29</v>
+      </c>
+      <c r="F540" t="s">
+        <v>14</v>
+      </c>
+      <c r="G540" t="s">
+        <v>15</v>
+      </c>
+      <c r="H540" t="s">
+        <v>864</v>
+      </c>
+      <c r="I540" t="s">
+        <v>252</v>
+      </c>
+      <c r="J540">
+        <v>800</v>
+      </c>
+      <c r="K540">
+        <v>6</v>
+      </c>
+      <c r="L540">
+        <v>0</v>
+      </c>
+      <c r="P540" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16">
+      <c r="A541">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B541" t="s">
+        <v>860</v>
+      </c>
+      <c r="C541" t="s">
+        <v>861</v>
+      </c>
+      <c r="D541" t="s">
+        <v>862</v>
+      </c>
+      <c r="E541">
+        <v>29</v>
+      </c>
+      <c r="F541" t="s">
+        <v>14</v>
+      </c>
+      <c r="G541" t="s">
+        <v>15</v>
+      </c>
+      <c r="H541" t="s">
+        <v>864</v>
+      </c>
+      <c r="I541" t="s">
+        <v>271</v>
+      </c>
+      <c r="J541">
+        <v>1</v>
+      </c>
+      <c r="K541">
+        <v>6</v>
+      </c>
+      <c r="L541">
+        <v>0</v>
+      </c>
+      <c r="P541" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16">
+      <c r="A542">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B542" t="s">
+        <v>860</v>
+      </c>
+      <c r="C542" t="s">
+        <v>861</v>
+      </c>
+      <c r="D542" t="s">
+        <v>862</v>
+      </c>
+      <c r="E542">
+        <v>29</v>
+      </c>
+      <c r="F542" t="s">
+        <v>14</v>
+      </c>
+      <c r="G542" t="s">
+        <v>15</v>
+      </c>
+      <c r="H542" t="s">
+        <v>865</v>
+      </c>
+      <c r="I542" t="s">
+        <v>252</v>
+      </c>
+      <c r="J542">
+        <v>800</v>
+      </c>
+      <c r="K542">
+        <v>5</v>
+      </c>
+      <c r="L542">
+        <v>0</v>
+      </c>
+      <c r="P542" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16">
+      <c r="A543">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B543" t="s">
+        <v>860</v>
+      </c>
+      <c r="C543" t="s">
+        <v>861</v>
+      </c>
+      <c r="D543" t="s">
+        <v>862</v>
+      </c>
+      <c r="E543">
+        <v>29</v>
+      </c>
+      <c r="F543" t="s">
+        <v>14</v>
+      </c>
+      <c r="G543" t="s">
+        <v>15</v>
+      </c>
+      <c r="H543" t="s">
+        <v>865</v>
+      </c>
+      <c r="I543" t="s">
+        <v>271</v>
+      </c>
+      <c r="J543">
+        <v>1</v>
+      </c>
+      <c r="K543">
+        <v>5</v>
+      </c>
+      <c r="L543">
+        <v>0</v>
+      </c>
+      <c r="P543" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16">
+      <c r="A544">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B544" t="s">
+        <v>860</v>
+      </c>
+      <c r="C544" t="s">
+        <v>861</v>
+      </c>
+      <c r="D544" t="s">
+        <v>862</v>
+      </c>
+      <c r="E544">
+        <v>29</v>
+      </c>
+      <c r="F544" t="s">
+        <v>14</v>
+      </c>
+      <c r="G544" t="s">
+        <v>15</v>
+      </c>
+      <c r="H544" t="s">
+        <v>862</v>
+      </c>
+      <c r="I544" t="s">
+        <v>252</v>
+      </c>
+      <c r="J544">
+        <v>800</v>
+      </c>
+      <c r="K544">
+        <v>6</v>
+      </c>
+      <c r="L544">
+        <v>0</v>
+      </c>
+      <c r="P544" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16">
+      <c r="A545">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="B545" t="s">
+        <v>860</v>
+      </c>
+      <c r="C545" t="s">
+        <v>861</v>
+      </c>
+      <c r="D545" t="s">
+        <v>862</v>
+      </c>
+      <c r="E545">
+        <v>29</v>
+      </c>
+      <c r="F545" t="s">
+        <v>14</v>
+      </c>
+      <c r="G545" t="s">
+        <v>15</v>
+      </c>
+      <c r="H545" t="s">
+        <v>862</v>
+      </c>
+      <c r="I545" t="s">
+        <v>271</v>
+      </c>
+      <c r="J545">
+        <v>1</v>
+      </c>
+      <c r="K545">
+        <v>6</v>
+      </c>
+      <c r="L545">
+        <v>0</v>
+      </c>
+      <c r="P545" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16">
+      <c r="A546">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B546" t="s">
+        <v>866</v>
+      </c>
+      <c r="C546" t="s">
+        <v>867</v>
+      </c>
+      <c r="D546" t="s">
+        <v>868</v>
+      </c>
+      <c r="E546">
+        <v>20</v>
+      </c>
+      <c r="F546" t="s">
+        <v>14</v>
+      </c>
+      <c r="G546" t="s">
+        <v>15</v>
+      </c>
+      <c r="H546" t="s">
+        <v>869</v>
+      </c>
+      <c r="I546" t="s">
+        <v>252</v>
+      </c>
+      <c r="J546">
+        <v>800</v>
+      </c>
+      <c r="K546">
+        <v>6</v>
+      </c>
+      <c r="L546">
+        <v>4</v>
+      </c>
+      <c r="P546" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16">
+      <c r="A547">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B547" t="s">
+        <v>866</v>
+      </c>
+      <c r="C547" t="s">
+        <v>867</v>
+      </c>
+      <c r="D547" t="s">
+        <v>868</v>
+      </c>
+      <c r="E547">
+        <v>20</v>
+      </c>
+      <c r="F547" t="s">
+        <v>14</v>
+      </c>
+      <c r="G547" t="s">
+        <v>15</v>
+      </c>
+      <c r="H547" t="s">
+        <v>872</v>
+      </c>
+      <c r="I547" t="s">
+        <v>271</v>
+      </c>
+      <c r="J547">
+        <v>1</v>
+      </c>
+      <c r="K547">
+        <v>6</v>
+      </c>
+      <c r="L547">
+        <v>4</v>
+      </c>
+      <c r="P547" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16">
+      <c r="A548">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B548" t="s">
+        <v>866</v>
+      </c>
+      <c r="C548" t="s">
+        <v>867</v>
+      </c>
+      <c r="D548" t="s">
+        <v>868</v>
+      </c>
+      <c r="E548">
+        <v>20</v>
+      </c>
+      <c r="F548" t="s">
+        <v>14</v>
+      </c>
+      <c r="G548" t="s">
+        <v>15</v>
+      </c>
+      <c r="H548" t="s">
+        <v>870</v>
+      </c>
+      <c r="I548" t="s">
+        <v>252</v>
+      </c>
+      <c r="J548">
+        <v>800</v>
+      </c>
+      <c r="K548">
+        <v>5</v>
+      </c>
+      <c r="L548">
+        <v>2</v>
+      </c>
+      <c r="P548" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16">
+      <c r="A549">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B549" t="s">
+        <v>866</v>
+      </c>
+      <c r="C549" t="s">
+        <v>867</v>
+      </c>
+      <c r="D549" t="s">
+        <v>868</v>
+      </c>
+      <c r="E549">
+        <v>20</v>
+      </c>
+      <c r="F549" t="s">
+        <v>14</v>
+      </c>
+      <c r="G549" t="s">
+        <v>15</v>
+      </c>
+      <c r="H549" t="s">
+        <v>871</v>
+      </c>
+      <c r="I549" t="s">
+        <v>271</v>
+      </c>
+      <c r="J549">
+        <v>1</v>
+      </c>
+      <c r="K549">
+        <v>5</v>
+      </c>
+      <c r="L549">
+        <v>2</v>
+      </c>
+      <c r="P549" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16">
+      <c r="A550">
+        <f t="shared" si="17"/>
+        <v>144</v>
+      </c>
+      <c r="B550" t="s">
+        <v>866</v>
+      </c>
+      <c r="C550" t="s">
+        <v>867</v>
+      </c>
+      <c r="D550" t="s">
+        <v>868</v>
+      </c>
+      <c r="E550">
+        <v>20</v>
+      </c>
+      <c r="F550" t="s">
+        <v>14</v>
+      </c>
+      <c r="G550" t="s">
+        <v>15</v>
+      </c>
+      <c r="H550" t="s">
+        <v>868</v>
+      </c>
+      <c r="I550" t="s">
+        <v>252</v>
+      </c>
+      <c r="J550">
+        <v>800</v>
+      </c>
+      <c r="K550" t="s">
+        <v>287</v>
+      </c>
+      <c r="L550" t="s">
+        <v>287</v>
+      </c>
+      <c r="P550" t="b">
+        <f t="shared" ref="P550:P613" si="18">ISODD(A550)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16">
+      <c r="A551">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="B551" t="s">
+        <v>873</v>
+      </c>
+      <c r="C551" t="s">
+        <v>874</v>
+      </c>
+      <c r="D551" t="s">
+        <v>875</v>
+      </c>
+      <c r="E551">
+        <v>31</v>
+      </c>
+      <c r="F551" t="s">
+        <v>14</v>
+      </c>
+      <c r="G551" t="s">
+        <v>15</v>
+      </c>
+      <c r="H551" t="s">
+        <v>876</v>
+      </c>
+      <c r="I551" t="s">
+        <v>263</v>
+      </c>
+      <c r="J551">
+        <v>30</v>
+      </c>
+      <c r="K551">
+        <v>8</v>
+      </c>
+      <c r="L551">
+        <v>0</v>
+      </c>
+      <c r="P551" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16">
+      <c r="A552">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="B552" t="s">
+        <v>873</v>
+      </c>
+      <c r="C552" t="s">
+        <v>874</v>
+      </c>
+      <c r="D552" t="s">
+        <v>875</v>
+      </c>
+      <c r="E552">
+        <v>31</v>
+      </c>
+      <c r="F552" t="s">
+        <v>14</v>
+      </c>
+      <c r="G552" t="s">
+        <v>15</v>
+      </c>
+      <c r="H552" t="s">
+        <v>877</v>
+      </c>
+      <c r="I552" t="s">
+        <v>263</v>
+      </c>
+      <c r="J552">
+        <v>30</v>
+      </c>
+      <c r="K552">
+        <v>5</v>
+      </c>
+      <c r="L552">
+        <v>3</v>
+      </c>
+      <c r="P552" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16">
+      <c r="A553">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="B553" t="s">
+        <v>873</v>
+      </c>
+      <c r="C553" t="s">
+        <v>874</v>
+      </c>
+      <c r="D553" t="s">
+        <v>875</v>
+      </c>
+      <c r="E553">
+        <v>31</v>
+      </c>
+      <c r="F553" t="s">
+        <v>14</v>
+      </c>
+      <c r="G553" t="s">
+        <v>15</v>
+      </c>
+      <c r="H553" t="s">
+        <v>878</v>
+      </c>
+      <c r="I553" t="s">
+        <v>263</v>
+      </c>
+      <c r="J553">
+        <v>30</v>
+      </c>
+      <c r="K553">
+        <v>3</v>
+      </c>
+      <c r="L553">
+        <v>0</v>
+      </c>
+      <c r="P553" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16">
+      <c r="A554">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="B554" t="s">
+        <v>873</v>
+      </c>
+      <c r="C554" t="s">
+        <v>874</v>
+      </c>
+      <c r="D554" t="s">
+        <v>875</v>
+      </c>
+      <c r="E554">
+        <v>31</v>
+      </c>
+      <c r="F554" t="s">
+        <v>14</v>
+      </c>
+      <c r="G554" t="s">
+        <v>15</v>
+      </c>
+      <c r="H554" t="s">
+        <v>875</v>
+      </c>
+      <c r="I554" t="s">
+        <v>263</v>
+      </c>
+      <c r="J554">
+        <v>30</v>
+      </c>
+      <c r="K554" t="s">
+        <v>287</v>
+      </c>
+      <c r="L554" t="s">
+        <v>287</v>
+      </c>
+      <c r="P554" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16">
+      <c r="A555">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+      <c r="B555" t="s">
+        <v>879</v>
+      </c>
+      <c r="C555" t="s">
+        <v>880</v>
+      </c>
+      <c r="D555" t="s">
+        <v>881</v>
+      </c>
+      <c r="E555">
+        <v>23</v>
+      </c>
+      <c r="F555" t="s">
+        <v>14</v>
+      </c>
+      <c r="G555" t="s">
+        <v>31</v>
+      </c>
+      <c r="H555" t="s">
+        <v>882</v>
+      </c>
+      <c r="I555" t="s">
+        <v>263</v>
+      </c>
+      <c r="J555">
+        <v>30</v>
+      </c>
+      <c r="K555">
+        <v>2</v>
+      </c>
+      <c r="L555">
+        <v>0</v>
+      </c>
+      <c r="P555" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16">
+      <c r="A556">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+      <c r="B556" t="s">
+        <v>879</v>
+      </c>
+      <c r="C556" t="s">
+        <v>880</v>
+      </c>
+      <c r="D556" t="s">
+        <v>881</v>
+      </c>
+      <c r="E556">
+        <v>23</v>
+      </c>
+      <c r="F556" t="s">
+        <v>14</v>
+      </c>
+      <c r="G556" t="s">
+        <v>31</v>
+      </c>
+      <c r="H556" t="s">
+        <v>883</v>
+      </c>
+      <c r="I556" t="s">
+        <v>263</v>
+      </c>
+      <c r="J556">
+        <v>30</v>
+      </c>
+      <c r="K556">
+        <v>1</v>
+      </c>
+      <c r="L556">
+        <v>0</v>
+      </c>
+      <c r="P556" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16">
+      <c r="A557">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+      <c r="B557" t="s">
+        <v>879</v>
+      </c>
+      <c r="C557" t="s">
+        <v>880</v>
+      </c>
+      <c r="D557" t="s">
+        <v>881</v>
+      </c>
+      <c r="E557">
+        <v>23</v>
+      </c>
+      <c r="F557" t="s">
+        <v>14</v>
+      </c>
+      <c r="G557" t="s">
+        <v>31</v>
+      </c>
+      <c r="H557" t="s">
+        <v>884</v>
+      </c>
+      <c r="I557" t="s">
+        <v>263</v>
+      </c>
+      <c r="J557">
+        <v>30</v>
+      </c>
+      <c r="K557">
+        <v>6</v>
+      </c>
+      <c r="L557">
+        <v>0</v>
+      </c>
+      <c r="P557" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16">
+      <c r="A558">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+      <c r="B558" t="s">
+        <v>879</v>
+      </c>
+      <c r="C558" t="s">
+        <v>880</v>
+      </c>
+      <c r="D558" t="s">
+        <v>881</v>
+      </c>
+      <c r="E558">
+        <v>23</v>
+      </c>
+      <c r="F558" t="s">
+        <v>14</v>
+      </c>
+      <c r="G558" t="s">
+        <v>31</v>
+      </c>
+      <c r="H558" t="s">
+        <v>881</v>
+      </c>
+      <c r="I558" t="s">
+        <v>263</v>
+      </c>
+      <c r="J558">
+        <v>30</v>
+      </c>
+      <c r="K558">
+        <v>7</v>
+      </c>
+      <c r="L558">
+        <v>0</v>
+      </c>
+      <c r="P558" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16">
+      <c r="A559">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="B559" t="s">
+        <v>885</v>
+      </c>
+      <c r="C559" t="s">
+        <v>886</v>
+      </c>
+      <c r="D559" t="s">
+        <v>887</v>
+      </c>
+      <c r="E559">
+        <v>24</v>
+      </c>
+      <c r="F559" t="s">
+        <v>251</v>
+      </c>
+      <c r="G559" t="s">
+        <v>15</v>
+      </c>
+      <c r="H559" t="s">
+        <v>888</v>
+      </c>
+      <c r="I559" t="s">
+        <v>277</v>
+      </c>
+      <c r="J559">
+        <v>650</v>
+      </c>
+      <c r="K559">
+        <v>5</v>
+      </c>
+      <c r="L559">
+        <v>0</v>
+      </c>
+      <c r="P559" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16">
+      <c r="A560">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="B560" t="s">
+        <v>885</v>
+      </c>
+      <c r="C560" t="s">
+        <v>886</v>
+      </c>
+      <c r="D560" t="s">
+        <v>887</v>
+      </c>
+      <c r="E560">
+        <v>24</v>
+      </c>
+      <c r="F560" t="s">
+        <v>251</v>
+      </c>
+      <c r="G560" t="s">
+        <v>15</v>
+      </c>
+      <c r="H560" t="s">
+        <v>889</v>
+      </c>
+      <c r="I560" t="s">
+        <v>252</v>
+      </c>
+      <c r="J560">
+        <v>800</v>
+      </c>
+      <c r="K560">
+        <v>8</v>
+      </c>
+      <c r="L560">
+        <v>3</v>
+      </c>
+      <c r="P560" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16">
+      <c r="A561">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="B561" t="s">
+        <v>885</v>
+      </c>
+      <c r="C561" t="s">
+        <v>886</v>
+      </c>
+      <c r="D561" t="s">
+        <v>887</v>
+      </c>
+      <c r="E561">
+        <v>24</v>
+      </c>
+      <c r="F561" t="s">
+        <v>251</v>
+      </c>
+      <c r="G561" t="s">
+        <v>15</v>
+      </c>
+      <c r="H561" t="s">
+        <v>890</v>
+      </c>
+      <c r="I561" t="s">
+        <v>252</v>
+      </c>
+      <c r="J561">
+        <v>800</v>
+      </c>
+      <c r="K561" t="s">
+        <v>287</v>
+      </c>
+      <c r="L561" t="s">
+        <v>287</v>
+      </c>
+      <c r="P561" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16">
+      <c r="A562">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="B562" t="s">
+        <v>885</v>
+      </c>
+      <c r="C562" t="s">
+        <v>886</v>
+      </c>
+      <c r="D562" t="s">
+        <v>887</v>
+      </c>
+      <c r="E562">
+        <v>24</v>
+      </c>
+      <c r="F562" t="s">
+        <v>251</v>
+      </c>
+      <c r="G562" t="s">
+        <v>15</v>
+      </c>
+      <c r="H562" t="s">
+        <v>887</v>
+      </c>
+      <c r="I562" t="s">
+        <v>252</v>
+      </c>
+      <c r="J562">
+        <v>800</v>
+      </c>
+      <c r="K562">
+        <v>2</v>
+      </c>
+      <c r="L562">
+        <v>0</v>
+      </c>
+      <c r="P562" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16">
+      <c r="A563">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="B563" t="s">
+        <v>891</v>
+      </c>
+      <c r="C563" t="s">
+        <v>892</v>
+      </c>
+      <c r="D563" t="s">
+        <v>893</v>
+      </c>
+      <c r="E563">
+        <v>25</v>
+      </c>
+      <c r="F563" t="s">
+        <v>251</v>
+      </c>
+      <c r="G563" t="s">
+        <v>15</v>
+      </c>
+      <c r="H563" t="s">
+        <v>894</v>
+      </c>
+      <c r="I563" t="s">
+        <v>252</v>
+      </c>
+      <c r="J563">
+        <v>800</v>
+      </c>
+      <c r="K563">
+        <v>5</v>
+      </c>
+      <c r="L563">
+        <v>1</v>
+      </c>
+      <c r="P563" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16">
+      <c r="A564">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="B564" t="s">
+        <v>891</v>
+      </c>
+      <c r="C564" t="s">
+        <v>892</v>
+      </c>
+      <c r="D564" t="s">
+        <v>893</v>
+      </c>
+      <c r="E564">
+        <v>25</v>
+      </c>
+      <c r="F564" t="s">
+        <v>251</v>
+      </c>
+      <c r="G564" t="s">
+        <v>15</v>
+      </c>
+      <c r="H564" t="s">
+        <v>895</v>
+      </c>
+      <c r="I564" t="s">
+        <v>252</v>
+      </c>
+      <c r="J564">
+        <v>800</v>
+      </c>
+      <c r="K564">
+        <v>8</v>
+      </c>
+      <c r="L564">
+        <v>4</v>
+      </c>
+      <c r="P564" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16">
+      <c r="A565">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="B565" t="s">
+        <v>891</v>
+      </c>
+      <c r="C565" t="s">
+        <v>892</v>
+      </c>
+      <c r="D565" t="s">
+        <v>893</v>
+      </c>
+      <c r="E565">
+        <v>25</v>
+      </c>
+      <c r="F565" t="s">
+        <v>251</v>
+      </c>
+      <c r="G565" t="s">
+        <v>15</v>
+      </c>
+      <c r="H565" t="s">
+        <v>896</v>
+      </c>
+      <c r="I565" t="s">
+        <v>271</v>
+      </c>
+      <c r="J565">
+        <v>1</v>
+      </c>
+      <c r="K565">
+        <v>8</v>
+      </c>
+      <c r="L565">
+        <v>2</v>
+      </c>
+      <c r="P565" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16">
+      <c r="A566">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="B566" t="s">
+        <v>891</v>
+      </c>
+      <c r="C566" t="s">
+        <v>892</v>
+      </c>
+      <c r="D566" t="s">
+        <v>893</v>
+      </c>
+      <c r="E566">
+        <v>25</v>
+      </c>
+      <c r="F566" t="s">
+        <v>251</v>
+      </c>
+      <c r="G566" t="s">
+        <v>15</v>
+      </c>
+      <c r="H566" t="s">
+        <v>893</v>
+      </c>
+      <c r="I566" t="s">
+        <v>252</v>
+      </c>
+      <c r="J566">
+        <v>800</v>
+      </c>
+      <c r="K566">
+        <v>4</v>
+      </c>
+      <c r="L566">
+        <v>0</v>
+      </c>
+      <c r="P566" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16">
+      <c r="A567">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="B567" t="s">
+        <v>891</v>
+      </c>
+      <c r="C567" t="s">
+        <v>892</v>
+      </c>
+      <c r="D567" t="s">
+        <v>893</v>
+      </c>
+      <c r="E567">
+        <v>25</v>
+      </c>
+      <c r="F567" t="s">
+        <v>251</v>
+      </c>
+      <c r="G567" t="s">
+        <v>15</v>
+      </c>
+      <c r="H567" t="s">
+        <v>893</v>
+      </c>
+      <c r="I567" t="s">
+        <v>271</v>
+      </c>
+      <c r="J567">
+        <v>1</v>
+      </c>
+      <c r="K567">
+        <v>4</v>
+      </c>
+      <c r="L567">
+        <v>0</v>
+      </c>
+      <c r="P567" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16">
+      <c r="A568">
+        <f t="shared" si="17"/>
+        <v>149</v>
+      </c>
+      <c r="B568" t="s">
+        <v>897</v>
+      </c>
+      <c r="C568" t="s">
+        <v>898</v>
+      </c>
+      <c r="D568" t="s">
+        <v>899</v>
+      </c>
+      <c r="E568">
+        <v>27</v>
+      </c>
+      <c r="F568" t="s">
+        <v>14</v>
+      </c>
+      <c r="G568" t="s">
+        <v>15</v>
+      </c>
+      <c r="H568" t="s">
+        <v>900</v>
+      </c>
+      <c r="I568" t="s">
+        <v>252</v>
+      </c>
+      <c r="J568">
+        <v>800</v>
+      </c>
+      <c r="K568">
+        <v>5</v>
+      </c>
+      <c r="L568">
+        <v>3</v>
+      </c>
+      <c r="P568" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16">
+      <c r="A569">
+        <f t="shared" si="17"/>
+        <v>149</v>
+      </c>
+      <c r="B569" t="s">
+        <v>897</v>
+      </c>
+      <c r="C569" t="s">
+        <v>898</v>
+      </c>
+      <c r="D569" t="s">
+        <v>899</v>
+      </c>
+      <c r="E569">
+        <v>27</v>
+      </c>
+      <c r="F569" t="s">
+        <v>14</v>
+      </c>
+      <c r="G569" t="s">
+        <v>15</v>
+      </c>
+      <c r="H569" t="s">
+        <v>901</v>
+      </c>
+      <c r="I569" t="s">
+        <v>252</v>
+      </c>
+      <c r="J569">
+        <v>800</v>
+      </c>
+      <c r="K569">
+        <v>4</v>
+      </c>
+      <c r="L569">
+        <v>0</v>
+      </c>
+      <c r="P569" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16">
+      <c r="A570">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="B570" t="s">
+        <v>902</v>
+      </c>
+      <c r="C570" t="s">
+        <v>903</v>
+      </c>
+      <c r="D570" t="s">
+        <v>904</v>
+      </c>
+      <c r="E570">
+        <v>27</v>
+      </c>
+      <c r="F570" t="s">
+        <v>14</v>
+      </c>
+      <c r="G570" t="s">
+        <v>15</v>
+      </c>
+      <c r="H570" t="s">
+        <v>905</v>
+      </c>
+      <c r="I570" t="s">
+        <v>252</v>
+      </c>
+      <c r="J570">
+        <v>800</v>
+      </c>
+      <c r="K570">
+        <v>1</v>
+      </c>
+      <c r="L570">
+        <v>0</v>
+      </c>
+      <c r="P570" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16">
+      <c r="A571">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="B571" t="s">
+        <v>902</v>
+      </c>
+      <c r="C571" t="s">
+        <v>903</v>
+      </c>
+      <c r="D571" t="s">
+        <v>904</v>
+      </c>
+      <c r="E571">
+        <v>27</v>
+      </c>
+      <c r="F571" t="s">
+        <v>14</v>
+      </c>
+      <c r="G571" t="s">
+        <v>15</v>
+      </c>
+      <c r="H571" t="s">
+        <v>906</v>
+      </c>
+      <c r="I571" t="s">
+        <v>252</v>
+      </c>
+      <c r="J571">
+        <v>800</v>
+      </c>
+      <c r="K571">
+        <v>4</v>
+      </c>
+      <c r="L571">
+        <v>2</v>
+      </c>
+      <c r="P571" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16">
+      <c r="A572">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="B572" t="s">
+        <v>902</v>
+      </c>
+      <c r="C572" t="s">
+        <v>903</v>
+      </c>
+      <c r="D572" t="s">
+        <v>904</v>
+      </c>
+      <c r="E572">
+        <v>27</v>
+      </c>
+      <c r="F572" t="s">
+        <v>14</v>
+      </c>
+      <c r="G572" t="s">
+        <v>15</v>
+      </c>
+      <c r="H572" t="s">
+        <v>907</v>
+      </c>
+      <c r="I572" t="s">
+        <v>252</v>
+      </c>
+      <c r="J572">
+        <v>800</v>
+      </c>
+      <c r="K572">
+        <v>2</v>
+      </c>
+      <c r="L572">
+        <v>2</v>
+      </c>
+      <c r="P572" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16">
+      <c r="A573">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="B573" t="s">
+        <v>902</v>
+      </c>
+      <c r="C573" t="s">
+        <v>903</v>
+      </c>
+      <c r="D573" t="s">
+        <v>904</v>
+      </c>
+      <c r="E573">
+        <v>27</v>
+      </c>
+      <c r="F573" t="s">
+        <v>14</v>
+      </c>
+      <c r="G573" t="s">
+        <v>15</v>
+      </c>
+      <c r="H573" t="s">
+        <v>904</v>
+      </c>
+      <c r="I573" t="s">
+        <v>252</v>
+      </c>
+      <c r="J573">
+        <v>800</v>
+      </c>
+      <c r="K573">
+        <v>3</v>
+      </c>
+      <c r="L573">
+        <v>0</v>
+      </c>
+      <c r="P573" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16">
+      <c r="A574">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="B574" t="s">
+        <v>908</v>
+      </c>
+      <c r="C574" t="s">
+        <v>909</v>
+      </c>
+      <c r="D574" t="s">
+        <v>910</v>
+      </c>
+      <c r="E574">
+        <v>20</v>
+      </c>
+      <c r="F574" t="s">
+        <v>251</v>
+      </c>
+      <c r="G574" t="s">
+        <v>15</v>
+      </c>
+      <c r="H574" t="s">
+        <v>911</v>
+      </c>
+      <c r="I574" t="s">
+        <v>252</v>
+      </c>
+      <c r="J574">
+        <v>800</v>
+      </c>
+      <c r="K574">
+        <v>2</v>
+      </c>
+      <c r="L574">
+        <v>2</v>
+      </c>
+      <c r="P574" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16">
+      <c r="A575">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="B575" t="s">
+        <v>908</v>
+      </c>
+      <c r="C575" t="s">
+        <v>909</v>
+      </c>
+      <c r="D575" t="s">
+        <v>910</v>
+      </c>
+      <c r="E575">
+        <v>20</v>
+      </c>
+      <c r="F575" t="s">
+        <v>251</v>
+      </c>
+      <c r="G575" t="s">
+        <v>15</v>
+      </c>
+      <c r="H575" t="s">
+        <v>912</v>
+      </c>
+      <c r="I575" t="s">
+        <v>252</v>
+      </c>
+      <c r="J575">
+        <v>800</v>
+      </c>
+      <c r="K575">
+        <v>5</v>
+      </c>
+      <c r="L575">
+        <v>3</v>
+      </c>
+      <c r="P575" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16">
+      <c r="A576">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="B576" t="s">
+        <v>908</v>
+      </c>
+      <c r="C576" t="s">
+        <v>909</v>
+      </c>
+      <c r="D576" t="s">
+        <v>910</v>
+      </c>
+      <c r="E576">
+        <v>20</v>
+      </c>
+      <c r="F576" t="s">
+        <v>251</v>
+      </c>
+      <c r="G576" t="s">
+        <v>15</v>
+      </c>
+      <c r="H576" t="s">
+        <v>913</v>
+      </c>
+      <c r="I576" t="s">
+        <v>252</v>
+      </c>
+      <c r="J576">
+        <v>800</v>
+      </c>
+      <c r="K576">
+        <v>0</v>
+      </c>
+      <c r="L576">
+        <v>0</v>
+      </c>
+      <c r="P576" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16">
+      <c r="A577">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="B577" t="s">
+        <v>908</v>
+      </c>
+      <c r="C577" t="s">
+        <v>909</v>
+      </c>
+      <c r="D577" t="s">
+        <v>910</v>
+      </c>
+      <c r="E577">
+        <v>20</v>
+      </c>
+      <c r="F577" t="s">
+        <v>251</v>
+      </c>
+      <c r="G577" t="s">
+        <v>15</v>
+      </c>
+      <c r="H577" t="s">
+        <v>914</v>
+      </c>
+      <c r="I577" t="s">
+        <v>271</v>
+      </c>
+      <c r="J577">
+        <v>1</v>
+      </c>
+      <c r="K577">
+        <v>6</v>
+      </c>
+      <c r="L577">
+        <v>2</v>
+      </c>
+      <c r="P577" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16">
+      <c r="A578">
+        <f t="shared" ref="A578:A641" si="19">IF(ROW()=2,1,IF(B578=B577,A577,A577+1))</f>
+        <v>151</v>
+      </c>
+      <c r="B578" t="s">
+        <v>908</v>
+      </c>
+      <c r="C578" t="s">
+        <v>909</v>
+      </c>
+      <c r="D578" t="s">
+        <v>910</v>
+      </c>
+      <c r="E578">
+        <v>20</v>
+      </c>
+      <c r="F578" t="s">
+        <v>251</v>
+      </c>
+      <c r="G578" t="s">
+        <v>15</v>
+      </c>
+      <c r="H578" t="s">
+        <v>910</v>
+      </c>
+      <c r="I578" t="s">
+        <v>252</v>
+      </c>
+      <c r="J578">
+        <v>800</v>
+      </c>
+      <c r="K578">
+        <v>0</v>
+      </c>
+      <c r="L578">
+        <v>0</v>
+      </c>
+      <c r="P578" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16">
+      <c r="A579">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B579" t="s">
+        <v>915</v>
+      </c>
+      <c r="C579" t="s">
+        <v>916</v>
+      </c>
+      <c r="D579" t="s">
+        <v>917</v>
+      </c>
+      <c r="E579">
+        <v>30</v>
+      </c>
+      <c r="F579" t="s">
+        <v>918</v>
+      </c>
+      <c r="G579" t="s">
+        <v>15</v>
+      </c>
+      <c r="H579" t="s">
+        <v>919</v>
+      </c>
+      <c r="I579" t="s">
+        <v>277</v>
+      </c>
+      <c r="J579">
+        <v>1000</v>
+      </c>
+      <c r="K579" t="s">
+        <v>287</v>
+      </c>
+      <c r="L579" t="s">
+        <v>287</v>
+      </c>
+      <c r="P579" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16">
+      <c r="A580">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B580" t="s">
+        <v>915</v>
+      </c>
+      <c r="C580" t="s">
+        <v>916</v>
+      </c>
+      <c r="D580" t="s">
+        <v>917</v>
+      </c>
+      <c r="E580">
+        <v>30</v>
+      </c>
+      <c r="F580" t="s">
+        <v>918</v>
+      </c>
+      <c r="G580" t="s">
+        <v>15</v>
+      </c>
+      <c r="H580" t="s">
+        <v>920</v>
+      </c>
+      <c r="I580" t="s">
+        <v>252</v>
+      </c>
+      <c r="J580">
+        <v>800</v>
+      </c>
+      <c r="K580">
+        <v>6</v>
+      </c>
+      <c r="L580">
+        <v>4</v>
+      </c>
+      <c r="P580" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16">
+      <c r="A581">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B581" t="s">
+        <v>915</v>
+      </c>
+      <c r="C581" t="s">
+        <v>916</v>
+      </c>
+      <c r="D581" t="s">
+        <v>917</v>
+      </c>
+      <c r="E581">
+        <v>30</v>
+      </c>
+      <c r="F581" t="s">
+        <v>918</v>
+      </c>
+      <c r="G581" t="s">
+        <v>15</v>
+      </c>
+      <c r="H581" t="s">
+        <v>921</v>
+      </c>
+      <c r="I581" t="s">
+        <v>271</v>
+      </c>
+      <c r="J581">
+        <v>1</v>
+      </c>
+      <c r="K581">
+        <v>7</v>
+      </c>
+      <c r="L581">
+        <v>4</v>
+      </c>
+      <c r="P581" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16">
+      <c r="A582">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B582" t="s">
+        <v>915</v>
+      </c>
+      <c r="C582" t="s">
+        <v>916</v>
+      </c>
+      <c r="D582" t="s">
+        <v>917</v>
+      </c>
+      <c r="E582">
+        <v>30</v>
+      </c>
+      <c r="F582" t="s">
+        <v>918</v>
+      </c>
+      <c r="G582" t="s">
+        <v>15</v>
+      </c>
+      <c r="H582" t="s">
+        <v>922</v>
+      </c>
+      <c r="I582" t="s">
+        <v>252</v>
+      </c>
+      <c r="J582">
+        <v>800</v>
+      </c>
+      <c r="K582">
+        <v>6</v>
+      </c>
+      <c r="L582">
+        <v>4</v>
+      </c>
+      <c r="P582" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16">
+      <c r="A583">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B583" t="s">
+        <v>915</v>
+      </c>
+      <c r="C583" t="s">
+        <v>916</v>
+      </c>
+      <c r="D583" t="s">
+        <v>917</v>
+      </c>
+      <c r="E583">
+        <v>30</v>
+      </c>
+      <c r="F583" t="s">
+        <v>918</v>
+      </c>
+      <c r="G583" t="s">
+        <v>15</v>
+      </c>
+      <c r="H583" t="s">
+        <v>922</v>
+      </c>
+      <c r="I583" t="s">
+        <v>271</v>
+      </c>
+      <c r="J583">
+        <v>1</v>
+      </c>
+      <c r="K583">
+        <v>6</v>
+      </c>
+      <c r="L583">
+        <v>4</v>
+      </c>
+      <c r="P583" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16">
+      <c r="A584">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B584" t="s">
+        <v>915</v>
+      </c>
+      <c r="C584" t="s">
+        <v>916</v>
+      </c>
+      <c r="D584" t="s">
+        <v>917</v>
+      </c>
+      <c r="E584">
+        <v>30</v>
+      </c>
+      <c r="F584" t="s">
+        <v>918</v>
+      </c>
+      <c r="G584" t="s">
+        <v>15</v>
+      </c>
+      <c r="H584" t="s">
+        <v>923</v>
+      </c>
+      <c r="I584" t="s">
+        <v>271</v>
+      </c>
+      <c r="J584">
+        <v>2</v>
+      </c>
+      <c r="K584">
+        <v>7</v>
+      </c>
+      <c r="L584">
+        <v>4</v>
+      </c>
+      <c r="P584" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16">
+      <c r="A585">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B585" t="s">
+        <v>915</v>
+      </c>
+      <c r="C585" t="s">
+        <v>916</v>
+      </c>
+      <c r="D585" t="s">
+        <v>917</v>
+      </c>
+      <c r="E585">
+        <v>30</v>
+      </c>
+      <c r="F585" t="s">
+        <v>918</v>
+      </c>
+      <c r="G585" t="s">
+        <v>15</v>
+      </c>
+      <c r="H585" t="s">
+        <v>917</v>
+      </c>
+      <c r="I585" t="s">
+        <v>252</v>
+      </c>
+      <c r="J585">
+        <v>800</v>
+      </c>
+      <c r="K585">
+        <v>7</v>
+      </c>
+      <c r="L585">
+        <v>3</v>
+      </c>
+      <c r="P585" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16">
+      <c r="A586">
+        <f t="shared" si="19"/>
+        <v>152</v>
+      </c>
+      <c r="B586" t="s">
+        <v>915</v>
+      </c>
+      <c r="C586" t="s">
+        <v>916</v>
+      </c>
+      <c r="D586" t="s">
+        <v>917</v>
+      </c>
+      <c r="E586">
+        <v>30</v>
+      </c>
+      <c r="F586" t="s">
+        <v>918</v>
+      </c>
+      <c r="G586" t="s">
+        <v>15</v>
+      </c>
+      <c r="H586" t="s">
+        <v>917</v>
+      </c>
+      <c r="I586" t="s">
+        <v>271</v>
+      </c>
+      <c r="J586">
+        <v>1</v>
+      </c>
+      <c r="K586">
+        <v>7</v>
+      </c>
+      <c r="L586">
+        <v>3</v>
+      </c>
+      <c r="P586" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16">
+      <c r="A587">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P587" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16">
+      <c r="A588">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P588" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16">
+      <c r="A589">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P589" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16">
+      <c r="A590">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P590" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16">
+      <c r="A591">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P591" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16">
+      <c r="A592">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P592" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16">
+      <c r="A593">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P593" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16">
+      <c r="A594">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P594" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16">
+      <c r="A595">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P595" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16">
+      <c r="A596">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P596" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16">
+      <c r="A597">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P597" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16">
+      <c r="A598">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P598" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16">
+      <c r="A599">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P599" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16">
+      <c r="A600">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P600" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16">
+      <c r="A601">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P601" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16">
+      <c r="A602">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P602" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16">
+      <c r="A603">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P603" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16">
+      <c r="A604">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P604" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16">
+      <c r="A605">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P605" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16">
+      <c r="A606">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P606" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16">
+      <c r="A607">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P607" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16">
+      <c r="A608">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P608" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16">
+      <c r="A609">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P609" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16">
+      <c r="A610">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P610" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16">
+      <c r="A611">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P611" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16">
+      <c r="A612">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P612" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16">
+      <c r="A613">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P613" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16">
+      <c r="A614">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P614" t="b">
+        <f t="shared" ref="P614:P665" si="20">ISODD(A614)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16">
+      <c r="A615">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P615" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16">
+      <c r="A616">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P616" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16">
+      <c r="A617">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P617" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16">
+      <c r="A618">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P618" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16">
+      <c r="A619">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P619" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16">
+      <c r="A620">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P620" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16">
+      <c r="A621">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P621" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16">
+      <c r="A622">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P622" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16">
+      <c r="A623">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P623" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16">
+      <c r="A624">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P624" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16">
+      <c r="A625">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P625" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16">
+      <c r="A626">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P626" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16">
+      <c r="A627">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P627" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16">
+      <c r="A628">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P628" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16">
+      <c r="A629">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P629" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16">
+      <c r="A630">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P630" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16">
+      <c r="A631">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P631" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16">
+      <c r="A632">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P632" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16">
+      <c r="A633">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P633" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16">
+      <c r="A634">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P634" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16">
+      <c r="A635">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P635" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16">
+      <c r="A636">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P636" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16">
+      <c r="A637">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P637" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16">
+      <c r="A638">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P638" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16">
+      <c r="A639">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P639" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16">
+      <c r="A640">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P640" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16">
+      <c r="A641">
+        <f t="shared" si="19"/>
+        <v>153</v>
+      </c>
+      <c r="P641" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16">
+      <c r="A642">
+        <f t="shared" ref="A642:A665" si="21">IF(ROW()=2,1,IF(B642=B641,A641,A641+1))</f>
+        <v>153</v>
+      </c>
+      <c r="P642" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16">
+      <c r="A643">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P643" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16">
+      <c r="A644">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P644" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16">
+      <c r="A645">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P645" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16">
+      <c r="A646">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P646" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16">
+      <c r="A647">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P647" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16">
+      <c r="A648">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P648" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16">
+      <c r="A649">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P649" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16">
+      <c r="A650">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P650" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16">
+      <c r="A651">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P651" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:16">
+      <c r="A652">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P652" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:16">
+      <c r="A653">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P653" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16">
+      <c r="A654">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P654" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:16">
+      <c r="A655">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P655" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16">
+      <c r="A656">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P656" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16">
+      <c r="A657">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P657" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16">
+      <c r="A658">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P658" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16">
+      <c r="A659">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P659" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16">
+      <c r="A660">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P660" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16">
+      <c r="A661">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P661" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16">
+      <c r="A662">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P662" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16">
+      <c r="A663">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P663" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16">
+      <c r="A664">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P664" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16">
+      <c r="A665">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+      <c r="P665" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:P530">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="A2:P660">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$P2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B528:G531">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$P528=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H531">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$P531=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B560:G562">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$P560=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56530,47 +61714,47 @@
       </c>
       <c r="B485" t="str">
         <f>IF(ISBLANK('Data Input'!B485),"",'Data Input'!B485)</f>
-        <v/>
+        <v>JH131</v>
       </c>
       <c r="C485" t="str">
         <f>IF(ISBLANK('Data Input'!C485),"",'Data Input'!C485)</f>
-        <v/>
+        <v>7=14=18 1345</v>
       </c>
       <c r="D485" t="str">
         <f>IF(ISBLANK('Data Input'!D485),"",'Data Input'!D485)</f>
-        <v/>
-      </c>
-      <c r="E485" t="str">
+        <v>7=15=18</v>
+      </c>
+      <c r="E485">
         <f>IF(ISBLANK('Data Input'!E485),"",'Data Input'!E485)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="F485" t="str">
         <f>IF(ISBLANK('Data Input'!F485),"",'Data Input'!F485)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G485" t="str">
         <f>IF(ISBLANK('Data Input'!G485),"",'Data Input'!G485)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H485" t="str">
         <f>IF(ISBLANK('Data Input'!H485),"",'Data Input'!H485)</f>
-        <v/>
+        <v>7=14=18 1453</v>
       </c>
       <c r="I485" t="str">
         <f>IF(ISBLANK('Data Input'!I485),"",'Data Input'!I485)</f>
-        <v/>
-      </c>
-      <c r="J485" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J485">
         <f>IF(ISBLANK('Data Input'!J485),"",'Data Input'!J485)</f>
-        <v/>
-      </c>
-      <c r="K485" t="str">
+        <v>1</v>
+      </c>
+      <c r="K485">
         <f>IF(ISBLANK('Data Input'!K485),"",'Data Input'!K485)</f>
-        <v/>
-      </c>
-      <c r="L485" t="str">
+        <v>3</v>
+      </c>
+      <c r="L485">
         <f>IF(ISBLANK('Data Input'!L485),"",'Data Input'!L485)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M485" t="str">
         <f>IF(ISBLANK('Data Input'!M485),"",'Data Input'!M485)</f>
@@ -56596,47 +61780,47 @@
       </c>
       <c r="B486" t="str">
         <f>IF(ISBLANK('Data Input'!B486),"",'Data Input'!B486)</f>
-        <v/>
+        <v>JH131</v>
       </c>
       <c r="C486" t="str">
         <f>IF(ISBLANK('Data Input'!C486),"",'Data Input'!C486)</f>
-        <v/>
+        <v>7=14=18 1345</v>
       </c>
       <c r="D486" t="str">
         <f>IF(ISBLANK('Data Input'!D486),"",'Data Input'!D486)</f>
-        <v/>
-      </c>
-      <c r="E486" t="str">
+        <v>7=15=18</v>
+      </c>
+      <c r="E486">
         <f>IF(ISBLANK('Data Input'!E486),"",'Data Input'!E486)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="F486" t="str">
         <f>IF(ISBLANK('Data Input'!F486),"",'Data Input'!F486)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G486" t="str">
         <f>IF(ISBLANK('Data Input'!G486),"",'Data Input'!G486)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H486" t="str">
         <f>IF(ISBLANK('Data Input'!H486),"",'Data Input'!H486)</f>
-        <v/>
+        <v>7=14=18 2021</v>
       </c>
       <c r="I486" t="str">
         <f>IF(ISBLANK('Data Input'!I486),"",'Data Input'!I486)</f>
-        <v/>
-      </c>
-      <c r="J486" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J486">
         <f>IF(ISBLANK('Data Input'!J486),"",'Data Input'!J486)</f>
-        <v/>
-      </c>
-      <c r="K486" t="str">
+        <v>800</v>
+      </c>
+      <c r="K486">
         <f>IF(ISBLANK('Data Input'!K486),"",'Data Input'!K486)</f>
-        <v/>
-      </c>
-      <c r="L486" t="str">
+        <v>2</v>
+      </c>
+      <c r="L486">
         <f>IF(ISBLANK('Data Input'!L486),"",'Data Input'!L486)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M486" t="str">
         <f>IF(ISBLANK('Data Input'!M486),"",'Data Input'!M486)</f>
@@ -56662,47 +61846,47 @@
       </c>
       <c r="B487" t="str">
         <f>IF(ISBLANK('Data Input'!B487),"",'Data Input'!B487)</f>
-        <v/>
+        <v>JH131</v>
       </c>
       <c r="C487" t="str">
         <f>IF(ISBLANK('Data Input'!C487),"",'Data Input'!C487)</f>
-        <v/>
+        <v>7=14=18 1345</v>
       </c>
       <c r="D487" t="str">
         <f>IF(ISBLANK('Data Input'!D487),"",'Data Input'!D487)</f>
-        <v/>
-      </c>
-      <c r="E487" t="str">
+        <v>7=15=18</v>
+      </c>
+      <c r="E487">
         <f>IF(ISBLANK('Data Input'!E487),"",'Data Input'!E487)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="F487" t="str">
         <f>IF(ISBLANK('Data Input'!F487),"",'Data Input'!F487)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G487" t="str">
         <f>IF(ISBLANK('Data Input'!G487),"",'Data Input'!G487)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H487" t="str">
         <f>IF(ISBLANK('Data Input'!H487),"",'Data Input'!H487)</f>
-        <v/>
+        <v>7=14=18 0457</v>
       </c>
       <c r="I487" t="str">
         <f>IF(ISBLANK('Data Input'!I487),"",'Data Input'!I487)</f>
-        <v/>
-      </c>
-      <c r="J487" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J487">
         <f>IF(ISBLANK('Data Input'!J487),"",'Data Input'!J487)</f>
-        <v/>
-      </c>
-      <c r="K487" t="str">
+        <v>800</v>
+      </c>
+      <c r="K487">
         <f>IF(ISBLANK('Data Input'!K487),"",'Data Input'!K487)</f>
-        <v/>
-      </c>
-      <c r="L487" t="str">
+        <v>7</v>
+      </c>
+      <c r="L487">
         <f>IF(ISBLANK('Data Input'!L487),"",'Data Input'!L487)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M487" t="str">
         <f>IF(ISBLANK('Data Input'!M487),"",'Data Input'!M487)</f>
@@ -56724,51 +61908,51 @@
     <row r="488" spans="1:16">
       <c r="A488">
         <f>IF(ISBLANK('Data Input'!A488),"",'Data Input'!A488)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B488" t="str">
         <f>IF(ISBLANK('Data Input'!B488),"",'Data Input'!B488)</f>
-        <v/>
+        <v>MW132</v>
       </c>
       <c r="C488" t="str">
         <f>IF(ISBLANK('Data Input'!C488),"",'Data Input'!C488)</f>
-        <v/>
+        <v>7=15=18 0515</v>
       </c>
       <c r="D488" t="str">
         <f>IF(ISBLANK('Data Input'!D488),"",'Data Input'!D488)</f>
-        <v/>
-      </c>
-      <c r="E488" t="str">
+        <v>7=16=18 0359</v>
+      </c>
+      <c r="E488">
         <f>IF(ISBLANK('Data Input'!E488),"",'Data Input'!E488)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="F488" t="str">
         <f>IF(ISBLANK('Data Input'!F488),"",'Data Input'!F488)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G488" t="str">
         <f>IF(ISBLANK('Data Input'!G488),"",'Data Input'!G488)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H488" t="str">
         <f>IF(ISBLANK('Data Input'!H488),"",'Data Input'!H488)</f>
-        <v/>
+        <v>7=15=18 0803</v>
       </c>
       <c r="I488" t="str">
         <f>IF(ISBLANK('Data Input'!I488),"",'Data Input'!I488)</f>
-        <v/>
-      </c>
-      <c r="J488" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J488">
         <f>IF(ISBLANK('Data Input'!J488),"",'Data Input'!J488)</f>
-        <v/>
-      </c>
-      <c r="K488" t="str">
+        <v>800</v>
+      </c>
+      <c r="K488">
         <f>IF(ISBLANK('Data Input'!K488),"",'Data Input'!K488)</f>
-        <v/>
-      </c>
-      <c r="L488" t="str">
+        <v>2</v>
+      </c>
+      <c r="L488">
         <f>IF(ISBLANK('Data Input'!L488),"",'Data Input'!L488)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M488" t="str">
         <f>IF(ISBLANK('Data Input'!M488),"",'Data Input'!M488)</f>
@@ -56784,57 +61968,57 @@
       </c>
       <c r="P488" t="b">
         <f>IF(ISBLANK('Data Input'!P488),"",'Data Input'!P488)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:16">
       <c r="A489">
         <f>IF(ISBLANK('Data Input'!A489),"",'Data Input'!A489)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B489" t="str">
         <f>IF(ISBLANK('Data Input'!B489),"",'Data Input'!B489)</f>
-        <v/>
+        <v>MW132</v>
       </c>
       <c r="C489" t="str">
         <f>IF(ISBLANK('Data Input'!C489),"",'Data Input'!C489)</f>
-        <v/>
+        <v>7=15=18 0515</v>
       </c>
       <c r="D489" t="str">
         <f>IF(ISBLANK('Data Input'!D489),"",'Data Input'!D489)</f>
-        <v/>
-      </c>
-      <c r="E489" t="str">
+        <v>7=16=18 0359</v>
+      </c>
+      <c r="E489">
         <f>IF(ISBLANK('Data Input'!E489),"",'Data Input'!E489)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="F489" t="str">
         <f>IF(ISBLANK('Data Input'!F489),"",'Data Input'!F489)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G489" t="str">
         <f>IF(ISBLANK('Data Input'!G489),"",'Data Input'!G489)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H489" t="str">
         <f>IF(ISBLANK('Data Input'!H489),"",'Data Input'!H489)</f>
-        <v/>
+        <v>7=16=18 0359</v>
       </c>
       <c r="I489" t="str">
         <f>IF(ISBLANK('Data Input'!I489),"",'Data Input'!I489)</f>
-        <v/>
-      </c>
-      <c r="J489" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J489">
         <f>IF(ISBLANK('Data Input'!J489),"",'Data Input'!J489)</f>
-        <v/>
-      </c>
-      <c r="K489" t="str">
+        <v>800</v>
+      </c>
+      <c r="K489">
         <f>IF(ISBLANK('Data Input'!K489),"",'Data Input'!K489)</f>
-        <v/>
-      </c>
-      <c r="L489" t="str">
+        <v>1</v>
+      </c>
+      <c r="L489">
         <f>IF(ISBLANK('Data Input'!L489),"",'Data Input'!L489)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M489" t="str">
         <f>IF(ISBLANK('Data Input'!M489),"",'Data Input'!M489)</f>
@@ -56850,57 +62034,57 @@
       </c>
       <c r="P489" t="b">
         <f>IF(ISBLANK('Data Input'!P489),"",'Data Input'!P489)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:16">
       <c r="A490">
         <f>IF(ISBLANK('Data Input'!A490),"",'Data Input'!A490)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B490" t="str">
         <f>IF(ISBLANK('Data Input'!B490),"",'Data Input'!B490)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C490" t="str">
         <f>IF(ISBLANK('Data Input'!C490),"",'Data Input'!C490)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D490" t="str">
         <f>IF(ISBLANK('Data Input'!D490),"",'Data Input'!D490)</f>
-        <v/>
-      </c>
-      <c r="E490" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E490">
         <f>IF(ISBLANK('Data Input'!E490),"",'Data Input'!E490)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F490" t="str">
         <f>IF(ISBLANK('Data Input'!F490),"",'Data Input'!F490)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G490" t="str">
         <f>IF(ISBLANK('Data Input'!G490),"",'Data Input'!G490)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H490" t="str">
         <f>IF(ISBLANK('Data Input'!H490),"",'Data Input'!H490)</f>
-        <v/>
+        <v>7=14=18 1257</v>
       </c>
       <c r="I490" t="str">
         <f>IF(ISBLANK('Data Input'!I490),"",'Data Input'!I490)</f>
-        <v/>
-      </c>
-      <c r="J490" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J490">
         <f>IF(ISBLANK('Data Input'!J490),"",'Data Input'!J490)</f>
-        <v/>
-      </c>
-      <c r="K490" t="str">
+        <v>30</v>
+      </c>
+      <c r="K490">
         <f>IF(ISBLANK('Data Input'!K490),"",'Data Input'!K490)</f>
-        <v/>
-      </c>
-      <c r="L490" t="str">
+        <v>5</v>
+      </c>
+      <c r="L490">
         <f>IF(ISBLANK('Data Input'!L490),"",'Data Input'!L490)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M490" t="str">
         <f>IF(ISBLANK('Data Input'!M490),"",'Data Input'!M490)</f>
@@ -56922,51 +62106,51 @@
     <row r="491" spans="1:16">
       <c r="A491">
         <f>IF(ISBLANK('Data Input'!A491),"",'Data Input'!A491)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B491" t="str">
         <f>IF(ISBLANK('Data Input'!B491),"",'Data Input'!B491)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C491" t="str">
         <f>IF(ISBLANK('Data Input'!C491),"",'Data Input'!C491)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D491" t="str">
         <f>IF(ISBLANK('Data Input'!D491),"",'Data Input'!D491)</f>
-        <v/>
-      </c>
-      <c r="E491" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E491">
         <f>IF(ISBLANK('Data Input'!E491),"",'Data Input'!E491)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F491" t="str">
         <f>IF(ISBLANK('Data Input'!F491),"",'Data Input'!F491)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G491" t="str">
         <f>IF(ISBLANK('Data Input'!G491),"",'Data Input'!G491)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H491" t="str">
         <f>IF(ISBLANK('Data Input'!H491),"",'Data Input'!H491)</f>
-        <v/>
+        <v>7=14=18 1257</v>
       </c>
       <c r="I491" t="str">
         <f>IF(ISBLANK('Data Input'!I491),"",'Data Input'!I491)</f>
-        <v/>
-      </c>
-      <c r="J491" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J491">
         <f>IF(ISBLANK('Data Input'!J491),"",'Data Input'!J491)</f>
-        <v/>
-      </c>
-      <c r="K491" t="str">
+        <v>1</v>
+      </c>
+      <c r="K491">
         <f>IF(ISBLANK('Data Input'!K491),"",'Data Input'!K491)</f>
-        <v/>
-      </c>
-      <c r="L491" t="str">
+        <v>5</v>
+      </c>
+      <c r="L491">
         <f>IF(ISBLANK('Data Input'!L491),"",'Data Input'!L491)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M491" t="str">
         <f>IF(ISBLANK('Data Input'!M491),"",'Data Input'!M491)</f>
@@ -56988,51 +62172,51 @@
     <row r="492" spans="1:16">
       <c r="A492">
         <f>IF(ISBLANK('Data Input'!A492),"",'Data Input'!A492)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B492" t="str">
         <f>IF(ISBLANK('Data Input'!B492),"",'Data Input'!B492)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C492" t="str">
         <f>IF(ISBLANK('Data Input'!C492),"",'Data Input'!C492)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D492" t="str">
         <f>IF(ISBLANK('Data Input'!D492),"",'Data Input'!D492)</f>
-        <v/>
-      </c>
-      <c r="E492" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E492">
         <f>IF(ISBLANK('Data Input'!E492),"",'Data Input'!E492)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F492" t="str">
         <f>IF(ISBLANK('Data Input'!F492),"",'Data Input'!F492)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G492" t="str">
         <f>IF(ISBLANK('Data Input'!G492),"",'Data Input'!G492)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H492" t="str">
         <f>IF(ISBLANK('Data Input'!H492),"",'Data Input'!H492)</f>
-        <v/>
+        <v>7=14=18 1715</v>
       </c>
       <c r="I492" t="str">
         <f>IF(ISBLANK('Data Input'!I492),"",'Data Input'!I492)</f>
-        <v/>
-      </c>
-      <c r="J492" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J492">
         <f>IF(ISBLANK('Data Input'!J492),"",'Data Input'!J492)</f>
-        <v/>
-      </c>
-      <c r="K492" t="str">
+        <v>1</v>
+      </c>
+      <c r="K492">
         <f>IF(ISBLANK('Data Input'!K492),"",'Data Input'!K492)</f>
-        <v/>
-      </c>
-      <c r="L492" t="str">
+        <v>5</v>
+      </c>
+      <c r="L492">
         <f>IF(ISBLANK('Data Input'!L492),"",'Data Input'!L492)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M492" t="str">
         <f>IF(ISBLANK('Data Input'!M492),"",'Data Input'!M492)</f>
@@ -57054,51 +62238,51 @@
     <row r="493" spans="1:16">
       <c r="A493">
         <f>IF(ISBLANK('Data Input'!A493),"",'Data Input'!A493)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B493" t="str">
         <f>IF(ISBLANK('Data Input'!B493),"",'Data Input'!B493)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C493" t="str">
         <f>IF(ISBLANK('Data Input'!C493),"",'Data Input'!C493)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D493" t="str">
         <f>IF(ISBLANK('Data Input'!D493),"",'Data Input'!D493)</f>
-        <v/>
-      </c>
-      <c r="E493" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E493">
         <f>IF(ISBLANK('Data Input'!E493),"",'Data Input'!E493)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F493" t="str">
         <f>IF(ISBLANK('Data Input'!F493),"",'Data Input'!F493)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G493" t="str">
         <f>IF(ISBLANK('Data Input'!G493),"",'Data Input'!G493)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H493" t="str">
         <f>IF(ISBLANK('Data Input'!H493),"",'Data Input'!H493)</f>
-        <v/>
+        <v>7=14=18 1843</v>
       </c>
       <c r="I493" t="str">
         <f>IF(ISBLANK('Data Input'!I493),"",'Data Input'!I493)</f>
-        <v/>
-      </c>
-      <c r="J493" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J493">
         <f>IF(ISBLANK('Data Input'!J493),"",'Data Input'!J493)</f>
-        <v/>
-      </c>
-      <c r="K493" t="str">
+        <v>800</v>
+      </c>
+      <c r="K493">
         <f>IF(ISBLANK('Data Input'!K493),"",'Data Input'!K493)</f>
-        <v/>
-      </c>
-      <c r="L493" t="str">
+        <v>5</v>
+      </c>
+      <c r="L493">
         <f>IF(ISBLANK('Data Input'!L493),"",'Data Input'!L493)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M493" t="str">
         <f>IF(ISBLANK('Data Input'!M493),"",'Data Input'!M493)</f>
@@ -57120,51 +62304,51 @@
     <row r="494" spans="1:16">
       <c r="A494">
         <f>IF(ISBLANK('Data Input'!A494),"",'Data Input'!A494)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B494" t="str">
         <f>IF(ISBLANK('Data Input'!B494),"",'Data Input'!B494)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C494" t="str">
         <f>IF(ISBLANK('Data Input'!C494),"",'Data Input'!C494)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D494" t="str">
         <f>IF(ISBLANK('Data Input'!D494),"",'Data Input'!D494)</f>
-        <v/>
-      </c>
-      <c r="E494" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E494">
         <f>IF(ISBLANK('Data Input'!E494),"",'Data Input'!E494)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F494" t="str">
         <f>IF(ISBLANK('Data Input'!F494),"",'Data Input'!F494)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G494" t="str">
         <f>IF(ISBLANK('Data Input'!G494),"",'Data Input'!G494)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H494" t="str">
         <f>IF(ISBLANK('Data Input'!H494),"",'Data Input'!H494)</f>
-        <v/>
+        <v>7=15=18 0030</v>
       </c>
       <c r="I494" t="str">
         <f>IF(ISBLANK('Data Input'!I494),"",'Data Input'!I494)</f>
-        <v/>
-      </c>
-      <c r="J494" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J494">
         <f>IF(ISBLANK('Data Input'!J494),"",'Data Input'!J494)</f>
-        <v/>
-      </c>
-      <c r="K494" t="str">
+        <v>800</v>
+      </c>
+      <c r="K494">
         <f>IF(ISBLANK('Data Input'!K494),"",'Data Input'!K494)</f>
-        <v/>
-      </c>
-      <c r="L494" t="str">
+        <v>1</v>
+      </c>
+      <c r="L494">
         <f>IF(ISBLANK('Data Input'!L494),"",'Data Input'!L494)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M494" t="str">
         <f>IF(ISBLANK('Data Input'!M494),"",'Data Input'!M494)</f>
@@ -57186,51 +62370,51 @@
     <row r="495" spans="1:16">
       <c r="A495">
         <f>IF(ISBLANK('Data Input'!A495),"",'Data Input'!A495)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B495" t="str">
         <f>IF(ISBLANK('Data Input'!B495),"",'Data Input'!B495)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C495" t="str">
         <f>IF(ISBLANK('Data Input'!C495),"",'Data Input'!C495)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D495" t="str">
         <f>IF(ISBLANK('Data Input'!D495),"",'Data Input'!D495)</f>
-        <v/>
-      </c>
-      <c r="E495" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E495">
         <f>IF(ISBLANK('Data Input'!E495),"",'Data Input'!E495)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F495" t="str">
         <f>IF(ISBLANK('Data Input'!F495),"",'Data Input'!F495)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G495" t="str">
         <f>IF(ISBLANK('Data Input'!G495),"",'Data Input'!G495)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H495" t="str">
         <f>IF(ISBLANK('Data Input'!H495),"",'Data Input'!H495)</f>
-        <v/>
+        <v>7=15=18 0030</v>
       </c>
       <c r="I495" t="str">
         <f>IF(ISBLANK('Data Input'!I495),"",'Data Input'!I495)</f>
-        <v/>
-      </c>
-      <c r="J495" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J495">
         <f>IF(ISBLANK('Data Input'!J495),"",'Data Input'!J495)</f>
-        <v/>
-      </c>
-      <c r="K495" t="str">
+        <v>1</v>
+      </c>
+      <c r="K495">
         <f>IF(ISBLANK('Data Input'!K495),"",'Data Input'!K495)</f>
-        <v/>
-      </c>
-      <c r="L495" t="str">
+        <v>1</v>
+      </c>
+      <c r="L495">
         <f>IF(ISBLANK('Data Input'!L495),"",'Data Input'!L495)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M495" t="str">
         <f>IF(ISBLANK('Data Input'!M495),"",'Data Input'!M495)</f>
@@ -57252,51 +62436,51 @@
     <row r="496" spans="1:16">
       <c r="A496">
         <f>IF(ISBLANK('Data Input'!A496),"",'Data Input'!A496)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B496" t="str">
         <f>IF(ISBLANK('Data Input'!B496),"",'Data Input'!B496)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C496" t="str">
         <f>IF(ISBLANK('Data Input'!C496),"",'Data Input'!C496)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D496" t="str">
         <f>IF(ISBLANK('Data Input'!D496),"",'Data Input'!D496)</f>
-        <v/>
-      </c>
-      <c r="E496" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E496">
         <f>IF(ISBLANK('Data Input'!E496),"",'Data Input'!E496)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F496" t="str">
         <f>IF(ISBLANK('Data Input'!F496),"",'Data Input'!F496)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G496" t="str">
         <f>IF(ISBLANK('Data Input'!G496),"",'Data Input'!G496)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H496" t="str">
         <f>IF(ISBLANK('Data Input'!H496),"",'Data Input'!H496)</f>
-        <v/>
+        <v>7=15=18 0810</v>
       </c>
       <c r="I496" t="str">
         <f>IF(ISBLANK('Data Input'!I496),"",'Data Input'!I496)</f>
-        <v/>
-      </c>
-      <c r="J496" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J496">
         <f>IF(ISBLANK('Data Input'!J496),"",'Data Input'!J496)</f>
-        <v/>
-      </c>
-      <c r="K496" t="str">
+        <v>800</v>
+      </c>
+      <c r="K496">
         <f>IF(ISBLANK('Data Input'!K496),"",'Data Input'!K496)</f>
-        <v/>
-      </c>
-      <c r="L496" t="str">
+        <v>5</v>
+      </c>
+      <c r="L496">
         <f>IF(ISBLANK('Data Input'!L496),"",'Data Input'!L496)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M496" t="str">
         <f>IF(ISBLANK('Data Input'!M496),"",'Data Input'!M496)</f>
@@ -57318,51 +62502,51 @@
     <row r="497" spans="1:16">
       <c r="A497">
         <f>IF(ISBLANK('Data Input'!A497),"",'Data Input'!A497)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B497" t="str">
         <f>IF(ISBLANK('Data Input'!B497),"",'Data Input'!B497)</f>
-        <v/>
+        <v>MK133</v>
       </c>
       <c r="C497" t="str">
         <f>IF(ISBLANK('Data Input'!C497),"",'Data Input'!C497)</f>
-        <v/>
+        <v>7=14=18 1100</v>
       </c>
       <c r="D497" t="str">
         <f>IF(ISBLANK('Data Input'!D497),"",'Data Input'!D497)</f>
-        <v/>
-      </c>
-      <c r="E497" t="str">
+        <v>7=15=18 0810</v>
+      </c>
+      <c r="E497">
         <f>IF(ISBLANK('Data Input'!E497),"",'Data Input'!E497)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="F497" t="str">
         <f>IF(ISBLANK('Data Input'!F497),"",'Data Input'!F497)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G497" t="str">
         <f>IF(ISBLANK('Data Input'!G497),"",'Data Input'!G497)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H497" t="str">
         <f>IF(ISBLANK('Data Input'!H497),"",'Data Input'!H497)</f>
-        <v/>
+        <v>7=15=18 0030</v>
       </c>
       <c r="I497" t="str">
         <f>IF(ISBLANK('Data Input'!I497),"",'Data Input'!I497)</f>
-        <v/>
-      </c>
-      <c r="J497" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J497">
         <f>IF(ISBLANK('Data Input'!J497),"",'Data Input'!J497)</f>
-        <v/>
-      </c>
-      <c r="K497" t="str">
+        <v>1</v>
+      </c>
+      <c r="K497">
         <f>IF(ISBLANK('Data Input'!K497),"",'Data Input'!K497)</f>
-        <v/>
-      </c>
-      <c r="L497" t="str">
+        <v>5</v>
+      </c>
+      <c r="L497">
         <f>IF(ISBLANK('Data Input'!L497),"",'Data Input'!L497)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M497" t="str">
         <f>IF(ISBLANK('Data Input'!M497),"",'Data Input'!M497)</f>
@@ -57384,51 +62568,51 @@
     <row r="498" spans="1:16">
       <c r="A498">
         <f>IF(ISBLANK('Data Input'!A498),"",'Data Input'!A498)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B498" t="str">
         <f>IF(ISBLANK('Data Input'!B498),"",'Data Input'!B498)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C498" t="str">
         <f>IF(ISBLANK('Data Input'!C498),"",'Data Input'!C498)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D498" t="str">
         <f>IF(ISBLANK('Data Input'!D498),"",'Data Input'!D498)</f>
-        <v/>
-      </c>
-      <c r="E498" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E498">
         <f>IF(ISBLANK('Data Input'!E498),"",'Data Input'!E498)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F498" t="str">
         <f>IF(ISBLANK('Data Input'!F498),"",'Data Input'!F498)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G498" t="str">
         <f>IF(ISBLANK('Data Input'!G498),"",'Data Input'!G498)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H498" t="str">
         <f>IF(ISBLANK('Data Input'!H498),"",'Data Input'!H498)</f>
-        <v/>
+        <v>7=13=18 1054</v>
       </c>
       <c r="I498" t="str">
         <f>IF(ISBLANK('Data Input'!I498),"",'Data Input'!I498)</f>
-        <v/>
-      </c>
-      <c r="J498" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J498">
         <f>IF(ISBLANK('Data Input'!J498),"",'Data Input'!J498)</f>
-        <v/>
-      </c>
-      <c r="K498" t="str">
+        <v>800</v>
+      </c>
+      <c r="K498">
         <f>IF(ISBLANK('Data Input'!K498),"",'Data Input'!K498)</f>
-        <v/>
-      </c>
-      <c r="L498" t="str">
+        <v>4</v>
+      </c>
+      <c r="L498">
         <f>IF(ISBLANK('Data Input'!L498),"",'Data Input'!L498)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M498" t="str">
         <f>IF(ISBLANK('Data Input'!M498),"",'Data Input'!M498)</f>
@@ -57444,57 +62628,57 @@
       </c>
       <c r="P498" t="b">
         <f>IF(ISBLANK('Data Input'!P498),"",'Data Input'!P498)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:16">
       <c r="A499">
         <f>IF(ISBLANK('Data Input'!A499),"",'Data Input'!A499)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B499" t="str">
         <f>IF(ISBLANK('Data Input'!B499),"",'Data Input'!B499)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C499" t="str">
         <f>IF(ISBLANK('Data Input'!C499),"",'Data Input'!C499)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D499" t="str">
         <f>IF(ISBLANK('Data Input'!D499),"",'Data Input'!D499)</f>
-        <v/>
-      </c>
-      <c r="E499" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E499">
         <f>IF(ISBLANK('Data Input'!E499),"",'Data Input'!E499)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F499" t="str">
         <f>IF(ISBLANK('Data Input'!F499),"",'Data Input'!F499)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G499" t="str">
         <f>IF(ISBLANK('Data Input'!G499),"",'Data Input'!G499)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H499" t="str">
         <f>IF(ISBLANK('Data Input'!H499),"",'Data Input'!H499)</f>
-        <v/>
+        <v>7=13=18 1559</v>
       </c>
       <c r="I499" t="str">
         <f>IF(ISBLANK('Data Input'!I499),"",'Data Input'!I499)</f>
-        <v/>
-      </c>
-      <c r="J499" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J499">
         <f>IF(ISBLANK('Data Input'!J499),"",'Data Input'!J499)</f>
-        <v/>
-      </c>
-      <c r="K499" t="str">
+        <v>1</v>
+      </c>
+      <c r="K499">
         <f>IF(ISBLANK('Data Input'!K499),"",'Data Input'!K499)</f>
-        <v/>
-      </c>
-      <c r="L499" t="str">
+        <v>4</v>
+      </c>
+      <c r="L499">
         <f>IF(ISBLANK('Data Input'!L499),"",'Data Input'!L499)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M499" t="str">
         <f>IF(ISBLANK('Data Input'!M499),"",'Data Input'!M499)</f>
@@ -57510,57 +62694,57 @@
       </c>
       <c r="P499" t="b">
         <f>IF(ISBLANK('Data Input'!P499),"",'Data Input'!P499)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:16">
       <c r="A500">
         <f>IF(ISBLANK('Data Input'!A500),"",'Data Input'!A500)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B500" t="str">
         <f>IF(ISBLANK('Data Input'!B500),"",'Data Input'!B500)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C500" t="str">
         <f>IF(ISBLANK('Data Input'!C500),"",'Data Input'!C500)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D500" t="str">
         <f>IF(ISBLANK('Data Input'!D500),"",'Data Input'!D500)</f>
-        <v/>
-      </c>
-      <c r="E500" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E500">
         <f>IF(ISBLANK('Data Input'!E500),"",'Data Input'!E500)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F500" t="str">
         <f>IF(ISBLANK('Data Input'!F500),"",'Data Input'!F500)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G500" t="str">
         <f>IF(ISBLANK('Data Input'!G500),"",'Data Input'!G500)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H500" t="str">
         <f>IF(ISBLANK('Data Input'!H500),"",'Data Input'!H500)</f>
-        <v/>
+        <v>7=13=18 2214</v>
       </c>
       <c r="I500" t="str">
         <f>IF(ISBLANK('Data Input'!I500),"",'Data Input'!I500)</f>
-        <v/>
-      </c>
-      <c r="J500" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J500">
         <f>IF(ISBLANK('Data Input'!J500),"",'Data Input'!J500)</f>
-        <v/>
-      </c>
-      <c r="K500" t="str">
+        <v>800</v>
+      </c>
+      <c r="K500">
         <f>IF(ISBLANK('Data Input'!K500),"",'Data Input'!K500)</f>
-        <v/>
-      </c>
-      <c r="L500" t="str">
+        <v>7</v>
+      </c>
+      <c r="L500">
         <f>IF(ISBLANK('Data Input'!L500),"",'Data Input'!L500)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M500" t="str">
         <f>IF(ISBLANK('Data Input'!M500),"",'Data Input'!M500)</f>
@@ -57576,57 +62760,57 @@
       </c>
       <c r="P500" t="b">
         <f>IF(ISBLANK('Data Input'!P500),"",'Data Input'!P500)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:16">
       <c r="A501">
         <f>IF(ISBLANK('Data Input'!A501),"",'Data Input'!A501)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B501" t="str">
         <f>IF(ISBLANK('Data Input'!B501),"",'Data Input'!B501)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C501" t="str">
         <f>IF(ISBLANK('Data Input'!C501),"",'Data Input'!C501)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D501" t="str">
         <f>IF(ISBLANK('Data Input'!D501),"",'Data Input'!D501)</f>
-        <v/>
-      </c>
-      <c r="E501" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E501">
         <f>IF(ISBLANK('Data Input'!E501),"",'Data Input'!E501)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F501" t="str">
         <f>IF(ISBLANK('Data Input'!F501),"",'Data Input'!F501)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G501" t="str">
         <f>IF(ISBLANK('Data Input'!G501),"",'Data Input'!G501)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H501" t="str">
         <f>IF(ISBLANK('Data Input'!H501),"",'Data Input'!H501)</f>
-        <v/>
+        <v>7=13=18 2214</v>
       </c>
       <c r="I501" t="str">
         <f>IF(ISBLANK('Data Input'!I501),"",'Data Input'!I501)</f>
-        <v/>
-      </c>
-      <c r="J501" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J501">
         <f>IF(ISBLANK('Data Input'!J501),"",'Data Input'!J501)</f>
-        <v/>
-      </c>
-      <c r="K501" t="str">
+        <v>1</v>
+      </c>
+      <c r="K501">
         <f>IF(ISBLANK('Data Input'!K501),"",'Data Input'!K501)</f>
-        <v/>
-      </c>
-      <c r="L501" t="str">
+        <v>7</v>
+      </c>
+      <c r="L501">
         <f>IF(ISBLANK('Data Input'!L501),"",'Data Input'!L501)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M501" t="str">
         <f>IF(ISBLANK('Data Input'!M501),"",'Data Input'!M501)</f>
@@ -57642,57 +62826,57 @@
       </c>
       <c r="P501" t="b">
         <f>IF(ISBLANK('Data Input'!P501),"",'Data Input'!P501)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:16">
       <c r="A502">
         <f>IF(ISBLANK('Data Input'!A502),"",'Data Input'!A502)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B502" t="str">
         <f>IF(ISBLANK('Data Input'!B502),"",'Data Input'!B502)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C502" t="str">
         <f>IF(ISBLANK('Data Input'!C502),"",'Data Input'!C502)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D502" t="str">
         <f>IF(ISBLANK('Data Input'!D502),"",'Data Input'!D502)</f>
-        <v/>
-      </c>
-      <c r="E502" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E502">
         <f>IF(ISBLANK('Data Input'!E502),"",'Data Input'!E502)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F502" t="str">
         <f>IF(ISBLANK('Data Input'!F502),"",'Data Input'!F502)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G502" t="str">
         <f>IF(ISBLANK('Data Input'!G502),"",'Data Input'!G502)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H502" t="str">
         <f>IF(ISBLANK('Data Input'!H502),"",'Data Input'!H502)</f>
-        <v/>
+        <v>7=14=18 0527</v>
       </c>
       <c r="I502" t="str">
         <f>IF(ISBLANK('Data Input'!I502),"",'Data Input'!I502)</f>
-        <v/>
-      </c>
-      <c r="J502" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J502">
         <f>IF(ISBLANK('Data Input'!J502),"",'Data Input'!J502)</f>
-        <v/>
-      </c>
-      <c r="K502" t="str">
+        <v>800</v>
+      </c>
+      <c r="K502">
         <f>IF(ISBLANK('Data Input'!K502),"",'Data Input'!K502)</f>
-        <v/>
-      </c>
-      <c r="L502" t="str">
+        <v>6</v>
+      </c>
+      <c r="L502">
         <f>IF(ISBLANK('Data Input'!L502),"",'Data Input'!L502)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M502" t="str">
         <f>IF(ISBLANK('Data Input'!M502),"",'Data Input'!M502)</f>
@@ -57708,57 +62892,57 @@
       </c>
       <c r="P502" t="b">
         <f>IF(ISBLANK('Data Input'!P502),"",'Data Input'!P502)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:16">
       <c r="A503">
         <f>IF(ISBLANK('Data Input'!A503),"",'Data Input'!A503)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B503" t="str">
         <f>IF(ISBLANK('Data Input'!B503),"",'Data Input'!B503)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C503" t="str">
         <f>IF(ISBLANK('Data Input'!C503),"",'Data Input'!C503)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D503" t="str">
         <f>IF(ISBLANK('Data Input'!D503),"",'Data Input'!D503)</f>
-        <v/>
-      </c>
-      <c r="E503" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E503">
         <f>IF(ISBLANK('Data Input'!E503),"",'Data Input'!E503)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F503" t="str">
         <f>IF(ISBLANK('Data Input'!F503),"",'Data Input'!F503)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G503" t="str">
         <f>IF(ISBLANK('Data Input'!G503),"",'Data Input'!G503)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H503" t="str">
         <f>IF(ISBLANK('Data Input'!H503),"",'Data Input'!H503)</f>
-        <v/>
+        <v>7=14=18 0527</v>
       </c>
       <c r="I503" t="str">
         <f>IF(ISBLANK('Data Input'!I503),"",'Data Input'!I503)</f>
-        <v/>
-      </c>
-      <c r="J503" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J503">
         <f>IF(ISBLANK('Data Input'!J503),"",'Data Input'!J503)</f>
-        <v/>
-      </c>
-      <c r="K503" t="str">
+        <v>1</v>
+      </c>
+      <c r="K503">
         <f>IF(ISBLANK('Data Input'!K503),"",'Data Input'!K503)</f>
-        <v/>
-      </c>
-      <c r="L503" t="str">
+        <v>6</v>
+      </c>
+      <c r="L503">
         <f>IF(ISBLANK('Data Input'!L503),"",'Data Input'!L503)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M503" t="str">
         <f>IF(ISBLANK('Data Input'!M503),"",'Data Input'!M503)</f>
@@ -57774,57 +62958,57 @@
       </c>
       <c r="P503" t="b">
         <f>IF(ISBLANK('Data Input'!P503),"",'Data Input'!P503)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:16">
       <c r="A504">
         <f>IF(ISBLANK('Data Input'!A504),"",'Data Input'!A504)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B504" t="str">
         <f>IF(ISBLANK('Data Input'!B504),"",'Data Input'!B504)</f>
-        <v/>
+        <v>CJ134</v>
       </c>
       <c r="C504" t="str">
         <f>IF(ISBLANK('Data Input'!C504),"",'Data Input'!C504)</f>
-        <v/>
+        <v>7=16=18 1035</v>
       </c>
       <c r="D504" t="str">
         <f>IF(ISBLANK('Data Input'!D504),"",'Data Input'!D504)</f>
-        <v/>
-      </c>
-      <c r="E504" t="str">
+        <v>7=14=18</v>
+      </c>
+      <c r="E504">
         <f>IF(ISBLANK('Data Input'!E504),"",'Data Input'!E504)</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F504" t="str">
         <f>IF(ISBLANK('Data Input'!F504),"",'Data Input'!F504)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G504" t="str">
         <f>IF(ISBLANK('Data Input'!G504),"",'Data Input'!G504)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H504" t="str">
         <f>IF(ISBLANK('Data Input'!H504),"",'Data Input'!H504)</f>
-        <v/>
+        <v>7=14=18 1027</v>
       </c>
       <c r="I504" t="str">
         <f>IF(ISBLANK('Data Input'!I504),"",'Data Input'!I504)</f>
-        <v/>
-      </c>
-      <c r="J504" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J504">
         <f>IF(ISBLANK('Data Input'!J504),"",'Data Input'!J504)</f>
-        <v/>
-      </c>
-      <c r="K504" t="str">
+        <v>1</v>
+      </c>
+      <c r="K504">
         <f>IF(ISBLANK('Data Input'!K504),"",'Data Input'!K504)</f>
-        <v/>
-      </c>
-      <c r="L504" t="str">
+        <v>7</v>
+      </c>
+      <c r="L504">
         <f>IF(ISBLANK('Data Input'!L504),"",'Data Input'!L504)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M504" t="str">
         <f>IF(ISBLANK('Data Input'!M504),"",'Data Input'!M504)</f>
@@ -57840,57 +63024,57 @@
       </c>
       <c r="P504" t="b">
         <f>IF(ISBLANK('Data Input'!P504),"",'Data Input'!P504)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:16">
       <c r="A505">
         <f>IF(ISBLANK('Data Input'!A505),"",'Data Input'!A505)</f>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B505" t="str">
         <f>IF(ISBLANK('Data Input'!B505),"",'Data Input'!B505)</f>
-        <v/>
+        <v>AP135</v>
       </c>
       <c r="C505" t="str">
         <f>IF(ISBLANK('Data Input'!C505),"",'Data Input'!C505)</f>
-        <v/>
+        <v>7=22=18 1800</v>
       </c>
       <c r="D505" t="str">
         <f>IF(ISBLANK('Data Input'!D505),"",'Data Input'!D505)</f>
-        <v/>
-      </c>
-      <c r="E505" t="str">
+        <v>7=23=18 1407</v>
+      </c>
+      <c r="E505">
         <f>IF(ISBLANK('Data Input'!E505),"",'Data Input'!E505)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F505" t="str">
         <f>IF(ISBLANK('Data Input'!F505),"",'Data Input'!F505)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G505" t="str">
         <f>IF(ISBLANK('Data Input'!G505),"",'Data Input'!G505)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H505" t="str">
         <f>IF(ISBLANK('Data Input'!H505),"",'Data Input'!H505)</f>
-        <v/>
+        <v>7=22=18 2316</v>
       </c>
       <c r="I505" t="str">
         <f>IF(ISBLANK('Data Input'!I505),"",'Data Input'!I505)</f>
-        <v/>
-      </c>
-      <c r="J505" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J505">
         <f>IF(ISBLANK('Data Input'!J505),"",'Data Input'!J505)</f>
-        <v/>
-      </c>
-      <c r="K505" t="str">
+        <v>800</v>
+      </c>
+      <c r="K505">
         <f>IF(ISBLANK('Data Input'!K505),"",'Data Input'!K505)</f>
-        <v/>
-      </c>
-      <c r="L505" t="str">
+        <v>1</v>
+      </c>
+      <c r="L505">
         <f>IF(ISBLANK('Data Input'!L505),"",'Data Input'!L505)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M505" t="str">
         <f>IF(ISBLANK('Data Input'!M505),"",'Data Input'!M505)</f>
@@ -57912,51 +63096,51 @@
     <row r="506" spans="1:16">
       <c r="A506">
         <f>IF(ISBLANK('Data Input'!A506),"",'Data Input'!A506)</f>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B506" t="str">
         <f>IF(ISBLANK('Data Input'!B506),"",'Data Input'!B506)</f>
-        <v/>
+        <v>AP135</v>
       </c>
       <c r="C506" t="str">
         <f>IF(ISBLANK('Data Input'!C506),"",'Data Input'!C506)</f>
-        <v/>
+        <v>7=22=18 1800</v>
       </c>
       <c r="D506" t="str">
         <f>IF(ISBLANK('Data Input'!D506),"",'Data Input'!D506)</f>
-        <v/>
-      </c>
-      <c r="E506" t="str">
+        <v>7=23=18 1407</v>
+      </c>
+      <c r="E506">
         <f>IF(ISBLANK('Data Input'!E506),"",'Data Input'!E506)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F506" t="str">
         <f>IF(ISBLANK('Data Input'!F506),"",'Data Input'!F506)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G506" t="str">
         <f>IF(ISBLANK('Data Input'!G506),"",'Data Input'!G506)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H506" t="str">
         <f>IF(ISBLANK('Data Input'!H506),"",'Data Input'!H506)</f>
-        <v/>
+        <v>7=23=18 1002</v>
       </c>
       <c r="I506" t="str">
         <f>IF(ISBLANK('Data Input'!I506),"",'Data Input'!I506)</f>
-        <v/>
-      </c>
-      <c r="J506" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J506">
         <f>IF(ISBLANK('Data Input'!J506),"",'Data Input'!J506)</f>
-        <v/>
-      </c>
-      <c r="K506" t="str">
+        <v>800</v>
+      </c>
+      <c r="K506">
         <f>IF(ISBLANK('Data Input'!K506),"",'Data Input'!K506)</f>
-        <v/>
-      </c>
-      <c r="L506" t="str">
+        <v>5</v>
+      </c>
+      <c r="L506">
         <f>IF(ISBLANK('Data Input'!L506),"",'Data Input'!L506)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M506" t="str">
         <f>IF(ISBLANK('Data Input'!M506),"",'Data Input'!M506)</f>
@@ -57978,51 +63162,51 @@
     <row r="507" spans="1:16">
       <c r="A507">
         <f>IF(ISBLANK('Data Input'!A507),"",'Data Input'!A507)</f>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B507" t="str">
         <f>IF(ISBLANK('Data Input'!B507),"",'Data Input'!B507)</f>
-        <v/>
+        <v>AP135</v>
       </c>
       <c r="C507" t="str">
         <f>IF(ISBLANK('Data Input'!C507),"",'Data Input'!C507)</f>
-        <v/>
+        <v>7=22=18 1800</v>
       </c>
       <c r="D507" t="str">
         <f>IF(ISBLANK('Data Input'!D507),"",'Data Input'!D507)</f>
-        <v/>
-      </c>
-      <c r="E507" t="str">
+        <v>7=23=18 1407</v>
+      </c>
+      <c r="E507">
         <f>IF(ISBLANK('Data Input'!E507),"",'Data Input'!E507)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="F507" t="str">
         <f>IF(ISBLANK('Data Input'!F507),"",'Data Input'!F507)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G507" t="str">
         <f>IF(ISBLANK('Data Input'!G507),"",'Data Input'!G507)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H507" t="str">
         <f>IF(ISBLANK('Data Input'!H507),"",'Data Input'!H507)</f>
-        <v/>
+        <v>7=23=18 1407</v>
       </c>
       <c r="I507" t="str">
         <f>IF(ISBLANK('Data Input'!I507),"",'Data Input'!I507)</f>
-        <v/>
-      </c>
-      <c r="J507" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J507">
         <f>IF(ISBLANK('Data Input'!J507),"",'Data Input'!J507)</f>
-        <v/>
-      </c>
-      <c r="K507" t="str">
+        <v>1</v>
+      </c>
+      <c r="K507">
         <f>IF(ISBLANK('Data Input'!K507),"",'Data Input'!K507)</f>
-        <v/>
-      </c>
-      <c r="L507" t="str">
+        <v>5</v>
+      </c>
+      <c r="L507">
         <f>IF(ISBLANK('Data Input'!L507),"",'Data Input'!L507)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M507" t="str">
         <f>IF(ISBLANK('Data Input'!M507),"",'Data Input'!M507)</f>
@@ -58044,51 +63228,51 @@
     <row r="508" spans="1:16">
       <c r="A508">
         <f>IF(ISBLANK('Data Input'!A508),"",'Data Input'!A508)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B508" t="str">
         <f>IF(ISBLANK('Data Input'!B508),"",'Data Input'!B508)</f>
-        <v/>
+        <v>EH136</v>
       </c>
       <c r="C508" t="str">
         <f>IF(ISBLANK('Data Input'!C508),"",'Data Input'!C508)</f>
-        <v/>
+        <v>7=13=18 1010</v>
       </c>
       <c r="D508" t="str">
         <f>IF(ISBLANK('Data Input'!D508),"",'Data Input'!D508)</f>
-        <v/>
-      </c>
-      <c r="E508" t="str">
+        <v>7=14=18 0601</v>
+      </c>
+      <c r="E508">
         <f>IF(ISBLANK('Data Input'!E508),"",'Data Input'!E508)</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="F508" t="str">
         <f>IF(ISBLANK('Data Input'!F508),"",'Data Input'!F508)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G508" t="str">
         <f>IF(ISBLANK('Data Input'!G508),"",'Data Input'!G508)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H508" t="str">
         <f>IF(ISBLANK('Data Input'!H508),"",'Data Input'!H508)</f>
-        <v/>
+        <v>7=13=18 1056</v>
       </c>
       <c r="I508" t="str">
         <f>IF(ISBLANK('Data Input'!I508),"",'Data Input'!I508)</f>
-        <v/>
-      </c>
-      <c r="J508" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J508">
         <f>IF(ISBLANK('Data Input'!J508),"",'Data Input'!J508)</f>
-        <v/>
-      </c>
-      <c r="K508" t="str">
+        <v>30</v>
+      </c>
+      <c r="K508">
         <f>IF(ISBLANK('Data Input'!K508),"",'Data Input'!K508)</f>
-        <v/>
-      </c>
-      <c r="L508" t="str">
+        <v>3</v>
+      </c>
+      <c r="L508">
         <f>IF(ISBLANK('Data Input'!L508),"",'Data Input'!L508)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M508" t="str">
         <f>IF(ISBLANK('Data Input'!M508),"",'Data Input'!M508)</f>
@@ -58104,57 +63288,57 @@
       </c>
       <c r="P508" t="b">
         <f>IF(ISBLANK('Data Input'!P508),"",'Data Input'!P508)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:16">
       <c r="A509">
         <f>IF(ISBLANK('Data Input'!A509),"",'Data Input'!A509)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B509" t="str">
         <f>IF(ISBLANK('Data Input'!B509),"",'Data Input'!B509)</f>
-        <v/>
+        <v>EH136</v>
       </c>
       <c r="C509" t="str">
         <f>IF(ISBLANK('Data Input'!C509),"",'Data Input'!C509)</f>
-        <v/>
+        <v>7=13=18 1010</v>
       </c>
       <c r="D509" t="str">
         <f>IF(ISBLANK('Data Input'!D509),"",'Data Input'!D509)</f>
-        <v/>
-      </c>
-      <c r="E509" t="str">
+        <v>7=14=18 0601</v>
+      </c>
+      <c r="E509">
         <f>IF(ISBLANK('Data Input'!E509),"",'Data Input'!E509)</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="F509" t="str">
         <f>IF(ISBLANK('Data Input'!F509),"",'Data Input'!F509)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G509" t="str">
         <f>IF(ISBLANK('Data Input'!G509),"",'Data Input'!G509)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H509" t="str">
         <f>IF(ISBLANK('Data Input'!H509),"",'Data Input'!H509)</f>
-        <v/>
+        <v>7=13=18 1703</v>
       </c>
       <c r="I509" t="str">
         <f>IF(ISBLANK('Data Input'!I509),"",'Data Input'!I509)</f>
-        <v/>
-      </c>
-      <c r="J509" t="str">
+        <v>tr - Toradol</v>
+      </c>
+      <c r="J509">
         <f>IF(ISBLANK('Data Input'!J509),"",'Data Input'!J509)</f>
-        <v/>
-      </c>
-      <c r="K509" t="str">
+        <v>30</v>
+      </c>
+      <c r="K509">
         <f>IF(ISBLANK('Data Input'!K509),"",'Data Input'!K509)</f>
-        <v/>
-      </c>
-      <c r="L509" t="str">
+        <v>2</v>
+      </c>
+      <c r="L509">
         <f>IF(ISBLANK('Data Input'!L509),"",'Data Input'!L509)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M509" t="str">
         <f>IF(ISBLANK('Data Input'!M509),"",'Data Input'!M509)</f>
@@ -58170,57 +63354,57 @@
       </c>
       <c r="P509" t="b">
         <f>IF(ISBLANK('Data Input'!P509),"",'Data Input'!P509)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:16">
       <c r="A510">
         <f>IF(ISBLANK('Data Input'!A510),"",'Data Input'!A510)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B510" t="str">
         <f>IF(ISBLANK('Data Input'!B510),"",'Data Input'!B510)</f>
-        <v/>
+        <v>EH136</v>
       </c>
       <c r="C510" t="str">
         <f>IF(ISBLANK('Data Input'!C510),"",'Data Input'!C510)</f>
-        <v/>
+        <v>7=13=18 1010</v>
       </c>
       <c r="D510" t="str">
         <f>IF(ISBLANK('Data Input'!D510),"",'Data Input'!D510)</f>
-        <v/>
-      </c>
-      <c r="E510" t="str">
+        <v>7=14=18 0601</v>
+      </c>
+      <c r="E510">
         <f>IF(ISBLANK('Data Input'!E510),"",'Data Input'!E510)</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="F510" t="str">
         <f>IF(ISBLANK('Data Input'!F510),"",'Data Input'!F510)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G510" t="str">
         <f>IF(ISBLANK('Data Input'!G510),"",'Data Input'!G510)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H510" t="str">
         <f>IF(ISBLANK('Data Input'!H510),"",'Data Input'!H510)</f>
-        <v/>
+        <v>7=13=18 2258</v>
       </c>
       <c r="I510" t="str">
         <f>IF(ISBLANK('Data Input'!I510),"",'Data Input'!I510)</f>
-        <v/>
-      </c>
-      <c r="J510" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J510">
         <f>IF(ISBLANK('Data Input'!J510),"",'Data Input'!J510)</f>
-        <v/>
-      </c>
-      <c r="K510" t="str">
+        <v>800</v>
+      </c>
+      <c r="K510">
         <f>IF(ISBLANK('Data Input'!K510),"",'Data Input'!K510)</f>
-        <v/>
-      </c>
-      <c r="L510" t="str">
+        <v>2</v>
+      </c>
+      <c r="L510">
         <f>IF(ISBLANK('Data Input'!L510),"",'Data Input'!L510)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M510" t="str">
         <f>IF(ISBLANK('Data Input'!M510),"",'Data Input'!M510)</f>
@@ -58236,57 +63420,57 @@
       </c>
       <c r="P510" t="b">
         <f>IF(ISBLANK('Data Input'!P510),"",'Data Input'!P510)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:16">
       <c r="A511">
         <f>IF(ISBLANK('Data Input'!A511),"",'Data Input'!A511)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B511" t="str">
         <f>IF(ISBLANK('Data Input'!B511),"",'Data Input'!B511)</f>
-        <v/>
+        <v>EH136</v>
       </c>
       <c r="C511" t="str">
         <f>IF(ISBLANK('Data Input'!C511),"",'Data Input'!C511)</f>
-        <v/>
+        <v>7=13=18 1010</v>
       </c>
       <c r="D511" t="str">
         <f>IF(ISBLANK('Data Input'!D511),"",'Data Input'!D511)</f>
-        <v/>
-      </c>
-      <c r="E511" t="str">
+        <v>7=14=18 0601</v>
+      </c>
+      <c r="E511">
         <f>IF(ISBLANK('Data Input'!E511),"",'Data Input'!E511)</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="F511" t="str">
         <f>IF(ISBLANK('Data Input'!F511),"",'Data Input'!F511)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G511" t="str">
         <f>IF(ISBLANK('Data Input'!G511),"",'Data Input'!G511)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H511" t="str">
         <f>IF(ISBLANK('Data Input'!H511),"",'Data Input'!H511)</f>
-        <v/>
+        <v>7=14=18 0441</v>
       </c>
       <c r="I511" t="str">
         <f>IF(ISBLANK('Data Input'!I511),"",'Data Input'!I511)</f>
-        <v/>
-      </c>
-      <c r="J511" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J511">
         <f>IF(ISBLANK('Data Input'!J511),"",'Data Input'!J511)</f>
-        <v/>
-      </c>
-      <c r="K511" t="str">
+        <v>800</v>
+      </c>
+      <c r="K511">
         <f>IF(ISBLANK('Data Input'!K511),"",'Data Input'!K511)</f>
-        <v/>
-      </c>
-      <c r="L511" t="str">
+        <v>5</v>
+      </c>
+      <c r="L511">
         <f>IF(ISBLANK('Data Input'!L511),"",'Data Input'!L511)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M511" t="str">
         <f>IF(ISBLANK('Data Input'!M511),"",'Data Input'!M511)</f>
@@ -58302,57 +63486,57 @@
       </c>
       <c r="P511" t="b">
         <f>IF(ISBLANK('Data Input'!P511),"",'Data Input'!P511)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:16">
       <c r="A512">
         <f>IF(ISBLANK('Data Input'!A512),"",'Data Input'!A512)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B512" t="str">
         <f>IF(ISBLANK('Data Input'!B512),"",'Data Input'!B512)</f>
-        <v/>
+        <v>EH136</v>
       </c>
       <c r="C512" t="str">
         <f>IF(ISBLANK('Data Input'!C512),"",'Data Input'!C512)</f>
-        <v/>
+        <v>7=13=18 1010</v>
       </c>
       <c r="D512" t="str">
         <f>IF(ISBLANK('Data Input'!D512),"",'Data Input'!D512)</f>
-        <v/>
-      </c>
-      <c r="E512" t="str">
+        <v>7=14=18 0601</v>
+      </c>
+      <c r="E512">
         <f>IF(ISBLANK('Data Input'!E512),"",'Data Input'!E512)</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="F512" t="str">
         <f>IF(ISBLANK('Data Input'!F512),"",'Data Input'!F512)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G512" t="str">
         <f>IF(ISBLANK('Data Input'!G512),"",'Data Input'!G512)</f>
-        <v/>
+        <v>Caesarean</v>
       </c>
       <c r="H512" t="str">
         <f>IF(ISBLANK('Data Input'!H512),"",'Data Input'!H512)</f>
-        <v/>
+        <v>7=14=18 0601</v>
       </c>
       <c r="I512" t="str">
         <f>IF(ISBLANK('Data Input'!I512),"",'Data Input'!I512)</f>
-        <v/>
-      </c>
-      <c r="J512" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J512">
         <f>IF(ISBLANK('Data Input'!J512),"",'Data Input'!J512)</f>
-        <v/>
-      </c>
-      <c r="K512" t="str">
+        <v>1</v>
+      </c>
+      <c r="K512">
         <f>IF(ISBLANK('Data Input'!K512),"",'Data Input'!K512)</f>
-        <v/>
-      </c>
-      <c r="L512" t="str">
+        <v>7</v>
+      </c>
+      <c r="L512">
         <f>IF(ISBLANK('Data Input'!L512),"",'Data Input'!L512)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M512" t="str">
         <f>IF(ISBLANK('Data Input'!M512),"",'Data Input'!M512)</f>
@@ -58368,57 +63552,57 @@
       </c>
       <c r="P512" t="b">
         <f>IF(ISBLANK('Data Input'!P512),"",'Data Input'!P512)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:16">
       <c r="A513">
         <f>IF(ISBLANK('Data Input'!A513),"",'Data Input'!A513)</f>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B513" t="str">
         <f>IF(ISBLANK('Data Input'!B513),"",'Data Input'!B513)</f>
-        <v/>
+        <v>MT137</v>
       </c>
       <c r="C513" t="str">
         <f>IF(ISBLANK('Data Input'!C513),"",'Data Input'!C513)</f>
-        <v/>
+        <v>7=21=18 2355</v>
       </c>
       <c r="D513" t="str">
         <f>IF(ISBLANK('Data Input'!D513),"",'Data Input'!D513)</f>
-        <v/>
-      </c>
-      <c r="E513" t="str">
+        <v>7=22=18 1832</v>
+      </c>
+      <c r="E513">
         <f>IF(ISBLANK('Data Input'!E513),"",'Data Input'!E513)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F513" t="str">
         <f>IF(ISBLANK('Data Input'!F513),"",'Data Input'!F513)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G513" t="str">
         <f>IF(ISBLANK('Data Input'!G513),"",'Data Input'!G513)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H513" t="str">
         <f>IF(ISBLANK('Data Input'!H513),"",'Data Input'!H513)</f>
-        <v/>
+        <v>7=22=18 0520</v>
       </c>
       <c r="I513" t="str">
         <f>IF(ISBLANK('Data Input'!I513),"",'Data Input'!I513)</f>
-        <v/>
-      </c>
-      <c r="J513" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J513">
         <f>IF(ISBLANK('Data Input'!J513),"",'Data Input'!J513)</f>
-        <v/>
-      </c>
-      <c r="K513" t="str">
+        <v>800</v>
+      </c>
+      <c r="K513">
         <f>IF(ISBLANK('Data Input'!K513),"",'Data Input'!K513)</f>
-        <v/>
-      </c>
-      <c r="L513" t="str">
+        <v>4</v>
+      </c>
+      <c r="L513">
         <f>IF(ISBLANK('Data Input'!L513),"",'Data Input'!L513)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M513" t="str">
         <f>IF(ISBLANK('Data Input'!M513),"",'Data Input'!M513)</f>
@@ -58440,51 +63624,51 @@
     <row r="514" spans="1:16">
       <c r="A514">
         <f>IF(ISBLANK('Data Input'!A514),"",'Data Input'!A514)</f>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B514" t="str">
         <f>IF(ISBLANK('Data Input'!B514),"",'Data Input'!B514)</f>
-        <v/>
+        <v>MT137</v>
       </c>
       <c r="C514" t="str">
         <f>IF(ISBLANK('Data Input'!C514),"",'Data Input'!C514)</f>
-        <v/>
+        <v>7=21=18 2355</v>
       </c>
       <c r="D514" t="str">
         <f>IF(ISBLANK('Data Input'!D514),"",'Data Input'!D514)</f>
-        <v/>
-      </c>
-      <c r="E514" t="str">
+        <v>7=22=18 1832</v>
+      </c>
+      <c r="E514">
         <f>IF(ISBLANK('Data Input'!E514),"",'Data Input'!E514)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F514" t="str">
         <f>IF(ISBLANK('Data Input'!F514),"",'Data Input'!F514)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G514" t="str">
         <f>IF(ISBLANK('Data Input'!G514),"",'Data Input'!G514)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H514" t="str">
         <f>IF(ISBLANK('Data Input'!H514),"",'Data Input'!H514)</f>
-        <v/>
+        <v>7=22=18 0930</v>
       </c>
       <c r="I514" t="str">
         <f>IF(ISBLANK('Data Input'!I514),"",'Data Input'!I514)</f>
-        <v/>
-      </c>
-      <c r="J514" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J514">
         <f>IF(ISBLANK('Data Input'!J514),"",'Data Input'!J514)</f>
-        <v/>
-      </c>
-      <c r="K514" t="str">
+        <v>1</v>
+      </c>
+      <c r="K514">
         <f>IF(ISBLANK('Data Input'!K514),"",'Data Input'!K514)</f>
-        <v/>
-      </c>
-      <c r="L514" t="str">
+        <v>5</v>
+      </c>
+      <c r="L514">
         <f>IF(ISBLANK('Data Input'!L514),"",'Data Input'!L514)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M514" t="str">
         <f>IF(ISBLANK('Data Input'!M514),"",'Data Input'!M514)</f>
@@ -58506,51 +63690,51 @@
     <row r="515" spans="1:16">
       <c r="A515">
         <f>IF(ISBLANK('Data Input'!A515),"",'Data Input'!A515)</f>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B515" t="str">
         <f>IF(ISBLANK('Data Input'!B515),"",'Data Input'!B515)</f>
-        <v/>
+        <v>MT137</v>
       </c>
       <c r="C515" t="str">
         <f>IF(ISBLANK('Data Input'!C515),"",'Data Input'!C515)</f>
-        <v/>
+        <v>7=21=18 2355</v>
       </c>
       <c r="D515" t="str">
         <f>IF(ISBLANK('Data Input'!D515),"",'Data Input'!D515)</f>
-        <v/>
-      </c>
-      <c r="E515" t="str">
+        <v>7=22=18 1832</v>
+      </c>
+      <c r="E515">
         <f>IF(ISBLANK('Data Input'!E515),"",'Data Input'!E515)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="F515" t="str">
         <f>IF(ISBLANK('Data Input'!F515),"",'Data Input'!F515)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G515" t="str">
         <f>IF(ISBLANK('Data Input'!G515),"",'Data Input'!G515)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H515" t="str">
         <f>IF(ISBLANK('Data Input'!H515),"",'Data Input'!H515)</f>
-        <v/>
+        <v>7=22=18 1832</v>
       </c>
       <c r="I515" t="str">
         <f>IF(ISBLANK('Data Input'!I515),"",'Data Input'!I515)</f>
-        <v/>
-      </c>
-      <c r="J515" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J515">
         <f>IF(ISBLANK('Data Input'!J515),"",'Data Input'!J515)</f>
-        <v/>
-      </c>
-      <c r="K515" t="str">
+        <v>800</v>
+      </c>
+      <c r="K515">
         <f>IF(ISBLANK('Data Input'!K515),"",'Data Input'!K515)</f>
-        <v/>
-      </c>
-      <c r="L515" t="str">
+        <v>3</v>
+      </c>
+      <c r="L515">
         <f>IF(ISBLANK('Data Input'!L515),"",'Data Input'!L515)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M515" t="str">
         <f>IF(ISBLANK('Data Input'!M515),"",'Data Input'!M515)</f>
@@ -58572,51 +63756,51 @@
     <row r="516" spans="1:16">
       <c r="A516">
         <f>IF(ISBLANK('Data Input'!A516),"",'Data Input'!A516)</f>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B516" t="str">
         <f>IF(ISBLANK('Data Input'!B516),"",'Data Input'!B516)</f>
-        <v/>
+        <v>CM138</v>
       </c>
       <c r="C516" t="str">
         <f>IF(ISBLANK('Data Input'!C516),"",'Data Input'!C516)</f>
-        <v/>
+        <v>7=21=18 0215</v>
       </c>
       <c r="D516" t="str">
         <f>IF(ISBLANK('Data Input'!D516),"",'Data Input'!D516)</f>
-        <v/>
-      </c>
-      <c r="E516" t="str">
+        <v>7=21=18 2147</v>
+      </c>
+      <c r="E516">
         <f>IF(ISBLANK('Data Input'!E516),"",'Data Input'!E516)</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F516" t="str">
         <f>IF(ISBLANK('Data Input'!F516),"",'Data Input'!F516)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G516" t="str">
         <f>IF(ISBLANK('Data Input'!G516),"",'Data Input'!G516)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H516" t="str">
         <f>IF(ISBLANK('Data Input'!H516),"",'Data Input'!H516)</f>
-        <v/>
+        <v>7=21=18 0844</v>
       </c>
       <c r="I516" t="str">
         <f>IF(ISBLANK('Data Input'!I516),"",'Data Input'!I516)</f>
-        <v/>
-      </c>
-      <c r="J516" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J516">
         <f>IF(ISBLANK('Data Input'!J516),"",'Data Input'!J516)</f>
-        <v/>
-      </c>
-      <c r="K516" t="str">
+        <v>800</v>
+      </c>
+      <c r="K516">
         <f>IF(ISBLANK('Data Input'!K516),"",'Data Input'!K516)</f>
-        <v/>
-      </c>
-      <c r="L516" t="str">
+        <v>4</v>
+      </c>
+      <c r="L516">
         <f>IF(ISBLANK('Data Input'!L516),"",'Data Input'!L516)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M516" t="str">
         <f>IF(ISBLANK('Data Input'!M516),"",'Data Input'!M516)</f>
@@ -58632,57 +63816,57 @@
       </c>
       <c r="P516" t="b">
         <f>IF(ISBLANK('Data Input'!P516),"",'Data Input'!P516)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:16">
       <c r="A517">
         <f>IF(ISBLANK('Data Input'!A517),"",'Data Input'!A517)</f>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B517" t="str">
         <f>IF(ISBLANK('Data Input'!B517),"",'Data Input'!B517)</f>
-        <v/>
+        <v>CM138</v>
       </c>
       <c r="C517" t="str">
         <f>IF(ISBLANK('Data Input'!C517),"",'Data Input'!C517)</f>
-        <v/>
+        <v>7=21=18 0215</v>
       </c>
       <c r="D517" t="str">
         <f>IF(ISBLANK('Data Input'!D517),"",'Data Input'!D517)</f>
-        <v/>
-      </c>
-      <c r="E517" t="str">
+        <v>7=21=18 2147</v>
+      </c>
+      <c r="E517">
         <f>IF(ISBLANK('Data Input'!E517),"",'Data Input'!E517)</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F517" t="str">
         <f>IF(ISBLANK('Data Input'!F517),"",'Data Input'!F517)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G517" t="str">
         <f>IF(ISBLANK('Data Input'!G517),"",'Data Input'!G517)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H517" t="str">
         <f>IF(ISBLANK('Data Input'!H517),"",'Data Input'!H517)</f>
-        <v/>
+        <v>7=21=18 1610</v>
       </c>
       <c r="I517" t="str">
         <f>IF(ISBLANK('Data Input'!I517),"",'Data Input'!I517)</f>
-        <v/>
-      </c>
-      <c r="J517" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J517">
         <f>IF(ISBLANK('Data Input'!J517),"",'Data Input'!J517)</f>
-        <v/>
-      </c>
-      <c r="K517" t="str">
+        <v>800</v>
+      </c>
+      <c r="K517">
         <f>IF(ISBLANK('Data Input'!K517),"",'Data Input'!K517)</f>
-        <v/>
-      </c>
-      <c r="L517" t="str">
+        <v>0</v>
+      </c>
+      <c r="L517">
         <f>IF(ISBLANK('Data Input'!L517),"",'Data Input'!L517)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M517" t="str">
         <f>IF(ISBLANK('Data Input'!M517),"",'Data Input'!M517)</f>
@@ -58698,57 +63882,57 @@
       </c>
       <c r="P517" t="b">
         <f>IF(ISBLANK('Data Input'!P517),"",'Data Input'!P517)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:16">
       <c r="A518">
         <f>IF(ISBLANK('Data Input'!A518),"",'Data Input'!A518)</f>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B518" t="str">
         <f>IF(ISBLANK('Data Input'!B518),"",'Data Input'!B518)</f>
-        <v/>
+        <v>CM138</v>
       </c>
       <c r="C518" t="str">
         <f>IF(ISBLANK('Data Input'!C518),"",'Data Input'!C518)</f>
-        <v/>
+        <v>7=21=18 0215</v>
       </c>
       <c r="D518" t="str">
         <f>IF(ISBLANK('Data Input'!D518),"",'Data Input'!D518)</f>
-        <v/>
-      </c>
-      <c r="E518" t="str">
+        <v>7=21=18 2147</v>
+      </c>
+      <c r="E518">
         <f>IF(ISBLANK('Data Input'!E518),"",'Data Input'!E518)</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F518" t="str">
         <f>IF(ISBLANK('Data Input'!F518),"",'Data Input'!F518)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G518" t="str">
         <f>IF(ISBLANK('Data Input'!G518),"",'Data Input'!G518)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H518" t="str">
         <f>IF(ISBLANK('Data Input'!H518),"",'Data Input'!H518)</f>
-        <v/>
+        <v>7=21=18 2149</v>
       </c>
       <c r="I518" t="str">
         <f>IF(ISBLANK('Data Input'!I518),"",'Data Input'!I518)</f>
-        <v/>
-      </c>
-      <c r="J518" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J518">
         <f>IF(ISBLANK('Data Input'!J518),"",'Data Input'!J518)</f>
-        <v/>
-      </c>
-      <c r="K518" t="str">
+        <v>800</v>
+      </c>
+      <c r="K518">
         <f>IF(ISBLANK('Data Input'!K518),"",'Data Input'!K518)</f>
-        <v/>
-      </c>
-      <c r="L518" t="str">
+        <v>0</v>
+      </c>
+      <c r="L518">
         <f>IF(ISBLANK('Data Input'!L518),"",'Data Input'!L518)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M518" t="str">
         <f>IF(ISBLANK('Data Input'!M518),"",'Data Input'!M518)</f>
@@ -58764,57 +63948,57 @@
       </c>
       <c r="P518" t="b">
         <f>IF(ISBLANK('Data Input'!P518),"",'Data Input'!P518)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:16">
       <c r="A519">
         <f>IF(ISBLANK('Data Input'!A519),"",'Data Input'!A519)</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B519" t="str">
         <f>IF(ISBLANK('Data Input'!B519),"",'Data Input'!B519)</f>
-        <v/>
+        <v>JL139</v>
       </c>
       <c r="C519" t="str">
         <f>IF(ISBLANK('Data Input'!C519),"",'Data Input'!C519)</f>
-        <v/>
+        <v>7=22=18 1150</v>
       </c>
       <c r="D519" t="str">
         <f>IF(ISBLANK('Data Input'!D519),"",'Data Input'!D519)</f>
-        <v/>
-      </c>
-      <c r="E519" t="str">
+        <v>7=23=18</v>
+      </c>
+      <c r="E519">
         <f>IF(ISBLANK('Data Input'!E519),"",'Data Input'!E519)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F519" t="str">
         <f>IF(ISBLANK('Data Input'!F519),"",'Data Input'!F519)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G519" t="str">
         <f>IF(ISBLANK('Data Input'!G519),"",'Data Input'!G519)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H519" t="str">
         <f>IF(ISBLANK('Data Input'!H519),"",'Data Input'!H519)</f>
-        <v/>
+        <v>7=22=18 1753</v>
       </c>
       <c r="I519" t="str">
         <f>IF(ISBLANK('Data Input'!I519),"",'Data Input'!I519)</f>
-        <v/>
-      </c>
-      <c r="J519" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J519">
         <f>IF(ISBLANK('Data Input'!J519),"",'Data Input'!J519)</f>
-        <v/>
-      </c>
-      <c r="K519" t="str">
+        <v>800</v>
+      </c>
+      <c r="K519">
         <f>IF(ISBLANK('Data Input'!K519),"",'Data Input'!K519)</f>
-        <v/>
-      </c>
-      <c r="L519" t="str">
+        <v>5</v>
+      </c>
+      <c r="L519">
         <f>IF(ISBLANK('Data Input'!L519),"",'Data Input'!L519)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M519" t="str">
         <f>IF(ISBLANK('Data Input'!M519),"",'Data Input'!M519)</f>
@@ -58836,51 +64020,51 @@
     <row r="520" spans="1:16">
       <c r="A520">
         <f>IF(ISBLANK('Data Input'!A520),"",'Data Input'!A520)</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B520" t="str">
         <f>IF(ISBLANK('Data Input'!B520),"",'Data Input'!B520)</f>
-        <v/>
+        <v>JL139</v>
       </c>
       <c r="C520" t="str">
         <f>IF(ISBLANK('Data Input'!C520),"",'Data Input'!C520)</f>
-        <v/>
+        <v>7=22=18 1150</v>
       </c>
       <c r="D520" t="str">
         <f>IF(ISBLANK('Data Input'!D520),"",'Data Input'!D520)</f>
-        <v/>
-      </c>
-      <c r="E520" t="str">
+        <v>7=23=18</v>
+      </c>
+      <c r="E520">
         <f>IF(ISBLANK('Data Input'!E520),"",'Data Input'!E520)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F520" t="str">
         <f>IF(ISBLANK('Data Input'!F520),"",'Data Input'!F520)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G520" t="str">
         <f>IF(ISBLANK('Data Input'!G520),"",'Data Input'!G520)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H520" t="str">
         <f>IF(ISBLANK('Data Input'!H520),"",'Data Input'!H520)</f>
-        <v/>
+        <v>7=23=18 0620</v>
       </c>
       <c r="I520" t="str">
         <f>IF(ISBLANK('Data Input'!I520),"",'Data Input'!I520)</f>
-        <v/>
-      </c>
-      <c r="J520" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J520">
         <f>IF(ISBLANK('Data Input'!J520),"",'Data Input'!J520)</f>
-        <v/>
-      </c>
-      <c r="K520" t="str">
+        <v>800</v>
+      </c>
+      <c r="K520">
         <f>IF(ISBLANK('Data Input'!K520),"",'Data Input'!K520)</f>
-        <v/>
-      </c>
-      <c r="L520" t="str">
+        <v>3</v>
+      </c>
+      <c r="L520">
         <f>IF(ISBLANK('Data Input'!L520),"",'Data Input'!L520)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M520" t="str">
         <f>IF(ISBLANK('Data Input'!M520),"",'Data Input'!M520)</f>
@@ -58902,51 +64086,51 @@
     <row r="521" spans="1:16">
       <c r="A521">
         <f>IF(ISBLANK('Data Input'!A521),"",'Data Input'!A521)</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B521" t="str">
         <f>IF(ISBLANK('Data Input'!B521),"",'Data Input'!B521)</f>
-        <v/>
+        <v>JL139</v>
       </c>
       <c r="C521" t="str">
         <f>IF(ISBLANK('Data Input'!C521),"",'Data Input'!C521)</f>
-        <v/>
+        <v>7=22=18 1150</v>
       </c>
       <c r="D521" t="str">
         <f>IF(ISBLANK('Data Input'!D521),"",'Data Input'!D521)</f>
-        <v/>
-      </c>
-      <c r="E521" t="str">
+        <v>7=23=18</v>
+      </c>
+      <c r="E521">
         <f>IF(ISBLANK('Data Input'!E521),"",'Data Input'!E521)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F521" t="str">
         <f>IF(ISBLANK('Data Input'!F521),"",'Data Input'!F521)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G521" t="str">
         <f>IF(ISBLANK('Data Input'!G521),"",'Data Input'!G521)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H521" t="str">
         <f>IF(ISBLANK('Data Input'!H521),"",'Data Input'!H521)</f>
-        <v/>
+        <v>7=23=18 1021</v>
       </c>
       <c r="I521" t="str">
         <f>IF(ISBLANK('Data Input'!I521),"",'Data Input'!I521)</f>
-        <v/>
-      </c>
-      <c r="J521" t="str">
+        <v>tt - Tylenol</v>
+      </c>
+      <c r="J521">
         <f>IF(ISBLANK('Data Input'!J521),"",'Data Input'!J521)</f>
-        <v/>
-      </c>
-      <c r="K521" t="str">
+        <v>650</v>
+      </c>
+      <c r="K521">
         <f>IF(ISBLANK('Data Input'!K521),"",'Data Input'!K521)</f>
-        <v/>
-      </c>
-      <c r="L521" t="str">
+        <v>3</v>
+      </c>
+      <c r="L521">
         <f>IF(ISBLANK('Data Input'!L521),"",'Data Input'!L521)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M521" t="str">
         <f>IF(ISBLANK('Data Input'!M521),"",'Data Input'!M521)</f>
@@ -58968,51 +64152,51 @@
     <row r="522" spans="1:16">
       <c r="A522">
         <f>IF(ISBLANK('Data Input'!A522),"",'Data Input'!A522)</f>
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B522" t="str">
         <f>IF(ISBLANK('Data Input'!B522),"",'Data Input'!B522)</f>
-        <v/>
+        <v>LS140</v>
       </c>
       <c r="C522" t="str">
         <f>IF(ISBLANK('Data Input'!C522),"",'Data Input'!C522)</f>
-        <v/>
+        <v>7=22=18 0455</v>
       </c>
       <c r="D522" t="str">
         <f>IF(ISBLANK('Data Input'!D522),"",'Data Input'!D522)</f>
-        <v/>
-      </c>
-      <c r="E522" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E522">
         <f>IF(ISBLANK('Data Input'!E522),"",'Data Input'!E522)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F522" t="str">
         <f>IF(ISBLANK('Data Input'!F522),"",'Data Input'!F522)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G522" t="str">
         <f>IF(ISBLANK('Data Input'!G522),"",'Data Input'!G522)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H522" t="str">
         <f>IF(ISBLANK('Data Input'!H522),"",'Data Input'!H522)</f>
-        <v/>
+        <v>7=22=18 0537</v>
       </c>
       <c r="I522" t="str">
         <f>IF(ISBLANK('Data Input'!I522),"",'Data Input'!I522)</f>
-        <v/>
-      </c>
-      <c r="J522" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J522">
         <f>IF(ISBLANK('Data Input'!J522),"",'Data Input'!J522)</f>
-        <v/>
-      </c>
-      <c r="K522" t="str">
+        <v>800</v>
+      </c>
+      <c r="K522">
         <f>IF(ISBLANK('Data Input'!K522),"",'Data Input'!K522)</f>
-        <v/>
-      </c>
-      <c r="L522" t="str">
+        <v>8</v>
+      </c>
+      <c r="L522">
         <f>IF(ISBLANK('Data Input'!L522),"",'Data Input'!L522)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M522" t="str">
         <f>IF(ISBLANK('Data Input'!M522),"",'Data Input'!M522)</f>
@@ -59028,57 +64212,57 @@
       </c>
       <c r="P522" t="b">
         <f>IF(ISBLANK('Data Input'!P522),"",'Data Input'!P522)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:16">
       <c r="A523">
         <f>IF(ISBLANK('Data Input'!A523),"",'Data Input'!A523)</f>
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B523" t="str">
         <f>IF(ISBLANK('Data Input'!B523),"",'Data Input'!B523)</f>
-        <v/>
+        <v>LS140</v>
       </c>
       <c r="C523" t="str">
         <f>IF(ISBLANK('Data Input'!C523),"",'Data Input'!C523)</f>
-        <v/>
+        <v>7=22=18 0455</v>
       </c>
       <c r="D523" t="str">
         <f>IF(ISBLANK('Data Input'!D523),"",'Data Input'!D523)</f>
-        <v/>
-      </c>
-      <c r="E523" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E523">
         <f>IF(ISBLANK('Data Input'!E523),"",'Data Input'!E523)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F523" t="str">
         <f>IF(ISBLANK('Data Input'!F523),"",'Data Input'!F523)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G523" t="str">
         <f>IF(ISBLANK('Data Input'!G523),"",'Data Input'!G523)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H523" t="str">
         <f>IF(ISBLANK('Data Input'!H523),"",'Data Input'!H523)</f>
-        <v/>
+        <v>7=22=18 0537</v>
       </c>
       <c r="I523" t="str">
         <f>IF(ISBLANK('Data Input'!I523),"",'Data Input'!I523)</f>
-        <v/>
-      </c>
-      <c r="J523" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J523">
         <f>IF(ISBLANK('Data Input'!J523),"",'Data Input'!J523)</f>
-        <v/>
-      </c>
-      <c r="K523" t="str">
+        <v>2</v>
+      </c>
+      <c r="K523">
         <f>IF(ISBLANK('Data Input'!K523),"",'Data Input'!K523)</f>
-        <v/>
-      </c>
-      <c r="L523" t="str">
+        <v>8</v>
+      </c>
+      <c r="L523">
         <f>IF(ISBLANK('Data Input'!L523),"",'Data Input'!L523)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M523" t="str">
         <f>IF(ISBLANK('Data Input'!M523),"",'Data Input'!M523)</f>
@@ -59094,57 +64278,57 @@
       </c>
       <c r="P523" t="b">
         <f>IF(ISBLANK('Data Input'!P523),"",'Data Input'!P523)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:16">
       <c r="A524">
         <f>IF(ISBLANK('Data Input'!A524),"",'Data Input'!A524)</f>
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B524" t="str">
         <f>IF(ISBLANK('Data Input'!B524),"",'Data Input'!B524)</f>
-        <v/>
+        <v>LS140</v>
       </c>
       <c r="C524" t="str">
         <f>IF(ISBLANK('Data Input'!C524),"",'Data Input'!C524)</f>
-        <v/>
+        <v>7=22=18 0455</v>
       </c>
       <c r="D524" t="str">
         <f>IF(ISBLANK('Data Input'!D524),"",'Data Input'!D524)</f>
-        <v/>
-      </c>
-      <c r="E524" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E524">
         <f>IF(ISBLANK('Data Input'!E524),"",'Data Input'!E524)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F524" t="str">
         <f>IF(ISBLANK('Data Input'!F524),"",'Data Input'!F524)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G524" t="str">
         <f>IF(ISBLANK('Data Input'!G524),"",'Data Input'!G524)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H524" t="str">
         <f>IF(ISBLANK('Data Input'!H524),"",'Data Input'!H524)</f>
-        <v/>
+        <v>7=22=18 1625</v>
       </c>
       <c r="I524" t="str">
         <f>IF(ISBLANK('Data Input'!I524),"",'Data Input'!I524)</f>
-        <v/>
-      </c>
-      <c r="J524" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J524">
         <f>IF(ISBLANK('Data Input'!J524),"",'Data Input'!J524)</f>
-        <v/>
-      </c>
-      <c r="K524" t="str">
+        <v>800</v>
+      </c>
+      <c r="K524">
         <f>IF(ISBLANK('Data Input'!K524),"",'Data Input'!K524)</f>
-        <v/>
-      </c>
-      <c r="L524" t="str">
+        <v>7</v>
+      </c>
+      <c r="L524">
         <f>IF(ISBLANK('Data Input'!L524),"",'Data Input'!L524)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M524" t="str">
         <f>IF(ISBLANK('Data Input'!M524),"",'Data Input'!M524)</f>
@@ -59160,57 +64344,57 @@
       </c>
       <c r="P524" t="b">
         <f>IF(ISBLANK('Data Input'!P524),"",'Data Input'!P524)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:16">
       <c r="A525">
         <f>IF(ISBLANK('Data Input'!A525),"",'Data Input'!A525)</f>
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B525" t="str">
         <f>IF(ISBLANK('Data Input'!B525),"",'Data Input'!B525)</f>
-        <v/>
+        <v>LS140</v>
       </c>
       <c r="C525" t="str">
         <f>IF(ISBLANK('Data Input'!C525),"",'Data Input'!C525)</f>
-        <v/>
+        <v>7=22=18 0455</v>
       </c>
       <c r="D525" t="str">
         <f>IF(ISBLANK('Data Input'!D525),"",'Data Input'!D525)</f>
-        <v/>
-      </c>
-      <c r="E525" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E525">
         <f>IF(ISBLANK('Data Input'!E525),"",'Data Input'!E525)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F525" t="str">
         <f>IF(ISBLANK('Data Input'!F525),"",'Data Input'!F525)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G525" t="str">
         <f>IF(ISBLANK('Data Input'!G525),"",'Data Input'!G525)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H525" t="str">
         <f>IF(ISBLANK('Data Input'!H525),"",'Data Input'!H525)</f>
-        <v/>
+        <v>7=22=18 1625</v>
       </c>
       <c r="I525" t="str">
         <f>IF(ISBLANK('Data Input'!I525),"",'Data Input'!I525)</f>
-        <v/>
-      </c>
-      <c r="J525" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J525">
         <f>IF(ISBLANK('Data Input'!J525),"",'Data Input'!J525)</f>
-        <v/>
-      </c>
-      <c r="K525" t="str">
+        <v>1</v>
+      </c>
+      <c r="K525">
         <f>IF(ISBLANK('Data Input'!K525),"",'Data Input'!K525)</f>
-        <v/>
-      </c>
-      <c r="L525" t="str">
+        <v>7</v>
+      </c>
+      <c r="L525">
         <f>IF(ISBLANK('Data Input'!L525),"",'Data Input'!L525)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M525" t="str">
         <f>IF(ISBLANK('Data Input'!M525),"",'Data Input'!M525)</f>
@@ -59226,57 +64410,57 @@
       </c>
       <c r="P525" t="b">
         <f>IF(ISBLANK('Data Input'!P525),"",'Data Input'!P525)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:16">
       <c r="A526">
         <f>IF(ISBLANK('Data Input'!A526),"",'Data Input'!A526)</f>
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B526" t="str">
         <f>IF(ISBLANK('Data Input'!B526),"",'Data Input'!B526)</f>
-        <v/>
+        <v>LS140</v>
       </c>
       <c r="C526" t="str">
         <f>IF(ISBLANK('Data Input'!C526),"",'Data Input'!C526)</f>
-        <v/>
+        <v>7=22=18 0455</v>
       </c>
       <c r="D526" t="str">
         <f>IF(ISBLANK('Data Input'!D526),"",'Data Input'!D526)</f>
-        <v/>
-      </c>
-      <c r="E526" t="str">
+        <v>dd - Missing Data</v>
+      </c>
+      <c r="E526">
         <f>IF(ISBLANK('Data Input'!E526),"",'Data Input'!E526)</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="F526" t="str">
         <f>IF(ISBLANK('Data Input'!F526),"",'Data Input'!F526)</f>
-        <v/>
+        <v>bb - Black</v>
       </c>
       <c r="G526" t="str">
         <f>IF(ISBLANK('Data Input'!G526),"",'Data Input'!G526)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H526" t="str">
         <f>IF(ISBLANK('Data Input'!H526),"",'Data Input'!H526)</f>
-        <v/>
+        <v>7=23=18 0441</v>
       </c>
       <c r="I526" t="str">
         <f>IF(ISBLANK('Data Input'!I526),"",'Data Input'!I526)</f>
-        <v/>
-      </c>
-      <c r="J526" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J526">
         <f>IF(ISBLANK('Data Input'!J526),"",'Data Input'!J526)</f>
-        <v/>
-      </c>
-      <c r="K526" t="str">
+        <v>800</v>
+      </c>
+      <c r="K526">
         <f>IF(ISBLANK('Data Input'!K526),"",'Data Input'!K526)</f>
-        <v/>
-      </c>
-      <c r="L526" t="str">
+        <v>3</v>
+      </c>
+      <c r="L526">
         <f>IF(ISBLANK('Data Input'!L526),"",'Data Input'!L526)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M526" t="str">
         <f>IF(ISBLANK('Data Input'!M526),"",'Data Input'!M526)</f>
@@ -59292,57 +64476,57 @@
       </c>
       <c r="P526" t="b">
         <f>IF(ISBLANK('Data Input'!P526),"",'Data Input'!P526)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:16">
       <c r="A527">
         <f>IF(ISBLANK('Data Input'!A527),"",'Data Input'!A527)</f>
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B527" t="str">
         <f>IF(ISBLANK('Data Input'!B527),"",'Data Input'!B527)</f>
-        <v/>
+        <v>AH141</v>
       </c>
       <c r="C527" t="str">
         <f>IF(ISBLANK('Data Input'!C527),"",'Data Input'!C527)</f>
-        <v/>
+        <v>7=21=18 2000</v>
       </c>
       <c r="D527" t="str">
         <f>IF(ISBLANK('Data Input'!D527),"",'Data Input'!D527)</f>
-        <v/>
-      </c>
-      <c r="E527" t="str">
+        <v>7=22=18 1754</v>
+      </c>
+      <c r="E527">
         <f>IF(ISBLANK('Data Input'!E527),"",'Data Input'!E527)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F527" t="str">
         <f>IF(ISBLANK('Data Input'!F527),"",'Data Input'!F527)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G527" t="str">
         <f>IF(ISBLANK('Data Input'!G527),"",'Data Input'!G527)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H527" t="str">
         <f>IF(ISBLANK('Data Input'!H527),"",'Data Input'!H527)</f>
-        <v/>
+        <v>7=22=18 0110</v>
       </c>
       <c r="I527" t="str">
         <f>IF(ISBLANK('Data Input'!I527),"",'Data Input'!I527)</f>
-        <v/>
-      </c>
-      <c r="J527" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J527">
         <f>IF(ISBLANK('Data Input'!J527),"",'Data Input'!J527)</f>
-        <v/>
-      </c>
-      <c r="K527" t="str">
+        <v>800</v>
+      </c>
+      <c r="K527">
         <f>IF(ISBLANK('Data Input'!K527),"",'Data Input'!K527)</f>
-        <v/>
-      </c>
-      <c r="L527" t="str">
+        <v>7</v>
+      </c>
+      <c r="L527">
         <f>IF(ISBLANK('Data Input'!L527),"",'Data Input'!L527)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="M527" t="str">
         <f>IF(ISBLANK('Data Input'!M527),"",'Data Input'!M527)</f>
@@ -59364,51 +64548,51 @@
     <row r="528" spans="1:16">
       <c r="A528">
         <f>IF(ISBLANK('Data Input'!A528),"",'Data Input'!A528)</f>
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B528" t="str">
         <f>IF(ISBLANK('Data Input'!B528),"",'Data Input'!B528)</f>
-        <v/>
+        <v>AH141</v>
       </c>
       <c r="C528" t="str">
         <f>IF(ISBLANK('Data Input'!C528),"",'Data Input'!C528)</f>
-        <v/>
+        <v>7=21=18 2000</v>
       </c>
       <c r="D528" t="str">
         <f>IF(ISBLANK('Data Input'!D528),"",'Data Input'!D528)</f>
-        <v/>
-      </c>
-      <c r="E528" t="str">
+        <v>7=22=18 1754</v>
+      </c>
+      <c r="E528">
         <f>IF(ISBLANK('Data Input'!E528),"",'Data Input'!E528)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F528" t="str">
         <f>IF(ISBLANK('Data Input'!F528),"",'Data Input'!F528)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G528" t="str">
         <f>IF(ISBLANK('Data Input'!G528),"",'Data Input'!G528)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H528" t="str">
         <f>IF(ISBLANK('Data Input'!H528),"",'Data Input'!H528)</f>
-        <v/>
+        <v>7=22=18 1025</v>
       </c>
       <c r="I528" t="str">
         <f>IF(ISBLANK('Data Input'!I528),"",'Data Input'!I528)</f>
-        <v/>
-      </c>
-      <c r="J528" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J528">
         <f>IF(ISBLANK('Data Input'!J528),"",'Data Input'!J528)</f>
-        <v/>
-      </c>
-      <c r="K528" t="str">
+        <v>800</v>
+      </c>
+      <c r="K528">
         <f>IF(ISBLANK('Data Input'!K528),"",'Data Input'!K528)</f>
-        <v/>
-      </c>
-      <c r="L528" t="str">
+        <v>8</v>
+      </c>
+      <c r="L528">
         <f>IF(ISBLANK('Data Input'!L528),"",'Data Input'!L528)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M528" t="str">
         <f>IF(ISBLANK('Data Input'!M528),"",'Data Input'!M528)</f>
@@ -59430,51 +64614,51 @@
     <row r="529" spans="1:16">
       <c r="A529">
         <f>IF(ISBLANK('Data Input'!A529),"",'Data Input'!A529)</f>
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B529" t="str">
         <f>IF(ISBLANK('Data Input'!B529),"",'Data Input'!B529)</f>
-        <v/>
+        <v>AH141</v>
       </c>
       <c r="C529" t="str">
         <f>IF(ISBLANK('Data Input'!C529),"",'Data Input'!C529)</f>
-        <v/>
+        <v>7=21=18 2000</v>
       </c>
       <c r="D529" t="str">
         <f>IF(ISBLANK('Data Input'!D529),"",'Data Input'!D529)</f>
-        <v/>
-      </c>
-      <c r="E529" t="str">
+        <v>7=22=18 1754</v>
+      </c>
+      <c r="E529">
         <f>IF(ISBLANK('Data Input'!E529),"",'Data Input'!E529)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F529" t="str">
         <f>IF(ISBLANK('Data Input'!F529),"",'Data Input'!F529)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G529" t="str">
         <f>IF(ISBLANK('Data Input'!G529),"",'Data Input'!G529)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H529" t="str">
         <f>IF(ISBLANK('Data Input'!H529),"",'Data Input'!H529)</f>
-        <v/>
+        <v>7=22=18 1025</v>
       </c>
       <c r="I529" t="str">
         <f>IF(ISBLANK('Data Input'!I529),"",'Data Input'!I529)</f>
-        <v/>
-      </c>
-      <c r="J529" t="str">
+        <v>rr - Percocet</v>
+      </c>
+      <c r="J529">
         <f>IF(ISBLANK('Data Input'!J529),"",'Data Input'!J529)</f>
-        <v/>
-      </c>
-      <c r="K529" t="str">
+        <v>1</v>
+      </c>
+      <c r="K529">
         <f>IF(ISBLANK('Data Input'!K529),"",'Data Input'!K529)</f>
-        <v/>
-      </c>
-      <c r="L529" t="str">
+        <v>8</v>
+      </c>
+      <c r="L529">
         <f>IF(ISBLANK('Data Input'!L529),"",'Data Input'!L529)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M529" t="str">
         <f>IF(ISBLANK('Data Input'!M529),"",'Data Input'!M529)</f>
@@ -59496,51 +64680,51 @@
     <row r="530" spans="1:16">
       <c r="A530">
         <f>IF(ISBLANK('Data Input'!A530),"",'Data Input'!A530)</f>
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B530" t="str">
         <f>IF(ISBLANK('Data Input'!B530),"",'Data Input'!B530)</f>
-        <v/>
+        <v>AH141</v>
       </c>
       <c r="C530" t="str">
         <f>IF(ISBLANK('Data Input'!C530),"",'Data Input'!C530)</f>
-        <v/>
+        <v>7=21=18 2000</v>
       </c>
       <c r="D530" t="str">
         <f>IF(ISBLANK('Data Input'!D530),"",'Data Input'!D530)</f>
-        <v/>
-      </c>
-      <c r="E530" t="str">
+        <v>7=22=18 1754</v>
+      </c>
+      <c r="E530">
         <f>IF(ISBLANK('Data Input'!E530),"",'Data Input'!E530)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F530" t="str">
         <f>IF(ISBLANK('Data Input'!F530),"",'Data Input'!F530)</f>
-        <v/>
+        <v>White</v>
       </c>
       <c r="G530" t="str">
         <f>IF(ISBLANK('Data Input'!G530),"",'Data Input'!G530)</f>
-        <v/>
+        <v>SVD</v>
       </c>
       <c r="H530" t="str">
         <f>IF(ISBLANK('Data Input'!H530),"",'Data Input'!H530)</f>
-        <v/>
+        <v>7=22=18 1754</v>
       </c>
       <c r="I530" t="str">
         <f>IF(ISBLANK('Data Input'!I530),"",'Data Input'!I530)</f>
-        <v/>
-      </c>
-      <c r="J530" t="str">
+        <v>bb - Ibuprofen</v>
+      </c>
+      <c r="J530">
         <f>IF(ISBLANK('Data Input'!J530),"",'Data Input'!J530)</f>
-        <v/>
-      </c>
-      <c r="K530" t="str">
+        <v>800</v>
+      </c>
+      <c r="K530">
         <f>IF(ISBLANK('Data Input'!K530),"",'Data Input'!K530)</f>
-        <v/>
-      </c>
-      <c r="L530" t="str">
+        <v>7</v>
+      </c>
+      <c r="L530">
         <f>IF(ISBLANK('Data Input'!L530),"",'Data Input'!L530)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="M530" t="str">
         <f>IF(ISBLANK('Data Input'!M530),"",'Data Input'!M530)</f>
@@ -59561,17 +64745,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:P53 B56:P299">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$P2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:P54">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$P54=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:P55">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$P55=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
